--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D2C1A3-171E-4AA8-A0BA-857D04771493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030B6292-1F8F-41A0-9D24-AFBF8D947C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3CBDC61-49A2-4F1A-B36F-E6B6155AC246}"/>
   </bookViews>
@@ -30,6 +30,77 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>Контроллер</t>
+  </si>
+  <si>
+    <t>Auth</t>
+  </si>
+  <si>
+    <t>Методы</t>
+  </si>
+  <si>
+    <t>Заметки</t>
+  </si>
+  <si>
+    <t>databases</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>clone-session</t>
+  </si>
+  <si>
+    <t>impersonate</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>current-user</t>
+  </si>
+  <si>
+    <t>is-admin</t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
+    <t>Жуков Виктор</t>
+  </si>
+  <si>
+    <t>Добавлен? (1 - да)</t>
+  </si>
+  <si>
+    <t>Заблокирован отсутствием методов OrgStructure</t>
+  </si>
+  <si>
+    <t>converse-value</t>
+  </si>
+  <si>
+    <t>get-m-unit-list</t>
+  </si>
+  <si>
+    <t>sync-bo-data</t>
+  </si>
+  <si>
+    <t>get-product-from-bo</t>
+  </si>
+  <si>
+    <t>preview-bo-object</t>
+  </si>
+  <si>
+    <t>get-bo-versions</t>
+  </si>
+  <si>
+    <t>BoReference</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -42,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,14 +139,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -378,12 +539,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F716820-E5F0-4A1A-9110-7A3782A76D41}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$D1=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2C1BE3-8D6E-41AC-AD69-9E324668747F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WebApi" sheetId="1" r:id="rId1"/>
+    <sheet name="WebApiTests" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="496">
   <si>
     <t>Контроллер</t>
   </si>
@@ -1515,12 +1510,15 @@
   </si>
   <si>
     <t>get-type-state-access-2</t>
+  </si>
+  <si>
+    <t>MetaDataCustom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1711,6 +1709,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1719,21 +1739,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1753,21 +1758,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1784,14 +1782,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF9999"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF9999"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2117,11 +2115,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F471"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="C421" sqref="C421"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C405" sqref="C405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2128,7 @@
     <col min="2" max="2" width="52.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="77" style="4" customWidth="1"/>
     <col min="4" max="4" width="22.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30" style="17" customWidth="1"/>
+    <col min="5" max="5" width="30" style="11" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2147,7 +2145,7 @@
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2155,7 +2153,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2165,7 +2163,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -2173,7 +2171,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2181,13 +2179,13 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2195,13 +2193,13 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2209,13 +2207,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2223,13 +2221,13 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
@@ -2237,13 +2235,13 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
@@ -2251,13 +2249,13 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2267,7 +2265,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -2275,7 +2273,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
@@ -2283,61 +2281,61 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2345,7 +2343,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="5">
@@ -2353,211 +2351,211 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2565,7 +2563,7 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="5">
@@ -2573,163 +2571,163 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="11"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="11"/>
+      <c r="E40" s="19"/>
       <c r="F40" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="19"/>
       <c r="F41" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="11"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="11"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="11"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="11"/>
+      <c r="E45" s="19"/>
       <c r="F45" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="12"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2737,7 +2735,7 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F47" s="5">
@@ -2745,249 +2743,249 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="11"/>
+      <c r="E49" s="19"/>
       <c r="F49" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="11"/>
+      <c r="E50" s="19"/>
       <c r="F50" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="11"/>
+      <c r="E51" s="19"/>
       <c r="F51" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="11"/>
+      <c r="E52" s="19"/>
       <c r="F52" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="22" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="21" t="s">
+      <c r="E53" s="19"/>
+      <c r="F53" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="19"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="22"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="25"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="19"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="22"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="25"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="19"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="22"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="19"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="22"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="25"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="19"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="22"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="25"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="19"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="23"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="11"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="11"/>
+      <c r="E61" s="19"/>
       <c r="F61" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="11"/>
+      <c r="E62" s="19"/>
       <c r="F62" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+      <c r="A63" s="19"/>
       <c r="B63" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="11"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+      <c r="A64" s="19"/>
       <c r="B64" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="11"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="11"/>
+      <c r="E65" s="19"/>
       <c r="F65" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="11"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="11"/>
+      <c r="E67" s="19"/>
       <c r="F67" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="12"/>
+      <c r="E68" s="20"/>
       <c r="F68" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -2995,7 +2993,7 @@
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="18" t="s">
         <v>187</v>
       </c>
       <c r="F69" s="8">
@@ -3003,1313 +3001,1313 @@
       </c>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="11"/>
+      <c r="E70" s="19"/>
       <c r="F70" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
+      <c r="A71" s="19"/>
       <c r="B71" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="11"/>
+      <c r="E71" s="19"/>
       <c r="F71" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+      <c r="A72" s="19"/>
       <c r="B72" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="11"/>
+      <c r="E72" s="19"/>
       <c r="F72" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="11"/>
+      <c r="E73" s="19"/>
       <c r="F73" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="11"/>
+      <c r="E74" s="19"/>
       <c r="F74" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
+      <c r="A75" s="19"/>
       <c r="B75" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="11"/>
+      <c r="E75" s="19"/>
       <c r="F75" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
+      <c r="A76" s="19"/>
       <c r="B76" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="11"/>
+      <c r="E76" s="19"/>
       <c r="F76" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+      <c r="A77" s="19"/>
       <c r="B77" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="11"/>
+      <c r="E77" s="19"/>
       <c r="F77" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
+      <c r="A78" s="19"/>
       <c r="B78" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="11"/>
+      <c r="E78" s="19"/>
       <c r="F78" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
+      <c r="A79" s="19"/>
       <c r="B79" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="11"/>
+      <c r="E79" s="19"/>
       <c r="F79" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="11"/>
+      <c r="E80" s="19"/>
       <c r="F80" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="11"/>
+      <c r="E81" s="19"/>
       <c r="F81" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+      <c r="A82" s="19"/>
       <c r="B82" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="11"/>
+      <c r="E82" s="19"/>
       <c r="F82" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
+      <c r="A83" s="19"/>
       <c r="B83" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="11"/>
+      <c r="E83" s="19"/>
       <c r="F83" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+      <c r="A84" s="19"/>
       <c r="B84" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="11"/>
+      <c r="E84" s="19"/>
       <c r="F84" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
+      <c r="A85" s="19"/>
       <c r="B85" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="11"/>
+      <c r="E85" s="19"/>
       <c r="F85" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
+      <c r="A86" s="19"/>
       <c r="B86" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="11"/>
+      <c r="E86" s="19"/>
       <c r="F86" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
+      <c r="A87" s="19"/>
       <c r="B87" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="11"/>
+      <c r="E87" s="19"/>
       <c r="F87" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+      <c r="A88" s="19"/>
       <c r="B88" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="11"/>
+      <c r="E88" s="19"/>
       <c r="F88" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
+      <c r="A89" s="19"/>
       <c r="B89" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="11"/>
+      <c r="E89" s="19"/>
       <c r="F89" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
+      <c r="A90" s="19"/>
       <c r="B90" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="11"/>
+      <c r="E90" s="19"/>
       <c r="F90" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="19"/>
       <c r="B91" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="11"/>
+      <c r="E91" s="19"/>
       <c r="F91" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="11"/>
+      <c r="E92" s="19"/>
       <c r="F92" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
+      <c r="A93" s="19"/>
       <c r="B93" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="11"/>
+      <c r="E93" s="19"/>
       <c r="F93" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
+      <c r="A94" s="19"/>
       <c r="B94" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="11"/>
+      <c r="E94" s="19"/>
       <c r="F94" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
+      <c r="A95" s="19"/>
       <c r="B95" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="11"/>
+      <c r="E95" s="19"/>
       <c r="F95" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
+      <c r="A96" s="19"/>
       <c r="B96" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="11"/>
+      <c r="E96" s="19"/>
       <c r="F96" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
+      <c r="A97" s="19"/>
       <c r="B97" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="11"/>
+      <c r="E97" s="19"/>
       <c r="F97" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
+      <c r="A98" s="19"/>
       <c r="B98" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="11"/>
+      <c r="E98" s="19"/>
       <c r="F98" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
+      <c r="A99" s="19"/>
       <c r="B99" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="11"/>
+      <c r="E99" s="19"/>
       <c r="F99" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
+      <c r="A100" s="19"/>
       <c r="B100" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="11"/>
+      <c r="E100" s="19"/>
       <c r="F100" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
+      <c r="A101" s="19"/>
       <c r="B101" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="11"/>
+      <c r="E101" s="19"/>
       <c r="F101" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
+      <c r="A102" s="19"/>
       <c r="B102" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="11"/>
+      <c r="E102" s="19"/>
       <c r="F102" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
+      <c r="A103" s="19"/>
       <c r="B103" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="11"/>
+      <c r="E103" s="19"/>
       <c r="F103" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
+      <c r="A104" s="19"/>
       <c r="B104" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="11"/>
+      <c r="E104" s="19"/>
       <c r="F104" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
+      <c r="A105" s="19"/>
       <c r="B105" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="11"/>
+      <c r="E105" s="19"/>
       <c r="F105" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
+      <c r="A106" s="19"/>
       <c r="B106" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="11"/>
+      <c r="E106" s="19"/>
       <c r="F106" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
+      <c r="A107" s="19"/>
       <c r="B107" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="11"/>
+      <c r="E107" s="19"/>
       <c r="F107" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
+      <c r="A108" s="19"/>
       <c r="B108" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="11"/>
+      <c r="E108" s="19"/>
       <c r="F108" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
+      <c r="A109" s="19"/>
       <c r="B109" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="11"/>
+      <c r="E109" s="19"/>
       <c r="F109" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
+      <c r="A110" s="19"/>
       <c r="B110" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="11"/>
+      <c r="E110" s="19"/>
       <c r="F110" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
+      <c r="A111" s="19"/>
       <c r="B111" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="11"/>
+      <c r="E111" s="19"/>
       <c r="F111" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
+      <c r="A112" s="19"/>
       <c r="B112" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="11"/>
+      <c r="E112" s="19"/>
       <c r="F112" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
+      <c r="A113" s="19"/>
       <c r="B113" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="11"/>
+      <c r="E113" s="19"/>
       <c r="F113" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
+      <c r="A114" s="19"/>
       <c r="B114" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="11"/>
+      <c r="E114" s="19"/>
       <c r="F114" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
+      <c r="A115" s="19"/>
       <c r="B115" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="11"/>
+      <c r="E115" s="19"/>
       <c r="F115" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
+      <c r="A116" s="19"/>
       <c r="B116" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="11"/>
+      <c r="E116" s="19"/>
       <c r="F116" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
+      <c r="A117" s="19"/>
       <c r="B117" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="11"/>
+      <c r="E117" s="19"/>
       <c r="F117" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
+      <c r="A118" s="19"/>
       <c r="B118" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="11"/>
+      <c r="E118" s="19"/>
       <c r="F118" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
+      <c r="A119" s="19"/>
       <c r="B119" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="11"/>
+      <c r="E119" s="19"/>
       <c r="F119" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
+      <c r="A120" s="19"/>
       <c r="B120" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="11"/>
+      <c r="E120" s="19"/>
       <c r="F120" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
+      <c r="A121" s="19"/>
       <c r="B121" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="11"/>
+      <c r="E121" s="19"/>
       <c r="F121" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
+      <c r="A122" s="19"/>
       <c r="B122" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="11"/>
+      <c r="E122" s="19"/>
       <c r="F122" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
+      <c r="A123" s="19"/>
       <c r="B123" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="11"/>
+      <c r="E123" s="19"/>
       <c r="F123" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
+      <c r="A124" s="19"/>
       <c r="B124" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="11"/>
+      <c r="E124" s="19"/>
       <c r="F124" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
+      <c r="A125" s="19"/>
       <c r="B125" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="11"/>
+      <c r="E125" s="19"/>
       <c r="F125" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
+      <c r="A126" s="19"/>
       <c r="B126" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="11"/>
+      <c r="E126" s="19"/>
       <c r="F126" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
+      <c r="A127" s="19"/>
       <c r="B127" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="11"/>
+      <c r="E127" s="19"/>
       <c r="F127" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="11"/>
+      <c r="A128" s="19"/>
       <c r="B128" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="11"/>
+      <c r="E128" s="19"/>
       <c r="F128" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
+      <c r="A129" s="19"/>
       <c r="B129" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="11"/>
+      <c r="E129" s="19"/>
       <c r="F129" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
+      <c r="A130" s="19"/>
       <c r="B130" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="11"/>
+      <c r="E130" s="19"/>
       <c r="F130" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
+      <c r="A131" s="19"/>
       <c r="B131" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="11"/>
+      <c r="E131" s="19"/>
       <c r="F131" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="11"/>
+      <c r="A132" s="19"/>
       <c r="B132" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="11"/>
+      <c r="E132" s="19"/>
       <c r="F132" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
+      <c r="A133" s="19"/>
       <c r="B133" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="11"/>
+      <c r="E133" s="19"/>
       <c r="F133" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
+      <c r="A134" s="19"/>
       <c r="B134" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="11"/>
+      <c r="E134" s="19"/>
       <c r="F134" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
+      <c r="A135" s="19"/>
       <c r="B135" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="11"/>
+      <c r="E135" s="19"/>
       <c r="F135" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
+      <c r="A136" s="19"/>
       <c r="B136" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="11"/>
+      <c r="E136" s="19"/>
       <c r="F136" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
+      <c r="A137" s="19"/>
       <c r="B137" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="11"/>
+      <c r="E137" s="19"/>
       <c r="F137" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
+      <c r="A138" s="19"/>
       <c r="B138" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="11"/>
+      <c r="E138" s="19"/>
       <c r="F138" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
+      <c r="A139" s="19"/>
       <c r="B139" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="11"/>
+      <c r="E139" s="19"/>
       <c r="F139" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
+      <c r="A140" s="19"/>
       <c r="B140" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="11"/>
+      <c r="E140" s="19"/>
       <c r="F140" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
+      <c r="A141" s="19"/>
       <c r="B141" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="11"/>
+      <c r="E141" s="19"/>
       <c r="F141" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
+      <c r="A142" s="19"/>
       <c r="B142" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="11"/>
+      <c r="E142" s="19"/>
       <c r="F142" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
+      <c r="A143" s="19"/>
       <c r="B143" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="11"/>
+      <c r="E143" s="19"/>
       <c r="F143" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
+      <c r="A144" s="19"/>
       <c r="B144" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="11"/>
+      <c r="E144" s="19"/>
       <c r="F144" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="11"/>
+      <c r="A145" s="19"/>
       <c r="B145" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="11"/>
+      <c r="E145" s="19"/>
       <c r="F145" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="11"/>
+      <c r="A146" s="19"/>
       <c r="B146" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="11"/>
+      <c r="E146" s="19"/>
       <c r="F146" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
+      <c r="A147" s="19"/>
       <c r="B147" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="11"/>
+      <c r="E147" s="19"/>
       <c r="F147" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
+      <c r="A148" s="19"/>
       <c r="B148" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="11"/>
+      <c r="E148" s="19"/>
       <c r="F148" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
+      <c r="A149" s="19"/>
       <c r="B149" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="11"/>
+      <c r="E149" s="19"/>
       <c r="F149" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="11"/>
+      <c r="A150" s="19"/>
       <c r="B150" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="11"/>
+      <c r="E150" s="19"/>
       <c r="F150" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
+      <c r="A151" s="19"/>
       <c r="B151" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="11"/>
+      <c r="E151" s="19"/>
       <c r="F151" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="11"/>
+      <c r="A152" s="19"/>
       <c r="B152" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="11"/>
+      <c r="E152" s="19"/>
       <c r="F152" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
+      <c r="A153" s="19"/>
       <c r="B153" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="11"/>
+      <c r="E153" s="19"/>
       <c r="F153" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="11"/>
+      <c r="A154" s="19"/>
       <c r="B154" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="11"/>
+      <c r="E154" s="19"/>
       <c r="F154" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="11"/>
+      <c r="A155" s="19"/>
       <c r="B155" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="11"/>
+      <c r="E155" s="19"/>
       <c r="F155" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
+      <c r="A156" s="19"/>
       <c r="B156" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="11"/>
+      <c r="E156" s="19"/>
       <c r="F156" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
+      <c r="A157" s="19"/>
       <c r="B157" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="11"/>
+      <c r="E157" s="19"/>
       <c r="F157" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
+      <c r="A158" s="19"/>
       <c r="B158" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="11"/>
+      <c r="E158" s="19"/>
       <c r="F158" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="11"/>
+      <c r="A159" s="19"/>
       <c r="B159" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="11"/>
+      <c r="E159" s="19"/>
       <c r="F159" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
+      <c r="A160" s="19"/>
       <c r="B160" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="11"/>
+      <c r="E160" s="19"/>
       <c r="F160" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
+      <c r="A161" s="19"/>
       <c r="B161" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="11"/>
+      <c r="E161" s="19"/>
       <c r="F161" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
+      <c r="A162" s="19"/>
       <c r="B162" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="11"/>
+      <c r="E162" s="19"/>
       <c r="F162" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="11"/>
+      <c r="A163" s="19"/>
       <c r="B163" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="11"/>
+      <c r="E163" s="19"/>
       <c r="F163" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="11"/>
+      <c r="A164" s="19"/>
       <c r="B164" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="11"/>
+      <c r="E164" s="19"/>
       <c r="F164" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="11"/>
+      <c r="A165" s="19"/>
       <c r="B165" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="11"/>
+      <c r="E165" s="19"/>
       <c r="F165" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="11"/>
+      <c r="A166" s="19"/>
       <c r="B166" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="11"/>
+      <c r="E166" s="19"/>
       <c r="F166" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="11"/>
+      <c r="A167" s="19"/>
       <c r="B167" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="11"/>
+      <c r="E167" s="19"/>
       <c r="F167" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="11"/>
+      <c r="A168" s="19"/>
       <c r="B168" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="11"/>
+      <c r="E168" s="19"/>
       <c r="F168" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="11"/>
+      <c r="A169" s="19"/>
       <c r="B169" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="11"/>
+      <c r="E169" s="19"/>
       <c r="F169" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
+      <c r="A170" s="19"/>
       <c r="B170" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="11"/>
+      <c r="E170" s="19"/>
       <c r="F170" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="11"/>
+      <c r="A171" s="19"/>
       <c r="B171" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
-      <c r="E171" s="11"/>
+      <c r="E171" s="19"/>
       <c r="F171" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="11"/>
+      <c r="A172" s="19"/>
       <c r="B172" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="11"/>
+      <c r="E172" s="19"/>
       <c r="F172" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
+      <c r="A173" s="20"/>
       <c r="B173" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
-      <c r="E173" s="12"/>
+      <c r="E173" s="20"/>
       <c r="F173" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="10" t="s">
+      <c r="A174" s="18" t="s">
         <v>193</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D174" s="5"/>
-      <c r="E174" s="10" t="s">
+      <c r="E174" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F174" s="18" t="s">
+      <c r="F174" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="11"/>
+      <c r="A175" s="19"/>
       <c r="B175" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C175" s="19"/>
+      <c r="C175" s="22"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="11"/>
-      <c r="F175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="22"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="11"/>
+      <c r="A176" s="19"/>
       <c r="B176" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C176" s="19"/>
+      <c r="C176" s="22"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="22"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="11"/>
+      <c r="A177" s="19"/>
       <c r="B177" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C177" s="19"/>
+      <c r="C177" s="22"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="11"/>
-      <c r="F177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="22"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="12"/>
+      <c r="A178" s="20"/>
       <c r="B178" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C178" s="20"/>
+      <c r="C178" s="23"/>
       <c r="D178" s="6"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="23"/>
     </row>
     <row r="179" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="18" t="s">
         <v>194</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -4317,7 +4315,7 @@
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
-      <c r="E179" s="10" t="s">
+      <c r="E179" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F179" s="8">
@@ -4325,127 +4323,127 @@
       </c>
     </row>
     <row r="180" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="11"/>
+      <c r="A180" s="19"/>
       <c r="B180" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="11"/>
+      <c r="E180" s="19"/>
       <c r="F180" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="11"/>
+      <c r="A181" s="19"/>
       <c r="B181" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
-      <c r="E181" s="11"/>
+      <c r="E181" s="19"/>
       <c r="F181" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="11"/>
+      <c r="A182" s="19"/>
       <c r="B182" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="11"/>
+      <c r="E182" s="19"/>
       <c r="F182" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="11"/>
+      <c r="A183" s="19"/>
       <c r="B183" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
-      <c r="E183" s="11"/>
+      <c r="E183" s="19"/>
       <c r="F183" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="11"/>
+      <c r="A184" s="19"/>
       <c r="B184" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="11"/>
+      <c r="E184" s="19"/>
       <c r="F184" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="11"/>
+      <c r="A185" s="19"/>
       <c r="B185" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
-      <c r="E185" s="11"/>
+      <c r="E185" s="19"/>
       <c r="F185" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="11"/>
+      <c r="A186" s="19"/>
       <c r="B186" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
-      <c r="E186" s="11"/>
+      <c r="E186" s="19"/>
       <c r="F186" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="11"/>
+      <c r="A187" s="19"/>
       <c r="B187" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
-      <c r="E187" s="11"/>
+      <c r="E187" s="19"/>
       <c r="F187" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="11"/>
+      <c r="A188" s="19"/>
       <c r="B188" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="11"/>
+      <c r="E188" s="19"/>
       <c r="F188" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="12"/>
+      <c r="A189" s="20"/>
       <c r="B189" s="6" t="s">
         <v>205</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
-      <c r="E189" s="12"/>
+      <c r="E189" s="20"/>
       <c r="F189" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
+      <c r="A190" s="18" t="s">
         <v>206</v>
       </c>
       <c r="B190" s="5" t="s">
@@ -4453,7 +4451,7 @@
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
-      <c r="E190" s="10" t="s">
+      <c r="E190" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F190" s="8">
@@ -4461,91 +4459,91 @@
       </c>
     </row>
     <row r="191" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="11"/>
+      <c r="A191" s="19"/>
       <c r="B191" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
-      <c r="E191" s="11"/>
+      <c r="E191" s="19"/>
       <c r="F191" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="11"/>
+      <c r="A192" s="19"/>
       <c r="B192" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="11"/>
+      <c r="E192" s="19"/>
       <c r="F192" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="11"/>
+      <c r="A193" s="19"/>
       <c r="B193" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
-      <c r="E193" s="11"/>
+      <c r="E193" s="19"/>
       <c r="F193" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="11"/>
+      <c r="A194" s="19"/>
       <c r="B194" s="4" t="s">
         <v>211</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
-      <c r="E194" s="11"/>
+      <c r="E194" s="19"/>
       <c r="F194" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="11"/>
+      <c r="A195" s="19"/>
       <c r="B195" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
-      <c r="E195" s="11"/>
+      <c r="E195" s="19"/>
       <c r="F195" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="11"/>
+      <c r="A196" s="19"/>
       <c r="B196" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
-      <c r="E196" s="11"/>
+      <c r="E196" s="19"/>
       <c r="F196" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="12"/>
+      <c r="A197" s="20"/>
       <c r="B197" s="6" t="s">
         <v>213</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
-      <c r="E197" s="12"/>
+      <c r="E197" s="20"/>
       <c r="F197" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="27" t="s">
+    <row r="198" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B198" s="8" t="s">
@@ -4553,7 +4551,7 @@
       </c>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
-      <c r="E198" s="26" t="s">
+      <c r="E198" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F198" s="8">
@@ -4561,7 +4559,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="10" t="s">
+      <c r="A199" s="18" t="s">
         <v>216</v>
       </c>
       <c r="B199" s="5" t="s">
@@ -4569,7 +4567,7 @@
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
-      <c r="E199" s="10" t="s">
+      <c r="E199" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F199" s="8">
@@ -4577,175 +4575,175 @@
       </c>
     </row>
     <row r="200" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="11"/>
+      <c r="A200" s="19"/>
       <c r="B200" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
-      <c r="E200" s="11"/>
+      <c r="E200" s="19"/>
       <c r="F200" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="11"/>
+      <c r="A201" s="19"/>
       <c r="B201" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
-      <c r="E201" s="11"/>
+      <c r="E201" s="19"/>
       <c r="F201" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="11"/>
+      <c r="A202" s="19"/>
       <c r="B202" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="11"/>
+      <c r="E202" s="19"/>
       <c r="F202" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="11"/>
+      <c r="A203" s="19"/>
       <c r="B203" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="11"/>
+      <c r="E203" s="19"/>
       <c r="F203" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="11"/>
+      <c r="A204" s="19"/>
       <c r="B204" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="11"/>
+      <c r="E204" s="19"/>
       <c r="F204" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="11"/>
+      <c r="A205" s="19"/>
       <c r="B205" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
-      <c r="E205" s="11"/>
+      <c r="E205" s="19"/>
       <c r="F205" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="11"/>
+      <c r="A206" s="19"/>
       <c r="B206" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
-      <c r="E206" s="11"/>
+      <c r="E206" s="19"/>
       <c r="F206" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="11"/>
+      <c r="A207" s="19"/>
       <c r="B207" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
-      <c r="E207" s="11"/>
+      <c r="E207" s="19"/>
       <c r="F207" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="11"/>
+      <c r="A208" s="19"/>
       <c r="B208" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
-      <c r="E208" s="11"/>
+      <c r="E208" s="19"/>
       <c r="F208" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="11"/>
+      <c r="A209" s="19"/>
       <c r="B209" s="4" t="s">
         <v>227</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
-      <c r="E209" s="11"/>
+      <c r="E209" s="19"/>
       <c r="F209" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="11"/>
+      <c r="A210" s="19"/>
       <c r="B210" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
-      <c r="E210" s="11"/>
+      <c r="E210" s="19"/>
       <c r="F210" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="11"/>
+      <c r="A211" s="19"/>
       <c r="B211" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
-      <c r="E211" s="11"/>
+      <c r="E211" s="19"/>
       <c r="F211" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="11"/>
+      <c r="A212" s="19"/>
       <c r="B212" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
-      <c r="E212" s="11"/>
+      <c r="E212" s="19"/>
       <c r="F212" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="12"/>
+      <c r="A213" s="20"/>
       <c r="B213" s="6" t="s">
         <v>231</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
-      <c r="E213" s="12"/>
+      <c r="E213" s="20"/>
       <c r="F213" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="10" t="s">
+      <c r="A214" s="18" t="s">
         <v>232</v>
       </c>
       <c r="B214" s="5" t="s">
@@ -4753,7 +4751,7 @@
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
-      <c r="E214" s="10" t="s">
+      <c r="E214" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F214" s="8">
@@ -4761,163 +4759,163 @@
       </c>
     </row>
     <row r="215" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="11"/>
+      <c r="A215" s="19"/>
       <c r="B215" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
-      <c r="E215" s="11"/>
+      <c r="E215" s="19"/>
       <c r="F215" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="11"/>
+      <c r="A216" s="19"/>
       <c r="B216" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
-      <c r="E216" s="11"/>
+      <c r="E216" s="19"/>
       <c r="F216" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="11"/>
+      <c r="A217" s="19"/>
       <c r="B217" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
-      <c r="E217" s="11"/>
+      <c r="E217" s="19"/>
       <c r="F217" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="11"/>
+      <c r="A218" s="19"/>
       <c r="B218" s="4" t="s">
         <v>236</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
-      <c r="E218" s="11"/>
+      <c r="E218" s="19"/>
       <c r="F218" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="11"/>
+      <c r="A219" s="19"/>
       <c r="B219" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
-      <c r="E219" s="11"/>
+      <c r="E219" s="19"/>
       <c r="F219" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="11"/>
+      <c r="A220" s="19"/>
       <c r="B220" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
-      <c r="E220" s="11"/>
+      <c r="E220" s="19"/>
       <c r="F220" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="11"/>
+      <c r="A221" s="19"/>
       <c r="B221" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
-      <c r="E221" s="11"/>
+      <c r="E221" s="19"/>
       <c r="F221" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="11"/>
+      <c r="A222" s="19"/>
       <c r="B222" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
-      <c r="E222" s="11"/>
+      <c r="E222" s="19"/>
       <c r="F222" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="11"/>
+      <c r="A223" s="19"/>
       <c r="B223" s="4" t="s">
         <v>241</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
-      <c r="E223" s="11"/>
+      <c r="E223" s="19"/>
       <c r="F223" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="11"/>
+      <c r="A224" s="19"/>
       <c r="B224" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
-      <c r="E224" s="11"/>
+      <c r="E224" s="19"/>
       <c r="F224" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="11"/>
+      <c r="A225" s="19"/>
       <c r="B225" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
-      <c r="E225" s="11"/>
+      <c r="E225" s="19"/>
       <c r="F225" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="11"/>
+      <c r="A226" s="19"/>
       <c r="B226" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
-      <c r="E226" s="11"/>
+      <c r="E226" s="19"/>
       <c r="F226" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="12"/>
+      <c r="A227" s="20"/>
       <c r="B227" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
-      <c r="E227" s="12"/>
+      <c r="E227" s="20"/>
       <c r="F227" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="10" t="s">
+      <c r="A228" s="18" t="s">
         <v>246</v>
       </c>
       <c r="B228" s="5" t="s">
@@ -4925,7 +4923,7 @@
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
-      <c r="E228" s="10" t="s">
+      <c r="E228" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F228" s="8">
@@ -4933,295 +4931,295 @@
       </c>
     </row>
     <row r="229" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="11"/>
+      <c r="A229" s="19"/>
       <c r="B229" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
-      <c r="E229" s="11"/>
+      <c r="E229" s="19"/>
       <c r="F229" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="11"/>
+      <c r="A230" s="19"/>
       <c r="B230" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
-      <c r="E230" s="11"/>
+      <c r="E230" s="19"/>
       <c r="F230" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="11"/>
+      <c r="A231" s="19"/>
       <c r="B231" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
-      <c r="E231" s="11"/>
+      <c r="E231" s="19"/>
       <c r="F231" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="11"/>
+      <c r="A232" s="19"/>
       <c r="B232" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
-      <c r="E232" s="11"/>
+      <c r="E232" s="19"/>
       <c r="F232" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="11"/>
+      <c r="A233" s="19"/>
       <c r="B233" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
-      <c r="E233" s="11"/>
+      <c r="E233" s="19"/>
       <c r="F233" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="11"/>
+      <c r="A234" s="19"/>
       <c r="B234" s="4" t="s">
         <v>253</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
-      <c r="E234" s="11"/>
+      <c r="E234" s="19"/>
       <c r="F234" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="11"/>
+      <c r="A235" s="19"/>
       <c r="B235" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
-      <c r="E235" s="11"/>
+      <c r="E235" s="19"/>
       <c r="F235" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="11"/>
+      <c r="A236" s="19"/>
       <c r="B236" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
-      <c r="E236" s="11"/>
+      <c r="E236" s="19"/>
       <c r="F236" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="11"/>
+      <c r="A237" s="19"/>
       <c r="B237" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
-      <c r="E237" s="11"/>
+      <c r="E237" s="19"/>
       <c r="F237" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="11"/>
+      <c r="A238" s="19"/>
       <c r="B238" s="4" t="s">
         <v>257</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
-      <c r="E238" s="11"/>
+      <c r="E238" s="19"/>
       <c r="F238" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="11"/>
+      <c r="A239" s="19"/>
       <c r="B239" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
-      <c r="E239" s="11"/>
+      <c r="E239" s="19"/>
       <c r="F239" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="11"/>
+      <c r="A240" s="19"/>
       <c r="B240" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
-      <c r="E240" s="11"/>
+      <c r="E240" s="19"/>
       <c r="F240" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="11"/>
+      <c r="A241" s="19"/>
       <c r="B241" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
-      <c r="E241" s="11"/>
+      <c r="E241" s="19"/>
       <c r="F241" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="11"/>
+      <c r="A242" s="19"/>
       <c r="B242" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
-      <c r="E242" s="11"/>
+      <c r="E242" s="19"/>
       <c r="F242" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="11"/>
+      <c r="A243" s="19"/>
       <c r="B243" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
-      <c r="E243" s="11"/>
+      <c r="E243" s="19"/>
       <c r="F243" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="11"/>
+      <c r="A244" s="19"/>
       <c r="B244" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
-      <c r="E244" s="11"/>
+      <c r="E244" s="19"/>
       <c r="F244" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="11"/>
+      <c r="A245" s="19"/>
       <c r="B245" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
-      <c r="E245" s="11"/>
+      <c r="E245" s="19"/>
       <c r="F245" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="11"/>
+      <c r="A246" s="19"/>
       <c r="B246" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
-      <c r="E246" s="11"/>
+      <c r="E246" s="19"/>
       <c r="F246" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="11"/>
+      <c r="A247" s="19"/>
       <c r="B247" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
-      <c r="E247" s="11"/>
+      <c r="E247" s="19"/>
       <c r="F247" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="11"/>
+      <c r="A248" s="19"/>
       <c r="B248" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
-      <c r="E248" s="11"/>
+      <c r="E248" s="19"/>
       <c r="F248" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="11"/>
+      <c r="A249" s="19"/>
       <c r="B249" s="4" t="s">
         <v>268</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
-      <c r="E249" s="11"/>
+      <c r="E249" s="19"/>
       <c r="F249" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="11"/>
+      <c r="A250" s="19"/>
       <c r="B250" s="4" t="s">
         <v>269</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
-      <c r="E250" s="11"/>
+      <c r="E250" s="19"/>
       <c r="F250" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="11"/>
+      <c r="A251" s="19"/>
       <c r="B251" s="4" t="s">
         <v>270</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
-      <c r="E251" s="11"/>
+      <c r="E251" s="19"/>
       <c r="F251" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="11"/>
+      <c r="A252" s="19"/>
       <c r="B252" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
-      <c r="E252" s="11"/>
+      <c r="E252" s="19"/>
       <c r="F252" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="11"/>
+      <c r="A253" s="19"/>
       <c r="B253" s="4" t="s">
         <v>272</v>
       </c>
@@ -5229,697 +5227,697 @@
         <v>70</v>
       </c>
       <c r="D253" s="4"/>
-      <c r="E253" s="11"/>
-      <c r="F253" s="29" t="s">
+      <c r="E253" s="19"/>
+      <c r="F253" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="11"/>
+      <c r="A254" s="19"/>
       <c r="B254" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
-      <c r="E254" s="11"/>
+      <c r="E254" s="19"/>
       <c r="F254" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="11"/>
+      <c r="A255" s="19"/>
       <c r="B255" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
-      <c r="E255" s="11"/>
+      <c r="E255" s="19"/>
       <c r="F255" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="11"/>
+      <c r="A256" s="19"/>
       <c r="B256" s="4" t="s">
         <v>275</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
-      <c r="E256" s="11"/>
+      <c r="E256" s="19"/>
       <c r="F256" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="11"/>
+      <c r="A257" s="19"/>
       <c r="B257" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
-      <c r="E257" s="11"/>
+      <c r="E257" s="19"/>
       <c r="F257" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="11"/>
+      <c r="A258" s="19"/>
       <c r="B258" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
-      <c r="E258" s="11"/>
+      <c r="E258" s="19"/>
       <c r="F258" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="11"/>
+      <c r="A259" s="19"/>
       <c r="B259" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
-      <c r="E259" s="11"/>
+      <c r="E259" s="19"/>
       <c r="F259" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="11"/>
+      <c r="A260" s="19"/>
       <c r="B260" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
-      <c r="E260" s="11"/>
+      <c r="E260" s="19"/>
       <c r="F260" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="11"/>
+      <c r="A261" s="19"/>
       <c r="B261" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
-      <c r="E261" s="11"/>
+      <c r="E261" s="19"/>
       <c r="F261" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="11"/>
+      <c r="A262" s="19"/>
       <c r="B262" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
-      <c r="E262" s="11"/>
+      <c r="E262" s="19"/>
       <c r="F262" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="11"/>
+      <c r="A263" s="19"/>
       <c r="B263" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
-      <c r="E263" s="11"/>
+      <c r="E263" s="19"/>
       <c r="F263" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="11"/>
+      <c r="A264" s="19"/>
       <c r="B264" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
-      <c r="E264" s="11"/>
+      <c r="E264" s="19"/>
       <c r="F264" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="11"/>
+      <c r="A265" s="19"/>
       <c r="B265" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="11"/>
+      <c r="E265" s="19"/>
       <c r="F265" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="11"/>
+      <c r="A266" s="19"/>
       <c r="B266" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
-      <c r="E266" s="11"/>
+      <c r="E266" s="19"/>
       <c r="F266" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="11"/>
+      <c r="A267" s="19"/>
       <c r="B267" s="4" t="s">
         <v>286</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
-      <c r="E267" s="11"/>
+      <c r="E267" s="19"/>
       <c r="F267" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="11"/>
+      <c r="A268" s="19"/>
       <c r="B268" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
-      <c r="E268" s="11"/>
+      <c r="E268" s="19"/>
       <c r="F268" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="11"/>
+      <c r="A269" s="19"/>
       <c r="B269" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
-      <c r="E269" s="11"/>
+      <c r="E269" s="19"/>
       <c r="F269" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="11"/>
+      <c r="A270" s="19"/>
       <c r="B270" s="4" t="s">
         <v>289</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
-      <c r="E270" s="11"/>
+      <c r="E270" s="19"/>
       <c r="F270" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="11"/>
+      <c r="A271" s="19"/>
       <c r="B271" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
-      <c r="E271" s="11"/>
+      <c r="E271" s="19"/>
       <c r="F271" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="11"/>
+      <c r="A272" s="19"/>
       <c r="B272" s="4" t="s">
         <v>291</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
-      <c r="E272" s="11"/>
+      <c r="E272" s="19"/>
       <c r="F272" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="11"/>
+      <c r="A273" s="19"/>
       <c r="B273" s="4" t="s">
         <v>292</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
-      <c r="E273" s="11"/>
+      <c r="E273" s="19"/>
       <c r="F273" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="11"/>
+      <c r="A274" s="19"/>
       <c r="B274" s="4" t="s">
         <v>293</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
-      <c r="E274" s="11"/>
+      <c r="E274" s="19"/>
       <c r="F274" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="11"/>
+      <c r="A275" s="19"/>
       <c r="B275" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
-      <c r="E275" s="11"/>
+      <c r="E275" s="19"/>
       <c r="F275" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="11"/>
+      <c r="A276" s="19"/>
       <c r="B276" s="4" t="s">
         <v>295</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
-      <c r="E276" s="11"/>
+      <c r="E276" s="19"/>
       <c r="F276" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="11"/>
+      <c r="A277" s="19"/>
       <c r="B277" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
-      <c r="E277" s="11"/>
+      <c r="E277" s="19"/>
       <c r="F277" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="11"/>
+      <c r="A278" s="19"/>
       <c r="B278" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
-      <c r="E278" s="11"/>
+      <c r="E278" s="19"/>
       <c r="F278" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="11"/>
+      <c r="A279" s="19"/>
       <c r="B279" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
-      <c r="E279" s="11"/>
+      <c r="E279" s="19"/>
       <c r="F279" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="11"/>
+      <c r="A280" s="19"/>
       <c r="B280" s="4" t="s">
         <v>299</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
-      <c r="E280" s="11"/>
+      <c r="E280" s="19"/>
       <c r="F280" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="11"/>
+      <c r="A281" s="19"/>
       <c r="B281" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
-      <c r="E281" s="11"/>
+      <c r="E281" s="19"/>
       <c r="F281" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="11"/>
+      <c r="A282" s="19"/>
       <c r="B282" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
-      <c r="E282" s="11"/>
+      <c r="E282" s="19"/>
       <c r="F282" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="11"/>
+      <c r="A283" s="19"/>
       <c r="B283" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
-      <c r="E283" s="11"/>
+      <c r="E283" s="19"/>
       <c r="F283" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="11"/>
+      <c r="A284" s="19"/>
       <c r="B284" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
-      <c r="E284" s="11"/>
+      <c r="E284" s="19"/>
       <c r="F284" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="11"/>
+      <c r="A285" s="19"/>
       <c r="B285" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
-      <c r="E285" s="11"/>
+      <c r="E285" s="19"/>
       <c r="F285" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="11"/>
+      <c r="A286" s="19"/>
       <c r="B286" s="4" t="s">
         <v>305</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
-      <c r="E286" s="11"/>
+      <c r="E286" s="19"/>
       <c r="F286" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="11"/>
+      <c r="A287" s="19"/>
       <c r="B287" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
-      <c r="E287" s="11"/>
+      <c r="E287" s="19"/>
       <c r="F287" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="11"/>
+      <c r="A288" s="19"/>
       <c r="B288" s="4" t="s">
         <v>307</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
-      <c r="E288" s="11"/>
+      <c r="E288" s="19"/>
       <c r="F288" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="11"/>
+      <c r="A289" s="19"/>
       <c r="B289" s="4" t="s">
         <v>308</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
-      <c r="E289" s="11"/>
+      <c r="E289" s="19"/>
       <c r="F289" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="11"/>
+      <c r="A290" s="19"/>
       <c r="B290" s="4" t="s">
         <v>309</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
-      <c r="E290" s="11"/>
+      <c r="E290" s="19"/>
       <c r="F290" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="11"/>
+      <c r="A291" s="19"/>
       <c r="B291" s="4" t="s">
         <v>310</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
-      <c r="E291" s="11"/>
+      <c r="E291" s="19"/>
       <c r="F291" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="11"/>
+      <c r="A292" s="19"/>
       <c r="B292" s="4" t="s">
         <v>311</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
-      <c r="E292" s="11"/>
+      <c r="E292" s="19"/>
       <c r="F292" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="11"/>
+      <c r="A293" s="19"/>
       <c r="B293" s="4" t="s">
         <v>312</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
-      <c r="E293" s="11"/>
+      <c r="E293" s="19"/>
       <c r="F293" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="11"/>
+      <c r="A294" s="19"/>
       <c r="B294" s="4" t="s">
         <v>313</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
-      <c r="E294" s="11"/>
+      <c r="E294" s="19"/>
       <c r="F294" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="11"/>
+      <c r="A295" s="19"/>
       <c r="B295" s="4" t="s">
         <v>314</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
-      <c r="E295" s="11"/>
+      <c r="E295" s="19"/>
       <c r="F295" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="11"/>
+      <c r="A296" s="19"/>
       <c r="B296" s="4" t="s">
         <v>315</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
-      <c r="E296" s="11"/>
+      <c r="E296" s="19"/>
       <c r="F296" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="11"/>
+      <c r="A297" s="19"/>
       <c r="B297" s="4" t="s">
         <v>316</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
-      <c r="E297" s="11"/>
+      <c r="E297" s="19"/>
       <c r="F297" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="11"/>
+      <c r="A298" s="19"/>
       <c r="B298" s="4" t="s">
         <v>317</v>
       </c>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
-      <c r="E298" s="11"/>
+      <c r="E298" s="19"/>
       <c r="F298" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="11"/>
+      <c r="A299" s="19"/>
       <c r="B299" s="4" t="s">
         <v>318</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
-      <c r="E299" s="11"/>
+      <c r="E299" s="19"/>
       <c r="F299" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="11"/>
+      <c r="A300" s="19"/>
       <c r="B300" s="4" t="s">
         <v>319</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
-      <c r="E300" s="11"/>
+      <c r="E300" s="19"/>
       <c r="F300" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="11"/>
+      <c r="A301" s="19"/>
       <c r="B301" s="4" t="s">
         <v>320</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
-      <c r="E301" s="11"/>
+      <c r="E301" s="19"/>
       <c r="F301" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="11"/>
+      <c r="A302" s="19"/>
       <c r="B302" s="4" t="s">
         <v>321</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
-      <c r="E302" s="11"/>
+      <c r="E302" s="19"/>
       <c r="F302" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="11"/>
+      <c r="A303" s="19"/>
       <c r="B303" s="4" t="s">
         <v>322</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
-      <c r="E303" s="11"/>
+      <c r="E303" s="19"/>
       <c r="F303" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="11"/>
+      <c r="A304" s="19"/>
       <c r="B304" s="4" t="s">
         <v>323</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
-      <c r="E304" s="11"/>
+      <c r="E304" s="19"/>
       <c r="F304" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="11"/>
+      <c r="A305" s="19"/>
       <c r="B305" s="4" t="s">
         <v>324</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
-      <c r="E305" s="11"/>
+      <c r="E305" s="19"/>
       <c r="F305" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="11"/>
+      <c r="A306" s="19"/>
       <c r="B306" s="4" t="s">
         <v>325</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
-      <c r="E306" s="11"/>
+      <c r="E306" s="19"/>
       <c r="F306" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="11"/>
+      <c r="A307" s="19"/>
       <c r="B307" s="4" t="s">
         <v>326</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
-      <c r="E307" s="11"/>
+      <c r="E307" s="19"/>
       <c r="F307" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="11"/>
+      <c r="A308" s="19"/>
       <c r="B308" s="4" t="s">
         <v>327</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
-      <c r="E308" s="11"/>
+      <c r="E308" s="19"/>
       <c r="F308" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="11"/>
+      <c r="A309" s="19"/>
       <c r="B309" s="4" t="s">
         <v>328</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
-      <c r="E309" s="11"/>
+      <c r="E309" s="19"/>
       <c r="F309" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="12"/>
+      <c r="A310" s="20"/>
       <c r="B310" s="6" t="s">
         <v>329</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
-      <c r="E310" s="12"/>
+      <c r="E310" s="20"/>
       <c r="F310" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="10" t="s">
+      <c r="A311" s="18" t="s">
         <v>330</v>
       </c>
       <c r="B311" s="5" t="s">
@@ -5927,7 +5925,7 @@
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
-      <c r="E311" s="10" t="s">
+      <c r="E311" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F311" s="5">
@@ -5935,271 +5933,271 @@
       </c>
     </row>
     <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="11"/>
+      <c r="A312" s="19"/>
       <c r="B312" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
-      <c r="E312" s="11"/>
+      <c r="E312" s="19"/>
       <c r="F312" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="11"/>
+      <c r="A313" s="19"/>
       <c r="B313" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
-      <c r="E313" s="11"/>
+      <c r="E313" s="19"/>
       <c r="F313" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="11"/>
+      <c r="A314" s="19"/>
       <c r="B314" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
-      <c r="E314" s="11"/>
+      <c r="E314" s="19"/>
       <c r="F314" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="11"/>
+      <c r="A315" s="19"/>
       <c r="B315" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
-      <c r="E315" s="11"/>
+      <c r="E315" s="19"/>
       <c r="F315" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="11"/>
+      <c r="A316" s="19"/>
       <c r="B316" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
-      <c r="E316" s="11"/>
+      <c r="E316" s="19"/>
       <c r="F316" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="11"/>
+      <c r="A317" s="19"/>
       <c r="B317" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
-      <c r="E317" s="11"/>
+      <c r="E317" s="19"/>
       <c r="F317" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="11"/>
+      <c r="A318" s="19"/>
       <c r="B318" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
-      <c r="E318" s="11"/>
+      <c r="E318" s="19"/>
       <c r="F318" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="11"/>
+      <c r="A319" s="19"/>
       <c r="B319" s="4" t="s">
         <v>339</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
-      <c r="E319" s="11"/>
+      <c r="E319" s="19"/>
       <c r="F319" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="11"/>
+      <c r="A320" s="19"/>
       <c r="B320" s="4" t="s">
         <v>340</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
-      <c r="E320" s="11"/>
+      <c r="E320" s="19"/>
       <c r="F320" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="11"/>
+      <c r="A321" s="19"/>
       <c r="B321" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
-      <c r="E321" s="11"/>
+      <c r="E321" s="19"/>
       <c r="F321" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="11"/>
+      <c r="A322" s="19"/>
       <c r="B322" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
-      <c r="E322" s="11"/>
+      <c r="E322" s="19"/>
       <c r="F322" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="11"/>
+      <c r="A323" s="19"/>
       <c r="B323" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
-      <c r="E323" s="11"/>
+      <c r="E323" s="19"/>
       <c r="F323" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="11"/>
+      <c r="A324" s="19"/>
       <c r="B324" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
-      <c r="E324" s="11"/>
+      <c r="E324" s="19"/>
       <c r="F324" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="11"/>
+      <c r="A325" s="19"/>
       <c r="B325" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
-      <c r="E325" s="11"/>
+      <c r="E325" s="19"/>
       <c r="F325" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="11"/>
+      <c r="A326" s="19"/>
       <c r="B326" s="4" t="s">
         <v>346</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
-      <c r="E326" s="11"/>
+      <c r="E326" s="19"/>
       <c r="F326" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="11"/>
+      <c r="A327" s="19"/>
       <c r="B327" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
-      <c r="E327" s="11"/>
+      <c r="E327" s="19"/>
       <c r="F327" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="11"/>
+      <c r="A328" s="19"/>
       <c r="B328" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
-      <c r="E328" s="11"/>
+      <c r="E328" s="19"/>
       <c r="F328" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="11"/>
+      <c r="A329" s="19"/>
       <c r="B329" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
-      <c r="E329" s="11"/>
+      <c r="E329" s="19"/>
       <c r="F329" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="11"/>
+      <c r="A330" s="19"/>
       <c r="B330" s="4" t="s">
         <v>350</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
-      <c r="E330" s="11"/>
+      <c r="E330" s="19"/>
       <c r="F330" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="11"/>
+      <c r="A331" s="19"/>
       <c r="B331" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
-      <c r="E331" s="11"/>
+      <c r="E331" s="19"/>
       <c r="F331" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="11"/>
+      <c r="A332" s="19"/>
       <c r="B332" s="4" t="s">
         <v>352</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
-      <c r="E332" s="11"/>
+      <c r="E332" s="19"/>
       <c r="F332" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="12"/>
+      <c r="A333" s="20"/>
       <c r="B333" s="6" t="s">
         <v>353</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
-      <c r="E333" s="12"/>
+      <c r="E333" s="20"/>
       <c r="F333" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="10" t="s">
+      <c r="A334" s="18" t="s">
         <v>354</v>
       </c>
       <c r="B334" s="4" t="s">
@@ -6207,7 +6205,7 @@
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
-      <c r="E334" s="10" t="s">
+      <c r="E334" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F334" s="8">
@@ -6215,19 +6213,19 @@
       </c>
     </row>
     <row r="335" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="11"/>
+      <c r="A335" s="19"/>
       <c r="B335" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
-      <c r="E335" s="11"/>
+      <c r="E335" s="19"/>
       <c r="F335" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="11"/>
+      <c r="A336" s="19"/>
       <c r="B336" s="4" t="s">
         <v>357</v>
       </c>
@@ -6235,37 +6233,37 @@
         <v>70</v>
       </c>
       <c r="D336" s="4"/>
-      <c r="E336" s="11"/>
-      <c r="F336" s="28" t="s">
+      <c r="E336" s="19"/>
+      <c r="F336" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="337" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="11"/>
+      <c r="A337" s="19"/>
       <c r="B337" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
-      <c r="E337" s="11"/>
+      <c r="E337" s="19"/>
       <c r="F337" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="12"/>
+      <c r="A338" s="20"/>
       <c r="B338" s="6" t="s">
         <v>359</v>
       </c>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
-      <c r="E338" s="12"/>
+      <c r="E338" s="20"/>
       <c r="F338" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="24" t="s">
+    <row r="339" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="12" t="s">
         <v>360</v>
       </c>
       <c r="B339" s="8" t="s">
@@ -6273,15 +6271,15 @@
       </c>
       <c r="C339" s="8"/>
       <c r="D339" s="8"/>
-      <c r="E339" s="26" t="s">
+      <c r="E339" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F339" s="8">
         <v>-1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="24" t="s">
+    <row r="340" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="12" t="s">
         <v>362</v>
       </c>
       <c r="B340" s="8" t="s">
@@ -6289,7 +6287,7 @@
       </c>
       <c r="C340" s="8"/>
       <c r="D340" s="8"/>
-      <c r="E340" s="26" t="s">
+      <c r="E340" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F340" s="8">
@@ -6297,7 +6295,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="10" t="s">
+      <c r="A341" s="18" t="s">
         <v>364</v>
       </c>
       <c r="B341" s="5" t="s">
@@ -6305,7 +6303,7 @@
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
-      <c r="E341" s="10" t="s">
+      <c r="E341" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F341" s="8">
@@ -6313,187 +6311,187 @@
       </c>
     </row>
     <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="11"/>
+      <c r="A342" s="19"/>
       <c r="B342" s="4" t="s">
         <v>366</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
-      <c r="E342" s="11"/>
+      <c r="E342" s="19"/>
       <c r="F342" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="11"/>
+      <c r="A343" s="19"/>
       <c r="B343" s="4" t="s">
         <v>367</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
-      <c r="E343" s="11"/>
+      <c r="E343" s="19"/>
       <c r="F343" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="11"/>
+      <c r="A344" s="19"/>
       <c r="B344" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
-      <c r="E344" s="11"/>
+      <c r="E344" s="19"/>
       <c r="F344" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="11"/>
+      <c r="A345" s="19"/>
       <c r="B345" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
-      <c r="E345" s="11"/>
+      <c r="E345" s="19"/>
       <c r="F345" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="11"/>
+      <c r="A346" s="19"/>
       <c r="B346" s="4" t="s">
         <v>370</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
-      <c r="E346" s="11"/>
+      <c r="E346" s="19"/>
       <c r="F346" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="11"/>
+      <c r="A347" s="19"/>
       <c r="B347" s="4" t="s">
         <v>371</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
-      <c r="E347" s="11"/>
+      <c r="E347" s="19"/>
       <c r="F347" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="11"/>
+      <c r="A348" s="19"/>
       <c r="B348" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
-      <c r="E348" s="11"/>
+      <c r="E348" s="19"/>
       <c r="F348" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="11"/>
+      <c r="A349" s="19"/>
       <c r="B349" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
-      <c r="E349" s="11"/>
+      <c r="E349" s="19"/>
       <c r="F349" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="11"/>
+      <c r="A350" s="19"/>
       <c r="B350" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
-      <c r="E350" s="11"/>
+      <c r="E350" s="19"/>
       <c r="F350" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="11"/>
+      <c r="A351" s="19"/>
       <c r="B351" s="4" t="s">
         <v>375</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
-      <c r="E351" s="11"/>
+      <c r="E351" s="19"/>
       <c r="F351" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="11"/>
+      <c r="A352" s="19"/>
       <c r="B352" s="4" t="s">
         <v>376</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
-      <c r="E352" s="11"/>
+      <c r="E352" s="19"/>
       <c r="F352" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="11"/>
+      <c r="A353" s="19"/>
       <c r="B353" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
-      <c r="E353" s="11"/>
+      <c r="E353" s="19"/>
       <c r="F353" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="11"/>
+      <c r="A354" s="19"/>
       <c r="B354" s="4" t="s">
         <v>378</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
-      <c r="E354" s="11"/>
+      <c r="E354" s="19"/>
       <c r="F354" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="11"/>
+      <c r="A355" s="19"/>
       <c r="B355" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
-      <c r="E355" s="11"/>
+      <c r="E355" s="19"/>
       <c r="F355" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="12"/>
+      <c r="A356" s="20"/>
       <c r="B356" s="6" t="s">
         <v>380</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
-      <c r="E356" s="12"/>
+      <c r="E356" s="20"/>
       <c r="F356" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="10" t="s">
+      <c r="A357" s="18" t="s">
         <v>381</v>
       </c>
       <c r="B357" s="5" t="s">
@@ -6501,7 +6499,7 @@
       </c>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
-      <c r="E357" s="10" t="s">
+      <c r="E357" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F357" s="8">
@@ -6509,379 +6507,379 @@
       </c>
     </row>
     <row r="358" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="11"/>
+      <c r="A358" s="19"/>
       <c r="B358" s="4" t="s">
         <v>383</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
-      <c r="E358" s="11"/>
+      <c r="E358" s="19"/>
       <c r="F358" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="11"/>
+      <c r="A359" s="19"/>
       <c r="B359" s="4" t="s">
         <v>384</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
-      <c r="E359" s="11"/>
+      <c r="E359" s="19"/>
       <c r="F359" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="11"/>
+      <c r="A360" s="19"/>
       <c r="B360" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
-      <c r="E360" s="11"/>
+      <c r="E360" s="19"/>
       <c r="F360" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="11"/>
+      <c r="A361" s="19"/>
       <c r="B361" s="4" t="s">
         <v>386</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
-      <c r="E361" s="11"/>
+      <c r="E361" s="19"/>
       <c r="F361" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="11"/>
+      <c r="A362" s="19"/>
       <c r="B362" s="4" t="s">
         <v>387</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
-      <c r="E362" s="11"/>
+      <c r="E362" s="19"/>
       <c r="F362" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="11"/>
+      <c r="A363" s="19"/>
       <c r="B363" s="4" t="s">
         <v>388</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
-      <c r="E363" s="11"/>
+      <c r="E363" s="19"/>
       <c r="F363" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="11"/>
+      <c r="A364" s="19"/>
       <c r="B364" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
-      <c r="E364" s="11"/>
+      <c r="E364" s="19"/>
       <c r="F364" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="11"/>
+      <c r="A365" s="19"/>
       <c r="B365" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
-      <c r="E365" s="11"/>
+      <c r="E365" s="19"/>
       <c r="F365" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="11"/>
+      <c r="A366" s="19"/>
       <c r="B366" s="4" t="s">
         <v>391</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
-      <c r="E366" s="11"/>
+      <c r="E366" s="19"/>
       <c r="F366" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="11"/>
+      <c r="A367" s="19"/>
       <c r="B367" s="4" t="s">
         <v>392</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
-      <c r="E367" s="11"/>
+      <c r="E367" s="19"/>
       <c r="F367" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="11"/>
+      <c r="A368" s="19"/>
       <c r="B368" s="4" t="s">
         <v>393</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
-      <c r="E368" s="11"/>
+      <c r="E368" s="19"/>
       <c r="F368" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="11"/>
+      <c r="A369" s="19"/>
       <c r="B369" s="4" t="s">
         <v>394</v>
       </c>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
-      <c r="E369" s="11"/>
+      <c r="E369" s="19"/>
       <c r="F369" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="11"/>
+      <c r="A370" s="19"/>
       <c r="B370" s="4" t="s">
         <v>395</v>
       </c>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
-      <c r="E370" s="11"/>
+      <c r="E370" s="19"/>
       <c r="F370" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="11"/>
+      <c r="A371" s="19"/>
       <c r="B371" s="4" t="s">
         <v>396</v>
       </c>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
-      <c r="E371" s="11"/>
+      <c r="E371" s="19"/>
       <c r="F371" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="11"/>
+      <c r="A372" s="19"/>
       <c r="B372" s="4" t="s">
         <v>397</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
-      <c r="E372" s="11"/>
+      <c r="E372" s="19"/>
       <c r="F372" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="11"/>
+      <c r="A373" s="19"/>
       <c r="B373" s="4" t="s">
         <v>398</v>
       </c>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
-      <c r="E373" s="11"/>
+      <c r="E373" s="19"/>
       <c r="F373" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="11"/>
+      <c r="A374" s="19"/>
       <c r="B374" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
-      <c r="E374" s="11"/>
+      <c r="E374" s="19"/>
       <c r="F374" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="11"/>
+      <c r="A375" s="19"/>
       <c r="B375" s="4" t="s">
         <v>400</v>
       </c>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
-      <c r="E375" s="11"/>
+      <c r="E375" s="19"/>
       <c r="F375" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="11"/>
+      <c r="A376" s="19"/>
       <c r="B376" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
-      <c r="E376" s="11"/>
+      <c r="E376" s="19"/>
       <c r="F376" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="11"/>
+      <c r="A377" s="19"/>
       <c r="B377" s="4" t="s">
         <v>402</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
-      <c r="E377" s="11"/>
+      <c r="E377" s="19"/>
       <c r="F377" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="11"/>
+      <c r="A378" s="19"/>
       <c r="B378" s="4" t="s">
         <v>403</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
-      <c r="E378" s="11"/>
+      <c r="E378" s="19"/>
       <c r="F378" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="11"/>
+      <c r="A379" s="19"/>
       <c r="B379" s="4" t="s">
         <v>404</v>
       </c>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
-      <c r="E379" s="11"/>
+      <c r="E379" s="19"/>
       <c r="F379" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="11"/>
+      <c r="A380" s="19"/>
       <c r="B380" s="4" t="s">
         <v>405</v>
       </c>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
-      <c r="E380" s="11"/>
+      <c r="E380" s="19"/>
       <c r="F380" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="11"/>
+      <c r="A381" s="19"/>
       <c r="B381" s="4" t="s">
         <v>406</v>
       </c>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
-      <c r="E381" s="11"/>
+      <c r="E381" s="19"/>
       <c r="F381" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="11"/>
+      <c r="A382" s="19"/>
       <c r="B382" s="4" t="s">
         <v>407</v>
       </c>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
-      <c r="E382" s="11"/>
+      <c r="E382" s="19"/>
       <c r="F382" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="11"/>
+      <c r="A383" s="19"/>
       <c r="B383" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
-      <c r="E383" s="11"/>
+      <c r="E383" s="19"/>
       <c r="F383" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="11"/>
+      <c r="A384" s="19"/>
       <c r="B384" s="4" t="s">
         <v>409</v>
       </c>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
-      <c r="E384" s="11"/>
+      <c r="E384" s="19"/>
       <c r="F384" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="11"/>
+      <c r="A385" s="19"/>
       <c r="B385" s="4" t="s">
         <v>410</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
-      <c r="E385" s="11"/>
+      <c r="E385" s="19"/>
       <c r="F385" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="11"/>
+      <c r="A386" s="19"/>
       <c r="B386" s="4" t="s">
         <v>411</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
-      <c r="E386" s="11"/>
+      <c r="E386" s="19"/>
       <c r="F386" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="11"/>
+      <c r="A387" s="19"/>
       <c r="B387" s="4" t="s">
         <v>412</v>
       </c>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
-      <c r="E387" s="11"/>
+      <c r="E387" s="19"/>
       <c r="F387" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="12"/>
+      <c r="A388" s="20"/>
       <c r="B388" s="6" t="s">
         <v>413</v>
       </c>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
-      <c r="E388" s="12"/>
+      <c r="E388" s="20"/>
       <c r="F388" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="10" t="s">
+      <c r="A389" s="18" t="s">
         <v>414</v>
       </c>
       <c r="B389" s="5" t="s">
@@ -6889,7 +6887,7 @@
       </c>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
-      <c r="E389" s="10" t="s">
+      <c r="E389" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F389" s="8">
@@ -6897,19 +6895,19 @@
       </c>
     </row>
     <row r="390" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="11"/>
+      <c r="A390" s="19"/>
       <c r="B390" s="4" t="s">
         <v>416</v>
       </c>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
-      <c r="E390" s="11"/>
+      <c r="E390" s="19"/>
       <c r="F390" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="11"/>
+      <c r="A391" s="19"/>
       <c r="B391" s="4" t="s">
         <v>417</v>
       </c>
@@ -6917,49 +6915,49 @@
         <v>70</v>
       </c>
       <c r="D391" s="4"/>
-      <c r="E391" s="11"/>
-      <c r="F391" s="28" t="s">
+      <c r="E391" s="19"/>
+      <c r="F391" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="392" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="11"/>
+      <c r="A392" s="19"/>
       <c r="B392" s="4" t="s">
         <v>418</v>
       </c>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
-      <c r="E392" s="11"/>
+      <c r="E392" s="19"/>
       <c r="F392" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="11"/>
+      <c r="A393" s="19"/>
       <c r="B393" s="4" t="s">
         <v>419</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
-      <c r="E393" s="11"/>
+      <c r="E393" s="19"/>
       <c r="F393" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="12"/>
+      <c r="A394" s="20"/>
       <c r="B394" s="6" t="s">
         <v>420</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
-      <c r="E394" s="12"/>
+      <c r="E394" s="20"/>
       <c r="F394" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="10" t="s">
+      <c r="A395" s="18" t="s">
         <v>421</v>
       </c>
       <c r="B395" s="5" t="s">
@@ -6967,7 +6965,7 @@
       </c>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
-      <c r="E395" s="10" t="s">
+      <c r="E395" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F395" s="8">
@@ -6975,55 +6973,55 @@
       </c>
     </row>
     <row r="396" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="11"/>
+      <c r="A396" s="19"/>
       <c r="B396" s="4" t="s">
         <v>423</v>
       </c>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
-      <c r="E396" s="11"/>
+      <c r="E396" s="19"/>
       <c r="F396" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="11"/>
+      <c r="A397" s="19"/>
       <c r="B397" s="4" t="s">
         <v>424</v>
       </c>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
-      <c r="E397" s="11"/>
+      <c r="E397" s="19"/>
       <c r="F397" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="11"/>
+      <c r="A398" s="19"/>
       <c r="B398" s="4" t="s">
         <v>425</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
-      <c r="E398" s="11"/>
+      <c r="E398" s="19"/>
       <c r="F398" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="12"/>
+      <c r="A399" s="20"/>
       <c r="B399" s="6" t="s">
         <v>426</v>
       </c>
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
-      <c r="E399" s="12"/>
+      <c r="E399" s="20"/>
       <c r="F399" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="10" t="s">
+      <c r="A400" s="18" t="s">
         <v>427</v>
       </c>
       <c r="B400" s="5" t="s">
@@ -7031,7 +7029,7 @@
       </c>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
-      <c r="E400" s="10" t="s">
+      <c r="E400" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F400" s="8">
@@ -7039,43 +7037,43 @@
       </c>
     </row>
     <row r="401" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="11"/>
+      <c r="A401" s="19"/>
       <c r="B401" s="4" t="s">
         <v>429</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
-      <c r="E401" s="11"/>
+      <c r="E401" s="19"/>
       <c r="F401" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="11"/>
+      <c r="A402" s="19"/>
       <c r="B402" s="4" t="s">
         <v>430</v>
       </c>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
-      <c r="E402" s="11"/>
+      <c r="E402" s="19"/>
       <c r="F402" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="403" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="12"/>
+      <c r="A403" s="20"/>
       <c r="B403" s="6" t="s">
         <v>431</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
-      <c r="E403" s="12"/>
+      <c r="E403" s="20"/>
       <c r="F403" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="404" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="10" t="s">
+      <c r="A404" s="18" t="s">
         <v>432</v>
       </c>
       <c r="B404" s="5" t="s">
@@ -7083,7 +7081,7 @@
       </c>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
-      <c r="E404" s="10" t="s">
+      <c r="E404" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F404" s="8">
@@ -7091,199 +7089,199 @@
       </c>
     </row>
     <row r="405" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="11"/>
+      <c r="A405" s="19"/>
       <c r="B405" s="4" t="s">
         <v>434</v>
       </c>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
-      <c r="E405" s="11"/>
+      <c r="E405" s="19"/>
       <c r="F405" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="11"/>
+      <c r="A406" s="19"/>
       <c r="B406" s="4" t="s">
         <v>435</v>
       </c>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
-      <c r="E406" s="11"/>
+      <c r="E406" s="19"/>
       <c r="F406" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="11"/>
+      <c r="A407" s="19"/>
       <c r="B407" s="4" t="s">
         <v>436</v>
       </c>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
-      <c r="E407" s="11"/>
+      <c r="E407" s="19"/>
       <c r="F407" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="11"/>
+      <c r="A408" s="19"/>
       <c r="B408" s="4" t="s">
         <v>437</v>
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
-      <c r="E408" s="11"/>
+      <c r="E408" s="19"/>
       <c r="F408" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="11"/>
+      <c r="A409" s="19"/>
       <c r="B409" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
-      <c r="E409" s="11"/>
+      <c r="E409" s="19"/>
       <c r="F409" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="11"/>
+      <c r="A410" s="19"/>
       <c r="B410" s="4" t="s">
         <v>439</v>
       </c>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
-      <c r="E410" s="11"/>
+      <c r="E410" s="19"/>
       <c r="F410" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="11"/>
+      <c r="A411" s="19"/>
       <c r="B411" s="4" t="s">
         <v>440</v>
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
-      <c r="E411" s="11"/>
+      <c r="E411" s="19"/>
       <c r="F411" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="11"/>
+      <c r="A412" s="19"/>
       <c r="B412" s="4" t="s">
         <v>441</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
-      <c r="E412" s="11"/>
+      <c r="E412" s="19"/>
       <c r="F412" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="11"/>
+      <c r="A413" s="19"/>
       <c r="B413" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
-      <c r="E413" s="11"/>
+      <c r="E413" s="19"/>
       <c r="F413" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="11"/>
+      <c r="A414" s="19"/>
       <c r="B414" s="4" t="s">
         <v>443</v>
       </c>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
-      <c r="E414" s="11"/>
+      <c r="E414" s="19"/>
       <c r="F414" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="11"/>
+      <c r="A415" s="19"/>
       <c r="B415" s="4" t="s">
         <v>444</v>
       </c>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
-      <c r="E415" s="11"/>
+      <c r="E415" s="19"/>
       <c r="F415" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="11"/>
+      <c r="A416" s="19"/>
       <c r="B416" s="4" t="s">
         <v>445</v>
       </c>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
-      <c r="E416" s="11"/>
+      <c r="E416" s="19"/>
       <c r="F416" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="11"/>
+      <c r="A417" s="19"/>
       <c r="B417" s="4" t="s">
         <v>446</v>
       </c>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
-      <c r="E417" s="11"/>
+      <c r="E417" s="19"/>
       <c r="F417" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="11"/>
+      <c r="A418" s="19"/>
       <c r="B418" s="4" t="s">
         <v>447</v>
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
-      <c r="E418" s="11"/>
+      <c r="E418" s="19"/>
       <c r="F418" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="11"/>
+      <c r="A419" s="19"/>
       <c r="B419" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
-      <c r="E419" s="11"/>
+      <c r="E419" s="19"/>
       <c r="F419" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="12"/>
+      <c r="A420" s="20"/>
       <c r="B420" s="6" t="s">
         <v>448</v>
       </c>
       <c r="C420" s="6"/>
       <c r="D420" s="6"/>
-      <c r="E420" s="12"/>
+      <c r="E420" s="20"/>
       <c r="F420" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="10" t="s">
+      <c r="A421" s="18" t="s">
         <v>449</v>
       </c>
       <c r="B421" s="5" t="s">
@@ -7291,7 +7289,7 @@
       </c>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
-      <c r="E421" s="10" t="s">
+      <c r="E421" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F421" s="8">
@@ -7299,653 +7297,658 @@
       </c>
     </row>
     <row r="422" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="11"/>
+      <c r="A422" s="19"/>
       <c r="B422" s="4" t="s">
         <v>451</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
-      <c r="E422" s="11"/>
+      <c r="E422" s="19"/>
       <c r="F422" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="11"/>
+      <c r="A423" s="19"/>
       <c r="B423" s="4" t="s">
         <v>452</v>
       </c>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
-      <c r="E423" s="11"/>
+      <c r="E423" s="19"/>
       <c r="F423" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="11"/>
+      <c r="A424" s="19"/>
       <c r="B424" s="4" t="s">
         <v>453</v>
       </c>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
-      <c r="E424" s="11"/>
+      <c r="E424" s="19"/>
       <c r="F424" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="11"/>
+      <c r="A425" s="19"/>
       <c r="B425" s="4" t="s">
         <v>454</v>
       </c>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
-      <c r="E425" s="11"/>
+      <c r="E425" s="19"/>
       <c r="F425" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="11"/>
+      <c r="A426" s="19"/>
       <c r="B426" s="4" t="s">
         <v>455</v>
       </c>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
-      <c r="E426" s="11"/>
+      <c r="E426" s="19"/>
       <c r="F426" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="11"/>
+      <c r="A427" s="19"/>
       <c r="B427" s="4" t="s">
         <v>456</v>
       </c>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
-      <c r="E427" s="11"/>
+      <c r="E427" s="19"/>
       <c r="F427" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="11"/>
+      <c r="A428" s="19"/>
       <c r="B428" s="4" t="s">
         <v>457</v>
       </c>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
-      <c r="E428" s="11"/>
+      <c r="E428" s="19"/>
       <c r="F428" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="11"/>
+      <c r="A429" s="19"/>
       <c r="B429" s="4" t="s">
         <v>458</v>
       </c>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
-      <c r="E429" s="11"/>
+      <c r="E429" s="19"/>
       <c r="F429" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="11"/>
+      <c r="A430" s="19"/>
       <c r="B430" s="4" t="s">
         <v>459</v>
       </c>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
-      <c r="E430" s="11"/>
+      <c r="E430" s="19"/>
       <c r="F430" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="11"/>
+      <c r="A431" s="19"/>
       <c r="B431" s="4" t="s">
         <v>460</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
-      <c r="E431" s="11"/>
+      <c r="E431" s="19"/>
       <c r="F431" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="11"/>
+      <c r="A432" s="19"/>
       <c r="B432" s="4" t="s">
         <v>461</v>
       </c>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
-      <c r="E432" s="11"/>
+      <c r="E432" s="19"/>
       <c r="F432" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="11"/>
+      <c r="A433" s="19"/>
       <c r="B433" s="4" t="s">
         <v>462</v>
       </c>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
-      <c r="E433" s="11"/>
+      <c r="E433" s="19"/>
       <c r="F433" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="11"/>
+      <c r="A434" s="19"/>
       <c r="B434" s="4" t="s">
         <v>463</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
-      <c r="E434" s="11"/>
+      <c r="E434" s="19"/>
       <c r="F434" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="11"/>
+      <c r="A435" s="19"/>
       <c r="B435" s="4" t="s">
         <v>464</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
-      <c r="E435" s="11"/>
+      <c r="E435" s="19"/>
       <c r="F435" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="11"/>
+      <c r="A436" s="19"/>
       <c r="B436" s="4" t="s">
         <v>465</v>
       </c>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
-      <c r="E436" s="11"/>
+      <c r="E436" s="19"/>
       <c r="F436" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="11"/>
+      <c r="A437" s="19"/>
       <c r="B437" s="4" t="s">
         <v>466</v>
       </c>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
-      <c r="E437" s="11"/>
+      <c r="E437" s="19"/>
       <c r="F437" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="11"/>
+      <c r="A438" s="19"/>
       <c r="B438" s="4" t="s">
         <v>467</v>
       </c>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
-      <c r="E438" s="11"/>
+      <c r="E438" s="19"/>
       <c r="F438" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="11"/>
+      <c r="A439" s="19"/>
       <c r="B439" s="4" t="s">
         <v>468</v>
       </c>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
-      <c r="E439" s="11"/>
+      <c r="E439" s="19"/>
       <c r="F439" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="11"/>
+      <c r="A440" s="19"/>
       <c r="B440" s="4" t="s">
         <v>469</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
-      <c r="E440" s="11"/>
+      <c r="E440" s="19"/>
       <c r="F440" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="11"/>
+      <c r="A441" s="19"/>
       <c r="B441" s="4" t="s">
         <v>376</v>
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
-      <c r="E441" s="11"/>
+      <c r="E441" s="19"/>
       <c r="F441" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="11"/>
+      <c r="A442" s="19"/>
       <c r="B442" s="4" t="s">
         <v>375</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
-      <c r="E442" s="11"/>
+      <c r="E442" s="19"/>
       <c r="F442" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="11"/>
+      <c r="A443" s="19"/>
       <c r="B443" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
-      <c r="E443" s="11"/>
+      <c r="E443" s="19"/>
       <c r="F443" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="11"/>
+      <c r="A444" s="19"/>
       <c r="B444" s="4" t="s">
         <v>470</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
-      <c r="E444" s="11"/>
+      <c r="E444" s="19"/>
       <c r="F444" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="11"/>
+      <c r="A445" s="19"/>
       <c r="B445" s="4" t="s">
         <v>471</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
-      <c r="E445" s="11"/>
+      <c r="E445" s="19"/>
       <c r="F445" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="11"/>
+      <c r="A446" s="19"/>
       <c r="B446" s="4" t="s">
         <v>472</v>
       </c>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
-      <c r="E446" s="11"/>
+      <c r="E446" s="19"/>
       <c r="F446" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="11"/>
+      <c r="A447" s="19"/>
       <c r="B447" s="4" t="s">
         <v>473</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
-      <c r="E447" s="11"/>
+      <c r="E447" s="19"/>
       <c r="F447" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="11"/>
+      <c r="A448" s="19"/>
       <c r="B448" s="4" t="s">
         <v>474</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
-      <c r="E448" s="11"/>
+      <c r="E448" s="19"/>
       <c r="F448" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="11"/>
+      <c r="A449" s="19"/>
       <c r="B449" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
-      <c r="E449" s="11"/>
+      <c r="E449" s="19"/>
       <c r="F449" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="11"/>
+      <c r="A450" s="19"/>
       <c r="B450" s="4" t="s">
         <v>476</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
-      <c r="E450" s="11"/>
+      <c r="E450" s="19"/>
       <c r="F450" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="11"/>
+      <c r="A451" s="19"/>
       <c r="B451" s="4" t="s">
         <v>477</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
-      <c r="E451" s="11"/>
+      <c r="E451" s="19"/>
       <c r="F451" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="11"/>
+      <c r="A452" s="19"/>
       <c r="B452" s="4" t="s">
         <v>478</v>
       </c>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
-      <c r="E452" s="11"/>
+      <c r="E452" s="19"/>
       <c r="F452" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="11"/>
+      <c r="A453" s="19"/>
       <c r="B453" s="4" t="s">
         <v>479</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
-      <c r="E453" s="11"/>
+      <c r="E453" s="19"/>
       <c r="F453" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="11"/>
+      <c r="A454" s="19"/>
       <c r="B454" s="4" t="s">
         <v>480</v>
       </c>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
-      <c r="E454" s="11"/>
+      <c r="E454" s="19"/>
       <c r="F454" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="11"/>
+      <c r="A455" s="19"/>
       <c r="B455" s="4" t="s">
         <v>481</v>
       </c>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
-      <c r="E455" s="11"/>
+      <c r="E455" s="19"/>
       <c r="F455" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="11"/>
+      <c r="A456" s="19"/>
       <c r="B456" s="4" t="s">
         <v>482</v>
       </c>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
-      <c r="E456" s="11"/>
+      <c r="E456" s="19"/>
       <c r="F456" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="11"/>
+      <c r="A457" s="19"/>
       <c r="B457" s="4" t="s">
         <v>483</v>
       </c>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
-      <c r="E457" s="11"/>
+      <c r="E457" s="19"/>
       <c r="F457" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="11"/>
+      <c r="A458" s="19"/>
       <c r="B458" s="4" t="s">
         <v>484</v>
       </c>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
-      <c r="E458" s="11"/>
+      <c r="E458" s="19"/>
       <c r="F458" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="11"/>
+      <c r="A459" s="19"/>
       <c r="B459" s="4" t="s">
         <v>485</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
-      <c r="E459" s="11"/>
+      <c r="E459" s="19"/>
       <c r="F459" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="11"/>
+      <c r="A460" s="19"/>
       <c r="B460" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
-      <c r="E460" s="11"/>
+      <c r="E460" s="19"/>
       <c r="F460" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="11"/>
+      <c r="A461" s="19"/>
       <c r="B461" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
-      <c r="E461" s="11"/>
+      <c r="E461" s="19"/>
       <c r="F461" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="11"/>
+      <c r="A462" s="19"/>
       <c r="B462" s="4" t="s">
         <v>486</v>
       </c>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
-      <c r="E462" s="11"/>
+      <c r="E462" s="19"/>
       <c r="F462" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="11"/>
+      <c r="A463" s="19"/>
       <c r="B463" s="4" t="s">
         <v>487</v>
       </c>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
-      <c r="E463" s="11"/>
+      <c r="E463" s="19"/>
       <c r="F463" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="11"/>
+      <c r="A464" s="19"/>
       <c r="B464" s="4" t="s">
         <v>488</v>
       </c>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
-      <c r="E464" s="11"/>
+      <c r="E464" s="19"/>
       <c r="F464" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="11"/>
+      <c r="A465" s="19"/>
       <c r="B465" s="4" t="s">
         <v>489</v>
       </c>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
-      <c r="E465" s="11"/>
+      <c r="E465" s="19"/>
       <c r="F465" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="11"/>
+      <c r="A466" s="19"/>
       <c r="B466" s="4" t="s">
         <v>490</v>
       </c>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
-      <c r="E466" s="11"/>
+      <c r="E466" s="19"/>
       <c r="F466" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="11"/>
+      <c r="A467" s="19"/>
       <c r="B467" s="4" t="s">
         <v>491</v>
       </c>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
-      <c r="E467" s="11"/>
+      <c r="E467" s="19"/>
       <c r="F467" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="11"/>
+      <c r="A468" s="19"/>
       <c r="B468" s="4" t="s">
         <v>492</v>
       </c>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
-      <c r="E468" s="11"/>
+      <c r="E468" s="19"/>
       <c r="F468" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="11"/>
+      <c r="A469" s="19"/>
       <c r="B469" s="4" t="s">
         <v>493</v>
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
-      <c r="E469" s="11"/>
+      <c r="E469" s="19"/>
       <c r="F469" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="11"/>
+      <c r="A470" s="19"/>
       <c r="B470" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
-      <c r="E470" s="11"/>
+      <c r="E470" s="19"/>
       <c r="F470" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="12"/>
+      <c r="A471" s="20"/>
       <c r="B471" s="6" t="s">
         <v>494</v>
       </c>
       <c r="C471" s="6"/>
       <c r="D471" s="6"/>
-      <c r="E471" s="12"/>
+      <c r="E471" s="20"/>
       <c r="F471" s="8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="9" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
     <mergeCell ref="A400:A403"/>
     <mergeCell ref="E400:E403"/>
     <mergeCell ref="A404:A420"/>
     <mergeCell ref="E404:E420"/>
     <mergeCell ref="A421:A471"/>
     <mergeCell ref="E421:E471"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="E15:E32"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="expression" dxfId="3" priority="6">
@@ -7953,10 +7956,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F53 F60:F174 F179:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>-1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2C1BE3-8D6E-41AC-AD69-9E324668747F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="WebApiTests" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="672">
   <si>
     <t>Контроллер</t>
   </si>
@@ -1513,12 +1512,541 @@
   </si>
   <si>
     <t>MetaDataCustom</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>extended-types</t>
+  </si>
+  <si>
+    <t>types/{id}</t>
+  </si>
+  <si>
+    <t>types/{id}/attributes</t>
+  </si>
+  <si>
+    <t>types/{id}/links</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>links/{id}</t>
+  </si>
+  <si>
+    <t>states</t>
+  </si>
+  <si>
+    <t>states/{id}</t>
+  </si>
+  <si>
+    <t>types-links</t>
+  </si>
+  <si>
+    <t>types-links/{parentType}:{childType}:{linkType}/attributes</t>
+  </si>
+  <si>
+    <t>types-links-by-id/{parentId}:{childId}:{linkId}/attributes</t>
+  </si>
+  <si>
+    <t>attribute-types</t>
+  </si>
+  <si>
+    <t>attribute-types/{id}</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>create-note</t>
+  </si>
+  <si>
+    <t>create-note-ext</t>
+  </si>
+  <si>
+    <t>get-notes</t>
+  </si>
+  <si>
+    <t>update-note</t>
+  </si>
+  <si>
+    <t>delete-note</t>
+  </si>
+  <si>
+    <t>close-note</t>
+  </si>
+  <si>
+    <t>update-note-state</t>
+  </si>
+  <si>
+    <t>set-note-notify-setting</t>
+  </si>
+  <si>
+    <t>add-note-subscriber</t>
+  </si>
+  <si>
+    <t>delete-note-subscriber</t>
+  </si>
+  <si>
+    <t>get-note-subscribers</t>
+  </si>
+  <si>
+    <t>set-note-image</t>
+  </si>
+  <si>
+    <t>Numerator</t>
+  </si>
+  <si>
+    <t>get-sequences-by-name</t>
+  </si>
+  <si>
+    <t>creatre-numerator</t>
+  </si>
+  <si>
+    <t>update-numerator</t>
+  </si>
+  <si>
+    <t>get-next-numerator-value</t>
+  </si>
+  <si>
+    <t>reset-numerator</t>
+  </si>
+  <si>
+    <t>get-info-about-numerator</t>
+  </si>
+  <si>
+    <t>ObjectInfo</t>
+  </si>
+  <si>
+    <t>get-info-about-link</t>
+  </si>
+  <si>
+    <t>get-info-about-link-mode-1</t>
+  </si>
+  <si>
+    <t>get-info-about-link-mode-2</t>
+  </si>
+  <si>
+    <t>get-info-about-version</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-2</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-3</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-8</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-7   (Get)</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-7   (Post)</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-9</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-10</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-11</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-12</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-13</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-15</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-16</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-19</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-20</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-22</t>
+  </si>
+  <si>
+    <t>get-info-about-version-mode-23</t>
+  </si>
+  <si>
+    <t>Сусленков Виктор</t>
+  </si>
+  <si>
+    <t>exists-object</t>
+  </si>
+  <si>
+    <t>get-prop-objects-2</t>
+  </si>
+  <si>
+    <t>get-link-attributes</t>
+  </si>
+  <si>
+    <t>get-state-next-states-ex</t>
+  </si>
+  <si>
+    <t>get-project-list-2</t>
+  </si>
+  <si>
+    <t>find-path</t>
+  </si>
+  <si>
+    <t>get-link-attributes-2</t>
+  </si>
+  <si>
+    <t>get-attributes-values-2   (Get)</t>
+  </si>
+  <si>
+    <t>get-attributes-values-3   (Post)</t>
+  </si>
+  <si>
+    <t>load-ids</t>
+  </si>
+  <si>
+    <t>get-attributes-values</t>
+  </si>
+  <si>
+    <t>check-unique-name</t>
+  </si>
+  <si>
+    <t>get-attr-plain-text-value   (Get)</t>
+  </si>
+  <si>
+    <t>get-attr-plain-text-value   (Post)</t>
+  </si>
+  <si>
+    <t>get-attr-image-value-by-id</t>
+  </si>
+  <si>
+    <t>get-version-list-2</t>
+  </si>
+  <si>
+    <t>get-linked-objects-2</t>
+  </si>
+  <si>
+    <t>get-linked-objects-2-mode-1</t>
+  </si>
+  <si>
+    <t>get-linked-objects-2-mode-2</t>
+  </si>
+  <si>
+    <t>get-linked-objects-2-mode-3</t>
+  </si>
+  <si>
+    <t>get-linked-objects-2-mode-4</t>
+  </si>
+  <si>
+    <t>get-project-list</t>
+  </si>
+  <si>
+    <t>get-version-list</t>
+  </si>
+  <si>
+    <t>get-attr-image-value</t>
+  </si>
+  <si>
+    <t>get-prop-objects</t>
+  </si>
+  <si>
+    <t>get-project-list-ex</t>
+  </si>
+  <si>
+    <t>get-exists-attributes</t>
+  </si>
+  <si>
+    <t>get-next-states</t>
+  </si>
+  <si>
+    <t>get-exists-attributes-2</t>
+  </si>
+  <si>
+    <t>get-all-linked-objects</t>
+  </si>
+  <si>
+    <t>get-l-objs</t>
+  </si>
+  <si>
+    <t>get-prop-objects-4</t>
+  </si>
+  <si>
+    <t>get-original-attributes</t>
+  </si>
+  <si>
+    <t>get-original-link-attributes</t>
+  </si>
+  <si>
+    <t>get-full-tree</t>
+  </si>
+  <si>
+    <t>get-linked-objects-for-objects   (Get)</t>
+  </si>
+  <si>
+    <t>get-linked-objects-for-objects   (Post)</t>
+  </si>
+  <si>
+    <t>get-linked-fast</t>
+  </si>
+  <si>
+    <t>get-info-about-owner</t>
+  </si>
+  <si>
+    <t>get-objects-for-virtual-folder</t>
+  </si>
+  <si>
+    <t>get-child-objects-for-access-transition</t>
+  </si>
+  <si>
+    <t>get-version-parents</t>
+  </si>
+  <si>
+    <t>get-prop-objects-3</t>
+  </si>
+  <si>
+    <t>get-info-about-version-bo</t>
+  </si>
+  <si>
+    <t>get-attr-image-values</t>
+  </si>
+  <si>
+    <t>get-object-change-history</t>
+  </si>
+  <si>
+    <t>get-version-id</t>
+  </si>
+  <si>
+    <t>get-tree</t>
+  </si>
+  <si>
+    <t>get-linked-objects-and-files</t>
+  </si>
+  <si>
+    <t>get-linked-objects</t>
+  </si>
+  <si>
+    <t>get-linked-objects-ex</t>
+  </si>
+  <si>
+    <t>get-linked-objects-attrs-for-objects</t>
+  </si>
+  <si>
+    <t>ObjectPrivileges</t>
+  </si>
+  <si>
+    <t>get-info-about-versions-privileges-2</t>
+  </si>
+  <si>
+    <t>up-grant-on-version-2</t>
+  </si>
+  <si>
+    <t>grant-rights-for-objects-2</t>
+  </si>
+  <si>
+    <t>revoke-rights-for-objects-2</t>
+  </si>
+  <si>
+    <t>ObjectSearch</t>
+  </si>
+  <si>
+    <t>find-objects-in-context-2</t>
+  </si>
+  <si>
+    <t>find-objects-simple</t>
+  </si>
+  <si>
+    <t>OrgStructure</t>
+  </si>
+  <si>
+    <t>get-users-role-info</t>
+  </si>
+  <si>
+    <t>get-users-role-info-2</t>
+  </si>
+  <si>
+    <t>get-role-tree</t>
+  </si>
+  <si>
+    <t>set-user-properties</t>
+  </si>
+  <si>
+    <t>get-user-picture</t>
+  </si>
+  <si>
+    <t>set-user-picture</t>
+  </si>
+  <si>
+    <t>set-user-status</t>
+  </si>
+  <si>
+    <t>get-unit-properties-mode-0</t>
+  </si>
+  <si>
+    <t>get-unit-properties-mode-1</t>
+  </si>
+  <si>
+    <t>set-unit-properties</t>
+  </si>
+  <si>
+    <t>Pdm</t>
+  </si>
+  <si>
+    <t>download-files</t>
+  </si>
+  <si>
+    <t>download-all-files</t>
+  </si>
+  <si>
+    <t>upload-attr-value-from-file</t>
+  </si>
+  <si>
+    <t>upload-link-attr-value-from-file</t>
+  </si>
+  <si>
+    <t>Polynom</t>
+  </si>
+  <si>
+    <t>current-storage</t>
+  </si>
+  <si>
+    <t>Profiles</t>
+  </si>
+  <si>
+    <t>RouteItems</t>
+  </si>
+  <si>
+    <t>get-stage-attached-object-kinds</t>
+  </si>
+  <si>
+    <t>Routes</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>auditing</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>RouteTasks</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>find-tasks-simple</t>
+  </si>
+  <si>
+    <t>SecondaryView</t>
+  </si>
+  <si>
+    <t>get-info-about-secondary-views</t>
+  </si>
+  <si>
+    <t>save-secondary-view</t>
+  </si>
+  <si>
+    <t>get-secondary-view-revisions</t>
+  </si>
+  <si>
+    <t>set-view-lock</t>
+  </si>
+  <si>
+    <t>del-secondary-view-revision</t>
+  </si>
+  <si>
+    <t>secondary-view</t>
+  </si>
+  <si>
+    <t>get-c3d-file-status</t>
+  </si>
+  <si>
+    <t>source-mapping</t>
+  </si>
+  <si>
+    <t>init-c3d</t>
+  </si>
+  <si>
+    <t>update-c3d-session</t>
+  </si>
+  <si>
+    <t>delete-c3d-session</t>
+  </si>
+  <si>
+    <t>get-node</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>save-annotation-file</t>
+  </si>
+  <si>
+    <t>update-annotation-file</t>
+  </si>
+  <si>
+    <t>?????????????????????????????????????
+D:\Ascon\Projects\Loodsman\Ascon.Pdm\Middleware\AppServer\WebApp\libs\loodsman-data\src\lib\services.old\secondary-view\</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>drop-sequence</t>
+  </si>
+  <si>
+    <t>ins-sequence</t>
+  </si>
+  <si>
+    <t>reset-sequence</t>
+  </si>
+  <si>
+    <t>update-sequence</t>
+  </si>
+  <si>
+    <t>SSO</t>
+  </si>
+  <si>
+    <t>generate-sso-migration</t>
+  </si>
+  <si>
+    <t>get-sso-service-url</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>subscribe</t>
+  </si>
+  <si>
+    <t>Supr (v1)</t>
+  </si>
+  <si>
+    <t>get-archived-tasks-mode-2</t>
+  </si>
+  <si>
+    <t>get-cancelled-tasks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1686,7 +2214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1731,6 +2259,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1740,14 +2271,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1758,14 +2289,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2115,17 +2652,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F472"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C405" sqref="C405"/>
+    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
+      <selection activeCell="B633" sqref="B633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57" style="4" customWidth="1"/>
     <col min="3" max="3" width="77" style="4" customWidth="1"/>
     <col min="4" max="4" width="22.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="30" style="11" customWidth="1"/>
@@ -2153,7 +2690,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2163,7 +2700,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -2171,7 +2708,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2179,13 +2716,13 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2193,13 +2730,13 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2207,13 +2744,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="28"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2221,13 +2758,13 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
@@ -2235,13 +2772,13 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
@@ -2249,13 +2786,13 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2265,7 +2802,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -2273,7 +2810,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
@@ -2281,61 +2818,61 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="28"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="28"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="28"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="29"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2343,7 +2880,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="5">
@@ -2351,211 +2888,211 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="19"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="19"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="19"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="19"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="19"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="19"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="19"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="19"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="19"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="19"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="19"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="19"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="19"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="19"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2563,7 +3100,7 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="5">
@@ -2571,163 +3108,163 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="19"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="19"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="19"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="19"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="19"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="19"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="19"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="19"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="19"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="19"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="19"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="19"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="20"/>
+      <c r="E46" s="21"/>
       <c r="F46" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2735,7 +3272,7 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F47" s="5">
@@ -2743,249 +3280,249 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="19"/>
+      <c r="E48" s="20"/>
       <c r="F48" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="19"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="19"/>
+      <c r="E50" s="20"/>
       <c r="F50" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="19"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="19"/>
+      <c r="E52" s="20"/>
       <c r="F52" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="24" t="s">
+      <c r="E53" s="20"/>
+      <c r="F53" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="22"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="25"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="22"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="25"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="22"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="25"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="22"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="25"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="22"/>
+      <c r="C58" s="28"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="25"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="22"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="26"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="27"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="19"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="19"/>
+      <c r="E61" s="20"/>
       <c r="F61" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="19"/>
+      <c r="E62" s="20"/>
       <c r="F62" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="19"/>
+      <c r="E63" s="20"/>
       <c r="F63" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="19"/>
+      <c r="E64" s="20"/>
       <c r="F64" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="19"/>
+      <c r="E65" s="20"/>
       <c r="F65" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="19"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="19"/>
+      <c r="E67" s="20"/>
       <c r="F67" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="20"/>
+      <c r="E68" s="21"/>
       <c r="F68" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="19" t="s">
         <v>186</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -2993,7 +3530,7 @@
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="19" t="s">
         <v>187</v>
       </c>
       <c r="F69" s="8">
@@ -3001,1313 +3538,1313 @@
       </c>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="19"/>
+      <c r="E70" s="20"/>
       <c r="F70" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="19"/>
+      <c r="E71" s="20"/>
       <c r="F71" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
+      <c r="A72" s="20"/>
       <c r="B72" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="19"/>
+      <c r="E72" s="20"/>
       <c r="F72" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
+      <c r="A73" s="20"/>
       <c r="B73" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="19"/>
+      <c r="E73" s="20"/>
       <c r="F73" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="19"/>
+      <c r="E74" s="20"/>
       <c r="F74" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="19"/>
+      <c r="E75" s="20"/>
       <c r="F75" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
+      <c r="A76" s="20"/>
       <c r="B76" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="19"/>
+      <c r="E76" s="20"/>
       <c r="F76" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
+      <c r="A77" s="20"/>
       <c r="B77" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="19"/>
+      <c r="E77" s="20"/>
       <c r="F77" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
+      <c r="A78" s="20"/>
       <c r="B78" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="19"/>
+      <c r="E78" s="20"/>
       <c r="F78" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="19"/>
+      <c r="E79" s="20"/>
       <c r="F79" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
+      <c r="A80" s="20"/>
       <c r="B80" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="19"/>
+      <c r="E80" s="20"/>
       <c r="F80" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
+      <c r="A81" s="20"/>
       <c r="B81" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="19"/>
+      <c r="E81" s="20"/>
       <c r="F81" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
+      <c r="A82" s="20"/>
       <c r="B82" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="19"/>
+      <c r="E82" s="20"/>
       <c r="F82" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
+      <c r="A83" s="20"/>
       <c r="B83" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="19"/>
+      <c r="E83" s="20"/>
       <c r="F83" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="19"/>
+      <c r="E84" s="20"/>
       <c r="F84" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="19"/>
+      <c r="E85" s="20"/>
       <c r="F85" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="19"/>
+      <c r="E86" s="20"/>
       <c r="F86" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
+      <c r="A87" s="20"/>
       <c r="B87" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="19"/>
+      <c r="E87" s="20"/>
       <c r="F87" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="19"/>
+      <c r="E88" s="20"/>
       <c r="F88" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
+      <c r="A89" s="20"/>
       <c r="B89" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="19"/>
+      <c r="E89" s="20"/>
       <c r="F89" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
+      <c r="A90" s="20"/>
       <c r="B90" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="19"/>
+      <c r="E90" s="20"/>
       <c r="F90" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
+      <c r="A91" s="20"/>
       <c r="B91" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="19"/>
+      <c r="E91" s="20"/>
       <c r="F91" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
+      <c r="A92" s="20"/>
       <c r="B92" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="19"/>
+      <c r="E92" s="20"/>
       <c r="F92" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
+      <c r="A93" s="20"/>
       <c r="B93" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="19"/>
+      <c r="E93" s="20"/>
       <c r="F93" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
+      <c r="A94" s="20"/>
       <c r="B94" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="19"/>
+      <c r="E94" s="20"/>
       <c r="F94" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
+      <c r="A95" s="20"/>
       <c r="B95" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="19"/>
+      <c r="E95" s="20"/>
       <c r="F95" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
+      <c r="A96" s="20"/>
       <c r="B96" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="19"/>
+      <c r="E96" s="20"/>
       <c r="F96" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
+      <c r="A97" s="20"/>
       <c r="B97" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="19"/>
+      <c r="E97" s="20"/>
       <c r="F97" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
+      <c r="A98" s="20"/>
       <c r="B98" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="19"/>
+      <c r="E98" s="20"/>
       <c r="F98" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
+      <c r="A99" s="20"/>
       <c r="B99" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="19"/>
+      <c r="E99" s="20"/>
       <c r="F99" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
+      <c r="A100" s="20"/>
       <c r="B100" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="19"/>
+      <c r="E100" s="20"/>
       <c r="F100" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
+      <c r="A101" s="20"/>
       <c r="B101" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="19"/>
+      <c r="E101" s="20"/>
       <c r="F101" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
+      <c r="A102" s="20"/>
       <c r="B102" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="19"/>
+      <c r="E102" s="20"/>
       <c r="F102" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
+      <c r="A103" s="20"/>
       <c r="B103" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="19"/>
+      <c r="E103" s="20"/>
       <c r="F103" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="19"/>
+      <c r="A104" s="20"/>
       <c r="B104" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="19"/>
+      <c r="E104" s="20"/>
       <c r="F104" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
+      <c r="A105" s="20"/>
       <c r="B105" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="19"/>
+      <c r="E105" s="20"/>
       <c r="F105" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="19"/>
+      <c r="A106" s="20"/>
       <c r="B106" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="19"/>
+      <c r="E106" s="20"/>
       <c r="F106" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
+      <c r="A107" s="20"/>
       <c r="B107" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="19"/>
+      <c r="E107" s="20"/>
       <c r="F107" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="19"/>
+      <c r="A108" s="20"/>
       <c r="B108" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="19"/>
+      <c r="E108" s="20"/>
       <c r="F108" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="19"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="19"/>
+      <c r="E109" s="20"/>
       <c r="F109" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="19"/>
+      <c r="E110" s="20"/>
       <c r="F110" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="19"/>
+      <c r="A111" s="20"/>
       <c r="B111" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="19"/>
+      <c r="E111" s="20"/>
       <c r="F111" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
+      <c r="A112" s="20"/>
       <c r="B112" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="19"/>
+      <c r="E112" s="20"/>
       <c r="F112" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
+      <c r="A113" s="20"/>
       <c r="B113" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="19"/>
+      <c r="E113" s="20"/>
       <c r="F113" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
+      <c r="A114" s="20"/>
       <c r="B114" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="19"/>
+      <c r="E114" s="20"/>
       <c r="F114" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
+      <c r="A115" s="20"/>
       <c r="B115" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="19"/>
+      <c r="E115" s="20"/>
       <c r="F115" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="19"/>
+      <c r="E116" s="20"/>
       <c r="F116" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
+      <c r="A117" s="20"/>
       <c r="B117" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="19"/>
+      <c r="E117" s="20"/>
       <c r="F117" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
+      <c r="A118" s="20"/>
       <c r="B118" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="19"/>
+      <c r="E118" s="20"/>
       <c r="F118" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="19"/>
+      <c r="A119" s="20"/>
       <c r="B119" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="19"/>
+      <c r="E119" s="20"/>
       <c r="F119" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
+      <c r="A120" s="20"/>
       <c r="B120" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="19"/>
+      <c r="E120" s="20"/>
       <c r="F120" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
+      <c r="A121" s="20"/>
       <c r="B121" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="19"/>
+      <c r="E121" s="20"/>
       <c r="F121" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
+      <c r="A122" s="20"/>
       <c r="B122" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="19"/>
+      <c r="E122" s="20"/>
       <c r="F122" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
+      <c r="A123" s="20"/>
       <c r="B123" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="19"/>
+      <c r="E123" s="20"/>
       <c r="F123" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
+      <c r="A124" s="20"/>
       <c r="B124" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="19"/>
+      <c r="E124" s="20"/>
       <c r="F124" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
+      <c r="A125" s="20"/>
       <c r="B125" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="19"/>
+      <c r="E125" s="20"/>
       <c r="F125" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="19"/>
+      <c r="A126" s="20"/>
       <c r="B126" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="19"/>
+      <c r="E126" s="20"/>
       <c r="F126" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="19"/>
+      <c r="A127" s="20"/>
       <c r="B127" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="19"/>
+      <c r="E127" s="20"/>
       <c r="F127" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="19"/>
+      <c r="A128" s="20"/>
       <c r="B128" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="19"/>
+      <c r="E128" s="20"/>
       <c r="F128" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="19"/>
+      <c r="A129" s="20"/>
       <c r="B129" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="19"/>
+      <c r="E129" s="20"/>
       <c r="F129" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="19"/>
+      <c r="A130" s="20"/>
       <c r="B130" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="19"/>
+      <c r="E130" s="20"/>
       <c r="F130" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="19"/>
+      <c r="A131" s="20"/>
       <c r="B131" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="19"/>
+      <c r="E131" s="20"/>
       <c r="F131" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="19"/>
+      <c r="A132" s="20"/>
       <c r="B132" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="19"/>
+      <c r="E132" s="20"/>
       <c r="F132" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="19"/>
+      <c r="A133" s="20"/>
       <c r="B133" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="19"/>
+      <c r="E133" s="20"/>
       <c r="F133" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="19"/>
+      <c r="A134" s="20"/>
       <c r="B134" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="19"/>
+      <c r="E134" s="20"/>
       <c r="F134" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="19"/>
+      <c r="A135" s="20"/>
       <c r="B135" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="19"/>
+      <c r="E135" s="20"/>
       <c r="F135" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="19"/>
+      <c r="A136" s="20"/>
       <c r="B136" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="19"/>
+      <c r="E136" s="20"/>
       <c r="F136" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="19"/>
+      <c r="A137" s="20"/>
       <c r="B137" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="19"/>
+      <c r="E137" s="20"/>
       <c r="F137" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="19"/>
+      <c r="A138" s="20"/>
       <c r="B138" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="19"/>
+      <c r="E138" s="20"/>
       <c r="F138" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="19"/>
+      <c r="A139" s="20"/>
       <c r="B139" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="19"/>
+      <c r="E139" s="20"/>
       <c r="F139" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="19"/>
+      <c r="A140" s="20"/>
       <c r="B140" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="19"/>
+      <c r="E140" s="20"/>
       <c r="F140" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="19"/>
+      <c r="A141" s="20"/>
       <c r="B141" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="19"/>
+      <c r="E141" s="20"/>
       <c r="F141" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="19"/>
+      <c r="A142" s="20"/>
       <c r="B142" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="19"/>
+      <c r="E142" s="20"/>
       <c r="F142" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="19"/>
+      <c r="A143" s="20"/>
       <c r="B143" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="19"/>
+      <c r="E143" s="20"/>
       <c r="F143" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="19"/>
+      <c r="A144" s="20"/>
       <c r="B144" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="19"/>
+      <c r="E144" s="20"/>
       <c r="F144" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="19"/>
+      <c r="A145" s="20"/>
       <c r="B145" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="19"/>
+      <c r="E145" s="20"/>
       <c r="F145" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="19"/>
+      <c r="A146" s="20"/>
       <c r="B146" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="19"/>
+      <c r="E146" s="20"/>
       <c r="F146" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="19"/>
+      <c r="A147" s="20"/>
       <c r="B147" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="19"/>
+      <c r="E147" s="20"/>
       <c r="F147" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="19"/>
+      <c r="A148" s="20"/>
       <c r="B148" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="19"/>
+      <c r="E148" s="20"/>
       <c r="F148" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="19"/>
+      <c r="A149" s="20"/>
       <c r="B149" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="19"/>
+      <c r="E149" s="20"/>
       <c r="F149" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="19"/>
+      <c r="A150" s="20"/>
       <c r="B150" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="19"/>
+      <c r="E150" s="20"/>
       <c r="F150" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="19"/>
+      <c r="A151" s="20"/>
       <c r="B151" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="19"/>
+      <c r="E151" s="20"/>
       <c r="F151" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="19"/>
+      <c r="A152" s="20"/>
       <c r="B152" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="19"/>
+      <c r="E152" s="20"/>
       <c r="F152" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="19"/>
+      <c r="A153" s="20"/>
       <c r="B153" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="19"/>
+      <c r="E153" s="20"/>
       <c r="F153" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="19"/>
+      <c r="A154" s="20"/>
       <c r="B154" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="19"/>
+      <c r="E154" s="20"/>
       <c r="F154" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="19"/>
+      <c r="A155" s="20"/>
       <c r="B155" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="19"/>
+      <c r="E155" s="20"/>
       <c r="F155" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="19"/>
+      <c r="A156" s="20"/>
       <c r="B156" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="19"/>
+      <c r="E156" s="20"/>
       <c r="F156" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="19"/>
+      <c r="A157" s="20"/>
       <c r="B157" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="19"/>
+      <c r="E157" s="20"/>
       <c r="F157" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="19"/>
+      <c r="A158" s="20"/>
       <c r="B158" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="19"/>
+      <c r="E158" s="20"/>
       <c r="F158" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="19"/>
+      <c r="A159" s="20"/>
       <c r="B159" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="19"/>
+      <c r="E159" s="20"/>
       <c r="F159" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="19"/>
+      <c r="A160" s="20"/>
       <c r="B160" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="19"/>
+      <c r="E160" s="20"/>
       <c r="F160" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="19"/>
+      <c r="A161" s="20"/>
       <c r="B161" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="19"/>
+      <c r="E161" s="20"/>
       <c r="F161" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="19"/>
+      <c r="A162" s="20"/>
       <c r="B162" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="19"/>
+      <c r="E162" s="20"/>
       <c r="F162" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="19"/>
+      <c r="A163" s="20"/>
       <c r="B163" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="19"/>
+      <c r="E163" s="20"/>
       <c r="F163" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="19"/>
+      <c r="A164" s="20"/>
       <c r="B164" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="19"/>
+      <c r="E164" s="20"/>
       <c r="F164" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="19"/>
+      <c r="A165" s="20"/>
       <c r="B165" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="19"/>
+      <c r="E165" s="20"/>
       <c r="F165" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="19"/>
+      <c r="A166" s="20"/>
       <c r="B166" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="19"/>
+      <c r="E166" s="20"/>
       <c r="F166" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="19"/>
+      <c r="A167" s="20"/>
       <c r="B167" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="19"/>
+      <c r="E167" s="20"/>
       <c r="F167" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="19"/>
+      <c r="A168" s="20"/>
       <c r="B168" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="19"/>
+      <c r="E168" s="20"/>
       <c r="F168" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="19"/>
+      <c r="A169" s="20"/>
       <c r="B169" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="19"/>
+      <c r="E169" s="20"/>
       <c r="F169" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="19"/>
+      <c r="A170" s="20"/>
       <c r="B170" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="19"/>
+      <c r="E170" s="20"/>
       <c r="F170" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="19"/>
+      <c r="A171" s="20"/>
       <c r="B171" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
-      <c r="E171" s="19"/>
+      <c r="E171" s="20"/>
       <c r="F171" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="19"/>
+      <c r="A172" s="20"/>
       <c r="B172" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="19"/>
+      <c r="E172" s="20"/>
       <c r="F172" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="20"/>
+      <c r="A173" s="21"/>
       <c r="B173" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
-      <c r="E173" s="20"/>
+      <c r="E173" s="21"/>
       <c r="F173" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="19" t="s">
         <v>193</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="C174" s="29" t="s">
         <v>70</v>
       </c>
       <c r="D174" s="5"/>
-      <c r="E174" s="18" t="s">
+      <c r="E174" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F174" s="21" t="s">
+      <c r="F174" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="19"/>
+      <c r="A175" s="20"/>
       <c r="B175" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C175" s="22"/>
+      <c r="C175" s="28"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="22"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="19"/>
+      <c r="A176" s="20"/>
       <c r="B176" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C176" s="22"/>
+      <c r="C176" s="28"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="22"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="28"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="19"/>
+      <c r="A177" s="20"/>
       <c r="B177" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C177" s="22"/>
+      <c r="C177" s="28"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="22"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="28"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="20"/>
+      <c r="A178" s="21"/>
       <c r="B178" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C178" s="23"/>
+      <c r="C178" s="30"/>
       <c r="D178" s="6"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="23"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="30"/>
     </row>
     <row r="179" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="18" t="s">
+      <c r="A179" s="19" t="s">
         <v>194</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -4315,7 +4852,7 @@
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
-      <c r="E179" s="18" t="s">
+      <c r="E179" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F179" s="8">
@@ -4323,127 +4860,127 @@
       </c>
     </row>
     <row r="180" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="19"/>
+      <c r="A180" s="20"/>
       <c r="B180" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="19"/>
+      <c r="E180" s="20"/>
       <c r="F180" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="19"/>
+      <c r="A181" s="20"/>
       <c r="B181" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
-      <c r="E181" s="19"/>
+      <c r="E181" s="20"/>
       <c r="F181" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="19"/>
+      <c r="A182" s="20"/>
       <c r="B182" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="19"/>
+      <c r="E182" s="20"/>
       <c r="F182" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="19"/>
+      <c r="A183" s="20"/>
       <c r="B183" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
-      <c r="E183" s="19"/>
+      <c r="E183" s="20"/>
       <c r="F183" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="19"/>
+      <c r="A184" s="20"/>
       <c r="B184" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="19"/>
+      <c r="E184" s="20"/>
       <c r="F184" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="19"/>
+      <c r="A185" s="20"/>
       <c r="B185" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
-      <c r="E185" s="19"/>
+      <c r="E185" s="20"/>
       <c r="F185" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="19"/>
+      <c r="A186" s="20"/>
       <c r="B186" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
-      <c r="E186" s="19"/>
+      <c r="E186" s="20"/>
       <c r="F186" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="19"/>
+      <c r="A187" s="20"/>
       <c r="B187" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
-      <c r="E187" s="19"/>
+      <c r="E187" s="20"/>
       <c r="F187" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="19"/>
+      <c r="A188" s="20"/>
       <c r="B188" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="19"/>
+      <c r="E188" s="20"/>
       <c r="F188" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="20"/>
+      <c r="A189" s="21"/>
       <c r="B189" s="6" t="s">
         <v>205</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
-      <c r="E189" s="20"/>
+      <c r="E189" s="21"/>
       <c r="F189" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="18" t="s">
+      <c r="A190" s="19" t="s">
         <v>206</v>
       </c>
       <c r="B190" s="5" t="s">
@@ -4451,7 +4988,7 @@
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
-      <c r="E190" s="18" t="s">
+      <c r="E190" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F190" s="8">
@@ -4459,85 +4996,85 @@
       </c>
     </row>
     <row r="191" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="19"/>
+      <c r="A191" s="20"/>
       <c r="B191" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
-      <c r="E191" s="19"/>
+      <c r="E191" s="20"/>
       <c r="F191" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="19"/>
+      <c r="A192" s="20"/>
       <c r="B192" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="19"/>
+      <c r="E192" s="20"/>
       <c r="F192" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="19"/>
+      <c r="A193" s="20"/>
       <c r="B193" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
-      <c r="E193" s="19"/>
+      <c r="E193" s="20"/>
       <c r="F193" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="19"/>
+      <c r="A194" s="20"/>
       <c r="B194" s="4" t="s">
         <v>211</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
-      <c r="E194" s="19"/>
+      <c r="E194" s="20"/>
       <c r="F194" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="19"/>
+      <c r="A195" s="20"/>
       <c r="B195" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
-      <c r="E195" s="19"/>
+      <c r="E195" s="20"/>
       <c r="F195" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="19"/>
+      <c r="A196" s="20"/>
       <c r="B196" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
-      <c r="E196" s="19"/>
+      <c r="E196" s="20"/>
       <c r="F196" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="20"/>
+      <c r="A197" s="21"/>
       <c r="B197" s="6" t="s">
         <v>213</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
-      <c r="E197" s="20"/>
+      <c r="E197" s="21"/>
       <c r="F197" s="8">
         <v>-1</v>
       </c>
@@ -4559,7 +5096,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="18" t="s">
+      <c r="A199" s="19" t="s">
         <v>216</v>
       </c>
       <c r="B199" s="5" t="s">
@@ -4567,7 +5104,7 @@
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
-      <c r="E199" s="18" t="s">
+      <c r="E199" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F199" s="8">
@@ -4575,175 +5112,175 @@
       </c>
     </row>
     <row r="200" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="19"/>
+      <c r="A200" s="20"/>
       <c r="B200" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
-      <c r="E200" s="19"/>
+      <c r="E200" s="20"/>
       <c r="F200" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="19"/>
+      <c r="A201" s="20"/>
       <c r="B201" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
-      <c r="E201" s="19"/>
+      <c r="E201" s="20"/>
       <c r="F201" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="19"/>
+      <c r="A202" s="20"/>
       <c r="B202" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="19"/>
+      <c r="E202" s="20"/>
       <c r="F202" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="19"/>
+      <c r="A203" s="20"/>
       <c r="B203" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="19"/>
+      <c r="E203" s="20"/>
       <c r="F203" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="19"/>
+      <c r="A204" s="20"/>
       <c r="B204" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="19"/>
+      <c r="E204" s="20"/>
       <c r="F204" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="19"/>
+      <c r="A205" s="20"/>
       <c r="B205" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
-      <c r="E205" s="19"/>
+      <c r="E205" s="20"/>
       <c r="F205" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="19"/>
+      <c r="A206" s="20"/>
       <c r="B206" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
-      <c r="E206" s="19"/>
+      <c r="E206" s="20"/>
       <c r="F206" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="19"/>
+      <c r="A207" s="20"/>
       <c r="B207" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
-      <c r="E207" s="19"/>
+      <c r="E207" s="20"/>
       <c r="F207" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="19"/>
+      <c r="A208" s="20"/>
       <c r="B208" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
-      <c r="E208" s="19"/>
+      <c r="E208" s="20"/>
       <c r="F208" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="19"/>
+      <c r="A209" s="20"/>
       <c r="B209" s="4" t="s">
         <v>227</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
-      <c r="E209" s="19"/>
+      <c r="E209" s="20"/>
       <c r="F209" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="19"/>
+      <c r="A210" s="20"/>
       <c r="B210" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
-      <c r="E210" s="19"/>
+      <c r="E210" s="20"/>
       <c r="F210" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="19"/>
+      <c r="A211" s="20"/>
       <c r="B211" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
-      <c r="E211" s="19"/>
+      <c r="E211" s="20"/>
       <c r="F211" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="19"/>
+      <c r="A212" s="20"/>
       <c r="B212" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
-      <c r="E212" s="19"/>
+      <c r="E212" s="20"/>
       <c r="F212" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="20"/>
+      <c r="A213" s="21"/>
       <c r="B213" s="6" t="s">
         <v>231</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
-      <c r="E213" s="20"/>
+      <c r="E213" s="21"/>
       <c r="F213" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="18" t="s">
+      <c r="A214" s="19" t="s">
         <v>232</v>
       </c>
       <c r="B214" s="5" t="s">
@@ -4751,7 +5288,7 @@
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
-      <c r="E214" s="18" t="s">
+      <c r="E214" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F214" s="8">
@@ -4759,163 +5296,163 @@
       </c>
     </row>
     <row r="215" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="19"/>
+      <c r="A215" s="20"/>
       <c r="B215" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
-      <c r="E215" s="19"/>
+      <c r="E215" s="20"/>
       <c r="F215" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="19"/>
+      <c r="A216" s="20"/>
       <c r="B216" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
-      <c r="E216" s="19"/>
+      <c r="E216" s="20"/>
       <c r="F216" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="19"/>
+      <c r="A217" s="20"/>
       <c r="B217" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
-      <c r="E217" s="19"/>
+      <c r="E217" s="20"/>
       <c r="F217" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="19"/>
+      <c r="A218" s="20"/>
       <c r="B218" s="4" t="s">
         <v>236</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
-      <c r="E218" s="19"/>
+      <c r="E218" s="20"/>
       <c r="F218" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="19"/>
+      <c r="A219" s="20"/>
       <c r="B219" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
-      <c r="E219" s="19"/>
+      <c r="E219" s="20"/>
       <c r="F219" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="19"/>
+      <c r="A220" s="20"/>
       <c r="B220" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
-      <c r="E220" s="19"/>
+      <c r="E220" s="20"/>
       <c r="F220" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="19"/>
+      <c r="A221" s="20"/>
       <c r="B221" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
-      <c r="E221" s="19"/>
+      <c r="E221" s="20"/>
       <c r="F221" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="19"/>
+      <c r="A222" s="20"/>
       <c r="B222" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
-      <c r="E222" s="19"/>
+      <c r="E222" s="20"/>
       <c r="F222" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="19"/>
+      <c r="A223" s="20"/>
       <c r="B223" s="4" t="s">
         <v>241</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
-      <c r="E223" s="19"/>
+      <c r="E223" s="20"/>
       <c r="F223" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="19"/>
+      <c r="A224" s="20"/>
       <c r="B224" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
-      <c r="E224" s="19"/>
+      <c r="E224" s="20"/>
       <c r="F224" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="19"/>
+      <c r="A225" s="20"/>
       <c r="B225" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
-      <c r="E225" s="19"/>
+      <c r="E225" s="20"/>
       <c r="F225" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="19"/>
+      <c r="A226" s="20"/>
       <c r="B226" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
-      <c r="E226" s="19"/>
+      <c r="E226" s="20"/>
       <c r="F226" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="20"/>
+      <c r="A227" s="21"/>
       <c r="B227" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
-      <c r="E227" s="20"/>
+      <c r="E227" s="21"/>
       <c r="F227" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="18" t="s">
+      <c r="A228" s="19" t="s">
         <v>246</v>
       </c>
       <c r="B228" s="5" t="s">
@@ -4923,7 +5460,7 @@
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
-      <c r="E228" s="18" t="s">
+      <c r="E228" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F228" s="8">
@@ -4931,295 +5468,295 @@
       </c>
     </row>
     <row r="229" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="19"/>
+      <c r="A229" s="20"/>
       <c r="B229" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
-      <c r="E229" s="19"/>
+      <c r="E229" s="20"/>
       <c r="F229" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="19"/>
+      <c r="A230" s="20"/>
       <c r="B230" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
-      <c r="E230" s="19"/>
+      <c r="E230" s="20"/>
       <c r="F230" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="19"/>
+      <c r="A231" s="20"/>
       <c r="B231" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
-      <c r="E231" s="19"/>
+      <c r="E231" s="20"/>
       <c r="F231" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="19"/>
+      <c r="A232" s="20"/>
       <c r="B232" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
-      <c r="E232" s="19"/>
+      <c r="E232" s="20"/>
       <c r="F232" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="19"/>
+      <c r="A233" s="20"/>
       <c r="B233" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
-      <c r="E233" s="19"/>
+      <c r="E233" s="20"/>
       <c r="F233" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="19"/>
+      <c r="A234" s="20"/>
       <c r="B234" s="4" t="s">
         <v>253</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
-      <c r="E234" s="19"/>
+      <c r="E234" s="20"/>
       <c r="F234" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="19"/>
+      <c r="A235" s="20"/>
       <c r="B235" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
-      <c r="E235" s="19"/>
+      <c r="E235" s="20"/>
       <c r="F235" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="19"/>
+      <c r="A236" s="20"/>
       <c r="B236" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
-      <c r="E236" s="19"/>
+      <c r="E236" s="20"/>
       <c r="F236" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="19"/>
+      <c r="A237" s="20"/>
       <c r="B237" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
-      <c r="E237" s="19"/>
+      <c r="E237" s="20"/>
       <c r="F237" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="19"/>
+      <c r="A238" s="20"/>
       <c r="B238" s="4" t="s">
         <v>257</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
-      <c r="E238" s="19"/>
+      <c r="E238" s="20"/>
       <c r="F238" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="19"/>
+      <c r="A239" s="20"/>
       <c r="B239" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
-      <c r="E239" s="19"/>
+      <c r="E239" s="20"/>
       <c r="F239" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="19"/>
+      <c r="A240" s="20"/>
       <c r="B240" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
-      <c r="E240" s="19"/>
+      <c r="E240" s="20"/>
       <c r="F240" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="19"/>
+      <c r="A241" s="20"/>
       <c r="B241" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
-      <c r="E241" s="19"/>
+      <c r="E241" s="20"/>
       <c r="F241" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="19"/>
+      <c r="A242" s="20"/>
       <c r="B242" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
-      <c r="E242" s="19"/>
+      <c r="E242" s="20"/>
       <c r="F242" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="19"/>
+      <c r="A243" s="20"/>
       <c r="B243" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
-      <c r="E243" s="19"/>
+      <c r="E243" s="20"/>
       <c r="F243" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="19"/>
+      <c r="A244" s="20"/>
       <c r="B244" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
-      <c r="E244" s="19"/>
+      <c r="E244" s="20"/>
       <c r="F244" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="19"/>
+      <c r="A245" s="20"/>
       <c r="B245" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
-      <c r="E245" s="19"/>
+      <c r="E245" s="20"/>
       <c r="F245" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="19"/>
+      <c r="A246" s="20"/>
       <c r="B246" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
-      <c r="E246" s="19"/>
+      <c r="E246" s="20"/>
       <c r="F246" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="19"/>
+      <c r="A247" s="20"/>
       <c r="B247" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
-      <c r="E247" s="19"/>
+      <c r="E247" s="20"/>
       <c r="F247" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="19"/>
+      <c r="A248" s="20"/>
       <c r="B248" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
-      <c r="E248" s="19"/>
+      <c r="E248" s="20"/>
       <c r="F248" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="19"/>
+      <c r="A249" s="20"/>
       <c r="B249" s="4" t="s">
         <v>268</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
-      <c r="E249" s="19"/>
+      <c r="E249" s="20"/>
       <c r="F249" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="19"/>
+      <c r="A250" s="20"/>
       <c r="B250" s="4" t="s">
         <v>269</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
-      <c r="E250" s="19"/>
+      <c r="E250" s="20"/>
       <c r="F250" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="19"/>
+      <c r="A251" s="20"/>
       <c r="B251" s="4" t="s">
         <v>270</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
-      <c r="E251" s="19"/>
+      <c r="E251" s="20"/>
       <c r="F251" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="19"/>
+      <c r="A252" s="20"/>
       <c r="B252" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
-      <c r="E252" s="19"/>
+      <c r="E252" s="20"/>
       <c r="F252" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="19"/>
+      <c r="A253" s="20"/>
       <c r="B253" s="4" t="s">
         <v>272</v>
       </c>
@@ -5227,697 +5764,697 @@
         <v>70</v>
       </c>
       <c r="D253" s="4"/>
-      <c r="E253" s="19"/>
+      <c r="E253" s="20"/>
       <c r="F253" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="19"/>
+      <c r="A254" s="20"/>
       <c r="B254" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
-      <c r="E254" s="19"/>
+      <c r="E254" s="20"/>
       <c r="F254" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="19"/>
+      <c r="A255" s="20"/>
       <c r="B255" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
-      <c r="E255" s="19"/>
+      <c r="E255" s="20"/>
       <c r="F255" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="19"/>
+      <c r="A256" s="20"/>
       <c r="B256" s="4" t="s">
         <v>275</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
-      <c r="E256" s="19"/>
+      <c r="E256" s="20"/>
       <c r="F256" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="19"/>
+      <c r="A257" s="20"/>
       <c r="B257" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
-      <c r="E257" s="19"/>
+      <c r="E257" s="20"/>
       <c r="F257" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="19"/>
+      <c r="A258" s="20"/>
       <c r="B258" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
-      <c r="E258" s="19"/>
+      <c r="E258" s="20"/>
       <c r="F258" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="19"/>
+      <c r="A259" s="20"/>
       <c r="B259" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
-      <c r="E259" s="19"/>
+      <c r="E259" s="20"/>
       <c r="F259" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="19"/>
+      <c r="A260" s="20"/>
       <c r="B260" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
-      <c r="E260" s="19"/>
+      <c r="E260" s="20"/>
       <c r="F260" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="19"/>
+      <c r="A261" s="20"/>
       <c r="B261" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
-      <c r="E261" s="19"/>
+      <c r="E261" s="20"/>
       <c r="F261" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="19"/>
+      <c r="A262" s="20"/>
       <c r="B262" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
-      <c r="E262" s="19"/>
+      <c r="E262" s="20"/>
       <c r="F262" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="19"/>
+      <c r="A263" s="20"/>
       <c r="B263" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
-      <c r="E263" s="19"/>
+      <c r="E263" s="20"/>
       <c r="F263" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="19"/>
+      <c r="A264" s="20"/>
       <c r="B264" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
-      <c r="E264" s="19"/>
+      <c r="E264" s="20"/>
       <c r="F264" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="19"/>
+      <c r="A265" s="20"/>
       <c r="B265" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="19"/>
+      <c r="E265" s="20"/>
       <c r="F265" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="19"/>
+      <c r="A266" s="20"/>
       <c r="B266" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
-      <c r="E266" s="19"/>
+      <c r="E266" s="20"/>
       <c r="F266" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="19"/>
+      <c r="A267" s="20"/>
       <c r="B267" s="4" t="s">
         <v>286</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
-      <c r="E267" s="19"/>
+      <c r="E267" s="20"/>
       <c r="F267" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="19"/>
+      <c r="A268" s="20"/>
       <c r="B268" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
-      <c r="E268" s="19"/>
+      <c r="E268" s="20"/>
       <c r="F268" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="19"/>
+      <c r="A269" s="20"/>
       <c r="B269" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
-      <c r="E269" s="19"/>
+      <c r="E269" s="20"/>
       <c r="F269" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="19"/>
+      <c r="A270" s="20"/>
       <c r="B270" s="4" t="s">
         <v>289</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
-      <c r="E270" s="19"/>
+      <c r="E270" s="20"/>
       <c r="F270" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="19"/>
+      <c r="A271" s="20"/>
       <c r="B271" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
-      <c r="E271" s="19"/>
+      <c r="E271" s="20"/>
       <c r="F271" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="19"/>
+      <c r="A272" s="20"/>
       <c r="B272" s="4" t="s">
         <v>291</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
-      <c r="E272" s="19"/>
+      <c r="E272" s="20"/>
       <c r="F272" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="19"/>
+      <c r="A273" s="20"/>
       <c r="B273" s="4" t="s">
         <v>292</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
-      <c r="E273" s="19"/>
+      <c r="E273" s="20"/>
       <c r="F273" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="19"/>
+      <c r="A274" s="20"/>
       <c r="B274" s="4" t="s">
         <v>293</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
-      <c r="E274" s="19"/>
+      <c r="E274" s="20"/>
       <c r="F274" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="19"/>
+      <c r="A275" s="20"/>
       <c r="B275" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
-      <c r="E275" s="19"/>
+      <c r="E275" s="20"/>
       <c r="F275" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="19"/>
+      <c r="A276" s="20"/>
       <c r="B276" s="4" t="s">
         <v>295</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
-      <c r="E276" s="19"/>
+      <c r="E276" s="20"/>
       <c r="F276" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="19"/>
+      <c r="A277" s="20"/>
       <c r="B277" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
-      <c r="E277" s="19"/>
+      <c r="E277" s="20"/>
       <c r="F277" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="19"/>
+      <c r="A278" s="20"/>
       <c r="B278" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
-      <c r="E278" s="19"/>
+      <c r="E278" s="20"/>
       <c r="F278" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="19"/>
+      <c r="A279" s="20"/>
       <c r="B279" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
-      <c r="E279" s="19"/>
+      <c r="E279" s="20"/>
       <c r="F279" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="19"/>
+      <c r="A280" s="20"/>
       <c r="B280" s="4" t="s">
         <v>299</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
-      <c r="E280" s="19"/>
+      <c r="E280" s="20"/>
       <c r="F280" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="19"/>
+      <c r="A281" s="20"/>
       <c r="B281" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
-      <c r="E281" s="19"/>
+      <c r="E281" s="20"/>
       <c r="F281" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="19"/>
+      <c r="A282" s="20"/>
       <c r="B282" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
-      <c r="E282" s="19"/>
+      <c r="E282" s="20"/>
       <c r="F282" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="19"/>
+      <c r="A283" s="20"/>
       <c r="B283" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
-      <c r="E283" s="19"/>
+      <c r="E283" s="20"/>
       <c r="F283" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="19"/>
+      <c r="A284" s="20"/>
       <c r="B284" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
-      <c r="E284" s="19"/>
+      <c r="E284" s="20"/>
       <c r="F284" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="19"/>
+      <c r="A285" s="20"/>
       <c r="B285" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
-      <c r="E285" s="19"/>
+      <c r="E285" s="20"/>
       <c r="F285" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="19"/>
+      <c r="A286" s="20"/>
       <c r="B286" s="4" t="s">
         <v>305</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
-      <c r="E286" s="19"/>
+      <c r="E286" s="20"/>
       <c r="F286" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="19"/>
+      <c r="A287" s="20"/>
       <c r="B287" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
-      <c r="E287" s="19"/>
+      <c r="E287" s="20"/>
       <c r="F287" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="19"/>
+      <c r="A288" s="20"/>
       <c r="B288" s="4" t="s">
         <v>307</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
-      <c r="E288" s="19"/>
+      <c r="E288" s="20"/>
       <c r="F288" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="19"/>
+      <c r="A289" s="20"/>
       <c r="B289" s="4" t="s">
         <v>308</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
-      <c r="E289" s="19"/>
+      <c r="E289" s="20"/>
       <c r="F289" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="19"/>
+      <c r="A290" s="20"/>
       <c r="B290" s="4" t="s">
         <v>309</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
-      <c r="E290" s="19"/>
+      <c r="E290" s="20"/>
       <c r="F290" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="19"/>
+      <c r="A291" s="20"/>
       <c r="B291" s="4" t="s">
         <v>310</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
-      <c r="E291" s="19"/>
+      <c r="E291" s="20"/>
       <c r="F291" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="19"/>
+      <c r="A292" s="20"/>
       <c r="B292" s="4" t="s">
         <v>311</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
-      <c r="E292" s="19"/>
+      <c r="E292" s="20"/>
       <c r="F292" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="19"/>
+      <c r="A293" s="20"/>
       <c r="B293" s="4" t="s">
         <v>312</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
-      <c r="E293" s="19"/>
+      <c r="E293" s="20"/>
       <c r="F293" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="19"/>
+      <c r="A294" s="20"/>
       <c r="B294" s="4" t="s">
         <v>313</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
-      <c r="E294" s="19"/>
+      <c r="E294" s="20"/>
       <c r="F294" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="19"/>
+      <c r="A295" s="20"/>
       <c r="B295" s="4" t="s">
         <v>314</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
-      <c r="E295" s="19"/>
+      <c r="E295" s="20"/>
       <c r="F295" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="19"/>
+      <c r="A296" s="20"/>
       <c r="B296" s="4" t="s">
         <v>315</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
-      <c r="E296" s="19"/>
+      <c r="E296" s="20"/>
       <c r="F296" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="19"/>
+      <c r="A297" s="20"/>
       <c r="B297" s="4" t="s">
         <v>316</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
-      <c r="E297" s="19"/>
+      <c r="E297" s="20"/>
       <c r="F297" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="19"/>
+      <c r="A298" s="20"/>
       <c r="B298" s="4" t="s">
         <v>317</v>
       </c>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
-      <c r="E298" s="19"/>
+      <c r="E298" s="20"/>
       <c r="F298" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="19"/>
+      <c r="A299" s="20"/>
       <c r="B299" s="4" t="s">
         <v>318</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
-      <c r="E299" s="19"/>
+      <c r="E299" s="20"/>
       <c r="F299" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="19"/>
+      <c r="A300" s="20"/>
       <c r="B300" s="4" t="s">
         <v>319</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
-      <c r="E300" s="19"/>
+      <c r="E300" s="20"/>
       <c r="F300" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="19"/>
+      <c r="A301" s="20"/>
       <c r="B301" s="4" t="s">
         <v>320</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
-      <c r="E301" s="19"/>
+      <c r="E301" s="20"/>
       <c r="F301" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="19"/>
+      <c r="A302" s="20"/>
       <c r="B302" s="4" t="s">
         <v>321</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
-      <c r="E302" s="19"/>
+      <c r="E302" s="20"/>
       <c r="F302" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="19"/>
+      <c r="A303" s="20"/>
       <c r="B303" s="4" t="s">
         <v>322</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
-      <c r="E303" s="19"/>
+      <c r="E303" s="20"/>
       <c r="F303" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="19"/>
+      <c r="A304" s="20"/>
       <c r="B304" s="4" t="s">
         <v>323</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
-      <c r="E304" s="19"/>
+      <c r="E304" s="20"/>
       <c r="F304" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="19"/>
+      <c r="A305" s="20"/>
       <c r="B305" s="4" t="s">
         <v>324</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
-      <c r="E305" s="19"/>
+      <c r="E305" s="20"/>
       <c r="F305" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="19"/>
+      <c r="A306" s="20"/>
       <c r="B306" s="4" t="s">
         <v>325</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
-      <c r="E306" s="19"/>
+      <c r="E306" s="20"/>
       <c r="F306" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="19"/>
+      <c r="A307" s="20"/>
       <c r="B307" s="4" t="s">
         <v>326</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
-      <c r="E307" s="19"/>
+      <c r="E307" s="20"/>
       <c r="F307" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="19"/>
+      <c r="A308" s="20"/>
       <c r="B308" s="4" t="s">
         <v>327</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
-      <c r="E308" s="19"/>
+      <c r="E308" s="20"/>
       <c r="F308" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="19"/>
+      <c r="A309" s="20"/>
       <c r="B309" s="4" t="s">
         <v>328</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
-      <c r="E309" s="19"/>
+      <c r="E309" s="20"/>
       <c r="F309" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="20"/>
+      <c r="A310" s="21"/>
       <c r="B310" s="6" t="s">
         <v>329</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
-      <c r="E310" s="20"/>
+      <c r="E310" s="21"/>
       <c r="F310" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="18" t="s">
+      <c r="A311" s="19" t="s">
         <v>330</v>
       </c>
       <c r="B311" s="5" t="s">
@@ -5925,7 +6462,7 @@
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
-      <c r="E311" s="18" t="s">
+      <c r="E311" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F311" s="5">
@@ -5933,271 +6470,271 @@
       </c>
     </row>
     <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="19"/>
+      <c r="A312" s="20"/>
       <c r="B312" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
-      <c r="E312" s="19"/>
+      <c r="E312" s="20"/>
       <c r="F312" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="19"/>
+      <c r="A313" s="20"/>
       <c r="B313" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
-      <c r="E313" s="19"/>
+      <c r="E313" s="20"/>
       <c r="F313" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="19"/>
+      <c r="A314" s="20"/>
       <c r="B314" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
-      <c r="E314" s="19"/>
+      <c r="E314" s="20"/>
       <c r="F314" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="19"/>
+      <c r="A315" s="20"/>
       <c r="B315" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
-      <c r="E315" s="19"/>
+      <c r="E315" s="20"/>
       <c r="F315" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="19"/>
+      <c r="A316" s="20"/>
       <c r="B316" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
-      <c r="E316" s="19"/>
+      <c r="E316" s="20"/>
       <c r="F316" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="19"/>
+      <c r="A317" s="20"/>
       <c r="B317" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
-      <c r="E317" s="19"/>
+      <c r="E317" s="20"/>
       <c r="F317" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="19"/>
+      <c r="A318" s="20"/>
       <c r="B318" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
-      <c r="E318" s="19"/>
+      <c r="E318" s="20"/>
       <c r="F318" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="19"/>
+      <c r="A319" s="20"/>
       <c r="B319" s="4" t="s">
         <v>339</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
-      <c r="E319" s="19"/>
+      <c r="E319" s="20"/>
       <c r="F319" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="19"/>
+      <c r="A320" s="20"/>
       <c r="B320" s="4" t="s">
         <v>340</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
-      <c r="E320" s="19"/>
+      <c r="E320" s="20"/>
       <c r="F320" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="19"/>
+      <c r="A321" s="20"/>
       <c r="B321" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
-      <c r="E321" s="19"/>
+      <c r="E321" s="20"/>
       <c r="F321" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="19"/>
+      <c r="A322" s="20"/>
       <c r="B322" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
-      <c r="E322" s="19"/>
+      <c r="E322" s="20"/>
       <c r="F322" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="19"/>
+      <c r="A323" s="20"/>
       <c r="B323" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
-      <c r="E323" s="19"/>
+      <c r="E323" s="20"/>
       <c r="F323" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="19"/>
+      <c r="A324" s="20"/>
       <c r="B324" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
-      <c r="E324" s="19"/>
+      <c r="E324" s="20"/>
       <c r="F324" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="19"/>
+      <c r="A325" s="20"/>
       <c r="B325" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
-      <c r="E325" s="19"/>
+      <c r="E325" s="20"/>
       <c r="F325" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="19"/>
+      <c r="A326" s="20"/>
       <c r="B326" s="4" t="s">
         <v>346</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
-      <c r="E326" s="19"/>
+      <c r="E326" s="20"/>
       <c r="F326" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="19"/>
+      <c r="A327" s="20"/>
       <c r="B327" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
-      <c r="E327" s="19"/>
+      <c r="E327" s="20"/>
       <c r="F327" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="19"/>
+      <c r="A328" s="20"/>
       <c r="B328" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
-      <c r="E328" s="19"/>
+      <c r="E328" s="20"/>
       <c r="F328" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="19"/>
+      <c r="A329" s="20"/>
       <c r="B329" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
-      <c r="E329" s="19"/>
+      <c r="E329" s="20"/>
       <c r="F329" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="19"/>
+      <c r="A330" s="20"/>
       <c r="B330" s="4" t="s">
         <v>350</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
-      <c r="E330" s="19"/>
+      <c r="E330" s="20"/>
       <c r="F330" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="19"/>
+      <c r="A331" s="20"/>
       <c r="B331" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
-      <c r="E331" s="19"/>
+      <c r="E331" s="20"/>
       <c r="F331" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="19"/>
+      <c r="A332" s="20"/>
       <c r="B332" s="4" t="s">
         <v>352</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
-      <c r="E332" s="19"/>
+      <c r="E332" s="20"/>
       <c r="F332" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="20"/>
+      <c r="A333" s="21"/>
       <c r="B333" s="6" t="s">
         <v>353</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
-      <c r="E333" s="20"/>
+      <c r="E333" s="21"/>
       <c r="F333" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="18" t="s">
+      <c r="A334" s="19" t="s">
         <v>354</v>
       </c>
       <c r="B334" s="4" t="s">
@@ -6205,7 +6742,7 @@
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
-      <c r="E334" s="18" t="s">
+      <c r="E334" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F334" s="8">
@@ -6213,19 +6750,19 @@
       </c>
     </row>
     <row r="335" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="19"/>
+      <c r="A335" s="20"/>
       <c r="B335" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
-      <c r="E335" s="19"/>
+      <c r="E335" s="20"/>
       <c r="F335" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="19"/>
+      <c r="A336" s="20"/>
       <c r="B336" s="4" t="s">
         <v>357</v>
       </c>
@@ -6233,31 +6770,31 @@
         <v>70</v>
       </c>
       <c r="D336" s="4"/>
-      <c r="E336" s="19"/>
+      <c r="E336" s="20"/>
       <c r="F336" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="337" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="19"/>
+      <c r="A337" s="20"/>
       <c r="B337" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
-      <c r="E337" s="19"/>
+      <c r="E337" s="20"/>
       <c r="F337" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="20"/>
+      <c r="A338" s="21"/>
       <c r="B338" s="6" t="s">
         <v>359</v>
       </c>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
-      <c r="E338" s="20"/>
+      <c r="E338" s="21"/>
       <c r="F338" s="8">
         <v>2</v>
       </c>
@@ -6295,7 +6832,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="18" t="s">
+      <c r="A341" s="19" t="s">
         <v>364</v>
       </c>
       <c r="B341" s="5" t="s">
@@ -6303,195 +6840,195 @@
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
-      <c r="E341" s="18" t="s">
-        <v>41</v>
+      <c r="E341" s="19" t="s">
+        <v>552</v>
       </c>
       <c r="F341" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="19"/>
+      <c r="A342" s="20"/>
       <c r="B342" s="4" t="s">
         <v>366</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
-      <c r="E342" s="19"/>
+      <c r="E342" s="20"/>
       <c r="F342" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="19"/>
+      <c r="A343" s="20"/>
       <c r="B343" s="4" t="s">
         <v>367</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
-      <c r="E343" s="19"/>
+      <c r="E343" s="20"/>
       <c r="F343" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="19"/>
+      <c r="A344" s="20"/>
       <c r="B344" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
-      <c r="E344" s="19"/>
+      <c r="E344" s="20"/>
       <c r="F344" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="19"/>
+      <c r="A345" s="20"/>
       <c r="B345" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
-      <c r="E345" s="19"/>
+      <c r="E345" s="20"/>
       <c r="F345" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="19"/>
+      <c r="A346" s="20"/>
       <c r="B346" s="4" t="s">
         <v>370</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
-      <c r="E346" s="19"/>
+      <c r="E346" s="20"/>
       <c r="F346" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="19"/>
+      <c r="A347" s="20"/>
       <c r="B347" s="4" t="s">
         <v>371</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
-      <c r="E347" s="19"/>
+      <c r="E347" s="20"/>
       <c r="F347" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="19"/>
+      <c r="A348" s="20"/>
       <c r="B348" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
-      <c r="E348" s="19"/>
+      <c r="E348" s="20"/>
       <c r="F348" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="19"/>
+      <c r="A349" s="20"/>
       <c r="B349" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
-      <c r="E349" s="19"/>
+      <c r="E349" s="20"/>
       <c r="F349" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="19"/>
+      <c r="A350" s="20"/>
       <c r="B350" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
-      <c r="E350" s="19"/>
+      <c r="E350" s="20"/>
       <c r="F350" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="19"/>
+      <c r="A351" s="20"/>
       <c r="B351" s="4" t="s">
         <v>375</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
-      <c r="E351" s="19"/>
+      <c r="E351" s="20"/>
       <c r="F351" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="19"/>
+      <c r="A352" s="20"/>
       <c r="B352" s="4" t="s">
         <v>376</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
-      <c r="E352" s="19"/>
+      <c r="E352" s="20"/>
       <c r="F352" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="19"/>
+      <c r="A353" s="20"/>
       <c r="B353" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
-      <c r="E353" s="19"/>
+      <c r="E353" s="20"/>
       <c r="F353" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="19"/>
+      <c r="A354" s="20"/>
       <c r="B354" s="4" t="s">
         <v>378</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
-      <c r="E354" s="19"/>
+      <c r="E354" s="20"/>
       <c r="F354" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="19"/>
+      <c r="A355" s="20"/>
       <c r="B355" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
-      <c r="E355" s="19"/>
+      <c r="E355" s="20"/>
       <c r="F355" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="20"/>
+      <c r="A356" s="21"/>
       <c r="B356" s="6" t="s">
         <v>380</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
-      <c r="E356" s="20"/>
+      <c r="E356" s="21"/>
       <c r="F356" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="18" t="s">
+      <c r="A357" s="19" t="s">
         <v>381</v>
       </c>
       <c r="B357" s="5" t="s">
@@ -6499,7 +7036,7 @@
       </c>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
-      <c r="E357" s="18" t="s">
+      <c r="E357" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F357" s="8">
@@ -6507,379 +7044,379 @@
       </c>
     </row>
     <row r="358" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="19"/>
+      <c r="A358" s="20"/>
       <c r="B358" s="4" t="s">
         <v>383</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
-      <c r="E358" s="19"/>
+      <c r="E358" s="20"/>
       <c r="F358" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="19"/>
+      <c r="A359" s="20"/>
       <c r="B359" s="4" t="s">
         <v>384</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
-      <c r="E359" s="19"/>
+      <c r="E359" s="20"/>
       <c r="F359" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="19"/>
+      <c r="A360" s="20"/>
       <c r="B360" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
-      <c r="E360" s="19"/>
+      <c r="E360" s="20"/>
       <c r="F360" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="19"/>
+      <c r="A361" s="20"/>
       <c r="B361" s="4" t="s">
         <v>386</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
-      <c r="E361" s="19"/>
+      <c r="E361" s="20"/>
       <c r="F361" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="19"/>
+      <c r="A362" s="20"/>
       <c r="B362" s="4" t="s">
         <v>387</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
-      <c r="E362" s="19"/>
+      <c r="E362" s="20"/>
       <c r="F362" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="19"/>
+      <c r="A363" s="20"/>
       <c r="B363" s="4" t="s">
         <v>388</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
-      <c r="E363" s="19"/>
+      <c r="E363" s="20"/>
       <c r="F363" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="19"/>
+      <c r="A364" s="20"/>
       <c r="B364" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
-      <c r="E364" s="19"/>
+      <c r="E364" s="20"/>
       <c r="F364" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="19"/>
+      <c r="A365" s="20"/>
       <c r="B365" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
-      <c r="E365" s="19"/>
+      <c r="E365" s="20"/>
       <c r="F365" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="19"/>
+      <c r="A366" s="20"/>
       <c r="B366" s="4" t="s">
         <v>391</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
-      <c r="E366" s="19"/>
+      <c r="E366" s="20"/>
       <c r="F366" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="19"/>
+      <c r="A367" s="20"/>
       <c r="B367" s="4" t="s">
         <v>392</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
-      <c r="E367" s="19"/>
+      <c r="E367" s="20"/>
       <c r="F367" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="19"/>
+      <c r="A368" s="20"/>
       <c r="B368" s="4" t="s">
         <v>393</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
-      <c r="E368" s="19"/>
+      <c r="E368" s="20"/>
       <c r="F368" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="19"/>
+      <c r="A369" s="20"/>
       <c r="B369" s="4" t="s">
         <v>394</v>
       </c>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
-      <c r="E369" s="19"/>
+      <c r="E369" s="20"/>
       <c r="F369" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="19"/>
+      <c r="A370" s="20"/>
       <c r="B370" s="4" t="s">
         <v>395</v>
       </c>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
-      <c r="E370" s="19"/>
+      <c r="E370" s="20"/>
       <c r="F370" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="19"/>
+      <c r="A371" s="20"/>
       <c r="B371" s="4" t="s">
         <v>396</v>
       </c>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
-      <c r="E371" s="19"/>
+      <c r="E371" s="20"/>
       <c r="F371" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="19"/>
+      <c r="A372" s="20"/>
       <c r="B372" s="4" t="s">
         <v>397</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
-      <c r="E372" s="19"/>
+      <c r="E372" s="20"/>
       <c r="F372" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="19"/>
+      <c r="A373" s="20"/>
       <c r="B373" s="4" t="s">
         <v>398</v>
       </c>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
-      <c r="E373" s="19"/>
+      <c r="E373" s="20"/>
       <c r="F373" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="19"/>
+      <c r="A374" s="20"/>
       <c r="B374" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
-      <c r="E374" s="19"/>
+      <c r="E374" s="20"/>
       <c r="F374" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="19"/>
+      <c r="A375" s="20"/>
       <c r="B375" s="4" t="s">
         <v>400</v>
       </c>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
-      <c r="E375" s="19"/>
+      <c r="E375" s="20"/>
       <c r="F375" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="19"/>
+      <c r="A376" s="20"/>
       <c r="B376" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
-      <c r="E376" s="19"/>
+      <c r="E376" s="20"/>
       <c r="F376" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="19"/>
+      <c r="A377" s="20"/>
       <c r="B377" s="4" t="s">
         <v>402</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
-      <c r="E377" s="19"/>
+      <c r="E377" s="20"/>
       <c r="F377" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="19"/>
+      <c r="A378" s="20"/>
       <c r="B378" s="4" t="s">
         <v>403</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
-      <c r="E378" s="19"/>
+      <c r="E378" s="20"/>
       <c r="F378" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="19"/>
+      <c r="A379" s="20"/>
       <c r="B379" s="4" t="s">
         <v>404</v>
       </c>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
-      <c r="E379" s="19"/>
+      <c r="E379" s="20"/>
       <c r="F379" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="19"/>
+      <c r="A380" s="20"/>
       <c r="B380" s="4" t="s">
         <v>405</v>
       </c>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
-      <c r="E380" s="19"/>
+      <c r="E380" s="20"/>
       <c r="F380" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="19"/>
+      <c r="A381" s="20"/>
       <c r="B381" s="4" t="s">
         <v>406</v>
       </c>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
-      <c r="E381" s="19"/>
+      <c r="E381" s="20"/>
       <c r="F381" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="19"/>
+      <c r="A382" s="20"/>
       <c r="B382" s="4" t="s">
         <v>407</v>
       </c>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
-      <c r="E382" s="19"/>
+      <c r="E382" s="20"/>
       <c r="F382" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="19"/>
+      <c r="A383" s="20"/>
       <c r="B383" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
-      <c r="E383" s="19"/>
+      <c r="E383" s="20"/>
       <c r="F383" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="19"/>
+      <c r="A384" s="20"/>
       <c r="B384" s="4" t="s">
         <v>409</v>
       </c>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
-      <c r="E384" s="19"/>
+      <c r="E384" s="20"/>
       <c r="F384" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="19"/>
+      <c r="A385" s="20"/>
       <c r="B385" s="4" t="s">
         <v>410</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
-      <c r="E385" s="19"/>
+      <c r="E385" s="20"/>
       <c r="F385" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="19"/>
+      <c r="A386" s="20"/>
       <c r="B386" s="4" t="s">
         <v>411</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
-      <c r="E386" s="19"/>
+      <c r="E386" s="20"/>
       <c r="F386" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="19"/>
+      <c r="A387" s="20"/>
       <c r="B387" s="4" t="s">
         <v>412</v>
       </c>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
-      <c r="E387" s="19"/>
+      <c r="E387" s="20"/>
       <c r="F387" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="20"/>
+      <c r="A388" s="21"/>
       <c r="B388" s="6" t="s">
         <v>413</v>
       </c>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
-      <c r="E388" s="20"/>
+      <c r="E388" s="21"/>
       <c r="F388" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="18" t="s">
+      <c r="A389" s="19" t="s">
         <v>414</v>
       </c>
       <c r="B389" s="5" t="s">
@@ -6887,7 +7424,7 @@
       </c>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
-      <c r="E389" s="18" t="s">
+      <c r="E389" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F389" s="8">
@@ -6895,19 +7432,19 @@
       </c>
     </row>
     <row r="390" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="19"/>
+      <c r="A390" s="20"/>
       <c r="B390" s="4" t="s">
         <v>416</v>
       </c>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
-      <c r="E390" s="19"/>
+      <c r="E390" s="20"/>
       <c r="F390" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="19"/>
+      <c r="A391" s="20"/>
       <c r="B391" s="4" t="s">
         <v>417</v>
       </c>
@@ -6915,49 +7452,49 @@
         <v>70</v>
       </c>
       <c r="D391" s="4"/>
-      <c r="E391" s="19"/>
+      <c r="E391" s="20"/>
       <c r="F391" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="392" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="19"/>
+      <c r="A392" s="20"/>
       <c r="B392" s="4" t="s">
         <v>418</v>
       </c>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
-      <c r="E392" s="19"/>
+      <c r="E392" s="20"/>
       <c r="F392" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="19"/>
+      <c r="A393" s="20"/>
       <c r="B393" s="4" t="s">
         <v>419</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
-      <c r="E393" s="19"/>
+      <c r="E393" s="20"/>
       <c r="F393" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="20"/>
+      <c r="A394" s="21"/>
       <c r="B394" s="6" t="s">
         <v>420</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
-      <c r="E394" s="20"/>
+      <c r="E394" s="21"/>
       <c r="F394" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="18" t="s">
+      <c r="A395" s="19" t="s">
         <v>421</v>
       </c>
       <c r="B395" s="5" t="s">
@@ -6965,7 +7502,7 @@
       </c>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
-      <c r="E395" s="18" t="s">
+      <c r="E395" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F395" s="8">
@@ -6973,55 +7510,55 @@
       </c>
     </row>
     <row r="396" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="19"/>
+      <c r="A396" s="20"/>
       <c r="B396" s="4" t="s">
         <v>423</v>
       </c>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
-      <c r="E396" s="19"/>
+      <c r="E396" s="20"/>
       <c r="F396" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="19"/>
+      <c r="A397" s="20"/>
       <c r="B397" s="4" t="s">
         <v>424</v>
       </c>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
-      <c r="E397" s="19"/>
+      <c r="E397" s="20"/>
       <c r="F397" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="19"/>
+      <c r="A398" s="20"/>
       <c r="B398" s="4" t="s">
         <v>425</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
-      <c r="E398" s="19"/>
+      <c r="E398" s="20"/>
       <c r="F398" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="20"/>
+      <c r="A399" s="21"/>
       <c r="B399" s="6" t="s">
         <v>426</v>
       </c>
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
-      <c r="E399" s="20"/>
+      <c r="E399" s="21"/>
       <c r="F399" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="18" t="s">
+      <c r="A400" s="19" t="s">
         <v>427</v>
       </c>
       <c r="B400" s="5" t="s">
@@ -7029,7 +7566,7 @@
       </c>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
-      <c r="E400" s="18" t="s">
+      <c r="E400" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F400" s="8">
@@ -7037,43 +7574,43 @@
       </c>
     </row>
     <row r="401" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="19"/>
+      <c r="A401" s="20"/>
       <c r="B401" s="4" t="s">
         <v>429</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
-      <c r="E401" s="19"/>
+      <c r="E401" s="20"/>
       <c r="F401" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="19"/>
+      <c r="A402" s="20"/>
       <c r="B402" s="4" t="s">
         <v>430</v>
       </c>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
-      <c r="E402" s="19"/>
+      <c r="E402" s="20"/>
       <c r="F402" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="403" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="20"/>
+      <c r="A403" s="21"/>
       <c r="B403" s="6" t="s">
         <v>431</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
-      <c r="E403" s="20"/>
+      <c r="E403" s="21"/>
       <c r="F403" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="404" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="18" t="s">
+      <c r="A404" s="19" t="s">
         <v>432</v>
       </c>
       <c r="B404" s="5" t="s">
@@ -7081,7 +7618,7 @@
       </c>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
-      <c r="E404" s="18" t="s">
+      <c r="E404" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F404" s="8">
@@ -7089,199 +7626,199 @@
       </c>
     </row>
     <row r="405" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="19"/>
+      <c r="A405" s="20"/>
       <c r="B405" s="4" t="s">
         <v>434</v>
       </c>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
-      <c r="E405" s="19"/>
+      <c r="E405" s="20"/>
       <c r="F405" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="19"/>
+      <c r="A406" s="20"/>
       <c r="B406" s="4" t="s">
         <v>435</v>
       </c>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
-      <c r="E406" s="19"/>
+      <c r="E406" s="20"/>
       <c r="F406" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="19"/>
+      <c r="A407" s="20"/>
       <c r="B407" s="4" t="s">
         <v>436</v>
       </c>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
-      <c r="E407" s="19"/>
+      <c r="E407" s="20"/>
       <c r="F407" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="19"/>
+      <c r="A408" s="20"/>
       <c r="B408" s="4" t="s">
         <v>437</v>
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
-      <c r="E408" s="19"/>
+      <c r="E408" s="20"/>
       <c r="F408" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="19"/>
+      <c r="A409" s="20"/>
       <c r="B409" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
-      <c r="E409" s="19"/>
+      <c r="E409" s="20"/>
       <c r="F409" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="19"/>
+      <c r="A410" s="20"/>
       <c r="B410" s="4" t="s">
         <v>439</v>
       </c>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
-      <c r="E410" s="19"/>
+      <c r="E410" s="20"/>
       <c r="F410" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="19"/>
+      <c r="A411" s="20"/>
       <c r="B411" s="4" t="s">
         <v>440</v>
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
-      <c r="E411" s="19"/>
+      <c r="E411" s="20"/>
       <c r="F411" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="19"/>
+      <c r="A412" s="20"/>
       <c r="B412" s="4" t="s">
         <v>441</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
-      <c r="E412" s="19"/>
+      <c r="E412" s="20"/>
       <c r="F412" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="19"/>
+      <c r="A413" s="20"/>
       <c r="B413" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
-      <c r="E413" s="19"/>
+      <c r="E413" s="20"/>
       <c r="F413" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="19"/>
+      <c r="A414" s="20"/>
       <c r="B414" s="4" t="s">
         <v>443</v>
       </c>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
-      <c r="E414" s="19"/>
+      <c r="E414" s="20"/>
       <c r="F414" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="19"/>
+      <c r="A415" s="20"/>
       <c r="B415" s="4" t="s">
         <v>444</v>
       </c>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
-      <c r="E415" s="19"/>
+      <c r="E415" s="20"/>
       <c r="F415" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="19"/>
+      <c r="A416" s="20"/>
       <c r="B416" s="4" t="s">
         <v>445</v>
       </c>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
-      <c r="E416" s="19"/>
+      <c r="E416" s="20"/>
       <c r="F416" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="19"/>
+      <c r="A417" s="20"/>
       <c r="B417" s="4" t="s">
         <v>446</v>
       </c>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
-      <c r="E417" s="19"/>
+      <c r="E417" s="20"/>
       <c r="F417" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="19"/>
+      <c r="A418" s="20"/>
       <c r="B418" s="4" t="s">
         <v>447</v>
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
-      <c r="E418" s="19"/>
+      <c r="E418" s="20"/>
       <c r="F418" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="19"/>
+      <c r="A419" s="20"/>
       <c r="B419" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
-      <c r="E419" s="19"/>
+      <c r="E419" s="20"/>
       <c r="F419" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="20"/>
+      <c r="A420" s="21"/>
       <c r="B420" s="6" t="s">
         <v>448</v>
       </c>
       <c r="C420" s="6"/>
       <c r="D420" s="6"/>
-      <c r="E420" s="20"/>
+      <c r="E420" s="21"/>
       <c r="F420" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="18" t="s">
+      <c r="A421" s="19" t="s">
         <v>449</v>
       </c>
       <c r="B421" s="5" t="s">
@@ -7289,7 +7826,7 @@
       </c>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
-      <c r="E421" s="18" t="s">
+      <c r="E421" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F421" s="8">
@@ -7297,658 +7834,2689 @@
       </c>
     </row>
     <row r="422" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="19"/>
+      <c r="A422" s="20"/>
       <c r="B422" s="4" t="s">
         <v>451</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
-      <c r="E422" s="19"/>
+      <c r="E422" s="20"/>
       <c r="F422" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="19"/>
+      <c r="A423" s="20"/>
       <c r="B423" s="4" t="s">
         <v>452</v>
       </c>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
-      <c r="E423" s="19"/>
+      <c r="E423" s="20"/>
       <c r="F423" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="19"/>
+      <c r="A424" s="20"/>
       <c r="B424" s="4" t="s">
         <v>453</v>
       </c>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
-      <c r="E424" s="19"/>
+      <c r="E424" s="20"/>
       <c r="F424" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="19"/>
+      <c r="A425" s="20"/>
       <c r="B425" s="4" t="s">
         <v>454</v>
       </c>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
-      <c r="E425" s="19"/>
+      <c r="E425" s="20"/>
       <c r="F425" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="19"/>
+      <c r="A426" s="20"/>
       <c r="B426" s="4" t="s">
         <v>455</v>
       </c>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
-      <c r="E426" s="19"/>
+      <c r="E426" s="20"/>
       <c r="F426" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="19"/>
+      <c r="A427" s="20"/>
       <c r="B427" s="4" t="s">
         <v>456</v>
       </c>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
-      <c r="E427" s="19"/>
+      <c r="E427" s="20"/>
       <c r="F427" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="19"/>
+      <c r="A428" s="20"/>
       <c r="B428" s="4" t="s">
         <v>457</v>
       </c>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
-      <c r="E428" s="19"/>
+      <c r="E428" s="20"/>
       <c r="F428" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="19"/>
+      <c r="A429" s="20"/>
       <c r="B429" s="4" t="s">
         <v>458</v>
       </c>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
-      <c r="E429" s="19"/>
+      <c r="E429" s="20"/>
       <c r="F429" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="19"/>
+      <c r="A430" s="20"/>
       <c r="B430" s="4" t="s">
         <v>459</v>
       </c>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
-      <c r="E430" s="19"/>
+      <c r="E430" s="20"/>
       <c r="F430" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="19"/>
+      <c r="A431" s="20"/>
       <c r="B431" s="4" t="s">
         <v>460</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
-      <c r="E431" s="19"/>
+      <c r="E431" s="20"/>
       <c r="F431" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="19"/>
+      <c r="A432" s="20"/>
       <c r="B432" s="4" t="s">
         <v>461</v>
       </c>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
-      <c r="E432" s="19"/>
+      <c r="E432" s="20"/>
       <c r="F432" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="19"/>
+      <c r="A433" s="20"/>
       <c r="B433" s="4" t="s">
         <v>462</v>
       </c>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
-      <c r="E433" s="19"/>
+      <c r="E433" s="20"/>
       <c r="F433" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="19"/>
+      <c r="A434" s="20"/>
       <c r="B434" s="4" t="s">
         <v>463</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
-      <c r="E434" s="19"/>
+      <c r="E434" s="20"/>
       <c r="F434" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="19"/>
+      <c r="A435" s="20"/>
       <c r="B435" s="4" t="s">
         <v>464</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
-      <c r="E435" s="19"/>
+      <c r="E435" s="20"/>
       <c r="F435" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="19"/>
+      <c r="A436" s="20"/>
       <c r="B436" s="4" t="s">
         <v>465</v>
       </c>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
-      <c r="E436" s="19"/>
+      <c r="E436" s="20"/>
       <c r="F436" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="19"/>
+      <c r="A437" s="20"/>
       <c r="B437" s="4" t="s">
         <v>466</v>
       </c>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
-      <c r="E437" s="19"/>
+      <c r="E437" s="20"/>
       <c r="F437" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="19"/>
+      <c r="A438" s="20"/>
       <c r="B438" s="4" t="s">
         <v>467</v>
       </c>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
-      <c r="E438" s="19"/>
+      <c r="E438" s="20"/>
       <c r="F438" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="19"/>
+      <c r="A439" s="20"/>
       <c r="B439" s="4" t="s">
         <v>468</v>
       </c>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
-      <c r="E439" s="19"/>
+      <c r="E439" s="20"/>
       <c r="F439" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="19"/>
+      <c r="A440" s="20"/>
       <c r="B440" s="4" t="s">
         <v>469</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
-      <c r="E440" s="19"/>
+      <c r="E440" s="20"/>
       <c r="F440" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="19"/>
+      <c r="A441" s="20"/>
       <c r="B441" s="4" t="s">
         <v>376</v>
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
-      <c r="E441" s="19"/>
+      <c r="E441" s="20"/>
       <c r="F441" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="19"/>
+      <c r="A442" s="20"/>
       <c r="B442" s="4" t="s">
         <v>375</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
-      <c r="E442" s="19"/>
+      <c r="E442" s="20"/>
       <c r="F442" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="19"/>
+      <c r="A443" s="20"/>
       <c r="B443" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
-      <c r="E443" s="19"/>
+      <c r="E443" s="20"/>
       <c r="F443" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="19"/>
+      <c r="A444" s="20"/>
       <c r="B444" s="4" t="s">
         <v>470</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
-      <c r="E444" s="19"/>
+      <c r="E444" s="20"/>
       <c r="F444" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="19"/>
+      <c r="A445" s="20"/>
       <c r="B445" s="4" t="s">
         <v>471</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
-      <c r="E445" s="19"/>
+      <c r="E445" s="20"/>
       <c r="F445" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="19"/>
+      <c r="A446" s="20"/>
       <c r="B446" s="4" t="s">
         <v>472</v>
       </c>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
-      <c r="E446" s="19"/>
+      <c r="E446" s="20"/>
       <c r="F446" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="19"/>
+      <c r="A447" s="20"/>
       <c r="B447" s="4" t="s">
         <v>473</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
-      <c r="E447" s="19"/>
+      <c r="E447" s="20"/>
       <c r="F447" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="19"/>
+      <c r="A448" s="20"/>
       <c r="B448" s="4" t="s">
         <v>474</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
-      <c r="E448" s="19"/>
+      <c r="E448" s="20"/>
       <c r="F448" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="19"/>
+      <c r="A449" s="20"/>
       <c r="B449" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
-      <c r="E449" s="19"/>
+      <c r="E449" s="20"/>
       <c r="F449" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="19"/>
+      <c r="A450" s="20"/>
       <c r="B450" s="4" t="s">
         <v>476</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
-      <c r="E450" s="19"/>
+      <c r="E450" s="20"/>
       <c r="F450" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="19"/>
+      <c r="A451" s="20"/>
       <c r="B451" s="4" t="s">
         <v>477</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
-      <c r="E451" s="19"/>
+      <c r="E451" s="20"/>
       <c r="F451" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="19"/>
+      <c r="A452" s="20"/>
       <c r="B452" s="4" t="s">
         <v>478</v>
       </c>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
-      <c r="E452" s="19"/>
+      <c r="E452" s="20"/>
       <c r="F452" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="19"/>
+      <c r="A453" s="20"/>
       <c r="B453" s="4" t="s">
         <v>479</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
-      <c r="E453" s="19"/>
+      <c r="E453" s="20"/>
       <c r="F453" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="19"/>
+      <c r="A454" s="20"/>
       <c r="B454" s="4" t="s">
         <v>480</v>
       </c>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
-      <c r="E454" s="19"/>
+      <c r="E454" s="20"/>
       <c r="F454" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="19"/>
+      <c r="A455" s="20"/>
       <c r="B455" s="4" t="s">
         <v>481</v>
       </c>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
-      <c r="E455" s="19"/>
+      <c r="E455" s="20"/>
       <c r="F455" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="19"/>
+      <c r="A456" s="20"/>
       <c r="B456" s="4" t="s">
         <v>482</v>
       </c>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
-      <c r="E456" s="19"/>
+      <c r="E456" s="20"/>
       <c r="F456" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="19"/>
+      <c r="A457" s="20"/>
       <c r="B457" s="4" t="s">
         <v>483</v>
       </c>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
-      <c r="E457" s="19"/>
+      <c r="E457" s="20"/>
       <c r="F457" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="19"/>
+      <c r="A458" s="20"/>
       <c r="B458" s="4" t="s">
         <v>484</v>
       </c>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
-      <c r="E458" s="19"/>
+      <c r="E458" s="20"/>
       <c r="F458" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="19"/>
+      <c r="A459" s="20"/>
       <c r="B459" s="4" t="s">
         <v>485</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
-      <c r="E459" s="19"/>
+      <c r="E459" s="20"/>
       <c r="F459" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="19"/>
+      <c r="A460" s="20"/>
       <c r="B460" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
-      <c r="E460" s="19"/>
+      <c r="E460" s="20"/>
       <c r="F460" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="19"/>
+      <c r="A461" s="20"/>
       <c r="B461" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
-      <c r="E461" s="19"/>
+      <c r="E461" s="20"/>
       <c r="F461" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="19"/>
+      <c r="A462" s="20"/>
       <c r="B462" s="4" t="s">
         <v>486</v>
       </c>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
-      <c r="E462" s="19"/>
+      <c r="E462" s="20"/>
       <c r="F462" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="19"/>
+      <c r="A463" s="20"/>
       <c r="B463" s="4" t="s">
         <v>487</v>
       </c>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
-      <c r="E463" s="19"/>
+      <c r="E463" s="20"/>
       <c r="F463" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="19"/>
+      <c r="A464" s="20"/>
       <c r="B464" s="4" t="s">
         <v>488</v>
       </c>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
-      <c r="E464" s="19"/>
+      <c r="E464" s="20"/>
       <c r="F464" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="19"/>
+      <c r="A465" s="20"/>
       <c r="B465" s="4" t="s">
         <v>489</v>
       </c>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
-      <c r="E465" s="19"/>
+      <c r="E465" s="20"/>
       <c r="F465" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="19"/>
+      <c r="A466" s="20"/>
       <c r="B466" s="4" t="s">
         <v>490</v>
       </c>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
-      <c r="E466" s="19"/>
+      <c r="E466" s="20"/>
       <c r="F466" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="19"/>
+      <c r="A467" s="20"/>
       <c r="B467" s="4" t="s">
         <v>491</v>
       </c>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
-      <c r="E467" s="19"/>
+      <c r="E467" s="20"/>
       <c r="F467" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="19"/>
+      <c r="A468" s="20"/>
       <c r="B468" s="4" t="s">
         <v>492</v>
       </c>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
-      <c r="E468" s="19"/>
+      <c r="E468" s="20"/>
       <c r="F468" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="19"/>
+      <c r="A469" s="20"/>
       <c r="B469" s="4" t="s">
         <v>493</v>
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
-      <c r="E469" s="19"/>
+      <c r="E469" s="20"/>
       <c r="F469" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="19"/>
+      <c r="A470" s="20"/>
       <c r="B470" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
-      <c r="E470" s="19"/>
+      <c r="E470" s="20"/>
       <c r="F470" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="20"/>
+      <c r="A471" s="21"/>
       <c r="B471" s="6" t="s">
         <v>494</v>
       </c>
       <c r="C471" s="6"/>
       <c r="D471" s="6"/>
-      <c r="E471" s="20"/>
+      <c r="E471" s="21"/>
       <c r="F471" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" s="9" t="s">
+    <row r="472" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="19" t="s">
         <v>495</v>
       </c>
+      <c r="B472" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C472" s="5"/>
+      <c r="D472" s="5"/>
+      <c r="E472" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F472" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="20"/>
+      <c r="B473" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C473" s="4"/>
+      <c r="D473" s="4"/>
+      <c r="E473" s="20"/>
+      <c r="F473" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="20"/>
+      <c r="B474" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C474" s="4"/>
+      <c r="D474" s="4"/>
+      <c r="E474" s="20"/>
+      <c r="F474" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="20"/>
+      <c r="B475" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C475" s="4"/>
+      <c r="D475" s="4"/>
+      <c r="E475" s="20"/>
+      <c r="F475" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="20"/>
+      <c r="B476" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C476" s="4"/>
+      <c r="D476" s="4"/>
+      <c r="E476" s="20"/>
+      <c r="F476" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="20"/>
+      <c r="B477" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C477" s="4"/>
+      <c r="D477" s="4"/>
+      <c r="E477" s="20"/>
+      <c r="F477" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="20"/>
+      <c r="B478" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C478" s="4"/>
+      <c r="D478" s="4"/>
+      <c r="E478" s="20"/>
+      <c r="F478" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="20"/>
+      <c r="B479" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C479" s="4"/>
+      <c r="D479" s="4"/>
+      <c r="E479" s="20"/>
+      <c r="F479" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="20"/>
+      <c r="B480" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C480" s="4"/>
+      <c r="D480" s="4"/>
+      <c r="E480" s="20"/>
+      <c r="F480" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="20"/>
+      <c r="B481" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C481" s="4"/>
+      <c r="D481" s="4"/>
+      <c r="E481" s="20"/>
+      <c r="F481" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="20"/>
+      <c r="B482" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C482" s="4"/>
+      <c r="D482" s="4"/>
+      <c r="E482" s="20"/>
+      <c r="F482" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="20"/>
+      <c r="B483" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C483" s="4"/>
+      <c r="D483" s="4"/>
+      <c r="E483" s="20"/>
+      <c r="F483" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="20"/>
+      <c r="B484" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C484" s="4"/>
+      <c r="D484" s="4"/>
+      <c r="E484" s="20"/>
+      <c r="F484" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="20"/>
+      <c r="B485" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C485" s="4"/>
+      <c r="D485" s="4"/>
+      <c r="E485" s="20"/>
+      <c r="F485" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="21"/>
+      <c r="B486" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C486" s="6"/>
+      <c r="D486" s="6"/>
+      <c r="E486" s="21"/>
+      <c r="F486" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C487" s="5"/>
+      <c r="D487" s="5"/>
+      <c r="E487" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F487" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="20"/>
+      <c r="B488" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C488" s="4"/>
+      <c r="D488" s="4"/>
+      <c r="E488" s="20"/>
+      <c r="F488" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="20"/>
+      <c r="B489" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C489" s="4"/>
+      <c r="D489" s="4"/>
+      <c r="E489" s="20"/>
+      <c r="F489" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="20"/>
+      <c r="B490" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C490" s="4"/>
+      <c r="D490" s="4"/>
+      <c r="E490" s="20"/>
+      <c r="F490" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="20"/>
+      <c r="B491" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C491" s="4"/>
+      <c r="D491" s="4"/>
+      <c r="E491" s="20"/>
+      <c r="F491" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="20"/>
+      <c r="B492" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C492" s="4"/>
+      <c r="D492" s="4"/>
+      <c r="E492" s="20"/>
+      <c r="F492" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="20"/>
+      <c r="B493" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C493" s="4"/>
+      <c r="D493" s="4"/>
+      <c r="E493" s="20"/>
+      <c r="F493" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="20"/>
+      <c r="B494" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C494" s="4"/>
+      <c r="D494" s="4"/>
+      <c r="E494" s="20"/>
+      <c r="F494" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="20"/>
+      <c r="B495" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C495" s="4"/>
+      <c r="D495" s="4"/>
+      <c r="E495" s="20"/>
+      <c r="F495" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="20"/>
+      <c r="B496" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C496" s="4"/>
+      <c r="D496" s="4"/>
+      <c r="E496" s="20"/>
+      <c r="F496" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="20"/>
+      <c r="B497" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C497" s="4"/>
+      <c r="D497" s="4"/>
+      <c r="E497" s="20"/>
+      <c r="F497" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="21"/>
+      <c r="B498" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C498" s="6"/>
+      <c r="D498" s="6"/>
+      <c r="E498" s="21"/>
+      <c r="F498" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="B499" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C499" s="5"/>
+      <c r="D499" s="5"/>
+      <c r="E499" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F499" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="20"/>
+      <c r="B500" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C500" s="4"/>
+      <c r="D500" s="4"/>
+      <c r="E500" s="20"/>
+      <c r="F500" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="20"/>
+      <c r="B501" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C501" s="4"/>
+      <c r="D501" s="4"/>
+      <c r="E501" s="20"/>
+      <c r="F501" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="20"/>
+      <c r="B502" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C502" s="4"/>
+      <c r="D502" s="4"/>
+      <c r="E502" s="20"/>
+      <c r="F502" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="20"/>
+      <c r="B503" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C503" s="4"/>
+      <c r="D503" s="4"/>
+      <c r="E503" s="20"/>
+      <c r="F503" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="21"/>
+      <c r="B504" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C504" s="6"/>
+      <c r="D504" s="6"/>
+      <c r="E504" s="21"/>
+      <c r="F504" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="B505" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C505" s="5"/>
+      <c r="D505" s="5"/>
+      <c r="E505" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F505" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="20"/>
+      <c r="B506" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C506" s="4"/>
+      <c r="D506" s="4"/>
+      <c r="E506" s="20"/>
+      <c r="F506" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="20"/>
+      <c r="B507" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C507" s="4"/>
+      <c r="D507" s="4"/>
+      <c r="E507" s="20"/>
+      <c r="F507" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="20"/>
+      <c r="B508" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C508" s="4"/>
+      <c r="D508" s="4"/>
+      <c r="E508" s="20"/>
+      <c r="F508" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="20"/>
+      <c r="B509" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C509" s="4"/>
+      <c r="D509" s="4"/>
+      <c r="E509" s="20"/>
+      <c r="F509" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="20"/>
+      <c r="B510" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C510" s="4"/>
+      <c r="D510" s="4"/>
+      <c r="E510" s="20"/>
+      <c r="F510" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="20"/>
+      <c r="B511" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C511" s="4"/>
+      <c r="D511" s="4"/>
+      <c r="E511" s="20"/>
+      <c r="F511" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="20"/>
+      <c r="B512" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C512" s="4"/>
+      <c r="D512" s="4"/>
+      <c r="E512" s="20"/>
+      <c r="F512" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="20"/>
+      <c r="B513" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C513" s="4"/>
+      <c r="D513" s="4"/>
+      <c r="E513" s="20"/>
+      <c r="F513" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="20"/>
+      <c r="B514" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C514" s="4"/>
+      <c r="D514" s="4"/>
+      <c r="E514" s="20"/>
+      <c r="F514" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="20"/>
+      <c r="B515" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C515" s="4"/>
+      <c r="D515" s="4"/>
+      <c r="E515" s="20"/>
+      <c r="F515" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="20"/>
+      <c r="B516" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C516" s="4"/>
+      <c r="D516" s="4"/>
+      <c r="E516" s="20"/>
+      <c r="F516" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="20"/>
+      <c r="B517" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C517" s="4"/>
+      <c r="D517" s="4"/>
+      <c r="E517" s="20"/>
+      <c r="F517" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="20"/>
+      <c r="B518" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C518" s="4"/>
+      <c r="D518" s="4"/>
+      <c r="E518" s="20"/>
+      <c r="F518" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="20"/>
+      <c r="B519" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C519" s="4"/>
+      <c r="D519" s="4"/>
+      <c r="E519" s="20"/>
+      <c r="F519" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="20"/>
+      <c r="B520" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C520" s="4"/>
+      <c r="D520" s="4"/>
+      <c r="E520" s="20"/>
+      <c r="F520" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="20"/>
+      <c r="B521" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C521" s="4"/>
+      <c r="D521" s="4"/>
+      <c r="E521" s="20"/>
+      <c r="F521" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="20"/>
+      <c r="B522" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C522" s="4"/>
+      <c r="D522" s="4"/>
+      <c r="E522" s="20"/>
+      <c r="F522" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="20"/>
+      <c r="B523" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C523" s="4"/>
+      <c r="D523" s="4"/>
+      <c r="E523" s="20"/>
+      <c r="F523" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="20"/>
+      <c r="B524" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C524" s="4"/>
+      <c r="D524" s="4"/>
+      <c r="E524" s="20"/>
+      <c r="F524" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="20"/>
+      <c r="B525" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C525" s="4"/>
+      <c r="D525" s="4"/>
+      <c r="E525" s="20"/>
+      <c r="F525" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="20"/>
+      <c r="B526" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C526" s="4"/>
+      <c r="D526" s="4"/>
+      <c r="E526" s="20"/>
+      <c r="F526" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="20"/>
+      <c r="B527" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C527" s="4"/>
+      <c r="D527" s="4"/>
+      <c r="E527" s="20"/>
+      <c r="F527" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="20"/>
+      <c r="B528" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C528" s="4"/>
+      <c r="D528" s="4"/>
+      <c r="E528" s="20"/>
+      <c r="F528" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="20"/>
+      <c r="B529" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C529" s="4"/>
+      <c r="D529" s="4"/>
+      <c r="E529" s="20"/>
+      <c r="F529" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="20"/>
+      <c r="B530" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C530" s="4"/>
+      <c r="D530" s="4"/>
+      <c r="E530" s="20"/>
+      <c r="F530" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="20"/>
+      <c r="B531" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C531" s="4"/>
+      <c r="D531" s="4"/>
+      <c r="E531" s="20"/>
+      <c r="F531" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="20"/>
+      <c r="B532" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C532" s="4"/>
+      <c r="D532" s="4"/>
+      <c r="E532" s="20"/>
+      <c r="F532" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="20"/>
+      <c r="B533" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C533" s="4"/>
+      <c r="D533" s="4"/>
+      <c r="E533" s="20"/>
+      <c r="F533" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="20"/>
+      <c r="B534" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C534" s="4"/>
+      <c r="D534" s="4"/>
+      <c r="E534" s="20"/>
+      <c r="F534" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="20"/>
+      <c r="B535" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C535" s="4"/>
+      <c r="D535" s="4"/>
+      <c r="E535" s="20"/>
+      <c r="F535" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="20"/>
+      <c r="B536" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C536" s="4"/>
+      <c r="D536" s="4"/>
+      <c r="E536" s="20"/>
+      <c r="F536" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="20"/>
+      <c r="B537" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C537" s="4"/>
+      <c r="D537" s="4"/>
+      <c r="E537" s="20"/>
+      <c r="F537" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="20"/>
+      <c r="B538" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C538" s="4"/>
+      <c r="D538" s="4"/>
+      <c r="E538" s="20"/>
+      <c r="F538" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="20"/>
+      <c r="B539" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C539" s="4"/>
+      <c r="D539" s="4"/>
+      <c r="E539" s="20"/>
+      <c r="F539" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="20"/>
+      <c r="B540" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C540" s="4"/>
+      <c r="D540" s="4"/>
+      <c r="E540" s="20"/>
+      <c r="F540" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="20"/>
+      <c r="B541" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C541" s="4"/>
+      <c r="D541" s="4"/>
+      <c r="E541" s="20"/>
+      <c r="F541" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="20"/>
+      <c r="B542" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C542" s="4"/>
+      <c r="D542" s="4"/>
+      <c r="E542" s="20"/>
+      <c r="F542" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="20"/>
+      <c r="B543" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C543" s="4"/>
+      <c r="D543" s="4"/>
+      <c r="E543" s="20"/>
+      <c r="F543" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="20"/>
+      <c r="B544" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C544" s="4"/>
+      <c r="D544" s="4"/>
+      <c r="E544" s="20"/>
+      <c r="F544" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="20"/>
+      <c r="B545" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C545" s="4"/>
+      <c r="D545" s="4"/>
+      <c r="E545" s="20"/>
+      <c r="F545" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="20"/>
+      <c r="B546" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C546" s="4"/>
+      <c r="D546" s="4"/>
+      <c r="E546" s="20"/>
+      <c r="F546" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="20"/>
+      <c r="B547" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C547" s="4"/>
+      <c r="D547" s="4"/>
+      <c r="E547" s="20"/>
+      <c r="F547" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="20"/>
+      <c r="B548" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C548" s="4"/>
+      <c r="D548" s="4"/>
+      <c r="E548" s="20"/>
+      <c r="F548" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="20"/>
+      <c r="B549" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C549" s="4"/>
+      <c r="D549" s="4"/>
+      <c r="E549" s="20"/>
+      <c r="F549" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="20"/>
+      <c r="B550" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C550" s="4"/>
+      <c r="D550" s="4"/>
+      <c r="E550" s="20"/>
+      <c r="F550" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="20"/>
+      <c r="B551" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C551" s="4"/>
+      <c r="D551" s="4"/>
+      <c r="E551" s="20"/>
+      <c r="F551" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="20"/>
+      <c r="B552" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C552" s="4"/>
+      <c r="D552" s="4"/>
+      <c r="E552" s="20"/>
+      <c r="F552" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="20"/>
+      <c r="B553" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C553" s="4"/>
+      <c r="D553" s="4"/>
+      <c r="E553" s="20"/>
+      <c r="F553" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="20"/>
+      <c r="B554" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C554" s="4"/>
+      <c r="D554" s="4"/>
+      <c r="E554" s="20"/>
+      <c r="F554" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="20"/>
+      <c r="B555" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C555" s="4"/>
+      <c r="D555" s="4"/>
+      <c r="E555" s="20"/>
+      <c r="F555" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="20"/>
+      <c r="B556" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C556" s="4"/>
+      <c r="D556" s="4"/>
+      <c r="E556" s="20"/>
+      <c r="F556" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="20"/>
+      <c r="B557" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C557" s="4"/>
+      <c r="D557" s="4"/>
+      <c r="E557" s="20"/>
+      <c r="F557" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="20"/>
+      <c r="B558" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C558" s="4"/>
+      <c r="D558" s="4"/>
+      <c r="E558" s="20"/>
+      <c r="F558" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="20"/>
+      <c r="B559" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C559" s="4"/>
+      <c r="D559" s="4"/>
+      <c r="E559" s="20"/>
+      <c r="F559" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="20"/>
+      <c r="B560" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C560" s="4"/>
+      <c r="D560" s="4"/>
+      <c r="E560" s="20"/>
+      <c r="F560" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="20"/>
+      <c r="B561" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C561" s="4"/>
+      <c r="D561" s="4"/>
+      <c r="E561" s="20"/>
+      <c r="F561" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="20"/>
+      <c r="B562" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C562" s="4"/>
+      <c r="D562" s="4"/>
+      <c r="E562" s="20"/>
+      <c r="F562" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="20"/>
+      <c r="B563" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C563" s="4"/>
+      <c r="D563" s="4"/>
+      <c r="E563" s="20"/>
+      <c r="F563" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="20"/>
+      <c r="B564" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C564" s="4"/>
+      <c r="D564" s="4"/>
+      <c r="E564" s="20"/>
+      <c r="F564" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="20"/>
+      <c r="B565" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C565" s="4"/>
+      <c r="D565" s="4"/>
+      <c r="E565" s="20"/>
+      <c r="F565" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="20"/>
+      <c r="B566" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C566" s="4"/>
+      <c r="D566" s="4"/>
+      <c r="E566" s="20"/>
+      <c r="F566" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="20"/>
+      <c r="B567" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C567" s="4"/>
+      <c r="D567" s="4"/>
+      <c r="E567" s="20"/>
+      <c r="F567" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="20"/>
+      <c r="B568" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C568" s="4"/>
+      <c r="D568" s="4"/>
+      <c r="E568" s="20"/>
+      <c r="F568" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="20"/>
+      <c r="B569" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C569" s="4"/>
+      <c r="D569" s="4"/>
+      <c r="E569" s="20"/>
+      <c r="F569" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="20"/>
+      <c r="B570" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C570" s="4"/>
+      <c r="D570" s="4"/>
+      <c r="E570" s="20"/>
+      <c r="F570" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="20"/>
+      <c r="B571" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C571" s="4"/>
+      <c r="D571" s="4"/>
+      <c r="E571" s="20"/>
+      <c r="F571" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="20"/>
+      <c r="B572" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C572" s="4"/>
+      <c r="D572" s="4"/>
+      <c r="E572" s="20"/>
+      <c r="F572" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="20"/>
+      <c r="B573" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C573" s="4"/>
+      <c r="D573" s="4"/>
+      <c r="E573" s="20"/>
+      <c r="F573" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="20"/>
+      <c r="B574" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C574" s="4"/>
+      <c r="D574" s="4"/>
+      <c r="E574" s="20"/>
+      <c r="F574" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="20"/>
+      <c r="B575" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C575" s="4"/>
+      <c r="D575" s="4"/>
+      <c r="E575" s="20"/>
+      <c r="F575" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="20"/>
+      <c r="B576" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C576" s="4"/>
+      <c r="D576" s="4"/>
+      <c r="E576" s="20"/>
+      <c r="F576" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="21"/>
+      <c r="B577" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C577" s="6"/>
+      <c r="D577" s="6"/>
+      <c r="E577" s="21"/>
+      <c r="F577" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C578" s="5"/>
+      <c r="D578" s="5"/>
+      <c r="E578" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F578" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="20"/>
+      <c r="B579" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C579" s="4"/>
+      <c r="D579" s="4"/>
+      <c r="E579" s="20"/>
+      <c r="F579" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="20"/>
+      <c r="B580" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C580" s="4"/>
+      <c r="D580" s="4"/>
+      <c r="E580" s="20"/>
+      <c r="F580" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="21"/>
+      <c r="B581" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C581" s="6"/>
+      <c r="D581" s="6"/>
+      <c r="E581" s="21"/>
+      <c r="F581" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="B582" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C582" s="5"/>
+      <c r="D582" s="5"/>
+      <c r="E582" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F582" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="21"/>
+      <c r="B583" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C583" s="6"/>
+      <c r="D583" s="6"/>
+      <c r="E583" s="21"/>
+      <c r="F583" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="B584" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C584" s="5"/>
+      <c r="D584" s="5"/>
+      <c r="E584" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F584" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="20"/>
+      <c r="B585" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C585" s="4"/>
+      <c r="D585" s="4"/>
+      <c r="E585" s="20"/>
+      <c r="F585" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="20"/>
+      <c r="B586" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C586" s="4"/>
+      <c r="D586" s="4"/>
+      <c r="E586" s="20"/>
+      <c r="F586" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="20"/>
+      <c r="B587" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C587" s="4"/>
+      <c r="D587" s="4"/>
+      <c r="E587" s="20"/>
+      <c r="F587" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="20"/>
+      <c r="B588" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C588" s="4"/>
+      <c r="D588" s="4"/>
+      <c r="E588" s="20"/>
+      <c r="F588" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="20"/>
+      <c r="B589" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C589" s="4"/>
+      <c r="D589" s="4"/>
+      <c r="E589" s="20"/>
+      <c r="F589" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="20"/>
+      <c r="B590" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C590" s="4"/>
+      <c r="D590" s="4"/>
+      <c r="E590" s="20"/>
+      <c r="F590" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="20"/>
+      <c r="B591" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C591" s="4"/>
+      <c r="D591" s="4"/>
+      <c r="E591" s="20"/>
+      <c r="F591" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="20"/>
+      <c r="B592" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C592" s="4"/>
+      <c r="D592" s="4"/>
+      <c r="E592" s="20"/>
+      <c r="F592" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="21"/>
+      <c r="B593" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C593" s="6"/>
+      <c r="D593" s="6"/>
+      <c r="E593" s="21"/>
+      <c r="F593" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="B594" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C594" s="5"/>
+      <c r="D594" s="5"/>
+      <c r="E594" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F594" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="20"/>
+      <c r="B595" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C595" s="4"/>
+      <c r="D595" s="4"/>
+      <c r="E595" s="20"/>
+      <c r="F595" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="20"/>
+      <c r="B596" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C596" s="4"/>
+      <c r="D596" s="4"/>
+      <c r="E596" s="20"/>
+      <c r="F596" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="20"/>
+      <c r="B597" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C597" s="4"/>
+      <c r="D597" s="4"/>
+      <c r="E597" s="20"/>
+      <c r="F597" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="20"/>
+      <c r="B598" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C598" s="4"/>
+      <c r="D598" s="4"/>
+      <c r="E598" s="20"/>
+      <c r="F598" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="20"/>
+      <c r="B599" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C599" s="4"/>
+      <c r="D599" s="4"/>
+      <c r="E599" s="20"/>
+      <c r="F599" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="21"/>
+      <c r="B600" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C600" s="6"/>
+      <c r="D600" s="6"/>
+      <c r="E600" s="21"/>
+      <c r="F600" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="B601" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C601" s="8"/>
+      <c r="D601" s="8"/>
+      <c r="E601" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F601" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="B602" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C602" s="8"/>
+      <c r="D602" s="8"/>
+      <c r="E602" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F602" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="B603" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="C603" s="8"/>
+      <c r="D603" s="8"/>
+      <c r="E603" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F603" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A604" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="B604" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C604" s="5"/>
+      <c r="D604" s="5"/>
+      <c r="E604" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F604" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A605" s="20"/>
+      <c r="B605" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C605" s="4"/>
+      <c r="D605" s="4"/>
+      <c r="E605" s="20"/>
+      <c r="F605" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A606" s="21"/>
+      <c r="B606" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C606" s="6"/>
+      <c r="D606" s="6"/>
+      <c r="E606" s="21"/>
+      <c r="F606" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A607" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B607" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="E607" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F607" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="B608" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="C608" s="8"/>
+      <c r="D608" s="8"/>
+      <c r="E608" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F608" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="B609" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C609" s="5"/>
+      <c r="D609" s="5"/>
+      <c r="E609" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F609" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="20"/>
+      <c r="B610" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C610" s="4"/>
+      <c r="D610" s="4"/>
+      <c r="E610" s="20"/>
+      <c r="F610" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="20"/>
+      <c r="B611" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C611" s="4"/>
+      <c r="D611" s="4"/>
+      <c r="E611" s="20"/>
+      <c r="F611" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="20"/>
+      <c r="B612" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C612" s="4"/>
+      <c r="D612" s="4"/>
+      <c r="E612" s="20"/>
+      <c r="F612" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="21"/>
+      <c r="B613" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C613" s="6"/>
+      <c r="D613" s="6"/>
+      <c r="E613" s="21"/>
+      <c r="F613" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="B614" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C614" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="D614" s="5"/>
+      <c r="E614" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F614" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="20"/>
+      <c r="B615" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C615" s="26"/>
+      <c r="D615" s="4"/>
+      <c r="E615" s="20"/>
+      <c r="F615" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="20"/>
+      <c r="B616" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C616" s="26"/>
+      <c r="D616" s="4"/>
+      <c r="E616" s="20"/>
+      <c r="F616" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A617" s="20"/>
+      <c r="B617" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C617" s="26"/>
+      <c r="D617" s="4"/>
+      <c r="E617" s="20"/>
+      <c r="F617" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="20"/>
+      <c r="B618" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C618" s="26"/>
+      <c r="D618" s="4"/>
+      <c r="E618" s="20"/>
+      <c r="F618" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="20"/>
+      <c r="B619" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C619" s="26"/>
+      <c r="D619" s="4"/>
+      <c r="E619" s="20"/>
+      <c r="F619" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="20"/>
+      <c r="B620" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C620" s="26"/>
+      <c r="D620" s="4"/>
+      <c r="E620" s="20"/>
+      <c r="F620" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="20"/>
+      <c r="B621" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C621" s="26"/>
+      <c r="D621" s="4"/>
+      <c r="E621" s="20"/>
+      <c r="F621" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="20"/>
+      <c r="B622" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C622" s="26"/>
+      <c r="D622" s="4"/>
+      <c r="E622" s="20"/>
+      <c r="F622" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="21"/>
+      <c r="B623" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C623" s="27"/>
+      <c r="D623" s="6"/>
+      <c r="E623" s="21"/>
+      <c r="F623" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="B624" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C624" s="5"/>
+      <c r="D624" s="5"/>
+      <c r="E624" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F624" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="20"/>
+      <c r="B625" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C625" s="4"/>
+      <c r="D625" s="4"/>
+      <c r="E625" s="20"/>
+      <c r="F625" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="20"/>
+      <c r="B626" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C626" s="4"/>
+      <c r="D626" s="4"/>
+      <c r="E626" s="20"/>
+      <c r="F626" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="20"/>
+      <c r="B627" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C627" s="4"/>
+      <c r="D627" s="4"/>
+      <c r="E627" s="20"/>
+      <c r="F627" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="21"/>
+      <c r="B628" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C628" s="6"/>
+      <c r="D628" s="6"/>
+      <c r="E628" s="21"/>
+      <c r="F628" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="B629" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C629" s="5"/>
+      <c r="D629" s="5"/>
+      <c r="E629" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F629" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="21"/>
+      <c r="B630" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="C630" s="6"/>
+      <c r="D630" s="6"/>
+      <c r="E630" s="21"/>
+      <c r="F630" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="B631" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C631" s="8"/>
+      <c r="D631" s="8"/>
+      <c r="E631" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F631" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A632" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B632" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B633" s="4" t="s">
+        <v>671</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="73">
+    <mergeCell ref="A624:A628"/>
+    <mergeCell ref="E624:E628"/>
+    <mergeCell ref="A629:A630"/>
+    <mergeCell ref="E629:E630"/>
+    <mergeCell ref="A609:A613"/>
+    <mergeCell ref="E609:E613"/>
+    <mergeCell ref="A614:A623"/>
+    <mergeCell ref="C614:C623"/>
+    <mergeCell ref="E614:E623"/>
+    <mergeCell ref="A584:A593"/>
+    <mergeCell ref="E584:E593"/>
+    <mergeCell ref="A594:A600"/>
+    <mergeCell ref="E594:E600"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="E604:E606"/>
+    <mergeCell ref="A505:A577"/>
+    <mergeCell ref="E505:E577"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="A582:A583"/>
+    <mergeCell ref="E582:E583"/>
+    <mergeCell ref="A472:A486"/>
+    <mergeCell ref="E472:E486"/>
+    <mergeCell ref="A487:A498"/>
+    <mergeCell ref="E487:E498"/>
+    <mergeCell ref="A499:A504"/>
+    <mergeCell ref="E499:E504"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="E400:E403"/>
+    <mergeCell ref="A404:A420"/>
+    <mergeCell ref="E404:E420"/>
+    <mergeCell ref="A421:A471"/>
+    <mergeCell ref="E421:E471"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="E9:E14"/>
     <mergeCell ref="A15:A32"/>
     <mergeCell ref="E15:E32"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="E400:E403"/>
-    <mergeCell ref="A404:A420"/>
-    <mergeCell ref="E404:E420"/>
-    <mergeCell ref="A421:A471"/>
-    <mergeCell ref="E421:E471"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="expression" dxfId="3" priority="6">

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66376AB8-2BB9-4CD1-B3DF-2FC52A5611D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WebApiTests" sheetId="1" r:id="rId1"/>
@@ -2046,7 +2047,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2262,6 +2263,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2271,6 +2275,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2279,30 +2304,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2652,11 +2653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F633"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="B633" sqref="B633"/>
+      <selection activeCell="A632" sqref="A632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,7 +2691,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2700,7 +2701,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -2708,7 +2709,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2716,13 +2717,13 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2730,13 +2731,13 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2744,13 +2745,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2758,13 +2759,13 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
@@ -2772,13 +2773,13 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
@@ -2786,13 +2787,13 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2802,7 +2803,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -2810,7 +2811,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
@@ -2818,61 +2819,61 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="23"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="24"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2880,7 +2881,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="5">
@@ -2888,211 +2889,211 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="20"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="20"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="20"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="20"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="20"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="20"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="20"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="21"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3100,7 +3101,7 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="5">
@@ -3108,163 +3109,163 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="20"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="20"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="20"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="20"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="20"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="20"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="20"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="20"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="20"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="20"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="20"/>
+      <c r="E45" s="21"/>
       <c r="F45" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="21"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -3272,7 +3273,7 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F47" s="5">
@@ -3280,249 +3281,249 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="20"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="20"/>
+      <c r="E49" s="21"/>
       <c r="F49" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="20"/>
+      <c r="E50" s="21"/>
       <c r="F50" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="20"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="20"/>
+      <c r="E52" s="21"/>
       <c r="F52" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="25" t="s">
+      <c r="E53" s="21"/>
+      <c r="F53" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="28"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="26"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="28"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="26"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="24"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="28"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="26"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="28"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="26"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="28"/>
+      <c r="C58" s="27"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="26"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="28"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="27"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="25"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="20"/>
+      <c r="E60" s="21"/>
       <c r="F60" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="20"/>
+      <c r="E61" s="21"/>
       <c r="F61" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="20"/>
+      <c r="E62" s="21"/>
       <c r="F62" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="20"/>
+      <c r="E63" s="21"/>
       <c r="F63" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="20"/>
+      <c r="E64" s="21"/>
       <c r="F64" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="20"/>
+      <c r="E65" s="21"/>
       <c r="F65" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="20"/>
+      <c r="E66" s="21"/>
       <c r="F66" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="20"/>
+      <c r="E67" s="21"/>
       <c r="F67" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="21"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="20" t="s">
         <v>186</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -3530,7 +3531,7 @@
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="20" t="s">
         <v>187</v>
       </c>
       <c r="F69" s="8">
@@ -3538,1313 +3539,1313 @@
       </c>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="20"/>
+      <c r="E70" s="21"/>
       <c r="F70" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="20"/>
+      <c r="E71" s="21"/>
       <c r="F71" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="20"/>
+      <c r="E72" s="21"/>
       <c r="F72" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="20"/>
+      <c r="E73" s="21"/>
       <c r="F73" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="20"/>
+      <c r="E74" s="21"/>
       <c r="F74" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="20"/>
+      <c r="E75" s="21"/>
       <c r="F75" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="20"/>
+      <c r="E76" s="21"/>
       <c r="F76" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="20"/>
+      <c r="E77" s="21"/>
       <c r="F77" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="20"/>
+      <c r="E78" s="21"/>
       <c r="F78" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="20"/>
+      <c r="E79" s="21"/>
       <c r="F79" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="20"/>
+      <c r="E80" s="21"/>
       <c r="F80" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="20"/>
+      <c r="E81" s="21"/>
       <c r="F81" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="20"/>
+      <c r="E82" s="21"/>
       <c r="F82" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="20"/>
+      <c r="E83" s="21"/>
       <c r="F83" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="20"/>
+      <c r="E84" s="21"/>
       <c r="F84" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="20"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="20"/>
+      <c r="E86" s="21"/>
       <c r="F86" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="20"/>
+      <c r="E87" s="21"/>
       <c r="F87" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="20"/>
+      <c r="E88" s="21"/>
       <c r="F88" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="20"/>
+      <c r="E89" s="21"/>
       <c r="F89" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="20"/>
+      <c r="E90" s="21"/>
       <c r="F90" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="20"/>
+      <c r="E91" s="21"/>
       <c r="F91" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="20"/>
+      <c r="E92" s="21"/>
       <c r="F92" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="20"/>
+      <c r="E93" s="21"/>
       <c r="F93" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="20"/>
+      <c r="E94" s="21"/>
       <c r="F94" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="20"/>
+      <c r="E95" s="21"/>
       <c r="F95" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
+      <c r="A96" s="21"/>
       <c r="B96" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="20"/>
+      <c r="E96" s="21"/>
       <c r="F96" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="20"/>
+      <c r="E97" s="21"/>
       <c r="F97" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
+      <c r="A98" s="21"/>
       <c r="B98" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="20"/>
+      <c r="E98" s="21"/>
       <c r="F98" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="20"/>
+      <c r="E99" s="21"/>
       <c r="F99" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
+      <c r="A100" s="21"/>
       <c r="B100" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="20"/>
+      <c r="E100" s="21"/>
       <c r="F100" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="20"/>
+      <c r="E101" s="21"/>
       <c r="F101" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="20"/>
+      <c r="E102" s="21"/>
       <c r="F102" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="20"/>
+      <c r="E103" s="21"/>
       <c r="F103" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="20"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="20"/>
+      <c r="E104" s="21"/>
       <c r="F104" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
+      <c r="A105" s="21"/>
       <c r="B105" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="20"/>
+      <c r="E105" s="21"/>
       <c r="F105" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
+      <c r="A106" s="21"/>
       <c r="B106" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="20"/>
+      <c r="E106" s="21"/>
       <c r="F106" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
+      <c r="A107" s="21"/>
       <c r="B107" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="20"/>
+      <c r="E107" s="21"/>
       <c r="F107" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
+      <c r="A108" s="21"/>
       <c r="B108" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="20"/>
+      <c r="E108" s="21"/>
       <c r="F108" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
+      <c r="A109" s="21"/>
       <c r="B109" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="20"/>
+      <c r="E109" s="21"/>
       <c r="F109" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
+      <c r="A110" s="21"/>
       <c r="B110" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="20"/>
+      <c r="E110" s="21"/>
       <c r="F110" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="20"/>
+      <c r="E111" s="21"/>
       <c r="F111" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="20"/>
+      <c r="E112" s="21"/>
       <c r="F112" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="20"/>
+      <c r="E113" s="21"/>
       <c r="F113" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="20"/>
+      <c r="E114" s="21"/>
       <c r="F114" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="20"/>
+      <c r="E115" s="21"/>
       <c r="F115" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="20"/>
+      <c r="E116" s="21"/>
       <c r="F116" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="20"/>
+      <c r="E117" s="21"/>
       <c r="F117" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
+      <c r="A118" s="21"/>
       <c r="B118" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="20"/>
+      <c r="E118" s="21"/>
       <c r="F118" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
+      <c r="A119" s="21"/>
       <c r="B119" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="20"/>
+      <c r="E119" s="21"/>
       <c r="F119" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
+      <c r="A120" s="21"/>
       <c r="B120" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="20"/>
+      <c r="E120" s="21"/>
       <c r="F120" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
+      <c r="A121" s="21"/>
       <c r="B121" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="20"/>
+      <c r="E121" s="21"/>
       <c r="F121" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
+      <c r="A122" s="21"/>
       <c r="B122" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="20"/>
+      <c r="E122" s="21"/>
       <c r="F122" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
+      <c r="A123" s="21"/>
       <c r="B123" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="20"/>
+      <c r="E123" s="21"/>
       <c r="F123" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
+      <c r="A124" s="21"/>
       <c r="B124" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="20"/>
+      <c r="E124" s="21"/>
       <c r="F124" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
+      <c r="A125" s="21"/>
       <c r="B125" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="20"/>
+      <c r="E125" s="21"/>
       <c r="F125" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
+      <c r="A126" s="21"/>
       <c r="B126" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="20"/>
+      <c r="E126" s="21"/>
       <c r="F126" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="20"/>
+      <c r="A127" s="21"/>
       <c r="B127" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="20"/>
+      <c r="E127" s="21"/>
       <c r="F127" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="20"/>
+      <c r="A128" s="21"/>
       <c r="B128" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="20"/>
+      <c r="E128" s="21"/>
       <c r="F128" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="20"/>
+      <c r="A129" s="21"/>
       <c r="B129" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="20"/>
+      <c r="E129" s="21"/>
       <c r="F129" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
+      <c r="A130" s="21"/>
       <c r="B130" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="20"/>
+      <c r="E130" s="21"/>
       <c r="F130" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="20"/>
+      <c r="A131" s="21"/>
       <c r="B131" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="20"/>
+      <c r="E131" s="21"/>
       <c r="F131" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
+      <c r="A132" s="21"/>
       <c r="B132" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="20"/>
+      <c r="E132" s="21"/>
       <c r="F132" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="20"/>
+      <c r="A133" s="21"/>
       <c r="B133" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="20"/>
+      <c r="E133" s="21"/>
       <c r="F133" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
+      <c r="A134" s="21"/>
       <c r="B134" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="20"/>
+      <c r="E134" s="21"/>
       <c r="F134" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
+      <c r="A135" s="21"/>
       <c r="B135" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="20"/>
+      <c r="E135" s="21"/>
       <c r="F135" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="20"/>
+      <c r="A136" s="21"/>
       <c r="B136" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="20"/>
+      <c r="E136" s="21"/>
       <c r="F136" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
+      <c r="A137" s="21"/>
       <c r="B137" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="20"/>
+      <c r="E137" s="21"/>
       <c r="F137" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
+      <c r="A138" s="21"/>
       <c r="B138" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="20"/>
+      <c r="E138" s="21"/>
       <c r="F138" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="20"/>
+      <c r="A139" s="21"/>
       <c r="B139" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="20"/>
+      <c r="E139" s="21"/>
       <c r="F139" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
+      <c r="A140" s="21"/>
       <c r="B140" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="20"/>
+      <c r="E140" s="21"/>
       <c r="F140" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
+      <c r="A141" s="21"/>
       <c r="B141" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="20"/>
+      <c r="E141" s="21"/>
       <c r="F141" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
+      <c r="A142" s="21"/>
       <c r="B142" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="20"/>
+      <c r="E142" s="21"/>
       <c r="F142" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
+      <c r="A143" s="21"/>
       <c r="B143" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="20"/>
+      <c r="E143" s="21"/>
       <c r="F143" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
+      <c r="A144" s="21"/>
       <c r="B144" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="20"/>
+      <c r="E144" s="21"/>
       <c r="F144" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="20"/>
+      <c r="A145" s="21"/>
       <c r="B145" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="20"/>
+      <c r="E145" s="21"/>
       <c r="F145" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
+      <c r="A146" s="21"/>
       <c r="B146" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="20"/>
+      <c r="E146" s="21"/>
       <c r="F146" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="20"/>
+      <c r="A147" s="21"/>
       <c r="B147" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="20"/>
+      <c r="E147" s="21"/>
       <c r="F147" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="20"/>
+      <c r="A148" s="21"/>
       <c r="B148" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="20"/>
+      <c r="E148" s="21"/>
       <c r="F148" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="20"/>
+      <c r="A149" s="21"/>
       <c r="B149" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="20"/>
+      <c r="E149" s="21"/>
       <c r="F149" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
+      <c r="A150" s="21"/>
       <c r="B150" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="20"/>
+      <c r="E150" s="21"/>
       <c r="F150" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
+      <c r="A151" s="21"/>
       <c r="B151" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="20"/>
+      <c r="E151" s="21"/>
       <c r="F151" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
+      <c r="A152" s="21"/>
       <c r="B152" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="20"/>
+      <c r="E152" s="21"/>
       <c r="F152" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
+      <c r="A153" s="21"/>
       <c r="B153" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="20"/>
+      <c r="E153" s="21"/>
       <c r="F153" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="20"/>
+      <c r="A154" s="21"/>
       <c r="B154" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="20"/>
+      <c r="E154" s="21"/>
       <c r="F154" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="20"/>
+      <c r="A155" s="21"/>
       <c r="B155" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="20"/>
+      <c r="E155" s="21"/>
       <c r="F155" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="20"/>
+      <c r="A156" s="21"/>
       <c r="B156" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="20"/>
+      <c r="E156" s="21"/>
       <c r="F156" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="20"/>
+      <c r="A157" s="21"/>
       <c r="B157" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="20"/>
+      <c r="E157" s="21"/>
       <c r="F157" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="20"/>
+      <c r="A158" s="21"/>
       <c r="B158" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="20"/>
+      <c r="E158" s="21"/>
       <c r="F158" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="20"/>
+      <c r="A159" s="21"/>
       <c r="B159" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="20"/>
+      <c r="E159" s="21"/>
       <c r="F159" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
+      <c r="A160" s="21"/>
       <c r="B160" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="20"/>
+      <c r="E160" s="21"/>
       <c r="F160" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="20"/>
+      <c r="A161" s="21"/>
       <c r="B161" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="20"/>
+      <c r="E161" s="21"/>
       <c r="F161" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="20"/>
+      <c r="A162" s="21"/>
       <c r="B162" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="20"/>
+      <c r="E162" s="21"/>
       <c r="F162" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="20"/>
+      <c r="A163" s="21"/>
       <c r="B163" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="20"/>
+      <c r="E163" s="21"/>
       <c r="F163" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
+      <c r="A164" s="21"/>
       <c r="B164" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="20"/>
+      <c r="E164" s="21"/>
       <c r="F164" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
+      <c r="A165" s="21"/>
       <c r="B165" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="20"/>
+      <c r="E165" s="21"/>
       <c r="F165" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
+      <c r="A166" s="21"/>
       <c r="B166" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="20"/>
+      <c r="E166" s="21"/>
       <c r="F166" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
+      <c r="A167" s="21"/>
       <c r="B167" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="20"/>
+      <c r="E167" s="21"/>
       <c r="F167" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
+      <c r="A168" s="21"/>
       <c r="B168" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="20"/>
+      <c r="E168" s="21"/>
       <c r="F168" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
+      <c r="A169" s="21"/>
       <c r="B169" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="20"/>
+      <c r="E169" s="21"/>
       <c r="F169" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="20"/>
+      <c r="A170" s="21"/>
       <c r="B170" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="20"/>
+      <c r="E170" s="21"/>
       <c r="F170" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="20"/>
+      <c r="A171" s="21"/>
       <c r="B171" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
-      <c r="E171" s="20"/>
+      <c r="E171" s="21"/>
       <c r="F171" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="20"/>
+      <c r="A172" s="21"/>
       <c r="B172" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="20"/>
+      <c r="E172" s="21"/>
       <c r="F172" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="21"/>
+      <c r="A173" s="22"/>
       <c r="B173" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
-      <c r="E173" s="21"/>
+      <c r="E173" s="22"/>
       <c r="F173" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="19" t="s">
+      <c r="A174" s="20" t="s">
         <v>193</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C174" s="29" t="s">
+      <c r="C174" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D174" s="5"/>
-      <c r="E174" s="19" t="s">
+      <c r="E174" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F174" s="29" t="s">
+      <c r="F174" s="26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="20"/>
+      <c r="A175" s="21"/>
       <c r="B175" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C175" s="28"/>
+      <c r="C175" s="27"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="20"/>
-      <c r="F175" s="28"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="27"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="20"/>
+      <c r="A176" s="21"/>
       <c r="B176" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C176" s="28"/>
+      <c r="C176" s="27"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="28"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="27"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="20"/>
+      <c r="A177" s="21"/>
       <c r="B177" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C177" s="28"/>
+      <c r="C177" s="27"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="28"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="27"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="21"/>
+      <c r="A178" s="22"/>
       <c r="B178" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C178" s="30"/>
+      <c r="C178" s="28"/>
       <c r="D178" s="6"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="30"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="28"/>
     </row>
     <row r="179" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="19" t="s">
+      <c r="A179" s="20" t="s">
         <v>194</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -4852,7 +4853,7 @@
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
-      <c r="E179" s="19" t="s">
+      <c r="E179" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F179" s="8">
@@ -4860,127 +4861,127 @@
       </c>
     </row>
     <row r="180" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="20"/>
+      <c r="A180" s="21"/>
       <c r="B180" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="20"/>
+      <c r="E180" s="21"/>
       <c r="F180" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="20"/>
+      <c r="A181" s="21"/>
       <c r="B181" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
-      <c r="E181" s="20"/>
+      <c r="E181" s="21"/>
       <c r="F181" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="20"/>
+      <c r="A182" s="21"/>
       <c r="B182" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="20"/>
+      <c r="E182" s="21"/>
       <c r="F182" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="20"/>
+      <c r="A183" s="21"/>
       <c r="B183" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
-      <c r="E183" s="20"/>
+      <c r="E183" s="21"/>
       <c r="F183" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="20"/>
+      <c r="A184" s="21"/>
       <c r="B184" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="20"/>
+      <c r="E184" s="21"/>
       <c r="F184" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="20"/>
+      <c r="A185" s="21"/>
       <c r="B185" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
-      <c r="E185" s="20"/>
+      <c r="E185" s="21"/>
       <c r="F185" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="20"/>
+      <c r="A186" s="21"/>
       <c r="B186" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
-      <c r="E186" s="20"/>
+      <c r="E186" s="21"/>
       <c r="F186" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="20"/>
+      <c r="A187" s="21"/>
       <c r="B187" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
-      <c r="E187" s="20"/>
+      <c r="E187" s="21"/>
       <c r="F187" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="20"/>
+      <c r="A188" s="21"/>
       <c r="B188" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="20"/>
+      <c r="E188" s="21"/>
       <c r="F188" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="21"/>
+      <c r="A189" s="22"/>
       <c r="B189" s="6" t="s">
         <v>205</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
-      <c r="E189" s="21"/>
+      <c r="E189" s="22"/>
       <c r="F189" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="19" t="s">
+      <c r="A190" s="20" t="s">
         <v>206</v>
       </c>
       <c r="B190" s="5" t="s">
@@ -4988,7 +4989,7 @@
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
-      <c r="E190" s="19" t="s">
+      <c r="E190" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F190" s="8">
@@ -4996,85 +4997,85 @@
       </c>
     </row>
     <row r="191" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="20"/>
+      <c r="A191" s="21"/>
       <c r="B191" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
-      <c r="E191" s="20"/>
+      <c r="E191" s="21"/>
       <c r="F191" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="20"/>
+      <c r="A192" s="21"/>
       <c r="B192" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="20"/>
+      <c r="E192" s="21"/>
       <c r="F192" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="20"/>
+      <c r="A193" s="21"/>
       <c r="B193" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
-      <c r="E193" s="20"/>
+      <c r="E193" s="21"/>
       <c r="F193" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="20"/>
+      <c r="A194" s="21"/>
       <c r="B194" s="4" t="s">
         <v>211</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
-      <c r="E194" s="20"/>
+      <c r="E194" s="21"/>
       <c r="F194" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="20"/>
+      <c r="A195" s="21"/>
       <c r="B195" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
-      <c r="E195" s="20"/>
+      <c r="E195" s="21"/>
       <c r="F195" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="20"/>
+      <c r="A196" s="21"/>
       <c r="B196" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
-      <c r="E196" s="20"/>
+      <c r="E196" s="21"/>
       <c r="F196" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="21"/>
+      <c r="A197" s="22"/>
       <c r="B197" s="6" t="s">
         <v>213</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
-      <c r="E197" s="21"/>
+      <c r="E197" s="22"/>
       <c r="F197" s="8">
         <v>-1</v>
       </c>
@@ -5096,7 +5097,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="19" t="s">
+      <c r="A199" s="20" t="s">
         <v>216</v>
       </c>
       <c r="B199" s="5" t="s">
@@ -5104,7 +5105,7 @@
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
-      <c r="E199" s="19" t="s">
+      <c r="E199" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F199" s="8">
@@ -5112,175 +5113,175 @@
       </c>
     </row>
     <row r="200" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="20"/>
+      <c r="A200" s="21"/>
       <c r="B200" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
-      <c r="E200" s="20"/>
+      <c r="E200" s="21"/>
       <c r="F200" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="20"/>
+      <c r="A201" s="21"/>
       <c r="B201" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
-      <c r="E201" s="20"/>
+      <c r="E201" s="21"/>
       <c r="F201" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="20"/>
+      <c r="A202" s="21"/>
       <c r="B202" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="20"/>
+      <c r="E202" s="21"/>
       <c r="F202" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="20"/>
+      <c r="A203" s="21"/>
       <c r="B203" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="20"/>
+      <c r="E203" s="21"/>
       <c r="F203" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="20"/>
+      <c r="A204" s="21"/>
       <c r="B204" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="20"/>
+      <c r="E204" s="21"/>
       <c r="F204" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="20"/>
+      <c r="A205" s="21"/>
       <c r="B205" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
-      <c r="E205" s="20"/>
+      <c r="E205" s="21"/>
       <c r="F205" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="20"/>
+      <c r="A206" s="21"/>
       <c r="B206" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
-      <c r="E206" s="20"/>
+      <c r="E206" s="21"/>
       <c r="F206" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="20"/>
+      <c r="A207" s="21"/>
       <c r="B207" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
-      <c r="E207" s="20"/>
+      <c r="E207" s="21"/>
       <c r="F207" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="20"/>
+      <c r="A208" s="21"/>
       <c r="B208" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
-      <c r="E208" s="20"/>
+      <c r="E208" s="21"/>
       <c r="F208" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="20"/>
+      <c r="A209" s="21"/>
       <c r="B209" s="4" t="s">
         <v>227</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
-      <c r="E209" s="20"/>
+      <c r="E209" s="21"/>
       <c r="F209" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="20"/>
+      <c r="A210" s="21"/>
       <c r="B210" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
-      <c r="E210" s="20"/>
+      <c r="E210" s="21"/>
       <c r="F210" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="20"/>
+      <c r="A211" s="21"/>
       <c r="B211" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
-      <c r="E211" s="20"/>
+      <c r="E211" s="21"/>
       <c r="F211" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
+      <c r="A212" s="21"/>
       <c r="B212" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
-      <c r="E212" s="20"/>
+      <c r="E212" s="21"/>
       <c r="F212" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="21"/>
+      <c r="A213" s="22"/>
       <c r="B213" s="6" t="s">
         <v>231</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
-      <c r="E213" s="21"/>
+      <c r="E213" s="22"/>
       <c r="F213" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="19" t="s">
+      <c r="A214" s="20" t="s">
         <v>232</v>
       </c>
       <c r="B214" s="5" t="s">
@@ -5288,7 +5289,7 @@
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
-      <c r="E214" s="19" t="s">
+      <c r="E214" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F214" s="8">
@@ -5296,163 +5297,163 @@
       </c>
     </row>
     <row r="215" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
+      <c r="A215" s="21"/>
       <c r="B215" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
-      <c r="E215" s="20"/>
+      <c r="E215" s="21"/>
       <c r="F215" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="20"/>
+      <c r="A216" s="21"/>
       <c r="B216" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
-      <c r="E216" s="20"/>
+      <c r="E216" s="21"/>
       <c r="F216" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="20"/>
+      <c r="A217" s="21"/>
       <c r="B217" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
-      <c r="E217" s="20"/>
+      <c r="E217" s="21"/>
       <c r="F217" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="20"/>
+      <c r="A218" s="21"/>
       <c r="B218" s="4" t="s">
         <v>236</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
-      <c r="E218" s="20"/>
+      <c r="E218" s="21"/>
       <c r="F218" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="20"/>
+      <c r="A219" s="21"/>
       <c r="B219" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
-      <c r="E219" s="20"/>
+      <c r="E219" s="21"/>
       <c r="F219" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="20"/>
+      <c r="A220" s="21"/>
       <c r="B220" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
-      <c r="E220" s="20"/>
+      <c r="E220" s="21"/>
       <c r="F220" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="20"/>
+      <c r="A221" s="21"/>
       <c r="B221" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
-      <c r="E221" s="20"/>
+      <c r="E221" s="21"/>
       <c r="F221" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="20"/>
+      <c r="A222" s="21"/>
       <c r="B222" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
-      <c r="E222" s="20"/>
+      <c r="E222" s="21"/>
       <c r="F222" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="20"/>
+      <c r="A223" s="21"/>
       <c r="B223" s="4" t="s">
         <v>241</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
-      <c r="E223" s="20"/>
+      <c r="E223" s="21"/>
       <c r="F223" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="20"/>
+      <c r="A224" s="21"/>
       <c r="B224" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
-      <c r="E224" s="20"/>
+      <c r="E224" s="21"/>
       <c r="F224" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="20"/>
+      <c r="A225" s="21"/>
       <c r="B225" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
-      <c r="E225" s="20"/>
+      <c r="E225" s="21"/>
       <c r="F225" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="20"/>
+      <c r="A226" s="21"/>
       <c r="B226" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
-      <c r="E226" s="20"/>
+      <c r="E226" s="21"/>
       <c r="F226" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="21"/>
+      <c r="A227" s="22"/>
       <c r="B227" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
-      <c r="E227" s="21"/>
+      <c r="E227" s="22"/>
       <c r="F227" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="19" t="s">
+      <c r="A228" s="20" t="s">
         <v>246</v>
       </c>
       <c r="B228" s="5" t="s">
@@ -5460,7 +5461,7 @@
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
-      <c r="E228" s="19" t="s">
+      <c r="E228" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F228" s="8">
@@ -5468,295 +5469,295 @@
       </c>
     </row>
     <row r="229" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="20"/>
+      <c r="A229" s="21"/>
       <c r="B229" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
-      <c r="E229" s="20"/>
+      <c r="E229" s="21"/>
       <c r="F229" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
+      <c r="A230" s="21"/>
       <c r="B230" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
-      <c r="E230" s="20"/>
+      <c r="E230" s="21"/>
       <c r="F230" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="20"/>
+      <c r="A231" s="21"/>
       <c r="B231" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
-      <c r="E231" s="20"/>
+      <c r="E231" s="21"/>
       <c r="F231" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
+      <c r="A232" s="21"/>
       <c r="B232" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
-      <c r="E232" s="20"/>
+      <c r="E232" s="21"/>
       <c r="F232" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
+      <c r="A233" s="21"/>
       <c r="B233" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
-      <c r="E233" s="20"/>
+      <c r="E233" s="21"/>
       <c r="F233" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="20"/>
+      <c r="A234" s="21"/>
       <c r="B234" s="4" t="s">
         <v>253</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
-      <c r="E234" s="20"/>
+      <c r="E234" s="21"/>
       <c r="F234" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="20"/>
+      <c r="A235" s="21"/>
       <c r="B235" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
-      <c r="E235" s="20"/>
+      <c r="E235" s="21"/>
       <c r="F235" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="20"/>
+      <c r="A236" s="21"/>
       <c r="B236" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
-      <c r="E236" s="20"/>
+      <c r="E236" s="21"/>
       <c r="F236" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="20"/>
+      <c r="A237" s="21"/>
       <c r="B237" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
-      <c r="E237" s="20"/>
+      <c r="E237" s="21"/>
       <c r="F237" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="20"/>
+      <c r="A238" s="21"/>
       <c r="B238" s="4" t="s">
         <v>257</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
-      <c r="E238" s="20"/>
+      <c r="E238" s="21"/>
       <c r="F238" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="20"/>
+      <c r="A239" s="21"/>
       <c r="B239" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
-      <c r="E239" s="20"/>
+      <c r="E239" s="21"/>
       <c r="F239" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="20"/>
+      <c r="A240" s="21"/>
       <c r="B240" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
-      <c r="E240" s="20"/>
+      <c r="E240" s="21"/>
       <c r="F240" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="20"/>
+      <c r="A241" s="21"/>
       <c r="B241" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
-      <c r="E241" s="20"/>
+      <c r="E241" s="21"/>
       <c r="F241" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="20"/>
+      <c r="A242" s="21"/>
       <c r="B242" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
-      <c r="E242" s="20"/>
+      <c r="E242" s="21"/>
       <c r="F242" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="20"/>
+      <c r="A243" s="21"/>
       <c r="B243" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
-      <c r="E243" s="20"/>
+      <c r="E243" s="21"/>
       <c r="F243" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="20"/>
+      <c r="A244" s="21"/>
       <c r="B244" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
-      <c r="E244" s="20"/>
+      <c r="E244" s="21"/>
       <c r="F244" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="20"/>
+      <c r="A245" s="21"/>
       <c r="B245" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
-      <c r="E245" s="20"/>
+      <c r="E245" s="21"/>
       <c r="F245" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="20"/>
+      <c r="A246" s="21"/>
       <c r="B246" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
-      <c r="E246" s="20"/>
+      <c r="E246" s="21"/>
       <c r="F246" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="20"/>
+      <c r="A247" s="21"/>
       <c r="B247" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
-      <c r="E247" s="20"/>
+      <c r="E247" s="21"/>
       <c r="F247" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="20"/>
+      <c r="A248" s="21"/>
       <c r="B248" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
-      <c r="E248" s="20"/>
+      <c r="E248" s="21"/>
       <c r="F248" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="20"/>
+      <c r="A249" s="21"/>
       <c r="B249" s="4" t="s">
         <v>268</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
-      <c r="E249" s="20"/>
+      <c r="E249" s="21"/>
       <c r="F249" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="20"/>
+      <c r="A250" s="21"/>
       <c r="B250" s="4" t="s">
         <v>269</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
-      <c r="E250" s="20"/>
+      <c r="E250" s="21"/>
       <c r="F250" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="20"/>
+      <c r="A251" s="21"/>
       <c r="B251" s="4" t="s">
         <v>270</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
-      <c r="E251" s="20"/>
+      <c r="E251" s="21"/>
       <c r="F251" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="20"/>
+      <c r="A252" s="21"/>
       <c r="B252" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
-      <c r="E252" s="20"/>
+      <c r="E252" s="21"/>
       <c r="F252" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="20"/>
+      <c r="A253" s="21"/>
       <c r="B253" s="4" t="s">
         <v>272</v>
       </c>
@@ -5764,697 +5765,697 @@
         <v>70</v>
       </c>
       <c r="D253" s="4"/>
-      <c r="E253" s="20"/>
+      <c r="E253" s="21"/>
       <c r="F253" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="20"/>
+      <c r="A254" s="21"/>
       <c r="B254" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
-      <c r="E254" s="20"/>
+      <c r="E254" s="21"/>
       <c r="F254" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="20"/>
+      <c r="A255" s="21"/>
       <c r="B255" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
-      <c r="E255" s="20"/>
+      <c r="E255" s="21"/>
       <c r="F255" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="20"/>
+      <c r="A256" s="21"/>
       <c r="B256" s="4" t="s">
         <v>275</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
-      <c r="E256" s="20"/>
+      <c r="E256" s="21"/>
       <c r="F256" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="20"/>
+      <c r="A257" s="21"/>
       <c r="B257" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
-      <c r="E257" s="20"/>
+      <c r="E257" s="21"/>
       <c r="F257" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="20"/>
+      <c r="A258" s="21"/>
       <c r="B258" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
-      <c r="E258" s="20"/>
+      <c r="E258" s="21"/>
       <c r="F258" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="20"/>
+      <c r="A259" s="21"/>
       <c r="B259" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
-      <c r="E259" s="20"/>
+      <c r="E259" s="21"/>
       <c r="F259" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="20"/>
+      <c r="A260" s="21"/>
       <c r="B260" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
-      <c r="E260" s="20"/>
+      <c r="E260" s="21"/>
       <c r="F260" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="20"/>
+      <c r="A261" s="21"/>
       <c r="B261" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
-      <c r="E261" s="20"/>
+      <c r="E261" s="21"/>
       <c r="F261" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="20"/>
+      <c r="A262" s="21"/>
       <c r="B262" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
-      <c r="E262" s="20"/>
+      <c r="E262" s="21"/>
       <c r="F262" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="20"/>
+      <c r="A263" s="21"/>
       <c r="B263" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
-      <c r="E263" s="20"/>
+      <c r="E263" s="21"/>
       <c r="F263" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="20"/>
+      <c r="A264" s="21"/>
       <c r="B264" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
-      <c r="E264" s="20"/>
+      <c r="E264" s="21"/>
       <c r="F264" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="20"/>
+      <c r="A265" s="21"/>
       <c r="B265" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="20"/>
+      <c r="E265" s="21"/>
       <c r="F265" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="20"/>
+      <c r="A266" s="21"/>
       <c r="B266" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
-      <c r="E266" s="20"/>
+      <c r="E266" s="21"/>
       <c r="F266" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="20"/>
+      <c r="A267" s="21"/>
       <c r="B267" s="4" t="s">
         <v>286</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
-      <c r="E267" s="20"/>
+      <c r="E267" s="21"/>
       <c r="F267" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="20"/>
+      <c r="A268" s="21"/>
       <c r="B268" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
-      <c r="E268" s="20"/>
+      <c r="E268" s="21"/>
       <c r="F268" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="20"/>
+      <c r="A269" s="21"/>
       <c r="B269" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
-      <c r="E269" s="20"/>
+      <c r="E269" s="21"/>
       <c r="F269" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="20"/>
+      <c r="A270" s="21"/>
       <c r="B270" s="4" t="s">
         <v>289</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
-      <c r="E270" s="20"/>
+      <c r="E270" s="21"/>
       <c r="F270" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="20"/>
+      <c r="A271" s="21"/>
       <c r="B271" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
-      <c r="E271" s="20"/>
+      <c r="E271" s="21"/>
       <c r="F271" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="20"/>
+      <c r="A272" s="21"/>
       <c r="B272" s="4" t="s">
         <v>291</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
-      <c r="E272" s="20"/>
+      <c r="E272" s="21"/>
       <c r="F272" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="20"/>
+      <c r="A273" s="21"/>
       <c r="B273" s="4" t="s">
         <v>292</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
-      <c r="E273" s="20"/>
+      <c r="E273" s="21"/>
       <c r="F273" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="20"/>
+      <c r="A274" s="21"/>
       <c r="B274" s="4" t="s">
         <v>293</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
-      <c r="E274" s="20"/>
+      <c r="E274" s="21"/>
       <c r="F274" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="20"/>
+      <c r="A275" s="21"/>
       <c r="B275" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
-      <c r="E275" s="20"/>
+      <c r="E275" s="21"/>
       <c r="F275" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="20"/>
+      <c r="A276" s="21"/>
       <c r="B276" s="4" t="s">
         <v>295</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
-      <c r="E276" s="20"/>
+      <c r="E276" s="21"/>
       <c r="F276" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="20"/>
+      <c r="A277" s="21"/>
       <c r="B277" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
-      <c r="E277" s="20"/>
+      <c r="E277" s="21"/>
       <c r="F277" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="20"/>
+      <c r="A278" s="21"/>
       <c r="B278" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
-      <c r="E278" s="20"/>
+      <c r="E278" s="21"/>
       <c r="F278" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="20"/>
+      <c r="A279" s="21"/>
       <c r="B279" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
-      <c r="E279" s="20"/>
+      <c r="E279" s="21"/>
       <c r="F279" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="20"/>
+      <c r="A280" s="21"/>
       <c r="B280" s="4" t="s">
         <v>299</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
-      <c r="E280" s="20"/>
+      <c r="E280" s="21"/>
       <c r="F280" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="20"/>
+      <c r="A281" s="21"/>
       <c r="B281" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
-      <c r="E281" s="20"/>
+      <c r="E281" s="21"/>
       <c r="F281" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="20"/>
+      <c r="A282" s="21"/>
       <c r="B282" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
-      <c r="E282" s="20"/>
+      <c r="E282" s="21"/>
       <c r="F282" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="20"/>
+      <c r="A283" s="21"/>
       <c r="B283" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
-      <c r="E283" s="20"/>
+      <c r="E283" s="21"/>
       <c r="F283" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="20"/>
+      <c r="A284" s="21"/>
       <c r="B284" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
-      <c r="E284" s="20"/>
+      <c r="E284" s="21"/>
       <c r="F284" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="20"/>
+      <c r="A285" s="21"/>
       <c r="B285" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
-      <c r="E285" s="20"/>
+      <c r="E285" s="21"/>
       <c r="F285" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="20"/>
+      <c r="A286" s="21"/>
       <c r="B286" s="4" t="s">
         <v>305</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
-      <c r="E286" s="20"/>
+      <c r="E286" s="21"/>
       <c r="F286" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="20"/>
+      <c r="A287" s="21"/>
       <c r="B287" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
-      <c r="E287" s="20"/>
+      <c r="E287" s="21"/>
       <c r="F287" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="20"/>
+      <c r="A288" s="21"/>
       <c r="B288" s="4" t="s">
         <v>307</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
-      <c r="E288" s="20"/>
+      <c r="E288" s="21"/>
       <c r="F288" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="20"/>
+      <c r="A289" s="21"/>
       <c r="B289" s="4" t="s">
         <v>308</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
-      <c r="E289" s="20"/>
+      <c r="E289" s="21"/>
       <c r="F289" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="20"/>
+      <c r="A290" s="21"/>
       <c r="B290" s="4" t="s">
         <v>309</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
-      <c r="E290" s="20"/>
+      <c r="E290" s="21"/>
       <c r="F290" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="20"/>
+      <c r="A291" s="21"/>
       <c r="B291" s="4" t="s">
         <v>310</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
-      <c r="E291" s="20"/>
+      <c r="E291" s="21"/>
       <c r="F291" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="20"/>
+      <c r="A292" s="21"/>
       <c r="B292" s="4" t="s">
         <v>311</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
-      <c r="E292" s="20"/>
+      <c r="E292" s="21"/>
       <c r="F292" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="20"/>
+      <c r="A293" s="21"/>
       <c r="B293" s="4" t="s">
         <v>312</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
-      <c r="E293" s="20"/>
+      <c r="E293" s="21"/>
       <c r="F293" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="20"/>
+      <c r="A294" s="21"/>
       <c r="B294" s="4" t="s">
         <v>313</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
-      <c r="E294" s="20"/>
+      <c r="E294" s="21"/>
       <c r="F294" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="20"/>
+      <c r="A295" s="21"/>
       <c r="B295" s="4" t="s">
         <v>314</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
-      <c r="E295" s="20"/>
+      <c r="E295" s="21"/>
       <c r="F295" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="20"/>
+      <c r="A296" s="21"/>
       <c r="B296" s="4" t="s">
         <v>315</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
-      <c r="E296" s="20"/>
+      <c r="E296" s="21"/>
       <c r="F296" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="20"/>
+      <c r="A297" s="21"/>
       <c r="B297" s="4" t="s">
         <v>316</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
-      <c r="E297" s="20"/>
+      <c r="E297" s="21"/>
       <c r="F297" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="20"/>
+      <c r="A298" s="21"/>
       <c r="B298" s="4" t="s">
         <v>317</v>
       </c>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
-      <c r="E298" s="20"/>
+      <c r="E298" s="21"/>
       <c r="F298" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="20"/>
+      <c r="A299" s="21"/>
       <c r="B299" s="4" t="s">
         <v>318</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
-      <c r="E299" s="20"/>
+      <c r="E299" s="21"/>
       <c r="F299" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="20"/>
+      <c r="A300" s="21"/>
       <c r="B300" s="4" t="s">
         <v>319</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
-      <c r="E300" s="20"/>
+      <c r="E300" s="21"/>
       <c r="F300" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="20"/>
+      <c r="A301" s="21"/>
       <c r="B301" s="4" t="s">
         <v>320</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
-      <c r="E301" s="20"/>
+      <c r="E301" s="21"/>
       <c r="F301" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="20"/>
+      <c r="A302" s="21"/>
       <c r="B302" s="4" t="s">
         <v>321</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
-      <c r="E302" s="20"/>
+      <c r="E302" s="21"/>
       <c r="F302" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="20"/>
+      <c r="A303" s="21"/>
       <c r="B303" s="4" t="s">
         <v>322</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
-      <c r="E303" s="20"/>
+      <c r="E303" s="21"/>
       <c r="F303" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="20"/>
+      <c r="A304" s="21"/>
       <c r="B304" s="4" t="s">
         <v>323</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
-      <c r="E304" s="20"/>
+      <c r="E304" s="21"/>
       <c r="F304" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="20"/>
+      <c r="A305" s="21"/>
       <c r="B305" s="4" t="s">
         <v>324</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
-      <c r="E305" s="20"/>
+      <c r="E305" s="21"/>
       <c r="F305" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="20"/>
+      <c r="A306" s="21"/>
       <c r="B306" s="4" t="s">
         <v>325</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
-      <c r="E306" s="20"/>
+      <c r="E306" s="21"/>
       <c r="F306" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="20"/>
+      <c r="A307" s="21"/>
       <c r="B307" s="4" t="s">
         <v>326</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
-      <c r="E307" s="20"/>
+      <c r="E307" s="21"/>
       <c r="F307" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="20"/>
+      <c r="A308" s="21"/>
       <c r="B308" s="4" t="s">
         <v>327</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
-      <c r="E308" s="20"/>
+      <c r="E308" s="21"/>
       <c r="F308" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="20"/>
+      <c r="A309" s="21"/>
       <c r="B309" s="4" t="s">
         <v>328</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
-      <c r="E309" s="20"/>
+      <c r="E309" s="21"/>
       <c r="F309" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="21"/>
+      <c r="A310" s="22"/>
       <c r="B310" s="6" t="s">
         <v>329</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
-      <c r="E310" s="21"/>
+      <c r="E310" s="22"/>
       <c r="F310" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="19" t="s">
+      <c r="A311" s="20" t="s">
         <v>330</v>
       </c>
       <c r="B311" s="5" t="s">
@@ -6462,7 +6463,7 @@
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
-      <c r="E311" s="19" t="s">
+      <c r="E311" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F311" s="5">
@@ -6470,271 +6471,271 @@
       </c>
     </row>
     <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="20"/>
+      <c r="A312" s="21"/>
       <c r="B312" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
-      <c r="E312" s="20"/>
+      <c r="E312" s="21"/>
       <c r="F312" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="20"/>
+      <c r="A313" s="21"/>
       <c r="B313" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
-      <c r="E313" s="20"/>
+      <c r="E313" s="21"/>
       <c r="F313" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="20"/>
+      <c r="A314" s="21"/>
       <c r="B314" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
-      <c r="E314" s="20"/>
+      <c r="E314" s="21"/>
       <c r="F314" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="20"/>
+      <c r="A315" s="21"/>
       <c r="B315" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
-      <c r="E315" s="20"/>
+      <c r="E315" s="21"/>
       <c r="F315" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="20"/>
+      <c r="A316" s="21"/>
       <c r="B316" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
-      <c r="E316" s="20"/>
+      <c r="E316" s="21"/>
       <c r="F316" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="20"/>
+      <c r="A317" s="21"/>
       <c r="B317" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
-      <c r="E317" s="20"/>
+      <c r="E317" s="21"/>
       <c r="F317" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="20"/>
+      <c r="A318" s="21"/>
       <c r="B318" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
-      <c r="E318" s="20"/>
+      <c r="E318" s="21"/>
       <c r="F318" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="20"/>
+      <c r="A319" s="21"/>
       <c r="B319" s="4" t="s">
         <v>339</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
-      <c r="E319" s="20"/>
+      <c r="E319" s="21"/>
       <c r="F319" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="20"/>
+      <c r="A320" s="21"/>
       <c r="B320" s="4" t="s">
         <v>340</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
-      <c r="E320" s="20"/>
+      <c r="E320" s="21"/>
       <c r="F320" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="20"/>
+      <c r="A321" s="21"/>
       <c r="B321" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
-      <c r="E321" s="20"/>
+      <c r="E321" s="21"/>
       <c r="F321" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="20"/>
+      <c r="A322" s="21"/>
       <c r="B322" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
-      <c r="E322" s="20"/>
+      <c r="E322" s="21"/>
       <c r="F322" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="20"/>
+      <c r="A323" s="21"/>
       <c r="B323" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
-      <c r="E323" s="20"/>
+      <c r="E323" s="21"/>
       <c r="F323" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="20"/>
+      <c r="A324" s="21"/>
       <c r="B324" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
-      <c r="E324" s="20"/>
+      <c r="E324" s="21"/>
       <c r="F324" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="20"/>
+      <c r="A325" s="21"/>
       <c r="B325" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
-      <c r="E325" s="20"/>
+      <c r="E325" s="21"/>
       <c r="F325" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="20"/>
+      <c r="A326" s="21"/>
       <c r="B326" s="4" t="s">
         <v>346</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
-      <c r="E326" s="20"/>
+      <c r="E326" s="21"/>
       <c r="F326" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="20"/>
+      <c r="A327" s="21"/>
       <c r="B327" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
-      <c r="E327" s="20"/>
+      <c r="E327" s="21"/>
       <c r="F327" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="20"/>
+      <c r="A328" s="21"/>
       <c r="B328" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
-      <c r="E328" s="20"/>
+      <c r="E328" s="21"/>
       <c r="F328" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="20"/>
+      <c r="A329" s="21"/>
       <c r="B329" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
-      <c r="E329" s="20"/>
+      <c r="E329" s="21"/>
       <c r="F329" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="20"/>
+      <c r="A330" s="21"/>
       <c r="B330" s="4" t="s">
         <v>350</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
-      <c r="E330" s="20"/>
+      <c r="E330" s="21"/>
       <c r="F330" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="20"/>
+      <c r="A331" s="21"/>
       <c r="B331" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
-      <c r="E331" s="20"/>
+      <c r="E331" s="21"/>
       <c r="F331" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="20"/>
+      <c r="A332" s="21"/>
       <c r="B332" s="4" t="s">
         <v>352</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
-      <c r="E332" s="20"/>
+      <c r="E332" s="21"/>
       <c r="F332" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="21"/>
+      <c r="A333" s="22"/>
       <c r="B333" s="6" t="s">
         <v>353</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
-      <c r="E333" s="21"/>
+      <c r="E333" s="22"/>
       <c r="F333" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="19" t="s">
+      <c r="A334" s="20" t="s">
         <v>354</v>
       </c>
       <c r="B334" s="4" t="s">
@@ -6742,7 +6743,7 @@
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
-      <c r="E334" s="19" t="s">
+      <c r="E334" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F334" s="8">
@@ -6750,19 +6751,19 @@
       </c>
     </row>
     <row r="335" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="20"/>
+      <c r="A335" s="21"/>
       <c r="B335" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
-      <c r="E335" s="20"/>
+      <c r="E335" s="21"/>
       <c r="F335" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="20"/>
+      <c r="A336" s="21"/>
       <c r="B336" s="4" t="s">
         <v>357</v>
       </c>
@@ -6770,31 +6771,31 @@
         <v>70</v>
       </c>
       <c r="D336" s="4"/>
-      <c r="E336" s="20"/>
+      <c r="E336" s="21"/>
       <c r="F336" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="337" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="20"/>
+      <c r="A337" s="21"/>
       <c r="B337" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
-      <c r="E337" s="20"/>
+      <c r="E337" s="21"/>
       <c r="F337" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="21"/>
+      <c r="A338" s="22"/>
       <c r="B338" s="6" t="s">
         <v>359</v>
       </c>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
-      <c r="E338" s="21"/>
+      <c r="E338" s="22"/>
       <c r="F338" s="8">
         <v>2</v>
       </c>
@@ -6832,7 +6833,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="19" t="s">
+      <c r="A341" s="20" t="s">
         <v>364</v>
       </c>
       <c r="B341" s="5" t="s">
@@ -6840,7 +6841,7 @@
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
-      <c r="E341" s="19" t="s">
+      <c r="E341" s="20" t="s">
         <v>552</v>
       </c>
       <c r="F341" s="8">
@@ -6848,187 +6849,187 @@
       </c>
     </row>
     <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="20"/>
+      <c r="A342" s="21"/>
       <c r="B342" s="4" t="s">
         <v>366</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
-      <c r="E342" s="20"/>
+      <c r="E342" s="21"/>
       <c r="F342" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="20"/>
+      <c r="A343" s="21"/>
       <c r="B343" s="4" t="s">
         <v>367</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
-      <c r="E343" s="20"/>
+      <c r="E343" s="21"/>
       <c r="F343" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="20"/>
+      <c r="A344" s="21"/>
       <c r="B344" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
-      <c r="E344" s="20"/>
+      <c r="E344" s="21"/>
       <c r="F344" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="20"/>
+      <c r="A345" s="21"/>
       <c r="B345" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
-      <c r="E345" s="20"/>
+      <c r="E345" s="21"/>
       <c r="F345" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="20"/>
+      <c r="A346" s="21"/>
       <c r="B346" s="4" t="s">
         <v>370</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
-      <c r="E346" s="20"/>
+      <c r="E346" s="21"/>
       <c r="F346" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="20"/>
+      <c r="A347" s="21"/>
       <c r="B347" s="4" t="s">
         <v>371</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
-      <c r="E347" s="20"/>
+      <c r="E347" s="21"/>
       <c r="F347" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="20"/>
+      <c r="A348" s="21"/>
       <c r="B348" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
-      <c r="E348" s="20"/>
+      <c r="E348" s="21"/>
       <c r="F348" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="20"/>
+      <c r="A349" s="21"/>
       <c r="B349" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
-      <c r="E349" s="20"/>
+      <c r="E349" s="21"/>
       <c r="F349" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="20"/>
+      <c r="A350" s="21"/>
       <c r="B350" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
-      <c r="E350" s="20"/>
+      <c r="E350" s="21"/>
       <c r="F350" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="20"/>
+      <c r="A351" s="21"/>
       <c r="B351" s="4" t="s">
         <v>375</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
-      <c r="E351" s="20"/>
+      <c r="E351" s="21"/>
       <c r="F351" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="20"/>
+      <c r="A352" s="21"/>
       <c r="B352" s="4" t="s">
         <v>376</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
-      <c r="E352" s="20"/>
+      <c r="E352" s="21"/>
       <c r="F352" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="20"/>
+      <c r="A353" s="21"/>
       <c r="B353" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
-      <c r="E353" s="20"/>
+      <c r="E353" s="21"/>
       <c r="F353" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="20"/>
+      <c r="A354" s="21"/>
       <c r="B354" s="4" t="s">
         <v>378</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
-      <c r="E354" s="20"/>
+      <c r="E354" s="21"/>
       <c r="F354" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="20"/>
+      <c r="A355" s="21"/>
       <c r="B355" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
-      <c r="E355" s="20"/>
+      <c r="E355" s="21"/>
       <c r="F355" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="21"/>
+      <c r="A356" s="22"/>
       <c r="B356" s="6" t="s">
         <v>380</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
-      <c r="E356" s="21"/>
+      <c r="E356" s="22"/>
       <c r="F356" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="19" t="s">
+      <c r="A357" s="20" t="s">
         <v>381</v>
       </c>
       <c r="B357" s="5" t="s">
@@ -7036,7 +7037,7 @@
       </c>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
-      <c r="E357" s="19" t="s">
+      <c r="E357" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F357" s="8">
@@ -7044,379 +7045,379 @@
       </c>
     </row>
     <row r="358" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="20"/>
+      <c r="A358" s="21"/>
       <c r="B358" s="4" t="s">
         <v>383</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
-      <c r="E358" s="20"/>
+      <c r="E358" s="21"/>
       <c r="F358" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="20"/>
+      <c r="A359" s="21"/>
       <c r="B359" s="4" t="s">
         <v>384</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
-      <c r="E359" s="20"/>
+      <c r="E359" s="21"/>
       <c r="F359" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="20"/>
+      <c r="A360" s="21"/>
       <c r="B360" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
-      <c r="E360" s="20"/>
+      <c r="E360" s="21"/>
       <c r="F360" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="20"/>
+      <c r="A361" s="21"/>
       <c r="B361" s="4" t="s">
         <v>386</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
-      <c r="E361" s="20"/>
+      <c r="E361" s="21"/>
       <c r="F361" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="20"/>
+      <c r="A362" s="21"/>
       <c r="B362" s="4" t="s">
         <v>387</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
-      <c r="E362" s="20"/>
+      <c r="E362" s="21"/>
       <c r="F362" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="20"/>
+      <c r="A363" s="21"/>
       <c r="B363" s="4" t="s">
         <v>388</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
-      <c r="E363" s="20"/>
+      <c r="E363" s="21"/>
       <c r="F363" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="20"/>
+      <c r="A364" s="21"/>
       <c r="B364" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
-      <c r="E364" s="20"/>
+      <c r="E364" s="21"/>
       <c r="F364" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="20"/>
+      <c r="A365" s="21"/>
       <c r="B365" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
-      <c r="E365" s="20"/>
+      <c r="E365" s="21"/>
       <c r="F365" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="20"/>
+      <c r="A366" s="21"/>
       <c r="B366" s="4" t="s">
         <v>391</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
-      <c r="E366" s="20"/>
+      <c r="E366" s="21"/>
       <c r="F366" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="20"/>
+      <c r="A367" s="21"/>
       <c r="B367" s="4" t="s">
         <v>392</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
-      <c r="E367" s="20"/>
+      <c r="E367" s="21"/>
       <c r="F367" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="20"/>
+      <c r="A368" s="21"/>
       <c r="B368" s="4" t="s">
         <v>393</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
-      <c r="E368" s="20"/>
+      <c r="E368" s="21"/>
       <c r="F368" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="20"/>
+      <c r="A369" s="21"/>
       <c r="B369" s="4" t="s">
         <v>394</v>
       </c>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
-      <c r="E369" s="20"/>
+      <c r="E369" s="21"/>
       <c r="F369" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="20"/>
+      <c r="A370" s="21"/>
       <c r="B370" s="4" t="s">
         <v>395</v>
       </c>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
-      <c r="E370" s="20"/>
+      <c r="E370" s="21"/>
       <c r="F370" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="20"/>
+      <c r="A371" s="21"/>
       <c r="B371" s="4" t="s">
         <v>396</v>
       </c>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
-      <c r="E371" s="20"/>
+      <c r="E371" s="21"/>
       <c r="F371" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="20"/>
+      <c r="A372" s="21"/>
       <c r="B372" s="4" t="s">
         <v>397</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
-      <c r="E372" s="20"/>
+      <c r="E372" s="21"/>
       <c r="F372" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="20"/>
+      <c r="A373" s="21"/>
       <c r="B373" s="4" t="s">
         <v>398</v>
       </c>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
-      <c r="E373" s="20"/>
+      <c r="E373" s="21"/>
       <c r="F373" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="20"/>
+      <c r="A374" s="21"/>
       <c r="B374" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
-      <c r="E374" s="20"/>
+      <c r="E374" s="21"/>
       <c r="F374" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="20"/>
+      <c r="A375" s="21"/>
       <c r="B375" s="4" t="s">
         <v>400</v>
       </c>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
-      <c r="E375" s="20"/>
+      <c r="E375" s="21"/>
       <c r="F375" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="20"/>
+      <c r="A376" s="21"/>
       <c r="B376" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
-      <c r="E376" s="20"/>
+      <c r="E376" s="21"/>
       <c r="F376" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="20"/>
+      <c r="A377" s="21"/>
       <c r="B377" s="4" t="s">
         <v>402</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
-      <c r="E377" s="20"/>
+      <c r="E377" s="21"/>
       <c r="F377" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="20"/>
+      <c r="A378" s="21"/>
       <c r="B378" s="4" t="s">
         <v>403</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
-      <c r="E378" s="20"/>
+      <c r="E378" s="21"/>
       <c r="F378" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="20"/>
+      <c r="A379" s="21"/>
       <c r="B379" s="4" t="s">
         <v>404</v>
       </c>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
-      <c r="E379" s="20"/>
+      <c r="E379" s="21"/>
       <c r="F379" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="20"/>
+      <c r="A380" s="21"/>
       <c r="B380" s="4" t="s">
         <v>405</v>
       </c>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
-      <c r="E380" s="20"/>
+      <c r="E380" s="21"/>
       <c r="F380" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="20"/>
+      <c r="A381" s="21"/>
       <c r="B381" s="4" t="s">
         <v>406</v>
       </c>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
-      <c r="E381" s="20"/>
+      <c r="E381" s="21"/>
       <c r="F381" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="20"/>
+      <c r="A382" s="21"/>
       <c r="B382" s="4" t="s">
         <v>407</v>
       </c>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
-      <c r="E382" s="20"/>
+      <c r="E382" s="21"/>
       <c r="F382" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="20"/>
+      <c r="A383" s="21"/>
       <c r="B383" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
-      <c r="E383" s="20"/>
+      <c r="E383" s="21"/>
       <c r="F383" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="20"/>
+      <c r="A384" s="21"/>
       <c r="B384" s="4" t="s">
         <v>409</v>
       </c>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
-      <c r="E384" s="20"/>
+      <c r="E384" s="21"/>
       <c r="F384" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="20"/>
+      <c r="A385" s="21"/>
       <c r="B385" s="4" t="s">
         <v>410</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
-      <c r="E385" s="20"/>
+      <c r="E385" s="21"/>
       <c r="F385" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="20"/>
+      <c r="A386" s="21"/>
       <c r="B386" s="4" t="s">
         <v>411</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
-      <c r="E386" s="20"/>
+      <c r="E386" s="21"/>
       <c r="F386" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="20"/>
+      <c r="A387" s="21"/>
       <c r="B387" s="4" t="s">
         <v>412</v>
       </c>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
-      <c r="E387" s="20"/>
+      <c r="E387" s="21"/>
       <c r="F387" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="21"/>
+      <c r="A388" s="22"/>
       <c r="B388" s="6" t="s">
         <v>413</v>
       </c>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
-      <c r="E388" s="21"/>
+      <c r="E388" s="22"/>
       <c r="F388" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="19" t="s">
+      <c r="A389" s="20" t="s">
         <v>414</v>
       </c>
       <c r="B389" s="5" t="s">
@@ -7424,7 +7425,7 @@
       </c>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
-      <c r="E389" s="19" t="s">
+      <c r="E389" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F389" s="8">
@@ -7432,19 +7433,19 @@
       </c>
     </row>
     <row r="390" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="20"/>
+      <c r="A390" s="21"/>
       <c r="B390" s="4" t="s">
         <v>416</v>
       </c>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
-      <c r="E390" s="20"/>
+      <c r="E390" s="21"/>
       <c r="F390" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="20"/>
+      <c r="A391" s="21"/>
       <c r="B391" s="4" t="s">
         <v>417</v>
       </c>
@@ -7452,49 +7453,49 @@
         <v>70</v>
       </c>
       <c r="D391" s="4"/>
-      <c r="E391" s="20"/>
+      <c r="E391" s="21"/>
       <c r="F391" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="392" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="20"/>
+      <c r="A392" s="21"/>
       <c r="B392" s="4" t="s">
         <v>418</v>
       </c>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
-      <c r="E392" s="20"/>
+      <c r="E392" s="21"/>
       <c r="F392" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="20"/>
+      <c r="A393" s="21"/>
       <c r="B393" s="4" t="s">
         <v>419</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
-      <c r="E393" s="20"/>
+      <c r="E393" s="21"/>
       <c r="F393" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="21"/>
+      <c r="A394" s="22"/>
       <c r="B394" s="6" t="s">
         <v>420</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
-      <c r="E394" s="21"/>
+      <c r="E394" s="22"/>
       <c r="F394" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="19" t="s">
+      <c r="A395" s="20" t="s">
         <v>421</v>
       </c>
       <c r="B395" s="5" t="s">
@@ -7502,7 +7503,7 @@
       </c>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
-      <c r="E395" s="19" t="s">
+      <c r="E395" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F395" s="8">
@@ -7510,55 +7511,55 @@
       </c>
     </row>
     <row r="396" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="20"/>
+      <c r="A396" s="21"/>
       <c r="B396" s="4" t="s">
         <v>423</v>
       </c>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
-      <c r="E396" s="20"/>
+      <c r="E396" s="21"/>
       <c r="F396" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="20"/>
+      <c r="A397" s="21"/>
       <c r="B397" s="4" t="s">
         <v>424</v>
       </c>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
-      <c r="E397" s="20"/>
+      <c r="E397" s="21"/>
       <c r="F397" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="20"/>
+      <c r="A398" s="21"/>
       <c r="B398" s="4" t="s">
         <v>425</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
-      <c r="E398" s="20"/>
+      <c r="E398" s="21"/>
       <c r="F398" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="21"/>
+      <c r="A399" s="22"/>
       <c r="B399" s="6" t="s">
         <v>426</v>
       </c>
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
-      <c r="E399" s="21"/>
+      <c r="E399" s="22"/>
       <c r="F399" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="19" t="s">
+      <c r="A400" s="20" t="s">
         <v>427</v>
       </c>
       <c r="B400" s="5" t="s">
@@ -7566,7 +7567,7 @@
       </c>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
-      <c r="E400" s="19" t="s">
+      <c r="E400" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F400" s="8">
@@ -7574,43 +7575,43 @@
       </c>
     </row>
     <row r="401" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="20"/>
+      <c r="A401" s="21"/>
       <c r="B401" s="4" t="s">
         <v>429</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
-      <c r="E401" s="20"/>
+      <c r="E401" s="21"/>
       <c r="F401" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="20"/>
+      <c r="A402" s="21"/>
       <c r="B402" s="4" t="s">
         <v>430</v>
       </c>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
-      <c r="E402" s="20"/>
+      <c r="E402" s="21"/>
       <c r="F402" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="403" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="21"/>
+      <c r="A403" s="22"/>
       <c r="B403" s="6" t="s">
         <v>431</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
-      <c r="E403" s="21"/>
+      <c r="E403" s="22"/>
       <c r="F403" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="404" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="19" t="s">
+      <c r="A404" s="20" t="s">
         <v>432</v>
       </c>
       <c r="B404" s="5" t="s">
@@ -7618,7 +7619,7 @@
       </c>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
-      <c r="E404" s="19" t="s">
+      <c r="E404" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F404" s="8">
@@ -7626,199 +7627,199 @@
       </c>
     </row>
     <row r="405" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="20"/>
+      <c r="A405" s="21"/>
       <c r="B405" s="4" t="s">
         <v>434</v>
       </c>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
-      <c r="E405" s="20"/>
+      <c r="E405" s="21"/>
       <c r="F405" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="20"/>
+      <c r="A406" s="21"/>
       <c r="B406" s="4" t="s">
         <v>435</v>
       </c>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
-      <c r="E406" s="20"/>
+      <c r="E406" s="21"/>
       <c r="F406" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="20"/>
+      <c r="A407" s="21"/>
       <c r="B407" s="4" t="s">
         <v>436</v>
       </c>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
-      <c r="E407" s="20"/>
+      <c r="E407" s="21"/>
       <c r="F407" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="20"/>
+      <c r="A408" s="21"/>
       <c r="B408" s="4" t="s">
         <v>437</v>
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
-      <c r="E408" s="20"/>
+      <c r="E408" s="21"/>
       <c r="F408" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="20"/>
+      <c r="A409" s="21"/>
       <c r="B409" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
-      <c r="E409" s="20"/>
+      <c r="E409" s="21"/>
       <c r="F409" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="20"/>
+      <c r="A410" s="21"/>
       <c r="B410" s="4" t="s">
         <v>439</v>
       </c>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
-      <c r="E410" s="20"/>
+      <c r="E410" s="21"/>
       <c r="F410" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="20"/>
+      <c r="A411" s="21"/>
       <c r="B411" s="4" t="s">
         <v>440</v>
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
-      <c r="E411" s="20"/>
+      <c r="E411" s="21"/>
       <c r="F411" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="20"/>
+      <c r="A412" s="21"/>
       <c r="B412" s="4" t="s">
         <v>441</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
-      <c r="E412" s="20"/>
+      <c r="E412" s="21"/>
       <c r="F412" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="20"/>
+      <c r="A413" s="21"/>
       <c r="B413" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
-      <c r="E413" s="20"/>
+      <c r="E413" s="21"/>
       <c r="F413" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="20"/>
+      <c r="A414" s="21"/>
       <c r="B414" s="4" t="s">
         <v>443</v>
       </c>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
-      <c r="E414" s="20"/>
+      <c r="E414" s="21"/>
       <c r="F414" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="20"/>
+      <c r="A415" s="21"/>
       <c r="B415" s="4" t="s">
         <v>444</v>
       </c>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
-      <c r="E415" s="20"/>
+      <c r="E415" s="21"/>
       <c r="F415" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="20"/>
+      <c r="A416" s="21"/>
       <c r="B416" s="4" t="s">
         <v>445</v>
       </c>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
-      <c r="E416" s="20"/>
+      <c r="E416" s="21"/>
       <c r="F416" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="20"/>
+      <c r="A417" s="21"/>
       <c r="B417" s="4" t="s">
         <v>446</v>
       </c>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
-      <c r="E417" s="20"/>
+      <c r="E417" s="21"/>
       <c r="F417" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="20"/>
+      <c r="A418" s="21"/>
       <c r="B418" s="4" t="s">
         <v>447</v>
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
-      <c r="E418" s="20"/>
+      <c r="E418" s="21"/>
       <c r="F418" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="20"/>
+      <c r="A419" s="21"/>
       <c r="B419" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
-      <c r="E419" s="20"/>
+      <c r="E419" s="21"/>
       <c r="F419" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="21"/>
+      <c r="A420" s="22"/>
       <c r="B420" s="6" t="s">
         <v>448</v>
       </c>
       <c r="C420" s="6"/>
       <c r="D420" s="6"/>
-      <c r="E420" s="21"/>
+      <c r="E420" s="22"/>
       <c r="F420" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="19" t="s">
+      <c r="A421" s="20" t="s">
         <v>449</v>
       </c>
       <c r="B421" s="5" t="s">
@@ -7826,7 +7827,7 @@
       </c>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
-      <c r="E421" s="19" t="s">
+      <c r="E421" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F421" s="8">
@@ -7834,607 +7835,607 @@
       </c>
     </row>
     <row r="422" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="20"/>
+      <c r="A422" s="21"/>
       <c r="B422" s="4" t="s">
         <v>451</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
-      <c r="E422" s="20"/>
+      <c r="E422" s="21"/>
       <c r="F422" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="20"/>
+      <c r="A423" s="21"/>
       <c r="B423" s="4" t="s">
         <v>452</v>
       </c>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
-      <c r="E423" s="20"/>
+      <c r="E423" s="21"/>
       <c r="F423" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="20"/>
+      <c r="A424" s="21"/>
       <c r="B424" s="4" t="s">
         <v>453</v>
       </c>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
-      <c r="E424" s="20"/>
+      <c r="E424" s="21"/>
       <c r="F424" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="20"/>
+      <c r="A425" s="21"/>
       <c r="B425" s="4" t="s">
         <v>454</v>
       </c>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
-      <c r="E425" s="20"/>
+      <c r="E425" s="21"/>
       <c r="F425" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="20"/>
+      <c r="A426" s="21"/>
       <c r="B426" s="4" t="s">
         <v>455</v>
       </c>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
-      <c r="E426" s="20"/>
+      <c r="E426" s="21"/>
       <c r="F426" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="20"/>
+      <c r="A427" s="21"/>
       <c r="B427" s="4" t="s">
         <v>456</v>
       </c>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
-      <c r="E427" s="20"/>
+      <c r="E427" s="21"/>
       <c r="F427" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="20"/>
+      <c r="A428" s="21"/>
       <c r="B428" s="4" t="s">
         <v>457</v>
       </c>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
-      <c r="E428" s="20"/>
+      <c r="E428" s="21"/>
       <c r="F428" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="20"/>
+      <c r="A429" s="21"/>
       <c r="B429" s="4" t="s">
         <v>458</v>
       </c>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
-      <c r="E429" s="20"/>
+      <c r="E429" s="21"/>
       <c r="F429" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="20"/>
+      <c r="A430" s="21"/>
       <c r="B430" s="4" t="s">
         <v>459</v>
       </c>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
-      <c r="E430" s="20"/>
+      <c r="E430" s="21"/>
       <c r="F430" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="20"/>
+      <c r="A431" s="21"/>
       <c r="B431" s="4" t="s">
         <v>460</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
-      <c r="E431" s="20"/>
+      <c r="E431" s="21"/>
       <c r="F431" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="20"/>
+      <c r="A432" s="21"/>
       <c r="B432" s="4" t="s">
         <v>461</v>
       </c>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
-      <c r="E432" s="20"/>
+      <c r="E432" s="21"/>
       <c r="F432" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="20"/>
+      <c r="A433" s="21"/>
       <c r="B433" s="4" t="s">
         <v>462</v>
       </c>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
-      <c r="E433" s="20"/>
+      <c r="E433" s="21"/>
       <c r="F433" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="20"/>
+      <c r="A434" s="21"/>
       <c r="B434" s="4" t="s">
         <v>463</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
-      <c r="E434" s="20"/>
+      <c r="E434" s="21"/>
       <c r="F434" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="20"/>
+      <c r="A435" s="21"/>
       <c r="B435" s="4" t="s">
         <v>464</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
-      <c r="E435" s="20"/>
+      <c r="E435" s="21"/>
       <c r="F435" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="20"/>
+      <c r="A436" s="21"/>
       <c r="B436" s="4" t="s">
         <v>465</v>
       </c>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
-      <c r="E436" s="20"/>
+      <c r="E436" s="21"/>
       <c r="F436" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="20"/>
+      <c r="A437" s="21"/>
       <c r="B437" s="4" t="s">
         <v>466</v>
       </c>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
-      <c r="E437" s="20"/>
+      <c r="E437" s="21"/>
       <c r="F437" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="20"/>
+      <c r="A438" s="21"/>
       <c r="B438" s="4" t="s">
         <v>467</v>
       </c>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
-      <c r="E438" s="20"/>
+      <c r="E438" s="21"/>
       <c r="F438" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="20"/>
+      <c r="A439" s="21"/>
       <c r="B439" s="4" t="s">
         <v>468</v>
       </c>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
-      <c r="E439" s="20"/>
+      <c r="E439" s="21"/>
       <c r="F439" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="20"/>
+      <c r="A440" s="21"/>
       <c r="B440" s="4" t="s">
         <v>469</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
-      <c r="E440" s="20"/>
+      <c r="E440" s="21"/>
       <c r="F440" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="20"/>
+      <c r="A441" s="21"/>
       <c r="B441" s="4" t="s">
         <v>376</v>
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
-      <c r="E441" s="20"/>
+      <c r="E441" s="21"/>
       <c r="F441" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="20"/>
+      <c r="A442" s="21"/>
       <c r="B442" s="4" t="s">
         <v>375</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
-      <c r="E442" s="20"/>
+      <c r="E442" s="21"/>
       <c r="F442" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="20"/>
+      <c r="A443" s="21"/>
       <c r="B443" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
-      <c r="E443" s="20"/>
+      <c r="E443" s="21"/>
       <c r="F443" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="20"/>
+      <c r="A444" s="21"/>
       <c r="B444" s="4" t="s">
         <v>470</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
-      <c r="E444" s="20"/>
+      <c r="E444" s="21"/>
       <c r="F444" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="20"/>
+      <c r="A445" s="21"/>
       <c r="B445" s="4" t="s">
         <v>471</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
-      <c r="E445" s="20"/>
+      <c r="E445" s="21"/>
       <c r="F445" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="20"/>
+      <c r="A446" s="21"/>
       <c r="B446" s="4" t="s">
         <v>472</v>
       </c>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
-      <c r="E446" s="20"/>
+      <c r="E446" s="21"/>
       <c r="F446" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="20"/>
+      <c r="A447" s="21"/>
       <c r="B447" s="4" t="s">
         <v>473</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
-      <c r="E447" s="20"/>
+      <c r="E447" s="21"/>
       <c r="F447" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="20"/>
+      <c r="A448" s="21"/>
       <c r="B448" s="4" t="s">
         <v>474</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
-      <c r="E448" s="20"/>
+      <c r="E448" s="21"/>
       <c r="F448" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="20"/>
+      <c r="A449" s="21"/>
       <c r="B449" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
-      <c r="E449" s="20"/>
+      <c r="E449" s="21"/>
       <c r="F449" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="20"/>
+      <c r="A450" s="21"/>
       <c r="B450" s="4" t="s">
         <v>476</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
-      <c r="E450" s="20"/>
+      <c r="E450" s="21"/>
       <c r="F450" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="20"/>
+      <c r="A451" s="21"/>
       <c r="B451" s="4" t="s">
         <v>477</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
-      <c r="E451" s="20"/>
+      <c r="E451" s="21"/>
       <c r="F451" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="20"/>
+      <c r="A452" s="21"/>
       <c r="B452" s="4" t="s">
         <v>478</v>
       </c>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
-      <c r="E452" s="20"/>
+      <c r="E452" s="21"/>
       <c r="F452" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="20"/>
+      <c r="A453" s="21"/>
       <c r="B453" s="4" t="s">
         <v>479</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
-      <c r="E453" s="20"/>
+      <c r="E453" s="21"/>
       <c r="F453" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="20"/>
+      <c r="A454" s="21"/>
       <c r="B454" s="4" t="s">
         <v>480</v>
       </c>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
-      <c r="E454" s="20"/>
+      <c r="E454" s="21"/>
       <c r="F454" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="20"/>
+      <c r="A455" s="21"/>
       <c r="B455" s="4" t="s">
         <v>481</v>
       </c>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
-      <c r="E455" s="20"/>
+      <c r="E455" s="21"/>
       <c r="F455" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="20"/>
+      <c r="A456" s="21"/>
       <c r="B456" s="4" t="s">
         <v>482</v>
       </c>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
-      <c r="E456" s="20"/>
+      <c r="E456" s="21"/>
       <c r="F456" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="20"/>
+      <c r="A457" s="21"/>
       <c r="B457" s="4" t="s">
         <v>483</v>
       </c>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
-      <c r="E457" s="20"/>
+      <c r="E457" s="21"/>
       <c r="F457" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="20"/>
+      <c r="A458" s="21"/>
       <c r="B458" s="4" t="s">
         <v>484</v>
       </c>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
-      <c r="E458" s="20"/>
+      <c r="E458" s="21"/>
       <c r="F458" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="20"/>
+      <c r="A459" s="21"/>
       <c r="B459" s="4" t="s">
         <v>485</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
-      <c r="E459" s="20"/>
+      <c r="E459" s="21"/>
       <c r="F459" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="20"/>
+      <c r="A460" s="21"/>
       <c r="B460" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
-      <c r="E460" s="20"/>
+      <c r="E460" s="21"/>
       <c r="F460" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="20"/>
+      <c r="A461" s="21"/>
       <c r="B461" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
-      <c r="E461" s="20"/>
+      <c r="E461" s="21"/>
       <c r="F461" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="20"/>
+      <c r="A462" s="21"/>
       <c r="B462" s="4" t="s">
         <v>486</v>
       </c>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
-      <c r="E462" s="20"/>
+      <c r="E462" s="21"/>
       <c r="F462" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="20"/>
+      <c r="A463" s="21"/>
       <c r="B463" s="4" t="s">
         <v>487</v>
       </c>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
-      <c r="E463" s="20"/>
+      <c r="E463" s="21"/>
       <c r="F463" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="20"/>
+      <c r="A464" s="21"/>
       <c r="B464" s="4" t="s">
         <v>488</v>
       </c>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
-      <c r="E464" s="20"/>
+      <c r="E464" s="21"/>
       <c r="F464" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="20"/>
+      <c r="A465" s="21"/>
       <c r="B465" s="4" t="s">
         <v>489</v>
       </c>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
-      <c r="E465" s="20"/>
+      <c r="E465" s="21"/>
       <c r="F465" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="20"/>
+      <c r="A466" s="21"/>
       <c r="B466" s="4" t="s">
         <v>490</v>
       </c>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
-      <c r="E466" s="20"/>
+      <c r="E466" s="21"/>
       <c r="F466" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="20"/>
+      <c r="A467" s="21"/>
       <c r="B467" s="4" t="s">
         <v>491</v>
       </c>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
-      <c r="E467" s="20"/>
+      <c r="E467" s="21"/>
       <c r="F467" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="20"/>
+      <c r="A468" s="21"/>
       <c r="B468" s="4" t="s">
         <v>492</v>
       </c>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
-      <c r="E468" s="20"/>
+      <c r="E468" s="21"/>
       <c r="F468" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="20"/>
+      <c r="A469" s="21"/>
       <c r="B469" s="4" t="s">
         <v>493</v>
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
-      <c r="E469" s="20"/>
+      <c r="E469" s="21"/>
       <c r="F469" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="20"/>
+      <c r="A470" s="21"/>
       <c r="B470" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
-      <c r="E470" s="20"/>
+      <c r="E470" s="21"/>
       <c r="F470" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="21"/>
+      <c r="A471" s="22"/>
       <c r="B471" s="6" t="s">
         <v>494</v>
       </c>
       <c r="C471" s="6"/>
       <c r="D471" s="6"/>
-      <c r="E471" s="21"/>
+      <c r="E471" s="22"/>
       <c r="F471" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="19" t="s">
+      <c r="A472" s="20" t="s">
         <v>495</v>
       </c>
       <c r="B472" s="5" t="s">
@@ -8442,7 +8443,7 @@
       </c>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
-      <c r="E472" s="19" t="s">
+      <c r="E472" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F472" s="8">
@@ -8450,175 +8451,175 @@
       </c>
     </row>
     <row r="473" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="20"/>
+      <c r="A473" s="21"/>
       <c r="B473" s="4" t="s">
         <v>497</v>
       </c>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
-      <c r="E473" s="20"/>
+      <c r="E473" s="21"/>
       <c r="F473" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="20"/>
+      <c r="A474" s="21"/>
       <c r="B474" s="4" t="s">
         <v>498</v>
       </c>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
-      <c r="E474" s="20"/>
+      <c r="E474" s="21"/>
       <c r="F474" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="20"/>
+      <c r="A475" s="21"/>
       <c r="B475" s="4" t="s">
         <v>499</v>
       </c>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
-      <c r="E475" s="20"/>
+      <c r="E475" s="21"/>
       <c r="F475" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="20"/>
+      <c r="A476" s="21"/>
       <c r="B476" s="4" t="s">
         <v>500</v>
       </c>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
-      <c r="E476" s="20"/>
+      <c r="E476" s="21"/>
       <c r="F476" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="20"/>
+      <c r="A477" s="21"/>
       <c r="B477" s="4" t="s">
         <v>501</v>
       </c>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
-      <c r="E477" s="20"/>
+      <c r="E477" s="21"/>
       <c r="F477" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="20"/>
+      <c r="A478" s="21"/>
       <c r="B478" s="4" t="s">
         <v>502</v>
       </c>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
-      <c r="E478" s="20"/>
+      <c r="E478" s="21"/>
       <c r="F478" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="20"/>
+      <c r="A479" s="21"/>
       <c r="B479" s="4" t="s">
         <v>503</v>
       </c>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
-      <c r="E479" s="20"/>
+      <c r="E479" s="21"/>
       <c r="F479" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="20"/>
+      <c r="A480" s="21"/>
       <c r="B480" s="4" t="s">
         <v>504</v>
       </c>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
-      <c r="E480" s="20"/>
+      <c r="E480" s="21"/>
       <c r="F480" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="20"/>
+      <c r="A481" s="21"/>
       <c r="B481" s="4" t="s">
         <v>505</v>
       </c>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
-      <c r="E481" s="20"/>
+      <c r="E481" s="21"/>
       <c r="F481" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="20"/>
+      <c r="A482" s="21"/>
       <c r="B482" s="4" t="s">
         <v>506</v>
       </c>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
-      <c r="E482" s="20"/>
+      <c r="E482" s="21"/>
       <c r="F482" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="20"/>
+      <c r="A483" s="21"/>
       <c r="B483" s="4" t="s">
         <v>507</v>
       </c>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
-      <c r="E483" s="20"/>
+      <c r="E483" s="21"/>
       <c r="F483" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="20"/>
+      <c r="A484" s="21"/>
       <c r="B484" s="4" t="s">
         <v>508</v>
       </c>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
-      <c r="E484" s="20"/>
+      <c r="E484" s="21"/>
       <c r="F484" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="20"/>
+      <c r="A485" s="21"/>
       <c r="B485" s="4" t="s">
         <v>509</v>
       </c>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
-      <c r="E485" s="20"/>
+      <c r="E485" s="21"/>
       <c r="F485" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="21"/>
+      <c r="A486" s="22"/>
       <c r="B486" s="6" t="s">
         <v>510</v>
       </c>
       <c r="C486" s="6"/>
       <c r="D486" s="6"/>
-      <c r="E486" s="21"/>
+      <c r="E486" s="22"/>
       <c r="F486" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="19" t="s">
+      <c r="A487" s="20" t="s">
         <v>511</v>
       </c>
       <c r="B487" s="5" t="s">
@@ -8626,7 +8627,7 @@
       </c>
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
-      <c r="E487" s="19" t="s">
+      <c r="E487" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F487" s="8">
@@ -8634,139 +8635,139 @@
       </c>
     </row>
     <row r="488" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="20"/>
+      <c r="A488" s="21"/>
       <c r="B488" s="4" t="s">
         <v>513</v>
       </c>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
-      <c r="E488" s="20"/>
+      <c r="E488" s="21"/>
       <c r="F488" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="489" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="20"/>
+      <c r="A489" s="21"/>
       <c r="B489" s="4" t="s">
         <v>514</v>
       </c>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
-      <c r="E489" s="20"/>
+      <c r="E489" s="21"/>
       <c r="F489" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="490" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="20"/>
+      <c r="A490" s="21"/>
       <c r="B490" s="4" t="s">
         <v>515</v>
       </c>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
-      <c r="E490" s="20"/>
+      <c r="E490" s="21"/>
       <c r="F490" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="491" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="20"/>
+      <c r="A491" s="21"/>
       <c r="B491" s="4" t="s">
         <v>516</v>
       </c>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
-      <c r="E491" s="20"/>
+      <c r="E491" s="21"/>
       <c r="F491" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="492" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="20"/>
+      <c r="A492" s="21"/>
       <c r="B492" s="4" t="s">
         <v>517</v>
       </c>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
-      <c r="E492" s="20"/>
+      <c r="E492" s="21"/>
       <c r="F492" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="493" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="20"/>
+      <c r="A493" s="21"/>
       <c r="B493" s="4" t="s">
         <v>518</v>
       </c>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
-      <c r="E493" s="20"/>
+      <c r="E493" s="21"/>
       <c r="F493" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="494" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="20"/>
+      <c r="A494" s="21"/>
       <c r="B494" s="4" t="s">
         <v>519</v>
       </c>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
-      <c r="E494" s="20"/>
+      <c r="E494" s="21"/>
       <c r="F494" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="495" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="20"/>
+      <c r="A495" s="21"/>
       <c r="B495" s="4" t="s">
         <v>520</v>
       </c>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
-      <c r="E495" s="20"/>
+      <c r="E495" s="21"/>
       <c r="F495" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="496" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="20"/>
+      <c r="A496" s="21"/>
       <c r="B496" s="4" t="s">
         <v>521</v>
       </c>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
-      <c r="E496" s="20"/>
+      <c r="E496" s="21"/>
       <c r="F496" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="497" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="20"/>
+      <c r="A497" s="21"/>
       <c r="B497" s="4" t="s">
         <v>522</v>
       </c>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
-      <c r="E497" s="20"/>
+      <c r="E497" s="21"/>
       <c r="F497" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="498" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="21"/>
+      <c r="A498" s="22"/>
       <c r="B498" s="6" t="s">
         <v>523</v>
       </c>
       <c r="C498" s="6"/>
       <c r="D498" s="6"/>
-      <c r="E498" s="21"/>
+      <c r="E498" s="22"/>
       <c r="F498" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="499" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="19" t="s">
+      <c r="A499" s="20" t="s">
         <v>524</v>
       </c>
       <c r="B499" s="5" t="s">
@@ -8774,7 +8775,7 @@
       </c>
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
-      <c r="E499" s="19" t="s">
+      <c r="E499" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F499" s="8">
@@ -8782,67 +8783,67 @@
       </c>
     </row>
     <row r="500" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="20"/>
+      <c r="A500" s="21"/>
       <c r="B500" s="4" t="s">
         <v>526</v>
       </c>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
-      <c r="E500" s="20"/>
+      <c r="E500" s="21"/>
       <c r="F500" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="20"/>
+      <c r="A501" s="21"/>
       <c r="B501" s="4" t="s">
         <v>527</v>
       </c>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
-      <c r="E501" s="20"/>
+      <c r="E501" s="21"/>
       <c r="F501" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="20"/>
+      <c r="A502" s="21"/>
       <c r="B502" s="4" t="s">
         <v>528</v>
       </c>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
-      <c r="E502" s="20"/>
+      <c r="E502" s="21"/>
       <c r="F502" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="20"/>
+      <c r="A503" s="21"/>
       <c r="B503" s="4" t="s">
         <v>529</v>
       </c>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
-      <c r="E503" s="20"/>
+      <c r="E503" s="21"/>
       <c r="F503" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="21"/>
+      <c r="A504" s="22"/>
       <c r="B504" s="6" t="s">
         <v>530</v>
       </c>
       <c r="C504" s="6"/>
       <c r="D504" s="6"/>
-      <c r="E504" s="21"/>
+      <c r="E504" s="22"/>
       <c r="F504" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="19" t="s">
+      <c r="A505" s="20" t="s">
         <v>531</v>
       </c>
       <c r="B505" s="5" t="s">
@@ -8850,7 +8851,7 @@
       </c>
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
-      <c r="E505" s="19" t="s">
+      <c r="E505" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F505" s="8">
@@ -8858,871 +8859,871 @@
       </c>
     </row>
     <row r="506" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="20"/>
+      <c r="A506" s="21"/>
       <c r="B506" s="4" t="s">
         <v>533</v>
       </c>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
-      <c r="E506" s="20"/>
+      <c r="E506" s="21"/>
       <c r="F506" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="20"/>
+      <c r="A507" s="21"/>
       <c r="B507" s="4" t="s">
         <v>534</v>
       </c>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
-      <c r="E507" s="20"/>
+      <c r="E507" s="21"/>
       <c r="F507" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="20"/>
+      <c r="A508" s="21"/>
       <c r="B508" s="4" t="s">
         <v>535</v>
       </c>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
-      <c r="E508" s="20"/>
+      <c r="E508" s="21"/>
       <c r="F508" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="20"/>
+      <c r="A509" s="21"/>
       <c r="B509" s="4" t="s">
         <v>536</v>
       </c>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
-      <c r="E509" s="20"/>
+      <c r="E509" s="21"/>
       <c r="F509" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="20"/>
+      <c r="A510" s="21"/>
       <c r="B510" s="4" t="s">
         <v>537</v>
       </c>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
-      <c r="E510" s="20"/>
+      <c r="E510" s="21"/>
       <c r="F510" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="20"/>
+      <c r="A511" s="21"/>
       <c r="B511" s="4" t="s">
         <v>539</v>
       </c>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
-      <c r="E511" s="20"/>
+      <c r="E511" s="21"/>
       <c r="F511" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="20"/>
+      <c r="A512" s="21"/>
       <c r="B512" s="4" t="s">
         <v>540</v>
       </c>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
-      <c r="E512" s="20"/>
+      <c r="E512" s="21"/>
       <c r="F512" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="20"/>
+      <c r="A513" s="21"/>
       <c r="B513" s="4" t="s">
         <v>538</v>
       </c>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
-      <c r="E513" s="20"/>
+      <c r="E513" s="21"/>
       <c r="F513" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="20"/>
+      <c r="A514" s="21"/>
       <c r="B514" s="4" t="s">
         <v>541</v>
       </c>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
-      <c r="E514" s="20"/>
+      <c r="E514" s="21"/>
       <c r="F514" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="20"/>
+      <c r="A515" s="21"/>
       <c r="B515" s="4" t="s">
         <v>542</v>
       </c>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
-      <c r="E515" s="20"/>
+      <c r="E515" s="21"/>
       <c r="F515" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="20"/>
+      <c r="A516" s="21"/>
       <c r="B516" s="4" t="s">
         <v>543</v>
       </c>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
-      <c r="E516" s="20"/>
+      <c r="E516" s="21"/>
       <c r="F516" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="20"/>
+      <c r="A517" s="21"/>
       <c r="B517" s="4" t="s">
         <v>544</v>
       </c>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
-      <c r="E517" s="20"/>
+      <c r="E517" s="21"/>
       <c r="F517" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="20"/>
+      <c r="A518" s="21"/>
       <c r="B518" s="4" t="s">
         <v>545</v>
       </c>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
-      <c r="E518" s="20"/>
+      <c r="E518" s="21"/>
       <c r="F518" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="20"/>
+      <c r="A519" s="21"/>
       <c r="B519" s="4" t="s">
         <v>546</v>
       </c>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
-      <c r="E519" s="20"/>
+      <c r="E519" s="21"/>
       <c r="F519" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="20"/>
+      <c r="A520" s="21"/>
       <c r="B520" s="4" t="s">
         <v>547</v>
       </c>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
-      <c r="E520" s="20"/>
+      <c r="E520" s="21"/>
       <c r="F520" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="20"/>
+      <c r="A521" s="21"/>
       <c r="B521" s="4" t="s">
         <v>548</v>
       </c>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
-      <c r="E521" s="20"/>
+      <c r="E521" s="21"/>
       <c r="F521" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="20"/>
+      <c r="A522" s="21"/>
       <c r="B522" s="4" t="s">
         <v>549</v>
       </c>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
-      <c r="E522" s="20"/>
+      <c r="E522" s="21"/>
       <c r="F522" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="20"/>
+      <c r="A523" s="21"/>
       <c r="B523" s="4" t="s">
         <v>550</v>
       </c>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
-      <c r="E523" s="20"/>
+      <c r="E523" s="21"/>
       <c r="F523" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="20"/>
+      <c r="A524" s="21"/>
       <c r="B524" s="4" t="s">
         <v>551</v>
       </c>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
-      <c r="E524" s="20"/>
+      <c r="E524" s="21"/>
       <c r="F524" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="20"/>
+      <c r="A525" s="21"/>
       <c r="B525" s="4" t="s">
         <v>553</v>
       </c>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
-      <c r="E525" s="20"/>
+      <c r="E525" s="21"/>
       <c r="F525" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="20"/>
+      <c r="A526" s="21"/>
       <c r="B526" s="4" t="s">
         <v>554</v>
       </c>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
-      <c r="E526" s="20"/>
+      <c r="E526" s="21"/>
       <c r="F526" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="20"/>
+      <c r="A527" s="21"/>
       <c r="B527" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
-      <c r="E527" s="20"/>
+      <c r="E527" s="21"/>
       <c r="F527" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="20"/>
+      <c r="A528" s="21"/>
       <c r="B528" s="4" t="s">
         <v>555</v>
       </c>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
-      <c r="E528" s="20"/>
+      <c r="E528" s="21"/>
       <c r="F528" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="20"/>
+      <c r="A529" s="21"/>
       <c r="B529" s="4" t="s">
         <v>556</v>
       </c>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
-      <c r="E529" s="20"/>
+      <c r="E529" s="21"/>
       <c r="F529" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="20"/>
+      <c r="A530" s="21"/>
       <c r="B530" s="4" t="s">
         <v>557</v>
       </c>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
-      <c r="E530" s="20"/>
+      <c r="E530" s="21"/>
       <c r="F530" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="20"/>
+      <c r="A531" s="21"/>
       <c r="B531" s="4" t="s">
         <v>558</v>
       </c>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
-      <c r="E531" s="20"/>
+      <c r="E531" s="21"/>
       <c r="F531" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="20"/>
+      <c r="A532" s="21"/>
       <c r="B532" s="4" t="s">
         <v>559</v>
       </c>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
-      <c r="E532" s="20"/>
+      <c r="E532" s="21"/>
       <c r="F532" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="20"/>
+      <c r="A533" s="21"/>
       <c r="B533" s="4" t="s">
         <v>560</v>
       </c>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
-      <c r="E533" s="20"/>
+      <c r="E533" s="21"/>
       <c r="F533" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="20"/>
+      <c r="A534" s="21"/>
       <c r="B534" s="4" t="s">
         <v>561</v>
       </c>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
-      <c r="E534" s="20"/>
+      <c r="E534" s="21"/>
       <c r="F534" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="20"/>
+      <c r="A535" s="21"/>
       <c r="B535" s="4" t="s">
         <v>562</v>
       </c>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
-      <c r="E535" s="20"/>
+      <c r="E535" s="21"/>
       <c r="F535" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="20"/>
+      <c r="A536" s="21"/>
       <c r="B536" s="4" t="s">
         <v>563</v>
       </c>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
-      <c r="E536" s="20"/>
+      <c r="E536" s="21"/>
       <c r="F536" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="20"/>
+      <c r="A537" s="21"/>
       <c r="B537" s="4" t="s">
         <v>564</v>
       </c>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
-      <c r="E537" s="20"/>
+      <c r="E537" s="21"/>
       <c r="F537" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="20"/>
+      <c r="A538" s="21"/>
       <c r="B538" s="4" t="s">
         <v>565</v>
       </c>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
-      <c r="E538" s="20"/>
+      <c r="E538" s="21"/>
       <c r="F538" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="20"/>
+      <c r="A539" s="21"/>
       <c r="B539" s="4" t="s">
         <v>566</v>
       </c>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
-      <c r="E539" s="20"/>
+      <c r="E539" s="21"/>
       <c r="F539" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="540" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="20"/>
+      <c r="A540" s="21"/>
       <c r="B540" s="4" t="s">
         <v>567</v>
       </c>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
-      <c r="E540" s="20"/>
+      <c r="E540" s="21"/>
       <c r="F540" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="20"/>
+      <c r="A541" s="21"/>
       <c r="B541" s="4" t="s">
         <v>568</v>
       </c>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
-      <c r="E541" s="20"/>
+      <c r="E541" s="21"/>
       <c r="F541" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="20"/>
+      <c r="A542" s="21"/>
       <c r="B542" s="4" t="s">
         <v>569</v>
       </c>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
-      <c r="E542" s="20"/>
+      <c r="E542" s="21"/>
       <c r="F542" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="20"/>
+      <c r="A543" s="21"/>
       <c r="B543" s="4" t="s">
         <v>570</v>
       </c>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
-      <c r="E543" s="20"/>
+      <c r="E543" s="21"/>
       <c r="F543" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="20"/>
+      <c r="A544" s="21"/>
       <c r="B544" s="4" t="s">
         <v>571</v>
       </c>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
-      <c r="E544" s="20"/>
+      <c r="E544" s="21"/>
       <c r="F544" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="20"/>
+      <c r="A545" s="21"/>
       <c r="B545" s="4" t="s">
         <v>572</v>
       </c>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
-      <c r="E545" s="20"/>
+      <c r="E545" s="21"/>
       <c r="F545" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="20"/>
+      <c r="A546" s="21"/>
       <c r="B546" s="4" t="s">
         <v>573</v>
       </c>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
-      <c r="E546" s="20"/>
+      <c r="E546" s="21"/>
       <c r="F546" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="20"/>
+      <c r="A547" s="21"/>
       <c r="B547" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
-      <c r="E547" s="20"/>
+      <c r="E547" s="21"/>
       <c r="F547" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="20"/>
+      <c r="A548" s="21"/>
       <c r="B548" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
-      <c r="E548" s="20"/>
+      <c r="E548" s="21"/>
       <c r="F548" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="20"/>
+      <c r="A549" s="21"/>
       <c r="B549" s="4" t="s">
         <v>576</v>
       </c>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
-      <c r="E549" s="20"/>
+      <c r="E549" s="21"/>
       <c r="F549" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="20"/>
+      <c r="A550" s="21"/>
       <c r="B550" s="4" t="s">
         <v>577</v>
       </c>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
-      <c r="E550" s="20"/>
+      <c r="E550" s="21"/>
       <c r="F550" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="20"/>
+      <c r="A551" s="21"/>
       <c r="B551" s="4" t="s">
         <v>578</v>
       </c>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
-      <c r="E551" s="20"/>
+      <c r="E551" s="21"/>
       <c r="F551" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="20"/>
+      <c r="A552" s="21"/>
       <c r="B552" s="4" t="s">
         <v>579</v>
       </c>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
-      <c r="E552" s="20"/>
+      <c r="E552" s="21"/>
       <c r="F552" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="20"/>
+      <c r="A553" s="21"/>
       <c r="B553" s="4" t="s">
         <v>580</v>
       </c>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
-      <c r="E553" s="20"/>
+      <c r="E553" s="21"/>
       <c r="F553" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="20"/>
+      <c r="A554" s="21"/>
       <c r="B554" s="4" t="s">
         <v>581</v>
       </c>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
-      <c r="E554" s="20"/>
+      <c r="E554" s="21"/>
       <c r="F554" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="20"/>
+      <c r="A555" s="21"/>
       <c r="B555" s="4" t="s">
         <v>582</v>
       </c>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
-      <c r="E555" s="20"/>
+      <c r="E555" s="21"/>
       <c r="F555" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="20"/>
+      <c r="A556" s="21"/>
       <c r="B556" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
-      <c r="E556" s="20"/>
+      <c r="E556" s="21"/>
       <c r="F556" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="20"/>
+      <c r="A557" s="21"/>
       <c r="B557" s="4" t="s">
         <v>584</v>
       </c>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
-      <c r="E557" s="20"/>
+      <c r="E557" s="21"/>
       <c r="F557" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="20"/>
+      <c r="A558" s="21"/>
       <c r="B558" s="4" t="s">
         <v>585</v>
       </c>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
-      <c r="E558" s="20"/>
+      <c r="E558" s="21"/>
       <c r="F558" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="20"/>
+      <c r="A559" s="21"/>
       <c r="B559" s="4" t="s">
         <v>586</v>
       </c>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
-      <c r="E559" s="20"/>
+      <c r="E559" s="21"/>
       <c r="F559" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="20"/>
+      <c r="A560" s="21"/>
       <c r="B560" s="4" t="s">
         <v>587</v>
       </c>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
-      <c r="E560" s="20"/>
+      <c r="E560" s="21"/>
       <c r="F560" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="20"/>
+      <c r="A561" s="21"/>
       <c r="B561" s="4" t="s">
         <v>588</v>
       </c>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
-      <c r="E561" s="20"/>
+      <c r="E561" s="21"/>
       <c r="F561" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="20"/>
+      <c r="A562" s="21"/>
       <c r="B562" s="4" t="s">
         <v>589</v>
       </c>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
-      <c r="E562" s="20"/>
+      <c r="E562" s="21"/>
       <c r="F562" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="20"/>
+      <c r="A563" s="21"/>
       <c r="B563" s="4" t="s">
         <v>590</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
-      <c r="E563" s="20"/>
+      <c r="E563" s="21"/>
       <c r="F563" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="20"/>
+      <c r="A564" s="21"/>
       <c r="B564" s="4" t="s">
         <v>591</v>
       </c>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
-      <c r="E564" s="20"/>
+      <c r="E564" s="21"/>
       <c r="F564" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="20"/>
+      <c r="A565" s="21"/>
       <c r="B565" s="4" t="s">
         <v>592</v>
       </c>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
-      <c r="E565" s="20"/>
+      <c r="E565" s="21"/>
       <c r="F565" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="20"/>
+      <c r="A566" s="21"/>
       <c r="B566" s="4" t="s">
         <v>593</v>
       </c>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
-      <c r="E566" s="20"/>
+      <c r="E566" s="21"/>
       <c r="F566" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="20"/>
+      <c r="A567" s="21"/>
       <c r="B567" s="4" t="s">
         <v>594</v>
       </c>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
-      <c r="E567" s="20"/>
+      <c r="E567" s="21"/>
       <c r="F567" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="20"/>
+      <c r="A568" s="21"/>
       <c r="B568" s="4" t="s">
         <v>595</v>
       </c>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
-      <c r="E568" s="20"/>
+      <c r="E568" s="21"/>
       <c r="F568" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="569" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="20"/>
+      <c r="A569" s="21"/>
       <c r="B569" s="4" t="s">
         <v>596</v>
       </c>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
-      <c r="E569" s="20"/>
+      <c r="E569" s="21"/>
       <c r="F569" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="20"/>
+      <c r="A570" s="21"/>
       <c r="B570" s="4" t="s">
         <v>597</v>
       </c>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
-      <c r="E570" s="20"/>
+      <c r="E570" s="21"/>
       <c r="F570" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="571" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="20"/>
+      <c r="A571" s="21"/>
       <c r="B571" s="4" t="s">
         <v>598</v>
       </c>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
-      <c r="E571" s="20"/>
+      <c r="E571" s="21"/>
       <c r="F571" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="20"/>
+      <c r="A572" s="21"/>
       <c r="B572" s="4" t="s">
         <v>599</v>
       </c>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
-      <c r="E572" s="20"/>
+      <c r="E572" s="21"/>
       <c r="F572" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="573" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="20"/>
+      <c r="A573" s="21"/>
       <c r="B573" s="4" t="s">
         <v>600</v>
       </c>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
-      <c r="E573" s="20"/>
+      <c r="E573" s="21"/>
       <c r="F573" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="574" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="20"/>
+      <c r="A574" s="21"/>
       <c r="B574" s="4" t="s">
         <v>601</v>
       </c>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
-      <c r="E574" s="20"/>
+      <c r="E574" s="21"/>
       <c r="F574" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="575" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="20"/>
+      <c r="A575" s="21"/>
       <c r="B575" s="4" t="s">
         <v>602</v>
       </c>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
-      <c r="E575" s="20"/>
+      <c r="E575" s="21"/>
       <c r="F575" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="576" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="20"/>
+      <c r="A576" s="21"/>
       <c r="B576" s="4" t="s">
         <v>603</v>
       </c>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
-      <c r="E576" s="20"/>
+      <c r="E576" s="21"/>
       <c r="F576" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="577" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="21"/>
+      <c r="A577" s="22"/>
       <c r="B577" s="6" t="s">
         <v>604</v>
       </c>
       <c r="C577" s="6"/>
       <c r="D577" s="6"/>
-      <c r="E577" s="21"/>
+      <c r="E577" s="22"/>
       <c r="F577" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="578" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="19" t="s">
+      <c r="A578" s="20" t="s">
         <v>605</v>
       </c>
       <c r="B578" s="5" t="s">
@@ -9730,7 +9731,7 @@
       </c>
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
-      <c r="E578" s="19" t="s">
+      <c r="E578" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F578" s="8">
@@ -9738,43 +9739,43 @@
       </c>
     </row>
     <row r="579" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="20"/>
+      <c r="A579" s="21"/>
       <c r="B579" s="4" t="s">
         <v>607</v>
       </c>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
-      <c r="E579" s="20"/>
+      <c r="E579" s="21"/>
       <c r="F579" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="20"/>
+      <c r="A580" s="21"/>
       <c r="B580" s="4" t="s">
         <v>608</v>
       </c>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
-      <c r="E580" s="20"/>
+      <c r="E580" s="21"/>
       <c r="F580" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="21"/>
+      <c r="A581" s="22"/>
       <c r="B581" s="6" t="s">
         <v>609</v>
       </c>
       <c r="C581" s="6"/>
       <c r="D581" s="6"/>
-      <c r="E581" s="21"/>
+      <c r="E581" s="22"/>
       <c r="F581" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="19" t="s">
+      <c r="A582" s="20" t="s">
         <v>610</v>
       </c>
       <c r="B582" s="5" t="s">
@@ -9782,7 +9783,7 @@
       </c>
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
-      <c r="E582" s="19" t="s">
+      <c r="E582" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F582" s="8">
@@ -9790,19 +9791,19 @@
       </c>
     </row>
     <row r="583" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="21"/>
+      <c r="A583" s="22"/>
       <c r="B583" s="6" t="s">
         <v>612</v>
       </c>
       <c r="C583" s="6"/>
       <c r="D583" s="6"/>
-      <c r="E583" s="21"/>
+      <c r="E583" s="22"/>
       <c r="F583" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="19" t="s">
+      <c r="A584" s="20" t="s">
         <v>613</v>
       </c>
       <c r="B584" s="5" t="s">
@@ -9810,7 +9811,7 @@
       </c>
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
-      <c r="E584" s="19" t="s">
+      <c r="E584" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F584" s="8">
@@ -9818,115 +9819,115 @@
       </c>
     </row>
     <row r="585" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="20"/>
+      <c r="A585" s="21"/>
       <c r="B585" s="4" t="s">
         <v>615</v>
       </c>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
-      <c r="E585" s="20"/>
+      <c r="E585" s="21"/>
       <c r="F585" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="20"/>
+      <c r="A586" s="21"/>
       <c r="B586" s="4" t="s">
         <v>616</v>
       </c>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
-      <c r="E586" s="20"/>
+      <c r="E586" s="21"/>
       <c r="F586" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="20"/>
+      <c r="A587" s="21"/>
       <c r="B587" s="4" t="s">
         <v>617</v>
       </c>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
-      <c r="E587" s="20"/>
+      <c r="E587" s="21"/>
       <c r="F587" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="20"/>
+      <c r="A588" s="21"/>
       <c r="B588" s="4" t="s">
         <v>618</v>
       </c>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
-      <c r="E588" s="20"/>
+      <c r="E588" s="21"/>
       <c r="F588" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="20"/>
+      <c r="A589" s="21"/>
       <c r="B589" s="4" t="s">
         <v>619</v>
       </c>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
-      <c r="E589" s="20"/>
+      <c r="E589" s="21"/>
       <c r="F589" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="20"/>
+      <c r="A590" s="21"/>
       <c r="B590" s="4" t="s">
         <v>620</v>
       </c>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
-      <c r="E590" s="20"/>
+      <c r="E590" s="21"/>
       <c r="F590" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="20"/>
+      <c r="A591" s="21"/>
       <c r="B591" s="4" t="s">
         <v>621</v>
       </c>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
-      <c r="E591" s="20"/>
+      <c r="E591" s="21"/>
       <c r="F591" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="20"/>
+      <c r="A592" s="21"/>
       <c r="B592" s="4" t="s">
         <v>622</v>
       </c>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
-      <c r="E592" s="20"/>
+      <c r="E592" s="21"/>
       <c r="F592" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="21"/>
+      <c r="A593" s="22"/>
       <c r="B593" s="6" t="s">
         <v>623</v>
       </c>
       <c r="C593" s="6"/>
       <c r="D593" s="6"/>
-      <c r="E593" s="21"/>
+      <c r="E593" s="22"/>
       <c r="F593" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="19" t="s">
+      <c r="A594" s="20" t="s">
         <v>624</v>
       </c>
       <c r="B594" s="5" t="s">
@@ -9934,7 +9935,7 @@
       </c>
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
-      <c r="E594" s="19" t="s">
+      <c r="E594" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F594" s="8">
@@ -9942,73 +9943,73 @@
       </c>
     </row>
     <row r="595" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="20"/>
+      <c r="A595" s="21"/>
       <c r="B595" s="4" t="s">
         <v>591</v>
       </c>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
-      <c r="E595" s="20"/>
+      <c r="E595" s="21"/>
       <c r="F595" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="596" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="20"/>
+      <c r="A596" s="21"/>
       <c r="B596" s="4" t="s">
         <v>625</v>
       </c>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
-      <c r="E596" s="20"/>
+      <c r="E596" s="21"/>
       <c r="F596" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="597" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="20"/>
+      <c r="A597" s="21"/>
       <c r="B597" s="4" t="s">
         <v>626</v>
       </c>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
-      <c r="E597" s="20"/>
+      <c r="E597" s="21"/>
       <c r="F597" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="598" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="20"/>
+      <c r="A598" s="21"/>
       <c r="B598" s="4" t="s">
         <v>563</v>
       </c>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
-      <c r="E598" s="20"/>
+      <c r="E598" s="21"/>
       <c r="F598" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="20"/>
+      <c r="A599" s="21"/>
       <c r="B599" s="4" t="s">
         <v>627</v>
       </c>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
-      <c r="E599" s="20"/>
+      <c r="E599" s="21"/>
       <c r="F599" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="21"/>
+      <c r="A600" s="22"/>
       <c r="B600" s="6" t="s">
         <v>628</v>
       </c>
       <c r="C600" s="6"/>
       <c r="D600" s="6"/>
-      <c r="E600" s="21"/>
+      <c r="E600" s="22"/>
       <c r="F600" s="8">
         <v>2</v>
       </c>
@@ -10022,7 +10023,7 @@
       </c>
       <c r="C601" s="8"/>
       <c r="D601" s="8"/>
-      <c r="E601" s="31" t="s">
+      <c r="E601" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F601" s="8">
@@ -10038,7 +10039,7 @@
       </c>
       <c r="C602" s="8"/>
       <c r="D602" s="8"/>
-      <c r="E602" s="31" t="s">
+      <c r="E602" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F602" s="8">
@@ -10054,7 +10055,7 @@
       </c>
       <c r="C603" s="8"/>
       <c r="D603" s="8"/>
-      <c r="E603" s="31" t="s">
+      <c r="E603" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F603" s="8">
@@ -10062,7 +10063,7 @@
       </c>
     </row>
     <row r="604" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="19" t="s">
+      <c r="A604" s="20" t="s">
         <v>634</v>
       </c>
       <c r="B604" s="5" t="s">
@@ -10070,7 +10071,7 @@
       </c>
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
-      <c r="E604" s="19" t="s">
+      <c r="E604" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F604" s="8">
@@ -10078,25 +10079,25 @@
       </c>
     </row>
     <row r="605" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="20"/>
+      <c r="A605" s="21"/>
       <c r="B605" s="4" t="s">
         <v>636</v>
       </c>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
-      <c r="E605" s="20"/>
+      <c r="E605" s="21"/>
       <c r="F605" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="606" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="21"/>
+      <c r="A606" s="22"/>
       <c r="B606" s="6" t="s">
         <v>637</v>
       </c>
       <c r="C606" s="6"/>
       <c r="D606" s="6"/>
-      <c r="E606" s="21"/>
+      <c r="E606" s="22"/>
       <c r="F606" s="8">
         <v>-1</v>
       </c>
@@ -10124,7 +10125,7 @@
       </c>
       <c r="C608" s="8"/>
       <c r="D608" s="8"/>
-      <c r="E608" s="31" t="s">
+      <c r="E608" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F608" s="8">
@@ -10132,7 +10133,7 @@
       </c>
     </row>
     <row r="609" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="19" t="s">
+      <c r="A609" s="20" t="s">
         <v>642</v>
       </c>
       <c r="B609" s="5" t="s">
@@ -10140,7 +10141,7 @@
       </c>
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
-      <c r="E609" s="19" t="s">
+      <c r="E609" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F609" s="8">
@@ -10148,65 +10149,65 @@
       </c>
     </row>
     <row r="610" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="20"/>
+      <c r="A610" s="21"/>
       <c r="B610" s="4" t="s">
         <v>644</v>
       </c>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
-      <c r="E610" s="20"/>
+      <c r="E610" s="21"/>
       <c r="F610" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="20"/>
+      <c r="A611" s="21"/>
       <c r="B611" s="4" t="s">
         <v>645</v>
       </c>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
-      <c r="E611" s="20"/>
+      <c r="E611" s="21"/>
       <c r="F611" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="20"/>
+      <c r="A612" s="21"/>
       <c r="B612" s="4" t="s">
         <v>646</v>
       </c>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
-      <c r="E612" s="20"/>
+      <c r="E612" s="21"/>
       <c r="F612" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="21"/>
+      <c r="A613" s="22"/>
       <c r="B613" s="6" t="s">
         <v>647</v>
       </c>
       <c r="C613" s="6"/>
       <c r="D613" s="6"/>
-      <c r="E613" s="21"/>
+      <c r="E613" s="22"/>
       <c r="F613" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="19" t="s">
+      <c r="A614" s="20" t="s">
         <v>648</v>
       </c>
       <c r="B614" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C614" s="32" t="s">
+      <c r="C614" s="23" t="s">
         <v>658</v>
       </c>
       <c r="D614" s="5"/>
-      <c r="E614" s="19" t="s">
+      <c r="E614" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F614" s="8">
@@ -10214,115 +10215,115 @@
       </c>
     </row>
     <row r="615" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="20"/>
+      <c r="A615" s="21"/>
       <c r="B615" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C615" s="26"/>
+      <c r="C615" s="24"/>
       <c r="D615" s="4"/>
-      <c r="E615" s="20"/>
+      <c r="E615" s="21"/>
       <c r="F615" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="616" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="20"/>
+      <c r="A616" s="21"/>
       <c r="B616" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C616" s="26"/>
+      <c r="C616" s="24"/>
       <c r="D616" s="4"/>
-      <c r="E616" s="20"/>
+      <c r="E616" s="21"/>
       <c r="F616" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="617" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="20"/>
+      <c r="A617" s="21"/>
       <c r="B617" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C617" s="26"/>
+      <c r="C617" s="24"/>
       <c r="D617" s="4"/>
-      <c r="E617" s="20"/>
+      <c r="E617" s="21"/>
       <c r="F617" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="618" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="20"/>
+      <c r="A618" s="21"/>
       <c r="B618" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C618" s="26"/>
+      <c r="C618" s="24"/>
       <c r="D618" s="4"/>
-      <c r="E618" s="20"/>
+      <c r="E618" s="21"/>
       <c r="F618" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="619" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="20"/>
+      <c r="A619" s="21"/>
       <c r="B619" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C619" s="26"/>
+      <c r="C619" s="24"/>
       <c r="D619" s="4"/>
-      <c r="E619" s="20"/>
+      <c r="E619" s="21"/>
       <c r="F619" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="620" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A620" s="20"/>
+      <c r="A620" s="21"/>
       <c r="B620" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C620" s="26"/>
+      <c r="C620" s="24"/>
       <c r="D620" s="4"/>
-      <c r="E620" s="20"/>
+      <c r="E620" s="21"/>
       <c r="F620" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="621" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A621" s="20"/>
+      <c r="A621" s="21"/>
       <c r="B621" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="C621" s="26"/>
+      <c r="C621" s="24"/>
       <c r="D621" s="4"/>
-      <c r="E621" s="20"/>
+      <c r="E621" s="21"/>
       <c r="F621" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="622" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="20"/>
+      <c r="A622" s="21"/>
       <c r="B622" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C622" s="26"/>
+      <c r="C622" s="24"/>
       <c r="D622" s="4"/>
-      <c r="E622" s="20"/>
+      <c r="E622" s="21"/>
       <c r="F622" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="623" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="21"/>
+      <c r="A623" s="22"/>
       <c r="B623" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="C623" s="27"/>
+      <c r="C623" s="25"/>
       <c r="D623" s="6"/>
-      <c r="E623" s="21"/>
+      <c r="E623" s="22"/>
       <c r="F623" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="624" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="19" t="s">
+      <c r="A624" s="20" t="s">
         <v>659</v>
       </c>
       <c r="B624" s="5" t="s">
@@ -10330,7 +10331,7 @@
       </c>
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
-      <c r="E624" s="19" t="s">
+      <c r="E624" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F624" s="8">
@@ -10338,55 +10339,55 @@
       </c>
     </row>
     <row r="625" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A625" s="20"/>
+      <c r="A625" s="21"/>
       <c r="B625" s="4" t="s">
         <v>525</v>
       </c>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
-      <c r="E625" s="20"/>
+      <c r="E625" s="21"/>
       <c r="F625" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A626" s="20"/>
+      <c r="A626" s="21"/>
       <c r="B626" s="4" t="s">
         <v>661</v>
       </c>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
-      <c r="E626" s="20"/>
+      <c r="E626" s="21"/>
       <c r="F626" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="20"/>
+      <c r="A627" s="21"/>
       <c r="B627" s="4" t="s">
         <v>662</v>
       </c>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
-      <c r="E627" s="20"/>
+      <c r="E627" s="21"/>
       <c r="F627" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A628" s="21"/>
+      <c r="A628" s="22"/>
       <c r="B628" s="6" t="s">
         <v>663</v>
       </c>
       <c r="C628" s="6"/>
       <c r="D628" s="6"/>
-      <c r="E628" s="21"/>
+      <c r="E628" s="22"/>
       <c r="F628" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="19" t="s">
+      <c r="A629" s="20" t="s">
         <v>664</v>
       </c>
       <c r="B629" s="5" t="s">
@@ -10394,7 +10395,7 @@
       </c>
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
-      <c r="E629" s="19" t="s">
+      <c r="E629" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F629" s="8">
@@ -10402,13 +10403,13 @@
       </c>
     </row>
     <row r="630" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A630" s="21"/>
+      <c r="A630" s="22"/>
       <c r="B630" s="6" t="s">
         <v>666</v>
       </c>
       <c r="C630" s="6"/>
       <c r="D630" s="6"/>
-      <c r="E630" s="21"/>
+      <c r="E630" s="22"/>
       <c r="F630" s="8">
         <v>-1</v>
       </c>
@@ -10422,7 +10423,7 @@
       </c>
       <c r="C631" s="8"/>
       <c r="D631" s="8"/>
-      <c r="E631" s="31" t="s">
+      <c r="E631" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F631" s="8">
@@ -10444,6 +10445,70 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="E400:E403"/>
+    <mergeCell ref="A404:A420"/>
+    <mergeCell ref="E404:E420"/>
+    <mergeCell ref="A421:A471"/>
+    <mergeCell ref="E421:E471"/>
+    <mergeCell ref="A472:A486"/>
+    <mergeCell ref="E472:E486"/>
+    <mergeCell ref="A487:A498"/>
+    <mergeCell ref="E487:E498"/>
+    <mergeCell ref="A499:A504"/>
+    <mergeCell ref="E499:E504"/>
+    <mergeCell ref="A505:A577"/>
+    <mergeCell ref="E505:E577"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="A582:A583"/>
+    <mergeCell ref="E582:E583"/>
+    <mergeCell ref="A584:A593"/>
+    <mergeCell ref="E584:E593"/>
+    <mergeCell ref="A594:A600"/>
+    <mergeCell ref="E594:E600"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="E604:E606"/>
     <mergeCell ref="A624:A628"/>
     <mergeCell ref="E624:E628"/>
     <mergeCell ref="A629:A630"/>
@@ -10453,70 +10518,6 @@
     <mergeCell ref="A614:A623"/>
     <mergeCell ref="C614:C623"/>
     <mergeCell ref="E614:E623"/>
-    <mergeCell ref="A584:A593"/>
-    <mergeCell ref="E584:E593"/>
-    <mergeCell ref="A594:A600"/>
-    <mergeCell ref="E594:E600"/>
-    <mergeCell ref="A604:A606"/>
-    <mergeCell ref="E604:E606"/>
-    <mergeCell ref="A505:A577"/>
-    <mergeCell ref="E505:E577"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="A582:A583"/>
-    <mergeCell ref="E582:E583"/>
-    <mergeCell ref="A472:A486"/>
-    <mergeCell ref="E472:E486"/>
-    <mergeCell ref="A487:A498"/>
-    <mergeCell ref="E487:E498"/>
-    <mergeCell ref="A499:A504"/>
-    <mergeCell ref="E499:E504"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="E400:E403"/>
-    <mergeCell ref="A404:A420"/>
-    <mergeCell ref="E404:E420"/>
-    <mergeCell ref="A421:A471"/>
-    <mergeCell ref="E421:E471"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="E15:E32"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="expression" dxfId="3" priority="6">

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66376AB8-2BB9-4CD1-B3DF-2FC52A5611D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="WebApiTests" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="839">
   <si>
     <t>Контроллер</t>
   </si>
@@ -2042,12 +2041,513 @@
   </si>
   <si>
     <t>get-cancelled-tasks</t>
+  </si>
+  <si>
+    <t>get-cancelled-tasks-mode-1</t>
+  </si>
+  <si>
+    <t>get-cancelled-tasks-mode-2</t>
+  </si>
+  <si>
+    <t>get-tasks-ex</t>
+  </si>
+  <si>
+    <t>get-tasks-ex-mode-1</t>
+  </si>
+  <si>
+    <t>get-tasks-ex-mode-2</t>
+  </si>
+  <si>
+    <t>set-state</t>
+  </si>
+  <si>
+    <t>get-links-all</t>
+  </si>
+  <si>
+    <t>get-links-all-mode-0</t>
+  </si>
+  <si>
+    <t>get-links-all-mode-1</t>
+  </si>
+  <si>
+    <t>get-links-all-mode-2</t>
+  </si>
+  <si>
+    <t>get-exist-parent</t>
+  </si>
+  <si>
+    <t>get-exist-prior</t>
+  </si>
+  <si>
+    <t>get-fav-tasks</t>
+  </si>
+  <si>
+    <t>get-fav-tasks-mode-1</t>
+  </si>
+  <si>
+    <t>get-fav-tasks-mode-2</t>
+  </si>
+  <si>
+    <t>new-fav-task</t>
+  </si>
+  <si>
+    <t>del-fav-task</t>
+  </si>
+  <si>
+    <t>get-tasks-by-objects</t>
+  </si>
+  <si>
+    <t>get-tasks-by-objects-mode-0</t>
+  </si>
+  <si>
+    <t>get-tasks-by-objects-mode-1</t>
+  </si>
+  <si>
+    <t>new-task-work</t>
+  </si>
+  <si>
+    <t>update-task-work</t>
+  </si>
+  <si>
+    <t>delete-task-work</t>
+  </si>
+  <si>
+    <t>get-task-work-list</t>
+  </si>
+  <si>
+    <t>set-plan-dates</t>
+  </si>
+  <si>
+    <t>set-plan-work</t>
+  </si>
+  <si>
+    <t>set-actual-work</t>
+  </si>
+  <si>
+    <t>set-task-completion</t>
+  </si>
+  <si>
+    <t>update-task-props</t>
+  </si>
+  <si>
+    <t>set-task-fixed-property</t>
+  </si>
+  <si>
+    <t>update-task-attr-value</t>
+  </si>
+  <si>
+    <t>delete-task-attr-value</t>
+  </si>
+  <si>
+    <t>get-task-attr-values</t>
+  </si>
+  <si>
+    <t>get-tasks-attr-values</t>
+  </si>
+  <si>
+    <t>get-task-templates-info</t>
+  </si>
+  <si>
+    <t>get-task-templates-content</t>
+  </si>
+  <si>
+    <t>set-task-templates-content</t>
+  </si>
+  <si>
+    <t>get-plan-list</t>
+  </si>
+  <si>
+    <t>get-plan-list-mode-1</t>
+  </si>
+  <si>
+    <t>get-plan-list-mode-2</t>
+  </si>
+  <si>
+    <t>set-plan-archive</t>
+  </si>
+  <si>
+    <t>get-task-history</t>
+  </si>
+  <si>
+    <t>change-task-kind</t>
+  </si>
+  <si>
+    <t>check-resource-conflict</t>
+  </si>
+  <si>
+    <t>get-task-history-content</t>
+  </si>
+  <si>
+    <t>set-time-conflict</t>
+  </si>
+  <si>
+    <t>set-resource-conflict</t>
+  </si>
+  <si>
+    <t>new-milestone</t>
+  </si>
+  <si>
+    <t>update-milestone</t>
+  </si>
+  <si>
+    <t>new-plan</t>
+  </si>
+  <si>
+    <t>set-state-milestone</t>
+  </si>
+  <si>
+    <t>get-deleted-tasks</t>
+  </si>
+  <si>
+    <t>set-actual-dates</t>
+  </si>
+  <si>
+    <t>set-actual-dates-milestone</t>
+  </si>
+  <si>
+    <t>get-tasks-by-object-id</t>
+  </si>
+  <si>
+    <t>get-tasks-by-object-id-mode-0</t>
+  </si>
+  <si>
+    <t>get-tasks-by-object-id-mode-1</t>
+  </si>
+  <si>
+    <t>tasks-plans-by-period</t>
+  </si>
+  <si>
+    <t>not-started-tasks</t>
+  </si>
+  <si>
+    <t>overdue-tasks</t>
+  </si>
+  <si>
+    <t>get-user-work-load</t>
+  </si>
+  <si>
+    <t>get-projects</t>
+  </si>
+  <si>
+    <t>bind-wf-process</t>
+  </si>
+  <si>
+    <t>unbind-wf-process</t>
+  </si>
+  <si>
+    <t>set-wf-process-params</t>
+  </si>
+  <si>
+    <t>get-related-task</t>
+  </si>
+  <si>
+    <t>get-new-tasks</t>
+  </si>
+  <si>
+    <t>get-new-tasks-mode-1</t>
+  </si>
+  <si>
+    <t>get-new-tasks-mode-2</t>
+  </si>
+  <si>
+    <t>get-completed-tasks</t>
+  </si>
+  <si>
+    <t>get-completed-tasks-mode-1</t>
+  </si>
+  <si>
+    <t>get-completed-tasks-mode-2</t>
+  </si>
+  <si>
+    <t>find-tasks-simple-mode-1</t>
+  </si>
+  <si>
+    <t>find-tasks-simple-mode-2</t>
+  </si>
+  <si>
+    <t>set-checker</t>
+  </si>
+  <si>
+    <t>fire-checker</t>
+  </si>
+  <si>
+    <t>get-checking-tasks</t>
+  </si>
+  <si>
+    <t>get-checking-tasks-mode-1</t>
+  </si>
+  <si>
+    <t>get-checking-tasks-mode-2</t>
+  </si>
+  <si>
+    <t>new-task</t>
+  </si>
+  <si>
+    <t>update-task</t>
+  </si>
+  <si>
+    <t>delete-task</t>
+  </si>
+  <si>
+    <t>set-worker</t>
+  </si>
+  <si>
+    <t>fire-worker</t>
+  </si>
+  <si>
+    <t>get-workers</t>
+  </si>
+  <si>
+    <t>delete-attribute</t>
+  </si>
+  <si>
+    <t>update-attribute-value</t>
+  </si>
+  <si>
+    <t>delete-attribute-value</t>
+  </si>
+  <si>
+    <t>new-task-attachment</t>
+  </si>
+  <si>
+    <t>update-task-attachment</t>
+  </si>
+  <si>
+    <t>delete-task-attachment</t>
+  </si>
+  <si>
+    <t>get-task-attachments</t>
+  </si>
+  <si>
+    <t>get-task</t>
+  </si>
+  <si>
+    <t>get-task-mode-1</t>
+  </si>
+  <si>
+    <t>get-task-mode-2</t>
+  </si>
+  <si>
+    <t>update-wbs</t>
+  </si>
+  <si>
+    <t>set-trust</t>
+  </si>
+  <si>
+    <t>set-author</t>
+  </si>
+  <si>
+    <t>set-subscriber</t>
+  </si>
+  <si>
+    <t>kick-subscriber</t>
+  </si>
+  <si>
+    <t>get-tasks</t>
+  </si>
+  <si>
+    <t>get-tasks-mode-1</t>
+  </si>
+  <si>
+    <t>get-tasks-mode-2</t>
+  </si>
+  <si>
+    <t>get-wbs</t>
+  </si>
+  <si>
+    <t>get-wbs-mode-1</t>
+  </si>
+  <si>
+    <t>get-wbs-mode-2</t>
+  </si>
+  <si>
+    <t>get-links-mode-1</t>
+  </si>
+  <si>
+    <t>get-links-mode-2</t>
+  </si>
+  <si>
+    <t>get-subscribers</t>
+  </si>
+  <si>
+    <t>get-incoming-tasks</t>
+  </si>
+  <si>
+    <t>get-incoming-tasks-mode-1</t>
+  </si>
+  <si>
+    <t>get-incoming-tasks-mode-2</t>
+  </si>
+  <si>
+    <t>get-outcoming-tasks</t>
+  </si>
+  <si>
+    <t>get-outcoming-tasks-mode-1</t>
+  </si>
+  <si>
+    <t>get-outcoming-tasks-mode-2</t>
+  </si>
+  <si>
+    <t>get-subscribed-tasks</t>
+  </si>
+  <si>
+    <t>get-subscribed-tasks-mode-1</t>
+  </si>
+  <si>
+    <t>get-subscribed-tasks-mode-2</t>
+  </si>
+  <si>
+    <t>get-archived-tasks</t>
+  </si>
+  <si>
+    <t>get-archived-tasks-mode-1</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>incoming</t>
+  </si>
+  <si>
+    <t>checking</t>
+  </si>
+  <si>
+    <t>outgoing</t>
+  </si>
+  <si>
+    <t>subscribed</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>wbs</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t>subscribers</t>
+  </si>
+  <si>
+    <t>su-task-plan-attributes</t>
+  </si>
+  <si>
+    <t>su-task-attr-values</t>
+  </si>
+  <si>
+    <t>wf-task-attr-values</t>
+  </si>
+  <si>
+    <t>su-task</t>
+  </si>
+  <si>
+    <t>su-tasks</t>
+  </si>
+  <si>
+    <t>wf-task-list-for-actor</t>
+  </si>
+  <si>
+    <t>wf-info-about-stage</t>
+  </si>
+  <si>
+    <t>wf-info-about-route</t>
+  </si>
+  <si>
+    <t>wf-bp-attachments</t>
+  </si>
+  <si>
+    <t>bp-auditors</t>
+  </si>
+  <si>
+    <t>Uploads</t>
+  </si>
+  <si>
+    <t>""   (Post)</t>
+  </si>
+  <si>
+    <t>{uploadId}</t>
+  </si>
+  <si>
+    <t>UserProperty</t>
+  </si>
+  <si>
+    <t>set-user-property</t>
+  </si>
+  <si>
+    <t>get-user-property</t>
+  </si>
+  <si>
+    <t>del-user-property</t>
+  </si>
+  <si>
+    <t>UserSet</t>
+  </si>
+  <si>
+    <t>new-user-set</t>
+  </si>
+  <si>
+    <t>get-info-about-user-set</t>
+  </si>
+  <si>
+    <t>get-info-about-user-set-mode-4</t>
+  </si>
+  <si>
+    <t>get-info-about-user-set-mode-6</t>
+  </si>
+  <si>
+    <t>open-user-set-2</t>
+  </si>
+  <si>
+    <t>set-user-set-pattern</t>
+  </si>
+  <si>
+    <t>up-user-set</t>
+  </si>
+  <si>
+    <t>ViewParams</t>
+  </si>
+  <si>
+    <t>get-all-view-params</t>
+  </si>
+  <si>
+    <t>get-view-params</t>
+  </si>
+  <si>
+    <t>new-view-params</t>
+  </si>
+  <si>
+    <t>del-view-params</t>
+  </si>
+  <si>
+    <t>rename-view-params</t>
+  </si>
+  <si>
+    <t>set-view-params-body</t>
+  </si>
+  <si>
+    <t>get-type-view-params</t>
+  </si>
+  <si>
+    <t>get-view-params-types</t>
+  </si>
+  <si>
+    <t>add-type-view-params</t>
+  </si>
+  <si>
+    <t>del-type-view-params</t>
+  </si>
+  <si>
+    <t>get-type-view-params-groups</t>
+  </si>
+  <si>
+    <t>set-type-view-params-access</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2275,27 +2775,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2305,11 +2784,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2653,11 +3307,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F633"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="A632" sqref="A632"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2701,7 +3355,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -2717,7 +3371,7 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
@@ -2731,7 +3385,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
@@ -2745,7 +3399,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="31"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
@@ -2759,7 +3413,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
@@ -2773,7 +3427,7 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
@@ -2787,7 +3441,7 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
@@ -2803,7 +3457,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -2819,7 +3473,7 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
@@ -2831,7 +3485,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
@@ -2843,7 +3497,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
@@ -2855,7 +3509,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="31"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
@@ -2867,7 +3521,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
@@ -3345,12 +3999,12 @@
       <c r="B53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="29" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3359,60 +4013,60 @@
       <c r="B54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="27"/>
+      <c r="C54" s="29"/>
       <c r="D54" s="4"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="24"/>
+      <c r="F54" s="27"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="27"/>
+      <c r="C55" s="29"/>
       <c r="D55" s="4"/>
       <c r="E55" s="21"/>
-      <c r="F55" s="24"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="27"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="4"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="24"/>
+      <c r="F56" s="27"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="4"/>
       <c r="E57" s="21"/>
-      <c r="F57" s="24"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="27"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="4"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="24"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="27"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="4"/>
       <c r="E59" s="21"/>
-      <c r="F59" s="25"/>
+      <c r="F59" s="28"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
@@ -4793,14 +5447,14 @@
       <c r="B174" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C174" s="26" t="s">
+      <c r="C174" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F174" s="26" t="s">
+      <c r="F174" s="30" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4809,40 +5463,40 @@
       <c r="B175" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C175" s="27"/>
+      <c r="C175" s="29"/>
       <c r="D175" s="4"/>
       <c r="E175" s="21"/>
-      <c r="F175" s="27"/>
+      <c r="F175" s="29"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="21"/>
       <c r="B176" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C176" s="27"/>
+      <c r="C176" s="29"/>
       <c r="D176" s="4"/>
       <c r="E176" s="21"/>
-      <c r="F176" s="27"/>
+      <c r="F176" s="29"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="21"/>
       <c r="B177" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C177" s="27"/>
+      <c r="C177" s="29"/>
       <c r="D177" s="4"/>
       <c r="E177" s="21"/>
-      <c r="F177" s="27"/>
+      <c r="F177" s="29"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="22"/>
       <c r="B178" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C178" s="28"/>
+      <c r="C178" s="31"/>
       <c r="D178" s="6"/>
       <c r="E178" s="22"/>
-      <c r="F178" s="28"/>
+      <c r="F178" s="31"/>
     </row>
     <row r="179" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="20" t="s">
@@ -10203,7 +10857,7 @@
       <c r="B614" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C614" s="23" t="s">
+      <c r="C614" s="32" t="s">
         <v>658</v>
       </c>
       <c r="D614" s="5"/>
@@ -10219,7 +10873,7 @@
       <c r="B615" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C615" s="24"/>
+      <c r="C615" s="27"/>
       <c r="D615" s="4"/>
       <c r="E615" s="21"/>
       <c r="F615" s="8">
@@ -10231,7 +10885,7 @@
       <c r="B616" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C616" s="24"/>
+      <c r="C616" s="27"/>
       <c r="D616" s="4"/>
       <c r="E616" s="21"/>
       <c r="F616" s="8">
@@ -10243,7 +10897,7 @@
       <c r="B617" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C617" s="24"/>
+      <c r="C617" s="27"/>
       <c r="D617" s="4"/>
       <c r="E617" s="21"/>
       <c r="F617" s="8">
@@ -10255,7 +10909,7 @@
       <c r="B618" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C618" s="24"/>
+      <c r="C618" s="27"/>
       <c r="D618" s="4"/>
       <c r="E618" s="21"/>
       <c r="F618" s="8">
@@ -10267,7 +10921,7 @@
       <c r="B619" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C619" s="24"/>
+      <c r="C619" s="27"/>
       <c r="D619" s="4"/>
       <c r="E619" s="21"/>
       <c r="F619" s="8">
@@ -10279,7 +10933,7 @@
       <c r="B620" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C620" s="24"/>
+      <c r="C620" s="27"/>
       <c r="D620" s="4"/>
       <c r="E620" s="21"/>
       <c r="F620" s="8">
@@ -10291,7 +10945,7 @@
       <c r="B621" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="C621" s="24"/>
+      <c r="C621" s="27"/>
       <c r="D621" s="4"/>
       <c r="E621" s="21"/>
       <c r="F621" s="8">
@@ -10303,7 +10957,7 @@
       <c r="B622" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C622" s="24"/>
+      <c r="C622" s="27"/>
       <c r="D622" s="4"/>
       <c r="E622" s="21"/>
       <c r="F622" s="8">
@@ -10315,7 +10969,7 @@
       <c r="B623" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="C623" s="25"/>
+      <c r="C623" s="28"/>
       <c r="D623" s="6"/>
       <c r="E623" s="22"/>
       <c r="F623" s="8">
@@ -10430,85 +11084,2108 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A632" s="9" t="s">
+    <row r="632" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="20" t="s">
         <v>669</v>
       </c>
-      <c r="B632" s="4" t="s">
+      <c r="B632" s="5" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C632" s="5"/>
+      <c r="D632" s="5"/>
+      <c r="E632" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F632" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A633" s="21"/>
       <c r="B633" s="4" t="s">
         <v>671</v>
       </c>
+      <c r="C633" s="4"/>
+      <c r="D633" s="4"/>
+      <c r="E633" s="21"/>
+      <c r="F633" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="21"/>
+      <c r="B634" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C634" s="4"/>
+      <c r="D634" s="4"/>
+      <c r="E634" s="21"/>
+      <c r="F634" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="21"/>
+      <c r="B635" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C635" s="4"/>
+      <c r="D635" s="4"/>
+      <c r="E635" s="21"/>
+      <c r="F635" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A636" s="21"/>
+      <c r="B636" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C636" s="4"/>
+      <c r="D636" s="4"/>
+      <c r="E636" s="21"/>
+      <c r="F636" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="21"/>
+      <c r="B637" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C637" s="4"/>
+      <c r="D637" s="4"/>
+      <c r="E637" s="21"/>
+      <c r="F637" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="21"/>
+      <c r="B638" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C638" s="4"/>
+      <c r="D638" s="4"/>
+      <c r="E638" s="21"/>
+      <c r="F638" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="21"/>
+      <c r="B639" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C639" s="4"/>
+      <c r="D639" s="4"/>
+      <c r="E639" s="21"/>
+      <c r="F639" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="21"/>
+      <c r="B640" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C640" s="4"/>
+      <c r="D640" s="4"/>
+      <c r="E640" s="21"/>
+      <c r="F640" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="21"/>
+      <c r="B641" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C641" s="4"/>
+      <c r="D641" s="4"/>
+      <c r="E641" s="21"/>
+      <c r="F641" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="21"/>
+      <c r="B642" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C642" s="4"/>
+      <c r="D642" s="4"/>
+      <c r="E642" s="21"/>
+      <c r="F642" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="21"/>
+      <c r="B643" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C643" s="4"/>
+      <c r="D643" s="4"/>
+      <c r="E643" s="21"/>
+      <c r="F643" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="21"/>
+      <c r="B644" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C644" s="4"/>
+      <c r="D644" s="4"/>
+      <c r="E644" s="21"/>
+      <c r="F644" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="21"/>
+      <c r="B645" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C645" s="4"/>
+      <c r="D645" s="4"/>
+      <c r="E645" s="21"/>
+      <c r="F645" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A646" s="21"/>
+      <c r="B646" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C646" s="4"/>
+      <c r="D646" s="4"/>
+      <c r="E646" s="21"/>
+      <c r="F646" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A647" s="21"/>
+      <c r="B647" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C647" s="4"/>
+      <c r="D647" s="4"/>
+      <c r="E647" s="21"/>
+      <c r="F647" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A648" s="21"/>
+      <c r="B648" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C648" s="4"/>
+      <c r="D648" s="4"/>
+      <c r="E648" s="21"/>
+      <c r="F648" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A649" s="21"/>
+      <c r="B649" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C649" s="4"/>
+      <c r="D649" s="4"/>
+      <c r="E649" s="21"/>
+      <c r="F649" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A650" s="21"/>
+      <c r="B650" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C650" s="4"/>
+      <c r="D650" s="4"/>
+      <c r="E650" s="21"/>
+      <c r="F650" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A651" s="21"/>
+      <c r="B651" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C651" s="4"/>
+      <c r="D651" s="4"/>
+      <c r="E651" s="21"/>
+      <c r="F651" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="21"/>
+      <c r="B652" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C652" s="4"/>
+      <c r="D652" s="4"/>
+      <c r="E652" s="21"/>
+      <c r="F652" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="21"/>
+      <c r="B653" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C653" s="4"/>
+      <c r="D653" s="4"/>
+      <c r="E653" s="21"/>
+      <c r="F653" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="21"/>
+      <c r="B654" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C654" s="4"/>
+      <c r="D654" s="4"/>
+      <c r="E654" s="21"/>
+      <c r="F654" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="21"/>
+      <c r="B655" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C655" s="4"/>
+      <c r="D655" s="4"/>
+      <c r="E655" s="21"/>
+      <c r="F655" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="21"/>
+      <c r="B656" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C656" s="4"/>
+      <c r="D656" s="4"/>
+      <c r="E656" s="21"/>
+      <c r="F656" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="21"/>
+      <c r="B657" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C657" s="4"/>
+      <c r="D657" s="4"/>
+      <c r="E657" s="21"/>
+      <c r="F657" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="21"/>
+      <c r="B658" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="C658" s="4"/>
+      <c r="D658" s="4"/>
+      <c r="E658" s="21"/>
+      <c r="F658" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="21"/>
+      <c r="B659" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C659" s="4"/>
+      <c r="D659" s="4"/>
+      <c r="E659" s="21"/>
+      <c r="F659" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="21"/>
+      <c r="B660" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C660" s="4"/>
+      <c r="D660" s="4"/>
+      <c r="E660" s="21"/>
+      <c r="F660" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="21"/>
+      <c r="B661" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C661" s="4"/>
+      <c r="D661" s="4"/>
+      <c r="E661" s="21"/>
+      <c r="F661" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A662" s="21"/>
+      <c r="B662" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C662" s="4"/>
+      <c r="D662" s="4"/>
+      <c r="E662" s="21"/>
+      <c r="F662" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="21"/>
+      <c r="B663" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C663" s="4"/>
+      <c r="D663" s="4"/>
+      <c r="E663" s="21"/>
+      <c r="F663" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A664" s="21"/>
+      <c r="B664" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C664" s="4"/>
+      <c r="D664" s="4"/>
+      <c r="E664" s="21"/>
+      <c r="F664" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A665" s="21"/>
+      <c r="B665" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C665" s="4"/>
+      <c r="D665" s="4"/>
+      <c r="E665" s="21"/>
+      <c r="F665" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A666" s="21"/>
+      <c r="B666" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C666" s="4"/>
+      <c r="D666" s="4"/>
+      <c r="E666" s="21"/>
+      <c r="F666" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A667" s="21"/>
+      <c r="B667" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C667" s="4"/>
+      <c r="D667" s="4"/>
+      <c r="E667" s="21"/>
+      <c r="F667" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A668" s="21"/>
+      <c r="B668" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C668" s="4"/>
+      <c r="D668" s="4"/>
+      <c r="E668" s="21"/>
+      <c r="F668" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A669" s="21"/>
+      <c r="B669" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C669" s="4"/>
+      <c r="D669" s="4"/>
+      <c r="E669" s="21"/>
+      <c r="F669" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="21"/>
+      <c r="B670" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C670" s="4"/>
+      <c r="D670" s="4"/>
+      <c r="E670" s="21"/>
+      <c r="F670" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A671" s="21"/>
+      <c r="B671" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C671" s="4"/>
+      <c r="D671" s="4"/>
+      <c r="E671" s="21"/>
+      <c r="F671" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="21"/>
+      <c r="B672" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C672" s="4"/>
+      <c r="D672" s="4"/>
+      <c r="E672" s="21"/>
+      <c r="F672" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A673" s="21"/>
+      <c r="B673" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C673" s="4"/>
+      <c r="D673" s="4"/>
+      <c r="E673" s="21"/>
+      <c r="F673" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A674" s="21"/>
+      <c r="B674" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C674" s="4"/>
+      <c r="D674" s="4"/>
+      <c r="E674" s="21"/>
+      <c r="F674" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A675" s="21"/>
+      <c r="B675" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C675" s="4"/>
+      <c r="D675" s="4"/>
+      <c r="E675" s="21"/>
+      <c r="F675" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A676" s="21"/>
+      <c r="B676" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C676" s="4"/>
+      <c r="D676" s="4"/>
+      <c r="E676" s="21"/>
+      <c r="F676" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A677" s="21"/>
+      <c r="B677" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C677" s="4"/>
+      <c r="D677" s="4"/>
+      <c r="E677" s="21"/>
+      <c r="F677" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A678" s="21"/>
+      <c r="B678" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C678" s="4"/>
+      <c r="D678" s="4"/>
+      <c r="E678" s="21"/>
+      <c r="F678" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="21"/>
+      <c r="B679" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C679" s="4"/>
+      <c r="D679" s="4"/>
+      <c r="E679" s="21"/>
+      <c r="F679" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A680" s="21"/>
+      <c r="B680" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C680" s="4"/>
+      <c r="D680" s="4"/>
+      <c r="E680" s="21"/>
+      <c r="F680" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A681" s="21"/>
+      <c r="B681" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C681" s="4"/>
+      <c r="D681" s="4"/>
+      <c r="E681" s="21"/>
+      <c r="F681" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="21"/>
+      <c r="B682" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C682" s="4"/>
+      <c r="D682" s="4"/>
+      <c r="E682" s="21"/>
+      <c r="F682" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A683" s="21"/>
+      <c r="B683" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C683" s="4"/>
+      <c r="D683" s="4"/>
+      <c r="E683" s="21"/>
+      <c r="F683" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A684" s="21"/>
+      <c r="B684" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C684" s="4"/>
+      <c r="D684" s="4"/>
+      <c r="E684" s="21"/>
+      <c r="F684" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A685" s="21"/>
+      <c r="B685" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C685" s="4"/>
+      <c r="D685" s="4"/>
+      <c r="E685" s="21"/>
+      <c r="F685" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A686" s="21"/>
+      <c r="B686" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C686" s="4"/>
+      <c r="D686" s="4"/>
+      <c r="E686" s="21"/>
+      <c r="F686" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A687" s="21"/>
+      <c r="B687" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C687" s="4"/>
+      <c r="D687" s="4"/>
+      <c r="E687" s="21"/>
+      <c r="F687" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A688" s="21"/>
+      <c r="B688" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C688" s="4"/>
+      <c r="D688" s="4"/>
+      <c r="E688" s="21"/>
+      <c r="F688" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A689" s="21"/>
+      <c r="B689" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C689" s="4"/>
+      <c r="D689" s="4"/>
+      <c r="E689" s="21"/>
+      <c r="F689" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A690" s="21"/>
+      <c r="B690" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C690" s="4"/>
+      <c r="D690" s="4"/>
+      <c r="E690" s="21"/>
+      <c r="F690" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A691" s="21"/>
+      <c r="B691" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C691" s="4"/>
+      <c r="D691" s="4"/>
+      <c r="E691" s="21"/>
+      <c r="F691" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A692" s="21"/>
+      <c r="B692" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C692" s="4"/>
+      <c r="D692" s="4"/>
+      <c r="E692" s="21"/>
+      <c r="F692" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A693" s="21"/>
+      <c r="B693" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C693" s="4"/>
+      <c r="D693" s="4"/>
+      <c r="E693" s="21"/>
+      <c r="F693" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A694" s="21"/>
+      <c r="B694" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C694" s="4"/>
+      <c r="D694" s="4"/>
+      <c r="E694" s="21"/>
+      <c r="F694" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A695" s="21"/>
+      <c r="B695" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C695" s="4"/>
+      <c r="D695" s="4"/>
+      <c r="E695" s="21"/>
+      <c r="F695" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A696" s="21"/>
+      <c r="B696" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C696" s="4"/>
+      <c r="D696" s="4"/>
+      <c r="E696" s="21"/>
+      <c r="F696" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A697" s="21"/>
+      <c r="B697" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C697" s="4"/>
+      <c r="D697" s="4"/>
+      <c r="E697" s="21"/>
+      <c r="F697" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A698" s="21"/>
+      <c r="B698" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C698" s="4"/>
+      <c r="D698" s="4"/>
+      <c r="E698" s="21"/>
+      <c r="F698" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A699" s="21"/>
+      <c r="B699" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C699" s="4"/>
+      <c r="D699" s="4"/>
+      <c r="E699" s="21"/>
+      <c r="F699" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A700" s="21"/>
+      <c r="B700" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C700" s="4"/>
+      <c r="D700" s="4"/>
+      <c r="E700" s="21"/>
+      <c r="F700" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A701" s="21"/>
+      <c r="B701" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C701" s="4"/>
+      <c r="D701" s="4"/>
+      <c r="E701" s="21"/>
+      <c r="F701" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A702" s="21"/>
+      <c r="B702" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C702" s="4"/>
+      <c r="D702" s="4"/>
+      <c r="E702" s="21"/>
+      <c r="F702" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A703" s="21"/>
+      <c r="B703" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C703" s="4"/>
+      <c r="D703" s="4"/>
+      <c r="E703" s="21"/>
+      <c r="F703" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A704" s="21"/>
+      <c r="B704" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C704" s="4"/>
+      <c r="D704" s="4"/>
+      <c r="E704" s="21"/>
+      <c r="F704" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A705" s="21"/>
+      <c r="B705" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C705" s="4"/>
+      <c r="D705" s="4"/>
+      <c r="E705" s="21"/>
+      <c r="F705" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A706" s="21"/>
+      <c r="B706" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C706" s="4"/>
+      <c r="D706" s="4"/>
+      <c r="E706" s="21"/>
+      <c r="F706" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A707" s="21"/>
+      <c r="B707" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C707" s="4"/>
+      <c r="D707" s="4"/>
+      <c r="E707" s="21"/>
+      <c r="F707" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A708" s="21"/>
+      <c r="B708" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C708" s="4"/>
+      <c r="D708" s="4"/>
+      <c r="E708" s="21"/>
+      <c r="F708" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A709" s="21"/>
+      <c r="B709" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C709" s="4"/>
+      <c r="D709" s="4"/>
+      <c r="E709" s="21"/>
+      <c r="F709" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A710" s="21"/>
+      <c r="B710" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C710" s="4"/>
+      <c r="D710" s="4"/>
+      <c r="E710" s="21"/>
+      <c r="F710" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A711" s="21"/>
+      <c r="B711" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C711" s="4"/>
+      <c r="D711" s="4"/>
+      <c r="E711" s="21"/>
+      <c r="F711" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A712" s="21"/>
+      <c r="B712" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C712" s="4"/>
+      <c r="D712" s="4"/>
+      <c r="E712" s="21"/>
+      <c r="F712" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A713" s="21"/>
+      <c r="B713" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C713" s="4"/>
+      <c r="D713" s="4"/>
+      <c r="E713" s="21"/>
+      <c r="F713" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A714" s="21"/>
+      <c r="B714" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C714" s="4"/>
+      <c r="D714" s="4"/>
+      <c r="E714" s="21"/>
+      <c r="F714" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A715" s="21"/>
+      <c r="B715" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C715" s="4"/>
+      <c r="D715" s="4"/>
+      <c r="E715" s="21"/>
+      <c r="F715" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A716" s="21"/>
+      <c r="B716" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C716" s="4"/>
+      <c r="D716" s="4"/>
+      <c r="E716" s="21"/>
+      <c r="F716" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A717" s="21"/>
+      <c r="B717" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C717" s="4"/>
+      <c r="D717" s="4"/>
+      <c r="E717" s="21"/>
+      <c r="F717" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A718" s="21"/>
+      <c r="B718" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C718" s="4"/>
+      <c r="D718" s="4"/>
+      <c r="E718" s="21"/>
+      <c r="F718" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A719" s="21"/>
+      <c r="B719" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C719" s="4"/>
+      <c r="D719" s="4"/>
+      <c r="E719" s="21"/>
+      <c r="F719" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A720" s="21"/>
+      <c r="B720" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C720" s="4"/>
+      <c r="D720" s="4"/>
+      <c r="E720" s="21"/>
+      <c r="F720" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A721" s="21"/>
+      <c r="B721" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C721" s="4"/>
+      <c r="D721" s="4"/>
+      <c r="E721" s="21"/>
+      <c r="F721" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A722" s="21"/>
+      <c r="B722" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C722" s="4"/>
+      <c r="D722" s="4"/>
+      <c r="E722" s="21"/>
+      <c r="F722" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A723" s="21"/>
+      <c r="B723" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C723" s="4"/>
+      <c r="D723" s="4"/>
+      <c r="E723" s="21"/>
+      <c r="F723" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A724" s="21"/>
+      <c r="B724" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C724" s="4"/>
+      <c r="D724" s="4"/>
+      <c r="E724" s="21"/>
+      <c r="F724" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A725" s="21"/>
+      <c r="B725" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C725" s="4"/>
+      <c r="D725" s="4"/>
+      <c r="E725" s="21"/>
+      <c r="F725" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A726" s="21"/>
+      <c r="B726" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C726" s="4"/>
+      <c r="D726" s="4"/>
+      <c r="E726" s="21"/>
+      <c r="F726" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A727" s="21"/>
+      <c r="B727" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C727" s="4"/>
+      <c r="D727" s="4"/>
+      <c r="E727" s="21"/>
+      <c r="F727" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A728" s="21"/>
+      <c r="B728" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C728" s="4"/>
+      <c r="D728" s="4"/>
+      <c r="E728" s="21"/>
+      <c r="F728" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A729" s="21"/>
+      <c r="B729" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C729" s="4"/>
+      <c r="D729" s="4"/>
+      <c r="E729" s="21"/>
+      <c r="F729" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A730" s="21"/>
+      <c r="B730" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C730" s="4"/>
+      <c r="D730" s="4"/>
+      <c r="E730" s="21"/>
+      <c r="F730" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A731" s="21"/>
+      <c r="B731" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C731" s="4"/>
+      <c r="D731" s="4"/>
+      <c r="E731" s="21"/>
+      <c r="F731" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A732" s="21"/>
+      <c r="B732" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C732" s="4"/>
+      <c r="D732" s="4"/>
+      <c r="E732" s="21"/>
+      <c r="F732" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A733" s="21"/>
+      <c r="B733" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C733" s="4"/>
+      <c r="D733" s="4"/>
+      <c r="E733" s="21"/>
+      <c r="F733" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A734" s="21"/>
+      <c r="B734" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C734" s="4"/>
+      <c r="D734" s="4"/>
+      <c r="E734" s="21"/>
+      <c r="F734" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A735" s="21"/>
+      <c r="B735" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C735" s="4"/>
+      <c r="D735" s="4"/>
+      <c r="E735" s="21"/>
+      <c r="F735" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A736" s="21"/>
+      <c r="B736" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C736" s="4"/>
+      <c r="D736" s="4"/>
+      <c r="E736" s="21"/>
+      <c r="F736" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A737" s="21"/>
+      <c r="B737" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C737" s="4"/>
+      <c r="D737" s="4"/>
+      <c r="E737" s="21"/>
+      <c r="F737" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A738" s="21"/>
+      <c r="B738" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C738" s="4"/>
+      <c r="D738" s="4"/>
+      <c r="E738" s="21"/>
+      <c r="F738" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A739" s="21"/>
+      <c r="B739" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="C739" s="4"/>
+      <c r="D739" s="4"/>
+      <c r="E739" s="21"/>
+      <c r="F739" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A740" s="21"/>
+      <c r="B740" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C740" s="4"/>
+      <c r="D740" s="4"/>
+      <c r="E740" s="21"/>
+      <c r="F740" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A741" s="21"/>
+      <c r="B741" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C741" s="4"/>
+      <c r="D741" s="4"/>
+      <c r="E741" s="21"/>
+      <c r="F741" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A742" s="21"/>
+      <c r="B742" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C742" s="4"/>
+      <c r="D742" s="4"/>
+      <c r="E742" s="21"/>
+      <c r="F742" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A743" s="21"/>
+      <c r="B743" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C743" s="4"/>
+      <c r="D743" s="4"/>
+      <c r="E743" s="21"/>
+      <c r="F743" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A744" s="21"/>
+      <c r="B744" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C744" s="4"/>
+      <c r="D744" s="4"/>
+      <c r="E744" s="21"/>
+      <c r="F744" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A745" s="21"/>
+      <c r="B745" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C745" s="4"/>
+      <c r="D745" s="4"/>
+      <c r="E745" s="21"/>
+      <c r="F745" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A746" s="21"/>
+      <c r="B746" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C746" s="4"/>
+      <c r="D746" s="4"/>
+      <c r="E746" s="21"/>
+      <c r="F746" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A747" s="21"/>
+      <c r="B747" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C747" s="4"/>
+      <c r="D747" s="4"/>
+      <c r="E747" s="21"/>
+      <c r="F747" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A748" s="21"/>
+      <c r="B748" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C748" s="4"/>
+      <c r="D748" s="4"/>
+      <c r="E748" s="21"/>
+      <c r="F748" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A749" s="21"/>
+      <c r="B749" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="C749" s="4"/>
+      <c r="D749" s="4"/>
+      <c r="E749" s="21"/>
+      <c r="F749" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A750" s="21"/>
+      <c r="B750" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C750" s="4"/>
+      <c r="D750" s="4"/>
+      <c r="E750" s="21"/>
+      <c r="F750" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A751" s="21"/>
+      <c r="B751" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C751" s="4"/>
+      <c r="D751" s="4"/>
+      <c r="E751" s="21"/>
+      <c r="F751" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A752" s="21"/>
+      <c r="B752" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C752" s="4"/>
+      <c r="D752" s="4"/>
+      <c r="E752" s="21"/>
+      <c r="F752" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A753" s="21"/>
+      <c r="B753" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C753" s="4"/>
+      <c r="D753" s="4"/>
+      <c r="E753" s="21"/>
+      <c r="F753" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A754" s="21"/>
+      <c r="B754" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C754" s="4"/>
+      <c r="D754" s="4"/>
+      <c r="E754" s="21"/>
+      <c r="F754" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A755" s="21"/>
+      <c r="B755" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C755" s="4"/>
+      <c r="D755" s="4"/>
+      <c r="E755" s="21"/>
+      <c r="F755" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A756" s="21"/>
+      <c r="B756" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C756" s="4"/>
+      <c r="D756" s="4"/>
+      <c r="E756" s="21"/>
+      <c r="F756" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A757" s="21"/>
+      <c r="B757" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C757" s="4"/>
+      <c r="D757" s="4"/>
+      <c r="E757" s="21"/>
+      <c r="F757" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A758" s="22"/>
+      <c r="B758" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="C758" s="6"/>
+      <c r="D758" s="6"/>
+      <c r="E758" s="22"/>
+      <c r="F758" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A759" s="20" t="s">
+        <v>792</v>
+      </c>
+      <c r="B759" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="C759" s="5"/>
+      <c r="D759" s="5"/>
+      <c r="E759" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F759" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A760" s="21"/>
+      <c r="B760" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C760" s="4"/>
+      <c r="D760" s="4"/>
+      <c r="E760" s="21"/>
+      <c r="F760" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A761" s="21"/>
+      <c r="B761" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C761" s="4"/>
+      <c r="D761" s="4"/>
+      <c r="E761" s="21"/>
+      <c r="F761" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A762" s="21"/>
+      <c r="B762" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C762" s="4"/>
+      <c r="D762" s="4"/>
+      <c r="E762" s="21"/>
+      <c r="F762" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A763" s="21"/>
+      <c r="B763" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C763" s="4"/>
+      <c r="D763" s="4"/>
+      <c r="E763" s="21"/>
+      <c r="F763" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A764" s="21"/>
+      <c r="B764" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="C764" s="4"/>
+      <c r="D764" s="4"/>
+      <c r="E764" s="21"/>
+      <c r="F764" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A765" s="21"/>
+      <c r="B765" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C765" s="4"/>
+      <c r="D765" s="4"/>
+      <c r="E765" s="21"/>
+      <c r="F765" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A766" s="21"/>
+      <c r="B766" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C766" s="4"/>
+      <c r="D766" s="4"/>
+      <c r="E766" s="21"/>
+      <c r="F766" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A767" s="21"/>
+      <c r="B767" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C767" s="4"/>
+      <c r="D767" s="4"/>
+      <c r="E767" s="21"/>
+      <c r="F767" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A768" s="21"/>
+      <c r="B768" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C768" s="4"/>
+      <c r="D768" s="4"/>
+      <c r="E768" s="21"/>
+      <c r="F768" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A769" s="21"/>
+      <c r="B769" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="C769" s="4"/>
+      <c r="D769" s="4"/>
+      <c r="E769" s="21"/>
+      <c r="F769" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A770" s="21"/>
+      <c r="B770" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C770" s="4"/>
+      <c r="D770" s="4"/>
+      <c r="E770" s="21"/>
+      <c r="F770" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A771" s="21"/>
+      <c r="B771" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C771" s="4"/>
+      <c r="D771" s="4"/>
+      <c r="E771" s="21"/>
+      <c r="F771" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A772" s="21"/>
+      <c r="B772" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C772" s="4"/>
+      <c r="D772" s="4"/>
+      <c r="E772" s="21"/>
+      <c r="F772" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A773" s="21"/>
+      <c r="B773" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C773" s="4"/>
+      <c r="D773" s="4"/>
+      <c r="E773" s="21"/>
+      <c r="F773" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A774" s="21"/>
+      <c r="B774" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C774" s="4"/>
+      <c r="D774" s="4"/>
+      <c r="E774" s="21"/>
+      <c r="F774" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A775" s="21"/>
+      <c r="B775" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C775" s="4"/>
+      <c r="D775" s="4"/>
+      <c r="E775" s="21"/>
+      <c r="F775" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A776" s="21"/>
+      <c r="B776" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C776" s="4"/>
+      <c r="D776" s="4"/>
+      <c r="E776" s="21"/>
+      <c r="F776" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A777" s="21"/>
+      <c r="B777" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C777" s="4"/>
+      <c r="D777" s="4"/>
+      <c r="E777" s="21"/>
+      <c r="F777" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A778" s="21"/>
+      <c r="B778" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C778" s="4"/>
+      <c r="D778" s="4"/>
+      <c r="E778" s="21"/>
+      <c r="F778" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A779" s="22"/>
+      <c r="B779" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="C779" s="6"/>
+      <c r="D779" s="6"/>
+      <c r="E779" s="22"/>
+      <c r="F779" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A780" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="B780" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="C780" s="5"/>
+      <c r="D780" s="5"/>
+      <c r="E780" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F780" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A781" s="22"/>
+      <c r="B781" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="C781" s="6"/>
+      <c r="D781" s="6"/>
+      <c r="E781" s="22"/>
+      <c r="F781" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A782" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="B782" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="C782" s="5"/>
+      <c r="D782" s="5"/>
+      <c r="E782" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F782" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A783" s="21"/>
+      <c r="B783" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C783" s="4"/>
+      <c r="D783" s="4"/>
+      <c r="E783" s="21"/>
+      <c r="F783" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A784" s="22"/>
+      <c r="B784" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="C784" s="6"/>
+      <c r="D784" s="6"/>
+      <c r="E784" s="22"/>
+      <c r="F784" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A785" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="B785" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="C785" s="5"/>
+      <c r="D785" s="5"/>
+      <c r="E785" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F785" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A786" s="21"/>
+      <c r="B786" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C786" s="4"/>
+      <c r="D786" s="4"/>
+      <c r="E786" s="21"/>
+      <c r="F786" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A787" s="21"/>
+      <c r="B787" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C787" s="4"/>
+      <c r="D787" s="4"/>
+      <c r="E787" s="21"/>
+      <c r="F787" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A788" s="21"/>
+      <c r="B788" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C788" s="4"/>
+      <c r="D788" s="4"/>
+      <c r="E788" s="21"/>
+      <c r="F788" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A789" s="21"/>
+      <c r="B789" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C789" s="4"/>
+      <c r="D789" s="4"/>
+      <c r="E789" s="21"/>
+      <c r="F789" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A790" s="21"/>
+      <c r="B790" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="C790" s="4"/>
+      <c r="D790" s="4"/>
+      <c r="E790" s="21"/>
+      <c r="F790" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A791" s="22"/>
+      <c r="B791" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="C791" s="6"/>
+      <c r="D791" s="6"/>
+      <c r="E791" s="22"/>
+      <c r="F791" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A792" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="B792" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="C792" s="5"/>
+      <c r="D792" s="5"/>
+      <c r="E792" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F792" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A793" s="21"/>
+      <c r="B793" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C793" s="4"/>
+      <c r="D793" s="4"/>
+      <c r="E793" s="21"/>
+      <c r="F793" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A794" s="21"/>
+      <c r="B794" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="C794" s="4"/>
+      <c r="D794" s="4"/>
+      <c r="E794" s="21"/>
+      <c r="F794" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A795" s="21"/>
+      <c r="B795" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C795" s="4"/>
+      <c r="D795" s="4"/>
+      <c r="E795" s="21"/>
+      <c r="F795" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A796" s="21"/>
+      <c r="B796" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C796" s="4"/>
+      <c r="D796" s="4"/>
+      <c r="E796" s="21"/>
+      <c r="F796" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A797" s="21"/>
+      <c r="B797" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C797" s="4"/>
+      <c r="D797" s="4"/>
+      <c r="E797" s="21"/>
+      <c r="F797" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A798" s="21"/>
+      <c r="B798" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C798" s="4"/>
+      <c r="D798" s="4"/>
+      <c r="E798" s="21"/>
+      <c r="F798" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A799" s="21"/>
+      <c r="B799" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C799" s="4"/>
+      <c r="D799" s="4"/>
+      <c r="E799" s="21"/>
+      <c r="F799" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A800" s="21"/>
+      <c r="B800" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C800" s="4"/>
+      <c r="D800" s="4"/>
+      <c r="E800" s="21"/>
+      <c r="F800" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A801" s="21"/>
+      <c r="B801" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C801" s="4"/>
+      <c r="D801" s="4"/>
+      <c r="E801" s="21"/>
+      <c r="F801" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A802" s="21"/>
+      <c r="B802" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C802" s="4"/>
+      <c r="D802" s="4"/>
+      <c r="E802" s="21"/>
+      <c r="F802" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A803" s="22"/>
+      <c r="B803" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="C803" s="6"/>
+      <c r="D803" s="6"/>
+      <c r="E803" s="22"/>
+      <c r="F803" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="E15:E32"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="E400:E403"/>
-    <mergeCell ref="A404:A420"/>
-    <mergeCell ref="E404:E420"/>
-    <mergeCell ref="A421:A471"/>
-    <mergeCell ref="E421:E471"/>
-    <mergeCell ref="A472:A486"/>
-    <mergeCell ref="E472:E486"/>
-    <mergeCell ref="A487:A498"/>
-    <mergeCell ref="E487:E498"/>
-    <mergeCell ref="A499:A504"/>
-    <mergeCell ref="E499:E504"/>
-    <mergeCell ref="A505:A577"/>
-    <mergeCell ref="E505:E577"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="A582:A583"/>
-    <mergeCell ref="E582:E583"/>
-    <mergeCell ref="A584:A593"/>
-    <mergeCell ref="E584:E593"/>
-    <mergeCell ref="A594:A600"/>
-    <mergeCell ref="E594:E600"/>
-    <mergeCell ref="A604:A606"/>
-    <mergeCell ref="E604:E606"/>
+  <mergeCells count="85">
+    <mergeCell ref="A782:A784"/>
+    <mergeCell ref="E782:E784"/>
+    <mergeCell ref="A785:A791"/>
+    <mergeCell ref="E785:E791"/>
+    <mergeCell ref="A792:A803"/>
+    <mergeCell ref="E792:E803"/>
+    <mergeCell ref="A632:A758"/>
+    <mergeCell ref="E632:E758"/>
+    <mergeCell ref="A759:A779"/>
+    <mergeCell ref="E759:E779"/>
+    <mergeCell ref="A780:A781"/>
+    <mergeCell ref="E780:E781"/>
     <mergeCell ref="A624:A628"/>
     <mergeCell ref="E624:E628"/>
     <mergeCell ref="A629:A630"/>
@@ -10518,21 +13195,96 @@
     <mergeCell ref="A614:A623"/>
     <mergeCell ref="C614:C623"/>
     <mergeCell ref="E614:E623"/>
+    <mergeCell ref="A584:A593"/>
+    <mergeCell ref="E584:E593"/>
+    <mergeCell ref="A594:A600"/>
+    <mergeCell ref="E594:E600"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="E604:E606"/>
+    <mergeCell ref="A505:A577"/>
+    <mergeCell ref="E505:E577"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="A582:A583"/>
+    <mergeCell ref="E582:E583"/>
+    <mergeCell ref="A472:A486"/>
+    <mergeCell ref="E472:E486"/>
+    <mergeCell ref="A487:A498"/>
+    <mergeCell ref="E487:E498"/>
+    <mergeCell ref="A499:A504"/>
+    <mergeCell ref="E499:E504"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="E400:E403"/>
+    <mergeCell ref="A404:A420"/>
+    <mergeCell ref="E404:E420"/>
+    <mergeCell ref="A421:A471"/>
+    <mergeCell ref="E421:E471"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E15:E32"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$D1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F53 F60:F174 F179:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Жуков Виктор"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"Соклаков Иван"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Сусленков Виктор"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -1109,9 +1109,6 @@
     <t>HealthCheck</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>IniConfig</t>
   </si>
   <si>
@@ -2542,6 +2539,9 @@
   </si>
   <si>
     <t>set-type-view-params-access</t>
+  </si>
+  <si>
+    <t>""   (Get)</t>
   </si>
 </sst>
 </file>
@@ -2775,6 +2775,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2784,78 +2805,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2869,98 +2827,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3311,7 +3178,7 @@
   <dimension ref="A1:F803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3355,7 +3222,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -3371,7 +3238,7 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
@@ -3385,7 +3252,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
@@ -3399,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="24"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
@@ -3413,7 +3280,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
@@ -3427,7 +3294,7 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
@@ -3441,7 +3308,7 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
@@ -3457,7 +3324,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -3473,7 +3340,7 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
@@ -3485,7 +3352,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
@@ -3497,7 +3364,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
@@ -3509,7 +3376,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
@@ -3521,7 +3388,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="25"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
@@ -3999,12 +3866,12 @@
       <c r="B53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="29" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4013,60 +3880,60 @@
       <c r="B54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="29"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="4"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="27"/>
+      <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="29"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="4"/>
       <c r="E55" s="21"/>
-      <c r="F55" s="27"/>
+      <c r="F55" s="24"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="29"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="4"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="27"/>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="29"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="4"/>
       <c r="E57" s="21"/>
-      <c r="F57" s="27"/>
+      <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="29"/>
+      <c r="C58" s="27"/>
       <c r="D58" s="4"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="27"/>
+      <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="29"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="4"/>
       <c r="E59" s="21"/>
-      <c r="F59" s="28"/>
+      <c r="F59" s="25"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
@@ -5447,14 +5314,14 @@
       <c r="B174" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C174" s="30" t="s">
+      <c r="C174" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F174" s="30" t="s">
+      <c r="F174" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5463,40 +5330,40 @@
       <c r="B175" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C175" s="29"/>
+      <c r="C175" s="27"/>
       <c r="D175" s="4"/>
       <c r="E175" s="21"/>
-      <c r="F175" s="29"/>
+      <c r="F175" s="27"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="21"/>
       <c r="B176" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C176" s="29"/>
+      <c r="C176" s="27"/>
       <c r="D176" s="4"/>
       <c r="E176" s="21"/>
-      <c r="F176" s="29"/>
+      <c r="F176" s="27"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="21"/>
       <c r="B177" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C177" s="29"/>
+      <c r="C177" s="27"/>
       <c r="D177" s="4"/>
       <c r="E177" s="21"/>
-      <c r="F177" s="29"/>
+      <c r="F177" s="27"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="22"/>
       <c r="B178" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C178" s="31"/>
+      <c r="C178" s="28"/>
       <c r="D178" s="6"/>
       <c r="E178" s="22"/>
-      <c r="F178" s="31"/>
+      <c r="F178" s="28"/>
     </row>
     <row r="179" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="20" t="s">
@@ -7458,8 +7325,8 @@
       <c r="A339" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="B339" s="8" t="s">
-        <v>361</v>
+      <c r="B339" s="5" t="s">
+        <v>838</v>
       </c>
       <c r="C339" s="8"/>
       <c r="D339" s="8"/>
@@ -7472,10 +7339,10 @@
     </row>
     <row r="340" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B340" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="B340" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="C340" s="8"/>
       <c r="D340" s="8"/>
@@ -7488,15 +7355,15 @@
     </row>
     <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B341" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>365</v>
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F341" s="8">
         <v>1</v>
@@ -7505,7 +7372,7 @@
     <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="21"/>
       <c r="B342" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -7517,7 +7384,7 @@
     <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="21"/>
       <c r="B343" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -7529,7 +7396,7 @@
     <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="21"/>
       <c r="B344" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -7541,7 +7408,7 @@
     <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="21"/>
       <c r="B345" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -7553,7 +7420,7 @@
     <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="21"/>
       <c r="B346" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -7565,7 +7432,7 @@
     <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="21"/>
       <c r="B347" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
@@ -7577,7 +7444,7 @@
     <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="21"/>
       <c r="B348" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -7589,7 +7456,7 @@
     <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="21"/>
       <c r="B349" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
@@ -7601,7 +7468,7 @@
     <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="21"/>
       <c r="B350" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
@@ -7613,7 +7480,7 @@
     <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="21"/>
       <c r="B351" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -7625,7 +7492,7 @@
     <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="21"/>
       <c r="B352" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
@@ -7637,7 +7504,7 @@
     <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="21"/>
       <c r="B353" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
@@ -7649,7 +7516,7 @@
     <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="21"/>
       <c r="B354" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -7661,7 +7528,7 @@
     <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="21"/>
       <c r="B355" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -7673,7 +7540,7 @@
     <row r="356" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="22"/>
       <c r="B356" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
@@ -7684,10 +7551,10 @@
     </row>
     <row r="357" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="B357" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
@@ -7701,7 +7568,7 @@
     <row r="358" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="21"/>
       <c r="B358" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -7713,7 +7580,7 @@
     <row r="359" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="21"/>
       <c r="B359" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -7725,7 +7592,7 @@
     <row r="360" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="21"/>
       <c r="B360" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
@@ -7737,7 +7604,7 @@
     <row r="361" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="21"/>
       <c r="B361" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
@@ -7749,7 +7616,7 @@
     <row r="362" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="21"/>
       <c r="B362" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
@@ -7761,7 +7628,7 @@
     <row r="363" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="21"/>
       <c r="B363" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -7773,7 +7640,7 @@
     <row r="364" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="21"/>
       <c r="B364" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -7785,7 +7652,7 @@
     <row r="365" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="21"/>
       <c r="B365" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -7797,7 +7664,7 @@
     <row r="366" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="21"/>
       <c r="B366" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
@@ -7809,7 +7676,7 @@
     <row r="367" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="21"/>
       <c r="B367" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
@@ -7821,7 +7688,7 @@
     <row r="368" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="21"/>
       <c r="B368" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
@@ -7833,7 +7700,7 @@
     <row r="369" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="21"/>
       <c r="B369" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
@@ -7845,7 +7712,7 @@
     <row r="370" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="21"/>
       <c r="B370" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
@@ -7857,7 +7724,7 @@
     <row r="371" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="21"/>
       <c r="B371" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
@@ -7869,7 +7736,7 @@
     <row r="372" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="21"/>
       <c r="B372" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
@@ -7881,7 +7748,7 @@
     <row r="373" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="21"/>
       <c r="B373" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
@@ -7893,7 +7760,7 @@
     <row r="374" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="21"/>
       <c r="B374" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
@@ -7905,7 +7772,7 @@
     <row r="375" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="21"/>
       <c r="B375" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
@@ -7917,7 +7784,7 @@
     <row r="376" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="21"/>
       <c r="B376" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
@@ -7929,7 +7796,7 @@
     <row r="377" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="21"/>
       <c r="B377" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
@@ -7941,7 +7808,7 @@
     <row r="378" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="21"/>
       <c r="B378" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
@@ -7953,7 +7820,7 @@
     <row r="379" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="21"/>
       <c r="B379" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
@@ -7965,7 +7832,7 @@
     <row r="380" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="21"/>
       <c r="B380" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
@@ -7977,7 +7844,7 @@
     <row r="381" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="21"/>
       <c r="B381" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
@@ -7989,7 +7856,7 @@
     <row r="382" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="21"/>
       <c r="B382" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
@@ -8001,7 +7868,7 @@
     <row r="383" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="21"/>
       <c r="B383" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
@@ -8013,7 +7880,7 @@
     <row r="384" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="21"/>
       <c r="B384" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
@@ -8025,7 +7892,7 @@
     <row r="385" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="21"/>
       <c r="B385" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
@@ -8037,7 +7904,7 @@
     <row r="386" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="21"/>
       <c r="B386" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
@@ -8049,7 +7916,7 @@
     <row r="387" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="21"/>
       <c r="B387" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
@@ -8061,7 +7928,7 @@
     <row r="388" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="22"/>
       <c r="B388" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
@@ -8072,10 +7939,10 @@
     </row>
     <row r="389" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="B389" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="B389" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
@@ -8089,7 +7956,7 @@
     <row r="390" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="21"/>
       <c r="B390" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
@@ -8101,7 +7968,7 @@
     <row r="391" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="21"/>
       <c r="B391" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>70</v>
@@ -8115,7 +7982,7 @@
     <row r="392" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="21"/>
       <c r="B392" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
@@ -8127,7 +7994,7 @@
     <row r="393" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="21"/>
       <c r="B393" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
@@ -8139,7 +8006,7 @@
     <row r="394" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="22"/>
       <c r="B394" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
@@ -8150,10 +8017,10 @@
     </row>
     <row r="395" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="B395" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="B395" s="5" t="s">
-        <v>422</v>
       </c>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
@@ -8167,7 +8034,7 @@
     <row r="396" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="21"/>
       <c r="B396" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
@@ -8179,7 +8046,7 @@
     <row r="397" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="21"/>
       <c r="B397" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
@@ -8191,7 +8058,7 @@
     <row r="398" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="21"/>
       <c r="B398" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
@@ -8203,7 +8070,7 @@
     <row r="399" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="22"/>
       <c r="B399" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
@@ -8214,10 +8081,10 @@
     </row>
     <row r="400" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="B400" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="B400" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
@@ -8231,7 +8098,7 @@
     <row r="401" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="21"/>
       <c r="B401" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
@@ -8243,7 +8110,7 @@
     <row r="402" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="21"/>
       <c r="B402" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
@@ -8255,7 +8122,7 @@
     <row r="403" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="22"/>
       <c r="B403" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
@@ -8266,10 +8133,10 @@
     </row>
     <row r="404" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="B404" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="B404" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
@@ -8283,7 +8150,7 @@
     <row r="405" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="21"/>
       <c r="B405" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
@@ -8295,7 +8162,7 @@
     <row r="406" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="21"/>
       <c r="B406" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
@@ -8307,7 +8174,7 @@
     <row r="407" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="21"/>
       <c r="B407" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
@@ -8319,7 +8186,7 @@
     <row r="408" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="21"/>
       <c r="B408" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
@@ -8331,7 +8198,7 @@
     <row r="409" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="21"/>
       <c r="B409" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
@@ -8343,7 +8210,7 @@
     <row r="410" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="21"/>
       <c r="B410" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
@@ -8355,7 +8222,7 @@
     <row r="411" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="21"/>
       <c r="B411" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
@@ -8367,7 +8234,7 @@
     <row r="412" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="21"/>
       <c r="B412" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
@@ -8379,7 +8246,7 @@
     <row r="413" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="21"/>
       <c r="B413" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
@@ -8391,7 +8258,7 @@
     <row r="414" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="21"/>
       <c r="B414" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
@@ -8403,7 +8270,7 @@
     <row r="415" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="21"/>
       <c r="B415" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
@@ -8415,7 +8282,7 @@
     <row r="416" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="21"/>
       <c r="B416" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
@@ -8427,7 +8294,7 @@
     <row r="417" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="21"/>
       <c r="B417" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
@@ -8439,7 +8306,7 @@
     <row r="418" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="21"/>
       <c r="B418" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
@@ -8463,7 +8330,7 @@
     <row r="420" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="22"/>
       <c r="B420" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C420" s="6"/>
       <c r="D420" s="6"/>
@@ -8474,10 +8341,10 @@
     </row>
     <row r="421" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="B421" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="B421" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
@@ -8491,7 +8358,7 @@
     <row r="422" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="21"/>
       <c r="B422" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -8503,7 +8370,7 @@
     <row r="423" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="21"/>
       <c r="B423" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
@@ -8515,7 +8382,7 @@
     <row r="424" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="21"/>
       <c r="B424" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
@@ -8527,7 +8394,7 @@
     <row r="425" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="21"/>
       <c r="B425" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
@@ -8539,7 +8406,7 @@
     <row r="426" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="21"/>
       <c r="B426" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
@@ -8551,7 +8418,7 @@
     <row r="427" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="21"/>
       <c r="B427" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
@@ -8563,7 +8430,7 @@
     <row r="428" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="21"/>
       <c r="B428" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
@@ -8575,7 +8442,7 @@
     <row r="429" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="21"/>
       <c r="B429" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
@@ -8587,7 +8454,7 @@
     <row r="430" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="21"/>
       <c r="B430" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
@@ -8599,7 +8466,7 @@
     <row r="431" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="21"/>
       <c r="B431" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
@@ -8611,7 +8478,7 @@
     <row r="432" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="21"/>
       <c r="B432" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
@@ -8623,7 +8490,7 @@
     <row r="433" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="21"/>
       <c r="B433" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
@@ -8635,7 +8502,7 @@
     <row r="434" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="21"/>
       <c r="B434" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
@@ -8647,7 +8514,7 @@
     <row r="435" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="21"/>
       <c r="B435" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
@@ -8659,7 +8526,7 @@
     <row r="436" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="21"/>
       <c r="B436" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
@@ -8671,7 +8538,7 @@
     <row r="437" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="21"/>
       <c r="B437" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
@@ -8683,7 +8550,7 @@
     <row r="438" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="21"/>
       <c r="B438" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
@@ -8695,7 +8562,7 @@
     <row r="439" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="21"/>
       <c r="B439" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
@@ -8707,7 +8574,7 @@
     <row r="440" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="21"/>
       <c r="B440" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
@@ -8719,7 +8586,7 @@
     <row r="441" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="21"/>
       <c r="B441" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
@@ -8731,7 +8598,7 @@
     <row r="442" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="21"/>
       <c r="B442" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -8743,7 +8610,7 @@
     <row r="443" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="21"/>
       <c r="B443" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
@@ -8755,7 +8622,7 @@
     <row r="444" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="21"/>
       <c r="B444" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -8767,7 +8634,7 @@
     <row r="445" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="21"/>
       <c r="B445" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
@@ -8779,7 +8646,7 @@
     <row r="446" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="21"/>
       <c r="B446" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
@@ -8791,7 +8658,7 @@
     <row r="447" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="21"/>
       <c r="B447" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
@@ -8803,7 +8670,7 @@
     <row r="448" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="21"/>
       <c r="B448" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
@@ -8815,7 +8682,7 @@
     <row r="449" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="21"/>
       <c r="B449" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
@@ -8827,7 +8694,7 @@
     <row r="450" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="21"/>
       <c r="B450" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
@@ -8839,7 +8706,7 @@
     <row r="451" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="21"/>
       <c r="B451" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
@@ -8851,7 +8718,7 @@
     <row r="452" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="21"/>
       <c r="B452" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
@@ -8863,7 +8730,7 @@
     <row r="453" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="21"/>
       <c r="B453" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
@@ -8875,7 +8742,7 @@
     <row r="454" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="21"/>
       <c r="B454" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
@@ -8887,7 +8754,7 @@
     <row r="455" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="21"/>
       <c r="B455" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
@@ -8899,7 +8766,7 @@
     <row r="456" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="21"/>
       <c r="B456" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
@@ -8911,7 +8778,7 @@
     <row r="457" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="21"/>
       <c r="B457" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
@@ -8923,7 +8790,7 @@
     <row r="458" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="21"/>
       <c r="B458" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
@@ -8935,7 +8802,7 @@
     <row r="459" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="21"/>
       <c r="B459" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
@@ -8959,7 +8826,7 @@
     <row r="461" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="21"/>
       <c r="B461" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
@@ -8971,7 +8838,7 @@
     <row r="462" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="21"/>
       <c r="B462" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
@@ -8983,7 +8850,7 @@
     <row r="463" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="21"/>
       <c r="B463" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
@@ -8995,7 +8862,7 @@
     <row r="464" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="21"/>
       <c r="B464" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
@@ -9007,7 +8874,7 @@
     <row r="465" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="21"/>
       <c r="B465" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
@@ -9019,7 +8886,7 @@
     <row r="466" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="21"/>
       <c r="B466" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
@@ -9031,7 +8898,7 @@
     <row r="467" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="21"/>
       <c r="B467" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
@@ -9043,7 +8910,7 @@
     <row r="468" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="21"/>
       <c r="B468" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
@@ -9055,7 +8922,7 @@
     <row r="469" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="21"/>
       <c r="B469" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
@@ -9079,7 +8946,7 @@
     <row r="471" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="22"/>
       <c r="B471" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C471" s="6"/>
       <c r="D471" s="6"/>
@@ -9090,10 +8957,10 @@
     </row>
     <row r="472" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="B472" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="B472" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
@@ -9107,7 +8974,7 @@
     <row r="473" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="21"/>
       <c r="B473" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
@@ -9119,7 +8986,7 @@
     <row r="474" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="21"/>
       <c r="B474" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -9131,7 +8998,7 @@
     <row r="475" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="21"/>
       <c r="B475" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
@@ -9143,7 +9010,7 @@
     <row r="476" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="21"/>
       <c r="B476" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
@@ -9155,7 +9022,7 @@
     <row r="477" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="21"/>
       <c r="B477" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
@@ -9167,7 +9034,7 @@
     <row r="478" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="21"/>
       <c r="B478" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
@@ -9179,7 +9046,7 @@
     <row r="479" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="21"/>
       <c r="B479" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
@@ -9191,7 +9058,7 @@
     <row r="480" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="21"/>
       <c r="B480" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
@@ -9203,7 +9070,7 @@
     <row r="481" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="21"/>
       <c r="B481" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
@@ -9215,7 +9082,7 @@
     <row r="482" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="21"/>
       <c r="B482" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
@@ -9227,7 +9094,7 @@
     <row r="483" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="21"/>
       <c r="B483" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
@@ -9239,7 +9106,7 @@
     <row r="484" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="21"/>
       <c r="B484" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
@@ -9251,7 +9118,7 @@
     <row r="485" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="21"/>
       <c r="B485" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
@@ -9263,7 +9130,7 @@
     <row r="486" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="22"/>
       <c r="B486" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C486" s="6"/>
       <c r="D486" s="6"/>
@@ -9274,10 +9141,10 @@
     </row>
     <row r="487" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="B487" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="B487" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
@@ -9291,7 +9158,7 @@
     <row r="488" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="21"/>
       <c r="B488" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
@@ -9303,7 +9170,7 @@
     <row r="489" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="21"/>
       <c r="B489" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
@@ -9315,7 +9182,7 @@
     <row r="490" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="21"/>
       <c r="B490" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
@@ -9327,7 +9194,7 @@
     <row r="491" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="21"/>
       <c r="B491" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
@@ -9339,7 +9206,7 @@
     <row r="492" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="21"/>
       <c r="B492" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
@@ -9351,7 +9218,7 @@
     <row r="493" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="21"/>
       <c r="B493" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
@@ -9363,7 +9230,7 @@
     <row r="494" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="21"/>
       <c r="B494" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
@@ -9375,7 +9242,7 @@
     <row r="495" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="21"/>
       <c r="B495" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
@@ -9387,7 +9254,7 @@
     <row r="496" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="21"/>
       <c r="B496" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
@@ -9399,7 +9266,7 @@
     <row r="497" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="21"/>
       <c r="B497" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
@@ -9411,7 +9278,7 @@
     <row r="498" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="22"/>
       <c r="B498" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C498" s="6"/>
       <c r="D498" s="6"/>
@@ -9422,10 +9289,10 @@
     </row>
     <row r="499" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="B499" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="B499" s="5" t="s">
-        <v>525</v>
       </c>
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
@@ -9439,7 +9306,7 @@
     <row r="500" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A500" s="21"/>
       <c r="B500" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
@@ -9451,7 +9318,7 @@
     <row r="501" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="21"/>
       <c r="B501" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
@@ -9463,7 +9330,7 @@
     <row r="502" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="21"/>
       <c r="B502" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
@@ -9475,7 +9342,7 @@
     <row r="503" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="21"/>
       <c r="B503" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
@@ -9487,7 +9354,7 @@
     <row r="504" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="22"/>
       <c r="B504" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C504" s="6"/>
       <c r="D504" s="6"/>
@@ -9498,10 +9365,10 @@
     </row>
     <row r="505" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="B505" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="B505" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
@@ -9515,7 +9382,7 @@
     <row r="506" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="21"/>
       <c r="B506" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
@@ -9527,7 +9394,7 @@
     <row r="507" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="21"/>
       <c r="B507" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
@@ -9539,7 +9406,7 @@
     <row r="508" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="21"/>
       <c r="B508" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
@@ -9551,7 +9418,7 @@
     <row r="509" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="21"/>
       <c r="B509" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
@@ -9563,7 +9430,7 @@
     <row r="510" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="21"/>
       <c r="B510" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
@@ -9575,7 +9442,7 @@
     <row r="511" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="21"/>
       <c r="B511" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
@@ -9587,7 +9454,7 @@
     <row r="512" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A512" s="21"/>
       <c r="B512" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
@@ -9599,7 +9466,7 @@
     <row r="513" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A513" s="21"/>
       <c r="B513" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
@@ -9611,7 +9478,7 @@
     <row r="514" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A514" s="21"/>
       <c r="B514" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
@@ -9623,7 +9490,7 @@
     <row r="515" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A515" s="21"/>
       <c r="B515" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
@@ -9635,7 +9502,7 @@
     <row r="516" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A516" s="21"/>
       <c r="B516" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
@@ -9647,7 +9514,7 @@
     <row r="517" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="21"/>
       <c r="B517" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
@@ -9659,7 +9526,7 @@
     <row r="518" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A518" s="21"/>
       <c r="B518" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
@@ -9671,7 +9538,7 @@
     <row r="519" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="21"/>
       <c r="B519" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
@@ -9683,7 +9550,7 @@
     <row r="520" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A520" s="21"/>
       <c r="B520" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
@@ -9695,7 +9562,7 @@
     <row r="521" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A521" s="21"/>
       <c r="B521" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
@@ -9707,7 +9574,7 @@
     <row r="522" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="21"/>
       <c r="B522" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
@@ -9719,7 +9586,7 @@
     <row r="523" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A523" s="21"/>
       <c r="B523" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
@@ -9731,7 +9598,7 @@
     <row r="524" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A524" s="21"/>
       <c r="B524" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
@@ -9743,7 +9610,7 @@
     <row r="525" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" s="21"/>
       <c r="B525" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
@@ -9755,7 +9622,7 @@
     <row r="526" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A526" s="21"/>
       <c r="B526" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
@@ -9779,7 +9646,7 @@
     <row r="528" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="21"/>
       <c r="B528" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
@@ -9791,7 +9658,7 @@
     <row r="529" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="21"/>
       <c r="B529" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
@@ -9803,7 +9670,7 @@
     <row r="530" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="21"/>
       <c r="B530" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
@@ -9815,7 +9682,7 @@
     <row r="531" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A531" s="21"/>
       <c r="B531" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
@@ -9827,7 +9694,7 @@
     <row r="532" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="21"/>
       <c r="B532" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
@@ -9839,7 +9706,7 @@
     <row r="533" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="21"/>
       <c r="B533" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
@@ -9851,7 +9718,7 @@
     <row r="534" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A534" s="21"/>
       <c r="B534" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
@@ -9863,7 +9730,7 @@
     <row r="535" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="21"/>
       <c r="B535" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
@@ -9875,7 +9742,7 @@
     <row r="536" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="21"/>
       <c r="B536" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
@@ -9887,7 +9754,7 @@
     <row r="537" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="21"/>
       <c r="B537" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
@@ -9899,7 +9766,7 @@
     <row r="538" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" s="21"/>
       <c r="B538" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
@@ -9911,7 +9778,7 @@
     <row r="539" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="21"/>
       <c r="B539" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
@@ -9923,7 +9790,7 @@
     <row r="540" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="21"/>
       <c r="B540" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
@@ -9935,7 +9802,7 @@
     <row r="541" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="21"/>
       <c r="B541" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
@@ -9947,7 +9814,7 @@
     <row r="542" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="21"/>
       <c r="B542" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
@@ -9959,7 +9826,7 @@
     <row r="543" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="21"/>
       <c r="B543" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
@@ -9971,7 +9838,7 @@
     <row r="544" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="21"/>
       <c r="B544" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
@@ -9983,7 +9850,7 @@
     <row r="545" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="21"/>
       <c r="B545" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
@@ -9995,7 +9862,7 @@
     <row r="546" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="21"/>
       <c r="B546" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
@@ -10007,7 +9874,7 @@
     <row r="547" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="21"/>
       <c r="B547" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
@@ -10019,7 +9886,7 @@
     <row r="548" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="21"/>
       <c r="B548" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
@@ -10031,7 +9898,7 @@
     <row r="549" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="21"/>
       <c r="B549" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
@@ -10043,7 +9910,7 @@
     <row r="550" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="21"/>
       <c r="B550" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
@@ -10055,7 +9922,7 @@
     <row r="551" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="21"/>
       <c r="B551" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
@@ -10067,7 +9934,7 @@
     <row r="552" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="21"/>
       <c r="B552" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
@@ -10079,7 +9946,7 @@
     <row r="553" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="21"/>
       <c r="B553" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
@@ -10091,7 +9958,7 @@
     <row r="554" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="21"/>
       <c r="B554" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
@@ -10103,7 +9970,7 @@
     <row r="555" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="21"/>
       <c r="B555" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
@@ -10115,7 +9982,7 @@
     <row r="556" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="21"/>
       <c r="B556" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
@@ -10127,7 +9994,7 @@
     <row r="557" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="21"/>
       <c r="B557" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
@@ -10139,7 +10006,7 @@
     <row r="558" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="21"/>
       <c r="B558" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
@@ -10151,7 +10018,7 @@
     <row r="559" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="21"/>
       <c r="B559" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
@@ -10163,7 +10030,7 @@
     <row r="560" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="21"/>
       <c r="B560" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
@@ -10175,7 +10042,7 @@
     <row r="561" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="21"/>
       <c r="B561" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
@@ -10187,7 +10054,7 @@
     <row r="562" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="21"/>
       <c r="B562" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
@@ -10199,7 +10066,7 @@
     <row r="563" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="21"/>
       <c r="B563" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -10211,7 +10078,7 @@
     <row r="564" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A564" s="21"/>
       <c r="B564" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
@@ -10223,7 +10090,7 @@
     <row r="565" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="21"/>
       <c r="B565" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
@@ -10235,7 +10102,7 @@
     <row r="566" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="21"/>
       <c r="B566" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
@@ -10247,7 +10114,7 @@
     <row r="567" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="21"/>
       <c r="B567" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
@@ -10259,7 +10126,7 @@
     <row r="568" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A568" s="21"/>
       <c r="B568" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
@@ -10271,7 +10138,7 @@
     <row r="569" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="21"/>
       <c r="B569" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
@@ -10283,7 +10150,7 @@
     <row r="570" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="21"/>
       <c r="B570" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
@@ -10295,7 +10162,7 @@
     <row r="571" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" s="21"/>
       <c r="B571" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
@@ -10307,7 +10174,7 @@
     <row r="572" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="21"/>
       <c r="B572" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
@@ -10319,7 +10186,7 @@
     <row r="573" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="21"/>
       <c r="B573" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
@@ -10331,7 +10198,7 @@
     <row r="574" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A574" s="21"/>
       <c r="B574" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
@@ -10343,7 +10210,7 @@
     <row r="575" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A575" s="21"/>
       <c r="B575" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
@@ -10355,7 +10222,7 @@
     <row r="576" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A576" s="21"/>
       <c r="B576" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
@@ -10367,7 +10234,7 @@
     <row r="577" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A577" s="22"/>
       <c r="B577" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C577" s="6"/>
       <c r="D577" s="6"/>
@@ -10378,10 +10245,10 @@
     </row>
     <row r="578" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A578" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="B578" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="B578" s="5" t="s">
-        <v>606</v>
       </c>
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
@@ -10395,7 +10262,7 @@
     <row r="579" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" s="21"/>
       <c r="B579" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
@@ -10407,7 +10274,7 @@
     <row r="580" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A580" s="21"/>
       <c r="B580" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
@@ -10419,7 +10286,7 @@
     <row r="581" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A581" s="22"/>
       <c r="B581" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C581" s="6"/>
       <c r="D581" s="6"/>
@@ -10430,10 +10297,10 @@
     </row>
     <row r="582" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A582" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="B582" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="B582" s="5" t="s">
-        <v>611</v>
       </c>
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
@@ -10447,7 +10314,7 @@
     <row r="583" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A583" s="22"/>
       <c r="B583" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C583" s="6"/>
       <c r="D583" s="6"/>
@@ -10458,10 +10325,10 @@
     </row>
     <row r="584" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="B584" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="B584" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
@@ -10475,7 +10342,7 @@
     <row r="585" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="21"/>
       <c r="B585" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
@@ -10487,7 +10354,7 @@
     <row r="586" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A586" s="21"/>
       <c r="B586" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
@@ -10499,7 +10366,7 @@
     <row r="587" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" s="21"/>
       <c r="B587" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
@@ -10511,7 +10378,7 @@
     <row r="588" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A588" s="21"/>
       <c r="B588" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
@@ -10523,7 +10390,7 @@
     <row r="589" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A589" s="21"/>
       <c r="B589" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
@@ -10535,7 +10402,7 @@
     <row r="590" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A590" s="21"/>
       <c r="B590" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
@@ -10547,7 +10414,7 @@
     <row r="591" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="21"/>
       <c r="B591" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
@@ -10559,7 +10426,7 @@
     <row r="592" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="21"/>
       <c r="B592" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
@@ -10571,7 +10438,7 @@
     <row r="593" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A593" s="22"/>
       <c r="B593" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C593" s="6"/>
       <c r="D593" s="6"/>
@@ -10582,10 +10449,10 @@
     </row>
     <row r="594" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A594" s="20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
@@ -10599,7 +10466,7 @@
     <row r="595" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="21"/>
       <c r="B595" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
@@ -10611,7 +10478,7 @@
     <row r="596" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A596" s="21"/>
       <c r="B596" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
@@ -10623,7 +10490,7 @@
     <row r="597" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="21"/>
       <c r="B597" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
@@ -10635,7 +10502,7 @@
     <row r="598" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A598" s="21"/>
       <c r="B598" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
@@ -10647,7 +10514,7 @@
     <row r="599" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A599" s="21"/>
       <c r="B599" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
@@ -10659,7 +10526,7 @@
     <row r="600" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A600" s="22"/>
       <c r="B600" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C600" s="6"/>
       <c r="D600" s="6"/>
@@ -10670,10 +10537,10 @@
     </row>
     <row r="601" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="B601" s="8" t="s">
         <v>629</v>
-      </c>
-      <c r="B601" s="8" t="s">
-        <v>630</v>
       </c>
       <c r="C601" s="8"/>
       <c r="D601" s="8"/>
@@ -10686,10 +10553,10 @@
     </row>
     <row r="602" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="B602" s="8" t="s">
-        <v>361</v>
+        <v>630</v>
+      </c>
+      <c r="B602" s="5" t="s">
+        <v>838</v>
       </c>
       <c r="C602" s="8"/>
       <c r="D602" s="8"/>
@@ -10702,10 +10569,10 @@
     </row>
     <row r="603" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="B603" s="8" t="s">
         <v>632</v>
-      </c>
-      <c r="B603" s="8" t="s">
-        <v>633</v>
       </c>
       <c r="C603" s="8"/>
       <c r="D603" s="8"/>
@@ -10718,10 +10585,10 @@
     </row>
     <row r="604" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A604" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="B604" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="B604" s="5" t="s">
-        <v>635</v>
       </c>
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
@@ -10735,7 +10602,7 @@
     <row r="605" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" s="21"/>
       <c r="B605" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
@@ -10747,7 +10614,7 @@
     <row r="606" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="22"/>
       <c r="B606" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C606" s="6"/>
       <c r="D606" s="6"/>
@@ -10758,10 +10625,10 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E607" s="18" t="s">
         <v>41</v>
@@ -10772,10 +10639,10 @@
     </row>
     <row r="608" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A608" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C608" s="8"/>
       <c r="D608" s="8"/>
@@ -10788,10 +10655,10 @@
     </row>
     <row r="609" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A609" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="B609" s="5" t="s">
         <v>642</v>
-      </c>
-      <c r="B609" s="5" t="s">
-        <v>643</v>
       </c>
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
@@ -10805,7 +10672,7 @@
     <row r="610" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A610" s="21"/>
       <c r="B610" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
@@ -10817,7 +10684,7 @@
     <row r="611" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A611" s="21"/>
       <c r="B611" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
@@ -10829,7 +10696,7 @@
     <row r="612" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A612" s="21"/>
       <c r="B612" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
@@ -10841,7 +10708,7 @@
     <row r="613" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A613" s="22"/>
       <c r="B613" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C613" s="6"/>
       <c r="D613" s="6"/>
@@ -10852,13 +10719,13 @@
     </row>
     <row r="614" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A614" s="20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B614" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C614" s="32" t="s">
-        <v>658</v>
+      <c r="C614" s="23" t="s">
+        <v>657</v>
       </c>
       <c r="D614" s="5"/>
       <c r="E614" s="20" t="s">
@@ -10871,9 +10738,9 @@
     <row r="615" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A615" s="21"/>
       <c r="B615" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C615" s="27"/>
+        <v>648</v>
+      </c>
+      <c r="C615" s="24"/>
       <c r="D615" s="4"/>
       <c r="E615" s="21"/>
       <c r="F615" s="8">
@@ -10883,9 +10750,9 @@
     <row r="616" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A616" s="21"/>
       <c r="B616" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="C616" s="27"/>
+        <v>649</v>
+      </c>
+      <c r="C616" s="24"/>
       <c r="D616" s="4"/>
       <c r="E616" s="21"/>
       <c r="F616" s="8">
@@ -10895,9 +10762,9 @@
     <row r="617" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A617" s="21"/>
       <c r="B617" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="C617" s="27"/>
+        <v>650</v>
+      </c>
+      <c r="C617" s="24"/>
       <c r="D617" s="4"/>
       <c r="E617" s="21"/>
       <c r="F617" s="8">
@@ -10907,9 +10774,9 @@
     <row r="618" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A618" s="21"/>
       <c r="B618" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="C618" s="27"/>
+        <v>651</v>
+      </c>
+      <c r="C618" s="24"/>
       <c r="D618" s="4"/>
       <c r="E618" s="21"/>
       <c r="F618" s="8">
@@ -10919,9 +10786,9 @@
     <row r="619" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A619" s="21"/>
       <c r="B619" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="C619" s="27"/>
+        <v>652</v>
+      </c>
+      <c r="C619" s="24"/>
       <c r="D619" s="4"/>
       <c r="E619" s="21"/>
       <c r="F619" s="8">
@@ -10931,9 +10798,9 @@
     <row r="620" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A620" s="21"/>
       <c r="B620" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="C620" s="27"/>
+        <v>653</v>
+      </c>
+      <c r="C620" s="24"/>
       <c r="D620" s="4"/>
       <c r="E620" s="21"/>
       <c r="F620" s="8">
@@ -10943,9 +10810,9 @@
     <row r="621" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A621" s="21"/>
       <c r="B621" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="C621" s="27"/>
+        <v>654</v>
+      </c>
+      <c r="C621" s="24"/>
       <c r="D621" s="4"/>
       <c r="E621" s="21"/>
       <c r="F621" s="8">
@@ -10955,9 +10822,9 @@
     <row r="622" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A622" s="21"/>
       <c r="B622" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="C622" s="27"/>
+        <v>655</v>
+      </c>
+      <c r="C622" s="24"/>
       <c r="D622" s="4"/>
       <c r="E622" s="21"/>
       <c r="F622" s="8">
@@ -10967,9 +10834,9 @@
     <row r="623" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A623" s="22"/>
       <c r="B623" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="C623" s="28"/>
+        <v>656</v>
+      </c>
+      <c r="C623" s="25"/>
       <c r="D623" s="6"/>
       <c r="E623" s="22"/>
       <c r="F623" s="8">
@@ -10978,10 +10845,10 @@
     </row>
     <row r="624" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A624" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="B624" s="5" t="s">
         <v>659</v>
-      </c>
-      <c r="B624" s="5" t="s">
-        <v>660</v>
       </c>
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
@@ -10995,7 +10862,7 @@
     <row r="625" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A625" s="21"/>
       <c r="B625" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
@@ -11007,7 +10874,7 @@
     <row r="626" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A626" s="21"/>
       <c r="B626" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
@@ -11019,7 +10886,7 @@
     <row r="627" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A627" s="21"/>
       <c r="B627" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
@@ -11031,7 +10898,7 @@
     <row r="628" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A628" s="22"/>
       <c r="B628" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C628" s="6"/>
       <c r="D628" s="6"/>
@@ -11042,10 +10909,10 @@
     </row>
     <row r="629" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A629" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="B629" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="B629" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
@@ -11059,7 +10926,7 @@
     <row r="630" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A630" s="22"/>
       <c r="B630" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C630" s="6"/>
       <c r="D630" s="6"/>
@@ -11070,10 +10937,10 @@
     </row>
     <row r="631" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A631" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="B631" s="8" t="s">
         <v>667</v>
-      </c>
-      <c r="B631" s="8" t="s">
-        <v>668</v>
       </c>
       <c r="C631" s="8"/>
       <c r="D631" s="8"/>
@@ -11086,10 +10953,10 @@
     </row>
     <row r="632" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A632" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="B632" s="5" t="s">
         <v>669</v>
-      </c>
-      <c r="B632" s="5" t="s">
-        <v>670</v>
       </c>
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
@@ -11103,7 +10970,7 @@
     <row r="633" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A633" s="21"/>
       <c r="B633" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
@@ -11115,7 +10982,7 @@
     <row r="634" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A634" s="21"/>
       <c r="B634" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
@@ -11127,7 +10994,7 @@
     <row r="635" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A635" s="21"/>
       <c r="B635" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
@@ -11139,7 +11006,7 @@
     <row r="636" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A636" s="21"/>
       <c r="B636" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
@@ -11151,7 +11018,7 @@
     <row r="637" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A637" s="21"/>
       <c r="B637" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
@@ -11163,7 +11030,7 @@
     <row r="638" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A638" s="21"/>
       <c r="B638" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
@@ -11175,7 +11042,7 @@
     <row r="639" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A639" s="21"/>
       <c r="B639" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
@@ -11187,7 +11054,7 @@
     <row r="640" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A640" s="21"/>
       <c r="B640" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
@@ -11199,7 +11066,7 @@
     <row r="641" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A641" s="21"/>
       <c r="B641" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
@@ -11211,7 +11078,7 @@
     <row r="642" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A642" s="21"/>
       <c r="B642" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
@@ -11223,7 +11090,7 @@
     <row r="643" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A643" s="21"/>
       <c r="B643" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
@@ -11235,7 +11102,7 @@
     <row r="644" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A644" s="21"/>
       <c r="B644" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
@@ -11247,7 +11114,7 @@
     <row r="645" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A645" s="21"/>
       <c r="B645" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
@@ -11259,7 +11126,7 @@
     <row r="646" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A646" s="21"/>
       <c r="B646" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
@@ -11271,7 +11138,7 @@
     <row r="647" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A647" s="21"/>
       <c r="B647" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
@@ -11283,7 +11150,7 @@
     <row r="648" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A648" s="21"/>
       <c r="B648" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
@@ -11295,7 +11162,7 @@
     <row r="649" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A649" s="21"/>
       <c r="B649" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
@@ -11307,7 +11174,7 @@
     <row r="650" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A650" s="21"/>
       <c r="B650" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
@@ -11319,7 +11186,7 @@
     <row r="651" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A651" s="21"/>
       <c r="B651" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
@@ -11331,7 +11198,7 @@
     <row r="652" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A652" s="21"/>
       <c r="B652" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
@@ -11343,7 +11210,7 @@
     <row r="653" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A653" s="21"/>
       <c r="B653" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
@@ -11355,7 +11222,7 @@
     <row r="654" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A654" s="21"/>
       <c r="B654" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
@@ -11367,7 +11234,7 @@
     <row r="655" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A655" s="21"/>
       <c r="B655" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
@@ -11379,7 +11246,7 @@
     <row r="656" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A656" s="21"/>
       <c r="B656" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
@@ -11391,7 +11258,7 @@
     <row r="657" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A657" s="21"/>
       <c r="B657" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
@@ -11403,7 +11270,7 @@
     <row r="658" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A658" s="21"/>
       <c r="B658" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
@@ -11415,7 +11282,7 @@
     <row r="659" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A659" s="21"/>
       <c r="B659" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
@@ -11427,7 +11294,7 @@
     <row r="660" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A660" s="21"/>
       <c r="B660" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
@@ -11439,7 +11306,7 @@
     <row r="661" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A661" s="21"/>
       <c r="B661" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
@@ -11451,7 +11318,7 @@
     <row r="662" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A662" s="21"/>
       <c r="B662" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
@@ -11463,7 +11330,7 @@
     <row r="663" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A663" s="21"/>
       <c r="B663" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
@@ -11475,7 +11342,7 @@
     <row r="664" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A664" s="21"/>
       <c r="B664" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
@@ -11487,7 +11354,7 @@
     <row r="665" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A665" s="21"/>
       <c r="B665" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
@@ -11499,7 +11366,7 @@
     <row r="666" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A666" s="21"/>
       <c r="B666" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
@@ -11511,7 +11378,7 @@
     <row r="667" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A667" s="21"/>
       <c r="B667" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
@@ -11523,7 +11390,7 @@
     <row r="668" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A668" s="21"/>
       <c r="B668" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
@@ -11535,7 +11402,7 @@
     <row r="669" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A669" s="21"/>
       <c r="B669" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
@@ -11547,7 +11414,7 @@
     <row r="670" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A670" s="21"/>
       <c r="B670" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
@@ -11559,7 +11426,7 @@
     <row r="671" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A671" s="21"/>
       <c r="B671" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
@@ -11571,7 +11438,7 @@
     <row r="672" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A672" s="21"/>
       <c r="B672" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
@@ -11583,7 +11450,7 @@
     <row r="673" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A673" s="21"/>
       <c r="B673" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
@@ -11595,7 +11462,7 @@
     <row r="674" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A674" s="21"/>
       <c r="B674" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
@@ -11607,7 +11474,7 @@
     <row r="675" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A675" s="21"/>
       <c r="B675" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
@@ -11619,7 +11486,7 @@
     <row r="676" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A676" s="21"/>
       <c r="B676" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
@@ -11631,7 +11498,7 @@
     <row r="677" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A677" s="21"/>
       <c r="B677" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
@@ -11643,7 +11510,7 @@
     <row r="678" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A678" s="21"/>
       <c r="B678" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
@@ -11655,7 +11522,7 @@
     <row r="679" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A679" s="21"/>
       <c r="B679" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
@@ -11667,7 +11534,7 @@
     <row r="680" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="21"/>
       <c r="B680" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
@@ -11679,7 +11546,7 @@
     <row r="681" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A681" s="21"/>
       <c r="B681" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
@@ -11691,7 +11558,7 @@
     <row r="682" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A682" s="21"/>
       <c r="B682" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
@@ -11703,7 +11570,7 @@
     <row r="683" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A683" s="21"/>
       <c r="B683" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
@@ -11715,7 +11582,7 @@
     <row r="684" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A684" s="21"/>
       <c r="B684" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
@@ -11727,7 +11594,7 @@
     <row r="685" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A685" s="21"/>
       <c r="B685" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
@@ -11739,7 +11606,7 @@
     <row r="686" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A686" s="21"/>
       <c r="B686" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
@@ -11751,7 +11618,7 @@
     <row r="687" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A687" s="21"/>
       <c r="B687" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
@@ -11763,7 +11630,7 @@
     <row r="688" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A688" s="21"/>
       <c r="B688" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
@@ -11775,7 +11642,7 @@
     <row r="689" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A689" s="21"/>
       <c r="B689" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
@@ -11787,7 +11654,7 @@
     <row r="690" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A690" s="21"/>
       <c r="B690" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
@@ -11799,7 +11666,7 @@
     <row r="691" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A691" s="21"/>
       <c r="B691" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
@@ -11811,7 +11678,7 @@
     <row r="692" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A692" s="21"/>
       <c r="B692" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
@@ -11823,7 +11690,7 @@
     <row r="693" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A693" s="21"/>
       <c r="B693" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
@@ -11835,7 +11702,7 @@
     <row r="694" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A694" s="21"/>
       <c r="B694" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
@@ -11847,7 +11714,7 @@
     <row r="695" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A695" s="21"/>
       <c r="B695" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
@@ -11859,7 +11726,7 @@
     <row r="696" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A696" s="21"/>
       <c r="B696" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
@@ -11871,7 +11738,7 @@
     <row r="697" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A697" s="21"/>
       <c r="B697" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
@@ -11883,7 +11750,7 @@
     <row r="698" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A698" s="21"/>
       <c r="B698" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
@@ -11895,7 +11762,7 @@
     <row r="699" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A699" s="21"/>
       <c r="B699" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
@@ -11907,7 +11774,7 @@
     <row r="700" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A700" s="21"/>
       <c r="B700" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
@@ -11919,7 +11786,7 @@
     <row r="701" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A701" s="21"/>
       <c r="B701" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
@@ -11931,7 +11798,7 @@
     <row r="702" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A702" s="21"/>
       <c r="B702" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
@@ -11943,7 +11810,7 @@
     <row r="703" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A703" s="21"/>
       <c r="B703" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
@@ -11955,7 +11822,7 @@
     <row r="704" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A704" s="21"/>
       <c r="B704" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
@@ -11967,7 +11834,7 @@
     <row r="705" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A705" s="21"/>
       <c r="B705" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
@@ -11979,7 +11846,7 @@
     <row r="706" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A706" s="21"/>
       <c r="B706" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
@@ -11991,7 +11858,7 @@
     <row r="707" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A707" s="21"/>
       <c r="B707" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
@@ -12003,7 +11870,7 @@
     <row r="708" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A708" s="21"/>
       <c r="B708" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
@@ -12015,7 +11882,7 @@
     <row r="709" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A709" s="21"/>
       <c r="B709" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
@@ -12027,7 +11894,7 @@
     <row r="710" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A710" s="21"/>
       <c r="B710" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
@@ -12039,7 +11906,7 @@
     <row r="711" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A711" s="21"/>
       <c r="B711" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
@@ -12051,7 +11918,7 @@
     <row r="712" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A712" s="21"/>
       <c r="B712" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
@@ -12063,7 +11930,7 @@
     <row r="713" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A713" s="21"/>
       <c r="B713" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
@@ -12075,7 +11942,7 @@
     <row r="714" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A714" s="21"/>
       <c r="B714" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
@@ -12087,7 +11954,7 @@
     <row r="715" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A715" s="21"/>
       <c r="B715" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
@@ -12099,7 +11966,7 @@
     <row r="716" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A716" s="21"/>
       <c r="B716" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
@@ -12147,7 +12014,7 @@
     <row r="720" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A720" s="21"/>
       <c r="B720" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
@@ -12159,7 +12026,7 @@
     <row r="721" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A721" s="21"/>
       <c r="B721" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
@@ -12171,7 +12038,7 @@
     <row r="722" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A722" s="21"/>
       <c r="B722" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
@@ -12183,7 +12050,7 @@
     <row r="723" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A723" s="21"/>
       <c r="B723" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
@@ -12195,7 +12062,7 @@
     <row r="724" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A724" s="21"/>
       <c r="B724" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
@@ -12207,7 +12074,7 @@
     <row r="725" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A725" s="21"/>
       <c r="B725" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
@@ -12219,7 +12086,7 @@
     <row r="726" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A726" s="21"/>
       <c r="B726" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
@@ -12231,7 +12098,7 @@
     <row r="727" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A727" s="21"/>
       <c r="B727" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
@@ -12243,7 +12110,7 @@
     <row r="728" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A728" s="21"/>
       <c r="B728" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
@@ -12255,7 +12122,7 @@
     <row r="729" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A729" s="21"/>
       <c r="B729" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
@@ -12267,7 +12134,7 @@
     <row r="730" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A730" s="21"/>
       <c r="B730" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
@@ -12279,7 +12146,7 @@
     <row r="731" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A731" s="21"/>
       <c r="B731" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
@@ -12291,7 +12158,7 @@
     <row r="732" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A732" s="21"/>
       <c r="B732" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
@@ -12303,7 +12170,7 @@
     <row r="733" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A733" s="21"/>
       <c r="B733" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
@@ -12315,7 +12182,7 @@
     <row r="734" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A734" s="21"/>
       <c r="B734" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
@@ -12327,7 +12194,7 @@
     <row r="735" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A735" s="21"/>
       <c r="B735" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
@@ -12339,7 +12206,7 @@
     <row r="736" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A736" s="21"/>
       <c r="B736" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
@@ -12351,7 +12218,7 @@
     <row r="737" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A737" s="21"/>
       <c r="B737" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
@@ -12363,7 +12230,7 @@
     <row r="738" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A738" s="21"/>
       <c r="B738" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
@@ -12375,7 +12242,7 @@
     <row r="739" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A739" s="21"/>
       <c r="B739" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
@@ -12387,7 +12254,7 @@
     <row r="740" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A740" s="21"/>
       <c r="B740" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
@@ -12399,7 +12266,7 @@
     <row r="741" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A741" s="21"/>
       <c r="B741" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
@@ -12411,7 +12278,7 @@
     <row r="742" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A742" s="21"/>
       <c r="B742" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
@@ -12423,7 +12290,7 @@
     <row r="743" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A743" s="21"/>
       <c r="B743" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
@@ -12447,7 +12314,7 @@
     <row r="745" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A745" s="21"/>
       <c r="B745" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
@@ -12459,7 +12326,7 @@
     <row r="746" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A746" s="21"/>
       <c r="B746" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
@@ -12471,7 +12338,7 @@
     <row r="747" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A747" s="21"/>
       <c r="B747" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
@@ -12483,7 +12350,7 @@
     <row r="748" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A748" s="21"/>
       <c r="B748" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
@@ -12495,7 +12362,7 @@
     <row r="749" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A749" s="21"/>
       <c r="B749" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
@@ -12507,7 +12374,7 @@
     <row r="750" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A750" s="21"/>
       <c r="B750" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
@@ -12519,7 +12386,7 @@
     <row r="751" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A751" s="21"/>
       <c r="B751" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
@@ -12531,7 +12398,7 @@
     <row r="752" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A752" s="21"/>
       <c r="B752" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
@@ -12543,7 +12410,7 @@
     <row r="753" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A753" s="21"/>
       <c r="B753" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
@@ -12555,7 +12422,7 @@
     <row r="754" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A754" s="21"/>
       <c r="B754" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
@@ -12567,7 +12434,7 @@
     <row r="755" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A755" s="21"/>
       <c r="B755" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
@@ -12579,7 +12446,7 @@
     <row r="756" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A756" s="21"/>
       <c r="B756" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
@@ -12591,7 +12458,7 @@
     <row r="757" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A757" s="21"/>
       <c r="B757" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
@@ -12603,7 +12470,7 @@
     <row r="758" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A758" s="22"/>
       <c r="B758" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C758" s="6"/>
       <c r="D758" s="6"/>
@@ -12614,10 +12481,10 @@
     </row>
     <row r="759" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A759" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="B759" s="5" t="s">
         <v>792</v>
-      </c>
-      <c r="B759" s="5" t="s">
-        <v>793</v>
       </c>
       <c r="C759" s="5"/>
       <c r="D759" s="5"/>
@@ -12631,7 +12498,7 @@
     <row r="760" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A760" s="21"/>
       <c r="B760" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
@@ -12643,7 +12510,7 @@
     <row r="761" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A761" s="21"/>
       <c r="B761" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
@@ -12655,7 +12522,7 @@
     <row r="762" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A762" s="21"/>
       <c r="B762" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
@@ -12667,7 +12534,7 @@
     <row r="763" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A763" s="21"/>
       <c r="B763" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
@@ -12679,7 +12546,7 @@
     <row r="764" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A764" s="21"/>
       <c r="B764" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
@@ -12691,7 +12558,7 @@
     <row r="765" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A765" s="21"/>
       <c r="B765" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
@@ -12703,7 +12570,7 @@
     <row r="766" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A766" s="21"/>
       <c r="B766" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
@@ -12715,7 +12582,7 @@
     <row r="767" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A767" s="21"/>
       <c r="B767" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
@@ -12727,7 +12594,7 @@
     <row r="768" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A768" s="21"/>
       <c r="B768" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
@@ -12739,7 +12606,7 @@
     <row r="769" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A769" s="21"/>
       <c r="B769" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
@@ -12751,7 +12618,7 @@
     <row r="770" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A770" s="21"/>
       <c r="B770" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
@@ -12763,7 +12630,7 @@
     <row r="771" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A771" s="21"/>
       <c r="B771" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
@@ -12775,7 +12642,7 @@
     <row r="772" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A772" s="21"/>
       <c r="B772" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
@@ -12787,7 +12654,7 @@
     <row r="773" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A773" s="21"/>
       <c r="B773" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
@@ -12799,7 +12666,7 @@
     <row r="774" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A774" s="21"/>
       <c r="B774" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
@@ -12811,7 +12678,7 @@
     <row r="775" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A775" s="21"/>
       <c r="B775" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
@@ -12823,7 +12690,7 @@
     <row r="776" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A776" s="21"/>
       <c r="B776" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
@@ -12835,7 +12702,7 @@
     <row r="777" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A777" s="21"/>
       <c r="B777" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
@@ -12847,7 +12714,7 @@
     <row r="778" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A778" s="21"/>
       <c r="B778" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
@@ -12859,7 +12726,7 @@
     <row r="779" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A779" s="22"/>
       <c r="B779" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C779" s="6"/>
       <c r="D779" s="6"/>
@@ -12870,10 +12737,10 @@
     </row>
     <row r="780" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A780" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="B780" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="B780" s="5" t="s">
-        <v>812</v>
       </c>
       <c r="C780" s="5"/>
       <c r="D780" s="5"/>
@@ -12887,7 +12754,7 @@
     <row r="781" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A781" s="22"/>
       <c r="B781" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C781" s="6"/>
       <c r="D781" s="6"/>
@@ -12898,10 +12765,10 @@
     </row>
     <row r="782" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A782" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="B782" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="B782" s="5" t="s">
-        <v>815</v>
       </c>
       <c r="C782" s="5"/>
       <c r="D782" s="5"/>
@@ -12915,7 +12782,7 @@
     <row r="783" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A783" s="21"/>
       <c r="B783" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
@@ -12927,7 +12794,7 @@
     <row r="784" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A784" s="22"/>
       <c r="B784" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C784" s="6"/>
       <c r="D784" s="6"/>
@@ -12938,10 +12805,10 @@
     </row>
     <row r="785" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A785" s="20" t="s">
+        <v>817</v>
+      </c>
+      <c r="B785" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="B785" s="5" t="s">
-        <v>819</v>
       </c>
       <c r="C785" s="5"/>
       <c r="D785" s="5"/>
@@ -12955,7 +12822,7 @@
     <row r="786" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A786" s="21"/>
       <c r="B786" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
@@ -12967,7 +12834,7 @@
     <row r="787" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A787" s="21"/>
       <c r="B787" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
@@ -12979,7 +12846,7 @@
     <row r="788" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A788" s="21"/>
       <c r="B788" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
@@ -12991,7 +12858,7 @@
     <row r="789" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A789" s="21"/>
       <c r="B789" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
@@ -13003,7 +12870,7 @@
     <row r="790" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A790" s="21"/>
       <c r="B790" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
@@ -13015,7 +12882,7 @@
     <row r="791" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A791" s="22"/>
       <c r="B791" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C791" s="6"/>
       <c r="D791" s="6"/>
@@ -13026,10 +12893,10 @@
     </row>
     <row r="792" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A792" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="B792" s="5" t="s">
         <v>826</v>
-      </c>
-      <c r="B792" s="5" t="s">
-        <v>827</v>
       </c>
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
@@ -13043,7 +12910,7 @@
     <row r="793" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A793" s="21"/>
       <c r="B793" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
@@ -13055,7 +12922,7 @@
     <row r="794" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A794" s="21"/>
       <c r="B794" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
@@ -13067,7 +12934,7 @@
     <row r="795" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A795" s="21"/>
       <c r="B795" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
@@ -13079,7 +12946,7 @@
     <row r="796" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A796" s="21"/>
       <c r="B796" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
@@ -13091,7 +12958,7 @@
     <row r="797" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A797" s="21"/>
       <c r="B797" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
@@ -13103,7 +12970,7 @@
     <row r="798" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A798" s="21"/>
       <c r="B798" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
@@ -13115,7 +12982,7 @@
     <row r="799" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A799" s="21"/>
       <c r="B799" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
@@ -13127,7 +12994,7 @@
     <row r="800" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A800" s="21"/>
       <c r="B800" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
@@ -13139,7 +13006,7 @@
     <row r="801" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A801" s="21"/>
       <c r="B801" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
@@ -13151,7 +13018,7 @@
     <row r="802" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A802" s="21"/>
       <c r="B802" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
@@ -13163,7 +13030,7 @@
     <row r="803" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A803" s="22"/>
       <c r="B803" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C803" s="6"/>
       <c r="D803" s="6"/>
@@ -13174,18 +13041,70 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A782:A784"/>
-    <mergeCell ref="E782:E784"/>
-    <mergeCell ref="A785:A791"/>
-    <mergeCell ref="E785:E791"/>
-    <mergeCell ref="A792:A803"/>
-    <mergeCell ref="E792:E803"/>
-    <mergeCell ref="A632:A758"/>
-    <mergeCell ref="E632:E758"/>
-    <mergeCell ref="A759:A779"/>
-    <mergeCell ref="E759:E779"/>
-    <mergeCell ref="A780:A781"/>
-    <mergeCell ref="E780:E781"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="E400:E403"/>
+    <mergeCell ref="A404:A420"/>
+    <mergeCell ref="E404:E420"/>
+    <mergeCell ref="A421:A471"/>
+    <mergeCell ref="E421:E471"/>
+    <mergeCell ref="A472:A486"/>
+    <mergeCell ref="E472:E486"/>
+    <mergeCell ref="A487:A498"/>
+    <mergeCell ref="E487:E498"/>
+    <mergeCell ref="A499:A504"/>
+    <mergeCell ref="E499:E504"/>
+    <mergeCell ref="A505:A577"/>
+    <mergeCell ref="E505:E577"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="A582:A583"/>
+    <mergeCell ref="E582:E583"/>
+    <mergeCell ref="A584:A593"/>
+    <mergeCell ref="E584:E593"/>
+    <mergeCell ref="A594:A600"/>
+    <mergeCell ref="E594:E600"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="E604:E606"/>
     <mergeCell ref="A624:A628"/>
     <mergeCell ref="E624:E628"/>
     <mergeCell ref="A629:A630"/>
@@ -13195,95 +13114,43 @@
     <mergeCell ref="A614:A623"/>
     <mergeCell ref="C614:C623"/>
     <mergeCell ref="E614:E623"/>
-    <mergeCell ref="A584:A593"/>
-    <mergeCell ref="E584:E593"/>
-    <mergeCell ref="A594:A600"/>
-    <mergeCell ref="E594:E600"/>
-    <mergeCell ref="A604:A606"/>
-    <mergeCell ref="E604:E606"/>
-    <mergeCell ref="A505:A577"/>
-    <mergeCell ref="E505:E577"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="A582:A583"/>
-    <mergeCell ref="E582:E583"/>
-    <mergeCell ref="A472:A486"/>
-    <mergeCell ref="E472:E486"/>
-    <mergeCell ref="A487:A498"/>
-    <mergeCell ref="E487:E498"/>
-    <mergeCell ref="A499:A504"/>
-    <mergeCell ref="E499:E504"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="E400:E403"/>
-    <mergeCell ref="A404:A420"/>
-    <mergeCell ref="E404:E420"/>
-    <mergeCell ref="A421:A471"/>
-    <mergeCell ref="E421:E471"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="A632:A758"/>
+    <mergeCell ref="E632:E758"/>
+    <mergeCell ref="A759:A779"/>
+    <mergeCell ref="E759:E779"/>
+    <mergeCell ref="A780:A781"/>
+    <mergeCell ref="E780:E781"/>
+    <mergeCell ref="A782:A784"/>
+    <mergeCell ref="E782:E784"/>
+    <mergeCell ref="A785:A791"/>
+    <mergeCell ref="E785:E791"/>
+    <mergeCell ref="A792:A803"/>
+    <mergeCell ref="E792:E803"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$D1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F53 F60:F174 F179:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Жуков Виктор"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Соклаков Иван"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Сусленков Виктор"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1246A0C8-B8C0-483A-BCF2-1BF83138536A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WebApiTests" sheetId="1" r:id="rId1"/>
@@ -2547,7 +2548,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2775,27 +2776,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2804,6 +2784,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3174,11 +3175,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F803"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
+      <selection activeCell="F624" sqref="F624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3222,7 +3223,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -3238,7 +3239,7 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
@@ -3252,7 +3253,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="31"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
@@ -3280,7 +3281,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
@@ -3294,7 +3295,7 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
@@ -3308,7 +3309,7 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
@@ -3324,7 +3325,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -3340,7 +3341,7 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
@@ -3352,7 +3353,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
@@ -3364,7 +3365,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
@@ -3376,7 +3377,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="31"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
@@ -3388,7 +3389,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
@@ -3866,12 +3867,12 @@
       <c r="B53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="29" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3880,60 +3881,60 @@
       <c r="B54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="27"/>
+      <c r="C54" s="29"/>
       <c r="D54" s="4"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="24"/>
+      <c r="F54" s="27"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="27"/>
+      <c r="C55" s="29"/>
       <c r="D55" s="4"/>
       <c r="E55" s="21"/>
-      <c r="F55" s="24"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="27"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="4"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="24"/>
+      <c r="F56" s="27"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="4"/>
       <c r="E57" s="21"/>
-      <c r="F57" s="24"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="27"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="4"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="24"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="27"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="4"/>
       <c r="E59" s="21"/>
-      <c r="F59" s="25"/>
+      <c r="F59" s="28"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
@@ -5314,14 +5315,14 @@
       <c r="B174" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C174" s="26" t="s">
+      <c r="C174" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F174" s="26" t="s">
+      <c r="F174" s="30" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5330,40 +5331,40 @@
       <c r="B175" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C175" s="27"/>
+      <c r="C175" s="29"/>
       <c r="D175" s="4"/>
       <c r="E175" s="21"/>
-      <c r="F175" s="27"/>
+      <c r="F175" s="29"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="21"/>
       <c r="B176" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C176" s="27"/>
+      <c r="C176" s="29"/>
       <c r="D176" s="4"/>
       <c r="E176" s="21"/>
-      <c r="F176" s="27"/>
+      <c r="F176" s="29"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="21"/>
       <c r="B177" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C177" s="27"/>
+      <c r="C177" s="29"/>
       <c r="D177" s="4"/>
       <c r="E177" s="21"/>
-      <c r="F177" s="27"/>
+      <c r="F177" s="29"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="22"/>
       <c r="B178" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C178" s="28"/>
+      <c r="C178" s="31"/>
       <c r="D178" s="6"/>
       <c r="E178" s="22"/>
-      <c r="F178" s="28"/>
+      <c r="F178" s="31"/>
     </row>
     <row r="179" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="20" t="s">
@@ -10724,7 +10725,7 @@
       <c r="B614" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C614" s="23" t="s">
+      <c r="C614" s="32" t="s">
         <v>657</v>
       </c>
       <c r="D614" s="5"/>
@@ -10740,7 +10741,7 @@
       <c r="B615" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C615" s="24"/>
+      <c r="C615" s="27"/>
       <c r="D615" s="4"/>
       <c r="E615" s="21"/>
       <c r="F615" s="8">
@@ -10752,7 +10753,7 @@
       <c r="B616" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C616" s="24"/>
+      <c r="C616" s="27"/>
       <c r="D616" s="4"/>
       <c r="E616" s="21"/>
       <c r="F616" s="8">
@@ -10764,7 +10765,7 @@
       <c r="B617" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C617" s="24"/>
+      <c r="C617" s="27"/>
       <c r="D617" s="4"/>
       <c r="E617" s="21"/>
       <c r="F617" s="8">
@@ -10776,7 +10777,7 @@
       <c r="B618" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C618" s="24"/>
+      <c r="C618" s="27"/>
       <c r="D618" s="4"/>
       <c r="E618" s="21"/>
       <c r="F618" s="8">
@@ -10788,7 +10789,7 @@
       <c r="B619" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C619" s="24"/>
+      <c r="C619" s="27"/>
       <c r="D619" s="4"/>
       <c r="E619" s="21"/>
       <c r="F619" s="8">
@@ -10800,7 +10801,7 @@
       <c r="B620" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C620" s="24"/>
+      <c r="C620" s="27"/>
       <c r="D620" s="4"/>
       <c r="E620" s="21"/>
       <c r="F620" s="8">
@@ -10812,7 +10813,7 @@
       <c r="B621" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C621" s="24"/>
+      <c r="C621" s="27"/>
       <c r="D621" s="4"/>
       <c r="E621" s="21"/>
       <c r="F621" s="8">
@@ -10824,7 +10825,7 @@
       <c r="B622" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="C622" s="24"/>
+      <c r="C622" s="27"/>
       <c r="D622" s="4"/>
       <c r="E622" s="21"/>
       <c r="F622" s="8">
@@ -10836,7 +10837,7 @@
       <c r="B623" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="C623" s="25"/>
+      <c r="C623" s="28"/>
       <c r="D623" s="6"/>
       <c r="E623" s="22"/>
       <c r="F623" s="8">
@@ -10853,7 +10854,7 @@
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
       <c r="E624" s="20" t="s">
-        <v>41</v>
+        <v>551</v>
       </c>
       <c r="F624" s="8">
         <v>1</v>
@@ -13041,70 +13042,18 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="E15:E32"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="E400:E403"/>
-    <mergeCell ref="A404:A420"/>
-    <mergeCell ref="E404:E420"/>
-    <mergeCell ref="A421:A471"/>
-    <mergeCell ref="E421:E471"/>
-    <mergeCell ref="A472:A486"/>
-    <mergeCell ref="E472:E486"/>
-    <mergeCell ref="A487:A498"/>
-    <mergeCell ref="E487:E498"/>
-    <mergeCell ref="A499:A504"/>
-    <mergeCell ref="E499:E504"/>
-    <mergeCell ref="A505:A577"/>
-    <mergeCell ref="E505:E577"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="A582:A583"/>
-    <mergeCell ref="E582:E583"/>
-    <mergeCell ref="A584:A593"/>
-    <mergeCell ref="E584:E593"/>
-    <mergeCell ref="A594:A600"/>
-    <mergeCell ref="E594:E600"/>
-    <mergeCell ref="A604:A606"/>
-    <mergeCell ref="E604:E606"/>
+    <mergeCell ref="A782:A784"/>
+    <mergeCell ref="E782:E784"/>
+    <mergeCell ref="A785:A791"/>
+    <mergeCell ref="E785:E791"/>
+    <mergeCell ref="A792:A803"/>
+    <mergeCell ref="E792:E803"/>
+    <mergeCell ref="A632:A758"/>
+    <mergeCell ref="E632:E758"/>
+    <mergeCell ref="A759:A779"/>
+    <mergeCell ref="E759:E779"/>
+    <mergeCell ref="A780:A781"/>
+    <mergeCell ref="E780:E781"/>
     <mergeCell ref="A624:A628"/>
     <mergeCell ref="E624:E628"/>
     <mergeCell ref="A629:A630"/>
@@ -13114,18 +13063,70 @@
     <mergeCell ref="A614:A623"/>
     <mergeCell ref="C614:C623"/>
     <mergeCell ref="E614:E623"/>
-    <mergeCell ref="A632:A758"/>
-    <mergeCell ref="E632:E758"/>
-    <mergeCell ref="A759:A779"/>
-    <mergeCell ref="E759:E779"/>
-    <mergeCell ref="A780:A781"/>
-    <mergeCell ref="E780:E781"/>
-    <mergeCell ref="A782:A784"/>
-    <mergeCell ref="E782:E784"/>
-    <mergeCell ref="A785:A791"/>
-    <mergeCell ref="E785:E791"/>
-    <mergeCell ref="A792:A803"/>
-    <mergeCell ref="E792:E803"/>
+    <mergeCell ref="A584:A593"/>
+    <mergeCell ref="E584:E593"/>
+    <mergeCell ref="A594:A600"/>
+    <mergeCell ref="E594:E600"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="E604:E606"/>
+    <mergeCell ref="A505:A577"/>
+    <mergeCell ref="E505:E577"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="A582:A583"/>
+    <mergeCell ref="E582:E583"/>
+    <mergeCell ref="A472:A486"/>
+    <mergeCell ref="E472:E486"/>
+    <mergeCell ref="A487:A498"/>
+    <mergeCell ref="E487:E498"/>
+    <mergeCell ref="A499:A504"/>
+    <mergeCell ref="E499:E504"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="E400:E403"/>
+    <mergeCell ref="A404:A420"/>
+    <mergeCell ref="E404:E420"/>
+    <mergeCell ref="A421:A471"/>
+    <mergeCell ref="E421:E471"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E15:E32"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="expression" dxfId="6" priority="9">

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1246A0C8-B8C0-483A-BCF2-1BF83138536A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="WebApiTests" sheetId="1" r:id="rId1"/>
@@ -2548,7 +2547,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2776,6 +2775,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2784,27 +2804,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3175,11 +3174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="F624" sqref="F624"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3223,7 +3222,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -3239,7 +3238,7 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
@@ -3253,7 +3252,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
@@ -3267,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="24"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
@@ -3281,7 +3280,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
@@ -3295,7 +3294,7 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
@@ -3309,7 +3308,7 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
@@ -3325,7 +3324,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -3341,7 +3340,7 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
@@ -3353,7 +3352,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
@@ -3365,7 +3364,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
@@ -3377,7 +3376,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
@@ -3389,7 +3388,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="25"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
@@ -3404,7 +3403,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="20" t="s">
-        <v>41</v>
+        <v>551</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -3867,12 +3866,12 @@
       <c r="B53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="29" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3881,60 +3880,60 @@
       <c r="B54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="29"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="4"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="27"/>
+      <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="29"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="4"/>
       <c r="E55" s="21"/>
-      <c r="F55" s="27"/>
+      <c r="F55" s="24"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="29"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="4"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="27"/>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="29"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="4"/>
       <c r="E57" s="21"/>
-      <c r="F57" s="27"/>
+      <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="29"/>
+      <c r="C58" s="27"/>
       <c r="D58" s="4"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="27"/>
+      <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="29"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="4"/>
       <c r="E59" s="21"/>
-      <c r="F59" s="28"/>
+      <c r="F59" s="25"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
@@ -5315,14 +5314,14 @@
       <c r="B174" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C174" s="30" t="s">
+      <c r="C174" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F174" s="30" t="s">
+      <c r="F174" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5331,40 +5330,40 @@
       <c r="B175" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C175" s="29"/>
+      <c r="C175" s="27"/>
       <c r="D175" s="4"/>
       <c r="E175" s="21"/>
-      <c r="F175" s="29"/>
+      <c r="F175" s="27"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="21"/>
       <c r="B176" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C176" s="29"/>
+      <c r="C176" s="27"/>
       <c r="D176" s="4"/>
       <c r="E176" s="21"/>
-      <c r="F176" s="29"/>
+      <c r="F176" s="27"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="21"/>
       <c r="B177" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C177" s="29"/>
+      <c r="C177" s="27"/>
       <c r="D177" s="4"/>
       <c r="E177" s="21"/>
-      <c r="F177" s="29"/>
+      <c r="F177" s="27"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="22"/>
       <c r="B178" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C178" s="31"/>
+      <c r="C178" s="28"/>
       <c r="D178" s="6"/>
       <c r="E178" s="22"/>
-      <c r="F178" s="31"/>
+      <c r="F178" s="28"/>
     </row>
     <row r="179" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="20" t="s">
@@ -10725,7 +10724,7 @@
       <c r="B614" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C614" s="32" t="s">
+      <c r="C614" s="23" t="s">
         <v>657</v>
       </c>
       <c r="D614" s="5"/>
@@ -10741,7 +10740,7 @@
       <c r="B615" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C615" s="27"/>
+      <c r="C615" s="24"/>
       <c r="D615" s="4"/>
       <c r="E615" s="21"/>
       <c r="F615" s="8">
@@ -10753,7 +10752,7 @@
       <c r="B616" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C616" s="27"/>
+      <c r="C616" s="24"/>
       <c r="D616" s="4"/>
       <c r="E616" s="21"/>
       <c r="F616" s="8">
@@ -10765,7 +10764,7 @@
       <c r="B617" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C617" s="27"/>
+      <c r="C617" s="24"/>
       <c r="D617" s="4"/>
       <c r="E617" s="21"/>
       <c r="F617" s="8">
@@ -10777,7 +10776,7 @@
       <c r="B618" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C618" s="27"/>
+      <c r="C618" s="24"/>
       <c r="D618" s="4"/>
       <c r="E618" s="21"/>
       <c r="F618" s="8">
@@ -10789,7 +10788,7 @@
       <c r="B619" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C619" s="27"/>
+      <c r="C619" s="24"/>
       <c r="D619" s="4"/>
       <c r="E619" s="21"/>
       <c r="F619" s="8">
@@ -10801,7 +10800,7 @@
       <c r="B620" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C620" s="27"/>
+      <c r="C620" s="24"/>
       <c r="D620" s="4"/>
       <c r="E620" s="21"/>
       <c r="F620" s="8">
@@ -10813,7 +10812,7 @@
       <c r="B621" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C621" s="27"/>
+      <c r="C621" s="24"/>
       <c r="D621" s="4"/>
       <c r="E621" s="21"/>
       <c r="F621" s="8">
@@ -10825,7 +10824,7 @@
       <c r="B622" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="C622" s="27"/>
+      <c r="C622" s="24"/>
       <c r="D622" s="4"/>
       <c r="E622" s="21"/>
       <c r="F622" s="8">
@@ -10837,7 +10836,7 @@
       <c r="B623" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="C623" s="28"/>
+      <c r="C623" s="25"/>
       <c r="D623" s="6"/>
       <c r="E623" s="22"/>
       <c r="F623" s="8">
@@ -13042,18 +13041,70 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A782:A784"/>
-    <mergeCell ref="E782:E784"/>
-    <mergeCell ref="A785:A791"/>
-    <mergeCell ref="E785:E791"/>
-    <mergeCell ref="A792:A803"/>
-    <mergeCell ref="E792:E803"/>
-    <mergeCell ref="A632:A758"/>
-    <mergeCell ref="E632:E758"/>
-    <mergeCell ref="A759:A779"/>
-    <mergeCell ref="E759:E779"/>
-    <mergeCell ref="A780:A781"/>
-    <mergeCell ref="E780:E781"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="E400:E403"/>
+    <mergeCell ref="A404:A420"/>
+    <mergeCell ref="E404:E420"/>
+    <mergeCell ref="A421:A471"/>
+    <mergeCell ref="E421:E471"/>
+    <mergeCell ref="A472:A486"/>
+    <mergeCell ref="E472:E486"/>
+    <mergeCell ref="A487:A498"/>
+    <mergeCell ref="E487:E498"/>
+    <mergeCell ref="A499:A504"/>
+    <mergeCell ref="E499:E504"/>
+    <mergeCell ref="A505:A577"/>
+    <mergeCell ref="E505:E577"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="A582:A583"/>
+    <mergeCell ref="E582:E583"/>
+    <mergeCell ref="A584:A593"/>
+    <mergeCell ref="E584:E593"/>
+    <mergeCell ref="A594:A600"/>
+    <mergeCell ref="E594:E600"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="E604:E606"/>
     <mergeCell ref="A624:A628"/>
     <mergeCell ref="E624:E628"/>
     <mergeCell ref="A629:A630"/>
@@ -13063,70 +13114,18 @@
     <mergeCell ref="A614:A623"/>
     <mergeCell ref="C614:C623"/>
     <mergeCell ref="E614:E623"/>
-    <mergeCell ref="A584:A593"/>
-    <mergeCell ref="E584:E593"/>
-    <mergeCell ref="A594:A600"/>
-    <mergeCell ref="E594:E600"/>
-    <mergeCell ref="A604:A606"/>
-    <mergeCell ref="E604:E606"/>
-    <mergeCell ref="A505:A577"/>
-    <mergeCell ref="E505:E577"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="A582:A583"/>
-    <mergeCell ref="E582:E583"/>
-    <mergeCell ref="A472:A486"/>
-    <mergeCell ref="E472:E486"/>
-    <mergeCell ref="A487:A498"/>
-    <mergeCell ref="E487:E498"/>
-    <mergeCell ref="A499:A504"/>
-    <mergeCell ref="E499:E504"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="E400:E403"/>
-    <mergeCell ref="A404:A420"/>
-    <mergeCell ref="E404:E420"/>
-    <mergeCell ref="A421:A471"/>
-    <mergeCell ref="E421:E471"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="A632:A758"/>
+    <mergeCell ref="E632:E758"/>
+    <mergeCell ref="A759:A779"/>
+    <mergeCell ref="E759:E779"/>
+    <mergeCell ref="A780:A781"/>
+    <mergeCell ref="E780:E781"/>
+    <mergeCell ref="A782:A784"/>
+    <mergeCell ref="E782:E784"/>
+    <mergeCell ref="A785:A791"/>
+    <mergeCell ref="E785:E791"/>
+    <mergeCell ref="A792:A803"/>
+    <mergeCell ref="E792:E803"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="expression" dxfId="6" priority="9">

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WebApiTests" sheetId="1" r:id="rId1"/>
+    <sheet name="WebApiContracts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="840">
   <si>
     <t>Контроллер</t>
   </si>
@@ -63,9 +64,6 @@
   </si>
   <si>
     <t>Жуков Виктор</t>
-  </si>
-  <si>
-    <t>Добавлен? (1 - да)</t>
   </si>
   <si>
     <t>Заблокирован отсутствием методов OrgStructure</t>
@@ -2542,6 +2540,12 @@
   </si>
   <si>
     <t>""   (Get)</t>
+  </si>
+  <si>
+    <t>Добавлен? (1 - да, 2 - на проверке)</t>
+  </si>
+  <si>
+    <t>Контракт</t>
   </si>
 </sst>
 </file>
@@ -2715,7 +2719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2775,27 +2779,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2805,11 +2788,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3177,8 +3296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F803"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,7 +3305,7 @@
     <col min="1" max="1" width="28.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="57" style="4" customWidth="1"/>
     <col min="3" max="3" width="77" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="30" style="11" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="4" customWidth="1"/>
   </cols>
@@ -3202,13 +3321,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>838</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3222,7 +3341,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -3238,7 +3357,7 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
@@ -3252,7 +3371,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
@@ -3263,10 +3382,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="31"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
@@ -3280,7 +3399,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
@@ -3294,7 +3413,7 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
@@ -3308,23 +3427,23 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -3334,13 +3453,13 @@
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
@@ -3348,11 +3467,11 @@
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
@@ -3360,11 +3479,11 @@
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
@@ -3372,11 +3491,11 @@
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="31"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
@@ -3384,26 +3503,26 @@
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -3412,7 +3531,7 @@
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3424,7 +3543,7 @@
     <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3436,7 +3555,7 @@
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3448,7 +3567,7 @@
     <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3460,7 +3579,7 @@
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3472,7 +3591,7 @@
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3484,7 +3603,7 @@
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3496,7 +3615,7 @@
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3508,7 +3627,7 @@
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3520,7 +3639,7 @@
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3532,7 +3651,7 @@
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3544,7 +3663,7 @@
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3556,7 +3675,7 @@
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3568,7 +3687,7 @@
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3580,7 +3699,7 @@
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3592,7 +3711,7 @@
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3604,7 +3723,7 @@
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -3615,15 +3734,15 @@
     </row>
     <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="5">
         <v>2</v>
@@ -3632,7 +3751,7 @@
     <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3644,7 +3763,7 @@
     <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3656,7 +3775,7 @@
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3668,7 +3787,7 @@
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3680,7 +3799,7 @@
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3692,7 +3811,7 @@
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3704,7 +3823,7 @@
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3716,7 +3835,7 @@
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3728,7 +3847,7 @@
     <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3740,7 +3859,7 @@
     <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3752,7 +3871,7 @@
     <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3764,7 +3883,7 @@
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -3776,7 +3895,7 @@
     <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -3787,15 +3906,15 @@
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" s="5">
         <v>1</v>
@@ -3804,7 +3923,7 @@
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -3816,7 +3935,7 @@
     <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -3828,7 +3947,7 @@
     <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -3840,7 +3959,7 @@
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -3852,7 +3971,7 @@
     <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -3864,81 +3983,81 @@
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="29" t="s">
-        <v>70</v>
+      <c r="F53" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="27"/>
+        <v>63</v>
+      </c>
+      <c r="C54" s="29"/>
       <c r="D54" s="4"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="24"/>
+      <c r="F54" s="27"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="27"/>
+        <v>64</v>
+      </c>
+      <c r="C55" s="29"/>
       <c r="D55" s="4"/>
       <c r="E55" s="21"/>
-      <c r="F55" s="24"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="27"/>
+        <v>65</v>
+      </c>
+      <c r="C56" s="29"/>
       <c r="D56" s="4"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="24"/>
+      <c r="F56" s="27"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="27"/>
+        <v>66</v>
+      </c>
+      <c r="C57" s="29"/>
       <c r="D57" s="4"/>
       <c r="E57" s="21"/>
-      <c r="F57" s="24"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="27"/>
+        <v>67</v>
+      </c>
+      <c r="C58" s="29"/>
       <c r="D58" s="4"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="24"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="27"/>
+        <v>68</v>
+      </c>
+      <c r="C59" s="29"/>
       <c r="D59" s="4"/>
       <c r="E59" s="21"/>
-      <c r="F59" s="25"/>
+      <c r="F59" s="28"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -3950,7 +4069,7 @@
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -3962,7 +4081,7 @@
     <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -3974,7 +4093,7 @@
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -3986,7 +4105,7 @@
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -3998,7 +4117,7 @@
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -4010,7 +4129,7 @@
     <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -4022,7 +4141,7 @@
     <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -4034,7 +4153,7 @@
     <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -4045,15 +4164,15 @@
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F69" s="8">
         <v>1</v>
@@ -4062,7 +4181,7 @@
     <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -4074,7 +4193,7 @@
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -4086,7 +4205,7 @@
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -4098,7 +4217,7 @@
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -4110,7 +4229,7 @@
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -4122,7 +4241,7 @@
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -4134,7 +4253,7 @@
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -4146,7 +4265,7 @@
     <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -4158,7 +4277,7 @@
     <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -4170,7 +4289,7 @@
     <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -4182,7 +4301,7 @@
     <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -4194,7 +4313,7 @@
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -4206,7 +4325,7 @@
     <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -4218,7 +4337,7 @@
     <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -4230,7 +4349,7 @@
     <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
       <c r="B84" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -4242,7 +4361,7 @@
     <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -4254,7 +4373,7 @@
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -4266,7 +4385,7 @@
     <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -4278,7 +4397,7 @@
     <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -4290,7 +4409,7 @@
     <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -4302,7 +4421,7 @@
     <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -4314,7 +4433,7 @@
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21"/>
       <c r="B91" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -4326,7 +4445,7 @@
     <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -4338,7 +4457,7 @@
     <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
       <c r="B93" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -4350,7 +4469,7 @@
     <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -4362,7 +4481,7 @@
     <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -4374,7 +4493,7 @@
     <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -4386,7 +4505,7 @@
     <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
       <c r="B97" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -4398,7 +4517,7 @@
     <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
       <c r="B98" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -4410,7 +4529,7 @@
     <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
       <c r="B99" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -4422,7 +4541,7 @@
     <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
       <c r="B100" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -4434,7 +4553,7 @@
     <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
       <c r="B101" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -4446,7 +4565,7 @@
     <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -4458,7 +4577,7 @@
     <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -4470,7 +4589,7 @@
     <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
       <c r="B104" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -4482,7 +4601,7 @@
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21"/>
       <c r="B105" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -4494,7 +4613,7 @@
     <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21"/>
       <c r="B106" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -4506,7 +4625,7 @@
     <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21"/>
       <c r="B107" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -4518,7 +4637,7 @@
     <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21"/>
       <c r="B108" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -4530,7 +4649,7 @@
     <row r="109" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -4542,7 +4661,7 @@
     <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
       <c r="B110" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -4554,7 +4673,7 @@
     <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21"/>
       <c r="B111" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -4566,7 +4685,7 @@
     <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
       <c r="B112" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -4578,7 +4697,7 @@
     <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21"/>
       <c r="B113" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -4590,7 +4709,7 @@
     <row r="114" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21"/>
       <c r="B114" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -4602,7 +4721,7 @@
     <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21"/>
       <c r="B115" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -4614,7 +4733,7 @@
     <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
       <c r="B116" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -4626,7 +4745,7 @@
     <row r="117" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="B117" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -4638,7 +4757,7 @@
     <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>
       <c r="B118" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -4650,7 +4769,7 @@
     <row r="119" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21"/>
       <c r="B119" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -4662,7 +4781,7 @@
     <row r="120" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21"/>
       <c r="B120" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -4674,7 +4793,7 @@
     <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21"/>
       <c r="B121" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -4686,7 +4805,7 @@
     <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21"/>
       <c r="B122" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -4698,7 +4817,7 @@
     <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21"/>
       <c r="B123" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -4710,7 +4829,7 @@
     <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21"/>
       <c r="B124" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -4722,7 +4841,7 @@
     <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="21"/>
       <c r="B125" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -4734,7 +4853,7 @@
     <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="21"/>
       <c r="B126" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -4746,7 +4865,7 @@
     <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21"/>
       <c r="B127" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -4758,7 +4877,7 @@
     <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21"/>
       <c r="B128" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -4770,7 +4889,7 @@
     <row r="129" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21"/>
       <c r="B129" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -4782,7 +4901,7 @@
     <row r="130" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21"/>
       <c r="B130" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -4794,7 +4913,7 @@
     <row r="131" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21"/>
       <c r="B131" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -4806,7 +4925,7 @@
     <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21"/>
       <c r="B132" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -4818,7 +4937,7 @@
     <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
       <c r="B133" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -4830,7 +4949,7 @@
     <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
       <c r="B134" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -4842,7 +4961,7 @@
     <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="21"/>
       <c r="B135" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -4854,7 +4973,7 @@
     <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="21"/>
       <c r="B136" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -4866,7 +4985,7 @@
     <row r="137" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="21"/>
       <c r="B137" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -4878,7 +4997,7 @@
     <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="21"/>
       <c r="B138" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -4890,7 +5009,7 @@
     <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="21"/>
       <c r="B139" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -4902,7 +5021,7 @@
     <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="21"/>
       <c r="B140" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -4914,7 +5033,7 @@
     <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="21"/>
       <c r="B141" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -4926,7 +5045,7 @@
     <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="21"/>
       <c r="B142" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -4938,7 +5057,7 @@
     <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="21"/>
       <c r="B143" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -4950,7 +5069,7 @@
     <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="21"/>
       <c r="B144" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -4962,7 +5081,7 @@
     <row r="145" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="21"/>
       <c r="B145" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -4974,7 +5093,7 @@
     <row r="146" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="21"/>
       <c r="B146" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -4986,7 +5105,7 @@
     <row r="147" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="21"/>
       <c r="B147" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -4998,7 +5117,7 @@
     <row r="148" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="21"/>
       <c r="B148" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -5010,7 +5129,7 @@
     <row r="149" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="21"/>
       <c r="B149" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -5022,7 +5141,7 @@
     <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="21"/>
       <c r="B150" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -5034,7 +5153,7 @@
     <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="21"/>
       <c r="B151" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -5046,7 +5165,7 @@
     <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="21"/>
       <c r="B152" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -5058,7 +5177,7 @@
     <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="21"/>
       <c r="B153" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -5070,7 +5189,7 @@
     <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="21"/>
       <c r="B154" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -5082,7 +5201,7 @@
     <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="21"/>
       <c r="B155" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -5094,7 +5213,7 @@
     <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="21"/>
       <c r="B156" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -5106,7 +5225,7 @@
     <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="21"/>
       <c r="B157" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -5118,7 +5237,7 @@
     <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="21"/>
       <c r="B158" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -5130,7 +5249,7 @@
     <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="21"/>
       <c r="B159" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -5142,7 +5261,7 @@
     <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="21"/>
       <c r="B160" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -5154,7 +5273,7 @@
     <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="21"/>
       <c r="B161" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -5166,7 +5285,7 @@
     <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="21"/>
       <c r="B162" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -5178,7 +5297,7 @@
     <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="21"/>
       <c r="B163" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -5190,7 +5309,7 @@
     <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="21"/>
       <c r="B164" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -5202,7 +5321,7 @@
     <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="21"/>
       <c r="B165" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -5214,7 +5333,7 @@
     <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="21"/>
       <c r="B166" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -5226,7 +5345,7 @@
     <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="21"/>
       <c r="B167" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -5238,7 +5357,7 @@
     <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="21"/>
       <c r="B168" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -5250,7 +5369,7 @@
     <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="21"/>
       <c r="B169" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -5262,7 +5381,7 @@
     <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="21"/>
       <c r="B170" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -5274,7 +5393,7 @@
     <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="21"/>
       <c r="B171" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -5286,7 +5405,7 @@
     <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21"/>
       <c r="B172" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -5298,7 +5417,7 @@
     <row r="173" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="22"/>
       <c r="B173" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -5309,73 +5428,73 @@
     </row>
     <row r="174" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C174" s="26" t="s">
-        <v>70</v>
+        <v>187</v>
+      </c>
+      <c r="C174" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F174" s="26" t="s">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="F174" s="30" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="21"/>
       <c r="B175" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C175" s="27"/>
+        <v>188</v>
+      </c>
+      <c r="C175" s="29"/>
       <c r="D175" s="4"/>
       <c r="E175" s="21"/>
-      <c r="F175" s="27"/>
+      <c r="F175" s="29"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="21"/>
       <c r="B176" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C176" s="27"/>
+        <v>189</v>
+      </c>
+      <c r="C176" s="29"/>
       <c r="D176" s="4"/>
       <c r="E176" s="21"/>
-      <c r="F176" s="27"/>
+      <c r="F176" s="29"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="21"/>
       <c r="B177" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C177" s="27"/>
+        <v>190</v>
+      </c>
+      <c r="C177" s="29"/>
       <c r="D177" s="4"/>
       <c r="E177" s="21"/>
-      <c r="F177" s="27"/>
+      <c r="F177" s="29"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="22"/>
       <c r="B178" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C178" s="28"/>
+        <v>191</v>
+      </c>
+      <c r="C178" s="31"/>
       <c r="D178" s="6"/>
       <c r="E178" s="22"/>
-      <c r="F178" s="28"/>
+      <c r="F178" s="31"/>
     </row>
     <row r="179" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F179" s="8">
         <v>2</v>
@@ -5384,7 +5503,7 @@
     <row r="180" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="21"/>
       <c r="B180" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -5396,7 +5515,7 @@
     <row r="181" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="21"/>
       <c r="B181" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -5408,7 +5527,7 @@
     <row r="182" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="21"/>
       <c r="B182" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -5420,7 +5539,7 @@
     <row r="183" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="21"/>
       <c r="B183" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -5432,7 +5551,7 @@
     <row r="184" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="21"/>
       <c r="B184" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -5444,7 +5563,7 @@
     <row r="185" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="21"/>
       <c r="B185" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -5456,7 +5575,7 @@
     <row r="186" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="21"/>
       <c r="B186" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -5468,7 +5587,7 @@
     <row r="187" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="21"/>
       <c r="B187" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -5480,7 +5599,7 @@
     <row r="188" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="21"/>
       <c r="B188" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -5492,7 +5611,7 @@
     <row r="189" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="22"/>
       <c r="B189" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -5503,15 +5622,15 @@
     </row>
     <row r="190" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F190" s="8">
         <v>2</v>
@@ -5520,7 +5639,7 @@
     <row r="191" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="21"/>
       <c r="B191" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -5532,7 +5651,7 @@
     <row r="192" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="21"/>
       <c r="B192" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -5544,7 +5663,7 @@
     <row r="193" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="21"/>
       <c r="B193" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -5556,7 +5675,7 @@
     <row r="194" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="21"/>
       <c r="B194" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -5568,7 +5687,7 @@
     <row r="195" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="21"/>
       <c r="B195" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -5580,7 +5699,7 @@
     <row r="196" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="21"/>
       <c r="B196" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -5592,7 +5711,7 @@
     <row r="197" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="22"/>
       <c r="B197" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -5603,15 +5722,15 @@
     </row>
     <row r="198" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B198" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
       <c r="E198" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F198" s="8">
         <v>2</v>
@@ -5619,15 +5738,15 @@
     </row>
     <row r="199" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B199" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F199" s="8">
         <v>-1</v>
@@ -5636,7 +5755,7 @@
     <row r="200" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="21"/>
       <c r="B200" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -5648,7 +5767,7 @@
     <row r="201" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="21"/>
       <c r="B201" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -5660,7 +5779,7 @@
     <row r="202" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="21"/>
       <c r="B202" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -5672,7 +5791,7 @@
     <row r="203" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="21"/>
       <c r="B203" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -5684,7 +5803,7 @@
     <row r="204" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="21"/>
       <c r="B204" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -5696,7 +5815,7 @@
     <row r="205" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="21"/>
       <c r="B205" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -5708,7 +5827,7 @@
     <row r="206" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="21"/>
       <c r="B206" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -5720,7 +5839,7 @@
     <row r="207" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="21"/>
       <c r="B207" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -5732,7 +5851,7 @@
     <row r="208" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="21"/>
       <c r="B208" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -5744,7 +5863,7 @@
     <row r="209" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="21"/>
       <c r="B209" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -5756,7 +5875,7 @@
     <row r="210" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="21"/>
       <c r="B210" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -5768,7 +5887,7 @@
     <row r="211" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="21"/>
       <c r="B211" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -5780,7 +5899,7 @@
     <row r="212" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
       <c r="B212" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -5792,7 +5911,7 @@
     <row r="213" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="22"/>
       <c r="B213" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
@@ -5803,15 +5922,15 @@
     </row>
     <row r="214" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B214" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F214" s="8">
         <v>2</v>
@@ -5820,7 +5939,7 @@
     <row r="215" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="21"/>
       <c r="B215" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -5832,7 +5951,7 @@
     <row r="216" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="21"/>
       <c r="B216" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -5844,7 +5963,7 @@
     <row r="217" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="21"/>
       <c r="B217" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -5856,7 +5975,7 @@
     <row r="218" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="21"/>
       <c r="B218" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -5868,7 +5987,7 @@
     <row r="219" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="21"/>
       <c r="B219" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -5880,7 +5999,7 @@
     <row r="220" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="21"/>
       <c r="B220" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -5892,7 +6011,7 @@
     <row r="221" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="21"/>
       <c r="B221" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -5904,7 +6023,7 @@
     <row r="222" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="21"/>
       <c r="B222" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -5916,7 +6035,7 @@
     <row r="223" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="21"/>
       <c r="B223" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -5928,7 +6047,7 @@
     <row r="224" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="21"/>
       <c r="B224" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -5940,7 +6059,7 @@
     <row r="225" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="21"/>
       <c r="B225" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -5952,7 +6071,7 @@
     <row r="226" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="21"/>
       <c r="B226" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -5964,7 +6083,7 @@
     <row r="227" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="22"/>
       <c r="B227" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -5975,15 +6094,15 @@
     </row>
     <row r="228" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B228" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F228" s="8">
         <v>-1</v>
@@ -5992,7 +6111,7 @@
     <row r="229" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="21"/>
       <c r="B229" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -6004,7 +6123,7 @@
     <row r="230" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="21"/>
       <c r="B230" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -6016,7 +6135,7 @@
     <row r="231" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="21"/>
       <c r="B231" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -6028,7 +6147,7 @@
     <row r="232" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="21"/>
       <c r="B232" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -6040,7 +6159,7 @@
     <row r="233" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="21"/>
       <c r="B233" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -6052,7 +6171,7 @@
     <row r="234" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="21"/>
       <c r="B234" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -6064,7 +6183,7 @@
     <row r="235" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="21"/>
       <c r="B235" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -6076,7 +6195,7 @@
     <row r="236" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="21"/>
       <c r="B236" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -6088,7 +6207,7 @@
     <row r="237" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="21"/>
       <c r="B237" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -6100,7 +6219,7 @@
     <row r="238" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="21"/>
       <c r="B238" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -6112,7 +6231,7 @@
     <row r="239" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="21"/>
       <c r="B239" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -6124,7 +6243,7 @@
     <row r="240" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="21"/>
       <c r="B240" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -6136,7 +6255,7 @@
     <row r="241" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="21"/>
       <c r="B241" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -6148,7 +6267,7 @@
     <row r="242" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="21"/>
       <c r="B242" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -6160,7 +6279,7 @@
     <row r="243" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="21"/>
       <c r="B243" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -6172,7 +6291,7 @@
     <row r="244" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="21"/>
       <c r="B244" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -6184,7 +6303,7 @@
     <row r="245" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="21"/>
       <c r="B245" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -6196,7 +6315,7 @@
     <row r="246" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="21"/>
       <c r="B246" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -6208,7 +6327,7 @@
     <row r="247" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="21"/>
       <c r="B247" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -6220,7 +6339,7 @@
     <row r="248" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="21"/>
       <c r="B248" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -6232,7 +6351,7 @@
     <row r="249" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="21"/>
       <c r="B249" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -6244,7 +6363,7 @@
     <row r="250" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="21"/>
       <c r="B250" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -6256,7 +6375,7 @@
     <row r="251" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="21"/>
       <c r="B251" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -6268,7 +6387,7 @@
     <row r="252" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="21"/>
       <c r="B252" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -6280,21 +6399,21 @@
     <row r="253" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="21"/>
       <c r="B253" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D253" s="4"/>
       <c r="E253" s="21"/>
       <c r="F253" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="21"/>
       <c r="B254" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -6306,7 +6425,7 @@
     <row r="255" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="21"/>
       <c r="B255" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -6318,7 +6437,7 @@
     <row r="256" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="21"/>
       <c r="B256" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -6330,7 +6449,7 @@
     <row r="257" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="21"/>
       <c r="B257" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -6342,7 +6461,7 @@
     <row r="258" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="21"/>
       <c r="B258" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -6354,7 +6473,7 @@
     <row r="259" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="21"/>
       <c r="B259" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -6366,7 +6485,7 @@
     <row r="260" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="21"/>
       <c r="B260" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -6378,7 +6497,7 @@
     <row r="261" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="21"/>
       <c r="B261" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -6390,7 +6509,7 @@
     <row r="262" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="21"/>
       <c r="B262" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -6402,7 +6521,7 @@
     <row r="263" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="21"/>
       <c r="B263" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -6414,7 +6533,7 @@
     <row r="264" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="21"/>
       <c r="B264" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -6426,7 +6545,7 @@
     <row r="265" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="21"/>
       <c r="B265" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -6438,7 +6557,7 @@
     <row r="266" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="21"/>
       <c r="B266" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -6450,7 +6569,7 @@
     <row r="267" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="21"/>
       <c r="B267" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -6462,7 +6581,7 @@
     <row r="268" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="21"/>
       <c r="B268" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -6474,7 +6593,7 @@
     <row r="269" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="21"/>
       <c r="B269" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -6486,7 +6605,7 @@
     <row r="270" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="21"/>
       <c r="B270" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -6498,7 +6617,7 @@
     <row r="271" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="21"/>
       <c r="B271" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -6510,7 +6629,7 @@
     <row r="272" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="21"/>
       <c r="B272" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -6522,7 +6641,7 @@
     <row r="273" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="21"/>
       <c r="B273" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -6534,7 +6653,7 @@
     <row r="274" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="21"/>
       <c r="B274" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -6546,7 +6665,7 @@
     <row r="275" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="21"/>
       <c r="B275" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -6558,7 +6677,7 @@
     <row r="276" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="21"/>
       <c r="B276" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -6570,7 +6689,7 @@
     <row r="277" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="21"/>
       <c r="B277" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -6582,7 +6701,7 @@
     <row r="278" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="21"/>
       <c r="B278" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -6594,7 +6713,7 @@
     <row r="279" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="21"/>
       <c r="B279" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -6606,7 +6725,7 @@
     <row r="280" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="21"/>
       <c r="B280" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
@@ -6618,7 +6737,7 @@
     <row r="281" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="21"/>
       <c r="B281" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -6630,7 +6749,7 @@
     <row r="282" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="21"/>
       <c r="B282" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
@@ -6642,7 +6761,7 @@
     <row r="283" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="21"/>
       <c r="B283" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -6654,7 +6773,7 @@
     <row r="284" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="21"/>
       <c r="B284" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
@@ -6666,7 +6785,7 @@
     <row r="285" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="21"/>
       <c r="B285" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
@@ -6678,7 +6797,7 @@
     <row r="286" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="21"/>
       <c r="B286" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -6690,7 +6809,7 @@
     <row r="287" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="21"/>
       <c r="B287" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -6702,7 +6821,7 @@
     <row r="288" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="21"/>
       <c r="B288" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -6714,7 +6833,7 @@
     <row r="289" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="21"/>
       <c r="B289" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
@@ -6726,7 +6845,7 @@
     <row r="290" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="21"/>
       <c r="B290" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -6738,7 +6857,7 @@
     <row r="291" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="21"/>
       <c r="B291" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -6750,7 +6869,7 @@
     <row r="292" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="21"/>
       <c r="B292" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
@@ -6762,7 +6881,7 @@
     <row r="293" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="21"/>
       <c r="B293" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -6774,7 +6893,7 @@
     <row r="294" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="21"/>
       <c r="B294" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
@@ -6786,7 +6905,7 @@
     <row r="295" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="21"/>
       <c r="B295" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -6798,7 +6917,7 @@
     <row r="296" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="21"/>
       <c r="B296" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
@@ -6810,7 +6929,7 @@
     <row r="297" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="21"/>
       <c r="B297" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
@@ -6822,7 +6941,7 @@
     <row r="298" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="21"/>
       <c r="B298" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
@@ -6834,7 +6953,7 @@
     <row r="299" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="21"/>
       <c r="B299" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -6846,7 +6965,7 @@
     <row r="300" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="21"/>
       <c r="B300" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
@@ -6858,7 +6977,7 @@
     <row r="301" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="21"/>
       <c r="B301" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
@@ -6870,7 +6989,7 @@
     <row r="302" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="21"/>
       <c r="B302" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
@@ -6882,7 +7001,7 @@
     <row r="303" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="21"/>
       <c r="B303" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
@@ -6894,7 +7013,7 @@
     <row r="304" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="21"/>
       <c r="B304" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
@@ -6906,7 +7025,7 @@
     <row r="305" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="21"/>
       <c r="B305" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
@@ -6918,7 +7037,7 @@
     <row r="306" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="21"/>
       <c r="B306" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -6930,7 +7049,7 @@
     <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="21"/>
       <c r="B307" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
@@ -6942,7 +7061,7 @@
     <row r="308" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="21"/>
       <c r="B308" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -6954,7 +7073,7 @@
     <row r="309" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="21"/>
       <c r="B309" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
@@ -6966,7 +7085,7 @@
     <row r="310" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="22"/>
       <c r="B310" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
@@ -6977,15 +7096,15 @@
     </row>
     <row r="311" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="B311" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="B311" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F311" s="5">
         <v>1</v>
@@ -6994,7 +7113,7 @@
     <row r="312" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="21"/>
       <c r="B312" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
@@ -7006,7 +7125,7 @@
     <row r="313" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="21"/>
       <c r="B313" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
@@ -7018,7 +7137,7 @@
     <row r="314" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="21"/>
       <c r="B314" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
@@ -7030,7 +7149,7 @@
     <row r="315" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="21"/>
       <c r="B315" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -7042,7 +7161,7 @@
     <row r="316" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="21"/>
       <c r="B316" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
@@ -7054,7 +7173,7 @@
     <row r="317" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="21"/>
       <c r="B317" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
@@ -7066,7 +7185,7 @@
     <row r="318" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="21"/>
       <c r="B318" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
@@ -7078,7 +7197,7 @@
     <row r="319" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="21"/>
       <c r="B319" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
@@ -7090,7 +7209,7 @@
     <row r="320" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="21"/>
       <c r="B320" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
@@ -7102,7 +7221,7 @@
     <row r="321" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="21"/>
       <c r="B321" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -7114,7 +7233,7 @@
     <row r="322" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="21"/>
       <c r="B322" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -7126,7 +7245,7 @@
     <row r="323" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="21"/>
       <c r="B323" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
@@ -7138,7 +7257,7 @@
     <row r="324" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="21"/>
       <c r="B324" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
@@ -7150,7 +7269,7 @@
     <row r="325" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="21"/>
       <c r="B325" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
@@ -7162,7 +7281,7 @@
     <row r="326" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="21"/>
       <c r="B326" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
@@ -7174,7 +7293,7 @@
     <row r="327" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="21"/>
       <c r="B327" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
@@ -7186,7 +7305,7 @@
     <row r="328" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="21"/>
       <c r="B328" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
@@ -7198,7 +7317,7 @@
     <row r="329" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="21"/>
       <c r="B329" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
@@ -7210,7 +7329,7 @@
     <row r="330" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="21"/>
       <c r="B330" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
@@ -7222,7 +7341,7 @@
     <row r="331" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="21"/>
       <c r="B331" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
@@ -7234,7 +7353,7 @@
     <row r="332" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="21"/>
       <c r="B332" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
@@ -7246,7 +7365,7 @@
     <row r="333" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="22"/>
       <c r="B333" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
@@ -7257,15 +7376,15 @@
     </row>
     <row r="334" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B334" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F334" s="8">
         <v>2</v>
@@ -7274,7 +7393,7 @@
     <row r="335" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="21"/>
       <c r="B335" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
@@ -7286,21 +7405,21 @@
     <row r="336" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="21"/>
       <c r="B336" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D336" s="4"/>
       <c r="E336" s="21"/>
       <c r="F336" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="337" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="21"/>
       <c r="B337" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -7312,7 +7431,7 @@
     <row r="338" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="22"/>
       <c r="B338" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
@@ -7323,15 +7442,15 @@
     </row>
     <row r="339" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C339" s="8"/>
       <c r="D339" s="8"/>
       <c r="E339" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F339" s="8">
         <v>-1</v>
@@ -7339,15 +7458,15 @@
     </row>
     <row r="340" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B340" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="B340" s="8" t="s">
-        <v>362</v>
       </c>
       <c r="C340" s="8"/>
       <c r="D340" s="8"/>
       <c r="E340" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F340" s="8">
         <v>2</v>
@@ -7355,15 +7474,15 @@
     </row>
     <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B341" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F341" s="8">
         <v>1</v>
@@ -7372,7 +7491,7 @@
     <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="21"/>
       <c r="B342" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -7384,7 +7503,7 @@
     <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="21"/>
       <c r="B343" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -7396,7 +7515,7 @@
     <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="21"/>
       <c r="B344" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -7408,7 +7527,7 @@
     <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="21"/>
       <c r="B345" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -7420,7 +7539,7 @@
     <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="21"/>
       <c r="B346" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -7432,7 +7551,7 @@
     <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="21"/>
       <c r="B347" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
@@ -7444,7 +7563,7 @@
     <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="21"/>
       <c r="B348" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -7456,7 +7575,7 @@
     <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="21"/>
       <c r="B349" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
@@ -7468,7 +7587,7 @@
     <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="21"/>
       <c r="B350" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
@@ -7480,7 +7599,7 @@
     <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="21"/>
       <c r="B351" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -7492,7 +7611,7 @@
     <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="21"/>
       <c r="B352" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
@@ -7504,7 +7623,7 @@
     <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="21"/>
       <c r="B353" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
@@ -7516,7 +7635,7 @@
     <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="21"/>
       <c r="B354" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -7528,7 +7647,7 @@
     <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="21"/>
       <c r="B355" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -7540,7 +7659,7 @@
     <row r="356" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="22"/>
       <c r="B356" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
@@ -7551,15 +7670,15 @@
     </row>
     <row r="357" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B357" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F357" s="8">
         <v>1</v>
@@ -7568,7 +7687,7 @@
     <row r="358" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="21"/>
       <c r="B358" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -7580,7 +7699,7 @@
     <row r="359" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="21"/>
       <c r="B359" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -7592,7 +7711,7 @@
     <row r="360" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="21"/>
       <c r="B360" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
@@ -7604,7 +7723,7 @@
     <row r="361" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="21"/>
       <c r="B361" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
@@ -7616,7 +7735,7 @@
     <row r="362" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="21"/>
       <c r="B362" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
@@ -7628,7 +7747,7 @@
     <row r="363" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="21"/>
       <c r="B363" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -7640,7 +7759,7 @@
     <row r="364" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="21"/>
       <c r="B364" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -7652,7 +7771,7 @@
     <row r="365" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="21"/>
       <c r="B365" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -7664,7 +7783,7 @@
     <row r="366" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="21"/>
       <c r="B366" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
@@ -7676,7 +7795,7 @@
     <row r="367" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="21"/>
       <c r="B367" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
@@ -7688,7 +7807,7 @@
     <row r="368" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="21"/>
       <c r="B368" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
@@ -7700,7 +7819,7 @@
     <row r="369" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="21"/>
       <c r="B369" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
@@ -7712,7 +7831,7 @@
     <row r="370" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="21"/>
       <c r="B370" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
@@ -7724,7 +7843,7 @@
     <row r="371" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="21"/>
       <c r="B371" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
@@ -7736,7 +7855,7 @@
     <row r="372" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="21"/>
       <c r="B372" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
@@ -7748,7 +7867,7 @@
     <row r="373" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="21"/>
       <c r="B373" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
@@ -7760,7 +7879,7 @@
     <row r="374" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="21"/>
       <c r="B374" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
@@ -7772,7 +7891,7 @@
     <row r="375" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="21"/>
       <c r="B375" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
@@ -7784,7 +7903,7 @@
     <row r="376" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="21"/>
       <c r="B376" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
@@ -7796,7 +7915,7 @@
     <row r="377" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="21"/>
       <c r="B377" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
@@ -7808,7 +7927,7 @@
     <row r="378" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="21"/>
       <c r="B378" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
@@ -7820,7 +7939,7 @@
     <row r="379" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="21"/>
       <c r="B379" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
@@ -7832,7 +7951,7 @@
     <row r="380" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="21"/>
       <c r="B380" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
@@ -7844,7 +7963,7 @@
     <row r="381" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="21"/>
       <c r="B381" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
@@ -7856,7 +7975,7 @@
     <row r="382" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="21"/>
       <c r="B382" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
@@ -7868,7 +7987,7 @@
     <row r="383" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="21"/>
       <c r="B383" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
@@ -7880,7 +7999,7 @@
     <row r="384" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="21"/>
       <c r="B384" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
@@ -7892,7 +8011,7 @@
     <row r="385" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="21"/>
       <c r="B385" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
@@ -7904,7 +8023,7 @@
     <row r="386" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="21"/>
       <c r="B386" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
@@ -7916,7 +8035,7 @@
     <row r="387" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="21"/>
       <c r="B387" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
@@ -7928,7 +8047,7 @@
     <row r="388" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="22"/>
       <c r="B388" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
@@ -7939,15 +8058,15 @@
     </row>
     <row r="389" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B389" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="B389" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F389" s="8">
         <v>2</v>
@@ -7956,7 +8075,7 @@
     <row r="390" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="21"/>
       <c r="B390" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
@@ -7968,21 +8087,21 @@
     <row r="391" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="21"/>
       <c r="B391" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D391" s="4"/>
       <c r="E391" s="21"/>
       <c r="F391" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="392" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="21"/>
       <c r="B392" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
@@ -7994,7 +8113,7 @@
     <row r="393" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="21"/>
       <c r="B393" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
@@ -8006,7 +8125,7 @@
     <row r="394" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="22"/>
       <c r="B394" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
@@ -8017,15 +8136,15 @@
     </row>
     <row r="395" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="B395" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="B395" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F395" s="8">
         <v>1</v>
@@ -8034,7 +8153,7 @@
     <row r="396" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="21"/>
       <c r="B396" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
@@ -8046,7 +8165,7 @@
     <row r="397" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="21"/>
       <c r="B397" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
@@ -8058,7 +8177,7 @@
     <row r="398" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="21"/>
       <c r="B398" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
@@ -8070,7 +8189,7 @@
     <row r="399" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="22"/>
       <c r="B399" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
@@ -8081,15 +8200,15 @@
     </row>
     <row r="400" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B400" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="B400" s="5" t="s">
-        <v>427</v>
       </c>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F400" s="8">
         <v>2</v>
@@ -8098,7 +8217,7 @@
     <row r="401" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="21"/>
       <c r="B401" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
@@ -8110,7 +8229,7 @@
     <row r="402" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="21"/>
       <c r="B402" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
@@ -8122,7 +8241,7 @@
     <row r="403" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="22"/>
       <c r="B403" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
@@ -8133,15 +8252,15 @@
     </row>
     <row r="404" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="B404" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="B404" s="5" t="s">
-        <v>432</v>
       </c>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F404" s="8">
         <v>1</v>
@@ -8150,7 +8269,7 @@
     <row r="405" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="21"/>
       <c r="B405" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
@@ -8162,7 +8281,7 @@
     <row r="406" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="21"/>
       <c r="B406" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
@@ -8174,7 +8293,7 @@
     <row r="407" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="21"/>
       <c r="B407" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
@@ -8186,7 +8305,7 @@
     <row r="408" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="21"/>
       <c r="B408" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
@@ -8198,7 +8317,7 @@
     <row r="409" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="21"/>
       <c r="B409" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
@@ -8210,7 +8329,7 @@
     <row r="410" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="21"/>
       <c r="B410" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
@@ -8222,7 +8341,7 @@
     <row r="411" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="21"/>
       <c r="B411" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
@@ -8234,7 +8353,7 @@
     <row r="412" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="21"/>
       <c r="B412" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
@@ -8246,7 +8365,7 @@
     <row r="413" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="21"/>
       <c r="B413" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
@@ -8258,7 +8377,7 @@
     <row r="414" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="21"/>
       <c r="B414" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
@@ -8270,7 +8389,7 @@
     <row r="415" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="21"/>
       <c r="B415" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
@@ -8282,7 +8401,7 @@
     <row r="416" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="21"/>
       <c r="B416" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
@@ -8294,7 +8413,7 @@
     <row r="417" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="21"/>
       <c r="B417" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
@@ -8306,7 +8425,7 @@
     <row r="418" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="21"/>
       <c r="B418" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
@@ -8318,7 +8437,7 @@
     <row r="419" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="21"/>
       <c r="B419" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
@@ -8330,7 +8449,7 @@
     <row r="420" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="22"/>
       <c r="B420" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C420" s="6"/>
       <c r="D420" s="6"/>
@@ -8341,15 +8460,15 @@
     </row>
     <row r="421" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="B421" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="B421" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F421" s="8">
         <v>-1</v>
@@ -8358,7 +8477,7 @@
     <row r="422" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="21"/>
       <c r="B422" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -8370,7 +8489,7 @@
     <row r="423" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="21"/>
       <c r="B423" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
@@ -8382,7 +8501,7 @@
     <row r="424" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="21"/>
       <c r="B424" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
@@ -8394,7 +8513,7 @@
     <row r="425" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="21"/>
       <c r="B425" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
@@ -8406,7 +8525,7 @@
     <row r="426" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="21"/>
       <c r="B426" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
@@ -8418,7 +8537,7 @@
     <row r="427" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="21"/>
       <c r="B427" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
@@ -8430,7 +8549,7 @@
     <row r="428" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="21"/>
       <c r="B428" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
@@ -8442,7 +8561,7 @@
     <row r="429" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="21"/>
       <c r="B429" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
@@ -8454,7 +8573,7 @@
     <row r="430" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="21"/>
       <c r="B430" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
@@ -8466,7 +8585,7 @@
     <row r="431" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="21"/>
       <c r="B431" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
@@ -8478,7 +8597,7 @@
     <row r="432" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="21"/>
       <c r="B432" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
@@ -8490,7 +8609,7 @@
     <row r="433" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="21"/>
       <c r="B433" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
@@ -8502,7 +8621,7 @@
     <row r="434" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="21"/>
       <c r="B434" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
@@ -8514,7 +8633,7 @@
     <row r="435" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="21"/>
       <c r="B435" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
@@ -8526,7 +8645,7 @@
     <row r="436" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="21"/>
       <c r="B436" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
@@ -8538,7 +8657,7 @@
     <row r="437" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="21"/>
       <c r="B437" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
@@ -8550,7 +8669,7 @@
     <row r="438" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="21"/>
       <c r="B438" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
@@ -8562,7 +8681,7 @@
     <row r="439" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="21"/>
       <c r="B439" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
@@ -8574,7 +8693,7 @@
     <row r="440" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="21"/>
       <c r="B440" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
@@ -8586,7 +8705,7 @@
     <row r="441" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="21"/>
       <c r="B441" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
@@ -8598,7 +8717,7 @@
     <row r="442" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="21"/>
       <c r="B442" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -8610,7 +8729,7 @@
     <row r="443" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="21"/>
       <c r="B443" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
@@ -8622,7 +8741,7 @@
     <row r="444" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="21"/>
       <c r="B444" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -8634,7 +8753,7 @@
     <row r="445" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="21"/>
       <c r="B445" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
@@ -8646,7 +8765,7 @@
     <row r="446" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="21"/>
       <c r="B446" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
@@ -8658,7 +8777,7 @@
     <row r="447" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="21"/>
       <c r="B447" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
@@ -8670,7 +8789,7 @@
     <row r="448" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="21"/>
       <c r="B448" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
@@ -8682,7 +8801,7 @@
     <row r="449" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="21"/>
       <c r="B449" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
@@ -8694,7 +8813,7 @@
     <row r="450" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="21"/>
       <c r="B450" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
@@ -8706,7 +8825,7 @@
     <row r="451" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="21"/>
       <c r="B451" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
@@ -8718,7 +8837,7 @@
     <row r="452" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="21"/>
       <c r="B452" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
@@ -8730,7 +8849,7 @@
     <row r="453" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="21"/>
       <c r="B453" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
@@ -8742,7 +8861,7 @@
     <row r="454" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="21"/>
       <c r="B454" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
@@ -8754,7 +8873,7 @@
     <row r="455" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="21"/>
       <c r="B455" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
@@ -8766,7 +8885,7 @@
     <row r="456" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="21"/>
       <c r="B456" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
@@ -8778,7 +8897,7 @@
     <row r="457" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="21"/>
       <c r="B457" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
@@ -8790,7 +8909,7 @@
     <row r="458" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="21"/>
       <c r="B458" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
@@ -8802,7 +8921,7 @@
     <row r="459" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="21"/>
       <c r="B459" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
@@ -8814,7 +8933,7 @@
     <row r="460" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="21"/>
       <c r="B460" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
@@ -8826,7 +8945,7 @@
     <row r="461" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="21"/>
       <c r="B461" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
@@ -8838,7 +8957,7 @@
     <row r="462" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="21"/>
       <c r="B462" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
@@ -8850,7 +8969,7 @@
     <row r="463" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="21"/>
       <c r="B463" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
@@ -8862,7 +8981,7 @@
     <row r="464" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="21"/>
       <c r="B464" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
@@ -8874,7 +8993,7 @@
     <row r="465" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="21"/>
       <c r="B465" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
@@ -8886,7 +9005,7 @@
     <row r="466" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="21"/>
       <c r="B466" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
@@ -8898,7 +9017,7 @@
     <row r="467" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="21"/>
       <c r="B467" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
@@ -8910,7 +9029,7 @@
     <row r="468" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="21"/>
       <c r="B468" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
@@ -8922,7 +9041,7 @@
     <row r="469" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="21"/>
       <c r="B469" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
@@ -8934,7 +9053,7 @@
     <row r="470" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="21"/>
       <c r="B470" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
@@ -8946,7 +9065,7 @@
     <row r="471" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="22"/>
       <c r="B471" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C471" s="6"/>
       <c r="D471" s="6"/>
@@ -8957,15 +9076,15 @@
     </row>
     <row r="472" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="B472" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="B472" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F472" s="8">
         <v>2</v>
@@ -8974,7 +9093,7 @@
     <row r="473" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="21"/>
       <c r="B473" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
@@ -8986,7 +9105,7 @@
     <row r="474" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="21"/>
       <c r="B474" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -8998,7 +9117,7 @@
     <row r="475" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="21"/>
       <c r="B475" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
@@ -9010,7 +9129,7 @@
     <row r="476" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="21"/>
       <c r="B476" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
@@ -9022,7 +9141,7 @@
     <row r="477" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="21"/>
       <c r="B477" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
@@ -9034,7 +9153,7 @@
     <row r="478" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="21"/>
       <c r="B478" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
@@ -9046,7 +9165,7 @@
     <row r="479" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="21"/>
       <c r="B479" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
@@ -9058,7 +9177,7 @@
     <row r="480" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="21"/>
       <c r="B480" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
@@ -9070,7 +9189,7 @@
     <row r="481" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="21"/>
       <c r="B481" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
@@ -9082,7 +9201,7 @@
     <row r="482" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="21"/>
       <c r="B482" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
@@ -9094,7 +9213,7 @@
     <row r="483" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="21"/>
       <c r="B483" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
@@ -9106,7 +9225,7 @@
     <row r="484" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="21"/>
       <c r="B484" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
@@ -9118,7 +9237,7 @@
     <row r="485" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="21"/>
       <c r="B485" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
@@ -9130,7 +9249,7 @@
     <row r="486" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="22"/>
       <c r="B486" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C486" s="6"/>
       <c r="D486" s="6"/>
@@ -9141,15 +9260,15 @@
     </row>
     <row r="487" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="B487" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="B487" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
       <c r="E487" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F487" s="8">
         <v>-1</v>
@@ -9158,7 +9277,7 @@
     <row r="488" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="21"/>
       <c r="B488" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
@@ -9170,7 +9289,7 @@
     <row r="489" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="21"/>
       <c r="B489" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
@@ -9182,7 +9301,7 @@
     <row r="490" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="21"/>
       <c r="B490" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
@@ -9194,7 +9313,7 @@
     <row r="491" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="21"/>
       <c r="B491" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
@@ -9206,7 +9325,7 @@
     <row r="492" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="21"/>
       <c r="B492" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
@@ -9218,7 +9337,7 @@
     <row r="493" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="21"/>
       <c r="B493" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
@@ -9230,7 +9349,7 @@
     <row r="494" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="21"/>
       <c r="B494" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
@@ -9242,7 +9361,7 @@
     <row r="495" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="21"/>
       <c r="B495" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
@@ -9254,7 +9373,7 @@
     <row r="496" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="21"/>
       <c r="B496" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
@@ -9266,7 +9385,7 @@
     <row r="497" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="21"/>
       <c r="B497" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
@@ -9278,7 +9397,7 @@
     <row r="498" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="22"/>
       <c r="B498" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C498" s="6"/>
       <c r="D498" s="6"/>
@@ -9289,15 +9408,15 @@
     </row>
     <row r="499" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="B499" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="B499" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
       <c r="E499" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F499" s="8">
         <v>2</v>
@@ -9306,7 +9425,7 @@
     <row r="500" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A500" s="21"/>
       <c r="B500" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
@@ -9318,7 +9437,7 @@
     <row r="501" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="21"/>
       <c r="B501" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
@@ -9330,7 +9449,7 @@
     <row r="502" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="21"/>
       <c r="B502" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
@@ -9342,7 +9461,7 @@
     <row r="503" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="21"/>
       <c r="B503" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
@@ -9354,7 +9473,7 @@
     <row r="504" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="22"/>
       <c r="B504" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C504" s="6"/>
       <c r="D504" s="6"/>
@@ -9365,15 +9484,15 @@
     </row>
     <row r="505" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="B505" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="B505" s="5" t="s">
-        <v>531</v>
       </c>
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
       <c r="E505" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F505" s="8">
         <v>2</v>
@@ -9382,7 +9501,7 @@
     <row r="506" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="21"/>
       <c r="B506" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
@@ -9394,7 +9513,7 @@
     <row r="507" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="21"/>
       <c r="B507" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
@@ -9406,7 +9525,7 @@
     <row r="508" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="21"/>
       <c r="B508" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
@@ -9418,7 +9537,7 @@
     <row r="509" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="21"/>
       <c r="B509" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
@@ -9430,7 +9549,7 @@
     <row r="510" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="21"/>
       <c r="B510" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
@@ -9442,7 +9561,7 @@
     <row r="511" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="21"/>
       <c r="B511" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
@@ -9454,7 +9573,7 @@
     <row r="512" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A512" s="21"/>
       <c r="B512" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
@@ -9466,7 +9585,7 @@
     <row r="513" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A513" s="21"/>
       <c r="B513" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
@@ -9478,7 +9597,7 @@
     <row r="514" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A514" s="21"/>
       <c r="B514" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
@@ -9490,7 +9609,7 @@
     <row r="515" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A515" s="21"/>
       <c r="B515" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
@@ -9502,7 +9621,7 @@
     <row r="516" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A516" s="21"/>
       <c r="B516" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
@@ -9514,7 +9633,7 @@
     <row r="517" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="21"/>
       <c r="B517" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
@@ -9526,7 +9645,7 @@
     <row r="518" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A518" s="21"/>
       <c r="B518" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
@@ -9538,7 +9657,7 @@
     <row r="519" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="21"/>
       <c r="B519" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
@@ -9550,7 +9669,7 @@
     <row r="520" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A520" s="21"/>
       <c r="B520" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
@@ -9562,7 +9681,7 @@
     <row r="521" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A521" s="21"/>
       <c r="B521" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
@@ -9574,7 +9693,7 @@
     <row r="522" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="21"/>
       <c r="B522" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
@@ -9586,7 +9705,7 @@
     <row r="523" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A523" s="21"/>
       <c r="B523" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
@@ -9598,7 +9717,7 @@
     <row r="524" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A524" s="21"/>
       <c r="B524" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
@@ -9610,7 +9729,7 @@
     <row r="525" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" s="21"/>
       <c r="B525" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
@@ -9622,7 +9741,7 @@
     <row r="526" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A526" s="21"/>
       <c r="B526" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
@@ -9634,7 +9753,7 @@
     <row r="527" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="21"/>
       <c r="B527" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
@@ -9646,7 +9765,7 @@
     <row r="528" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="21"/>
       <c r="B528" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
@@ -9658,7 +9777,7 @@
     <row r="529" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="21"/>
       <c r="B529" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
@@ -9670,7 +9789,7 @@
     <row r="530" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="21"/>
       <c r="B530" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
@@ -9682,7 +9801,7 @@
     <row r="531" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A531" s="21"/>
       <c r="B531" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
@@ -9694,7 +9813,7 @@
     <row r="532" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="21"/>
       <c r="B532" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
@@ -9706,7 +9825,7 @@
     <row r="533" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="21"/>
       <c r="B533" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
@@ -9718,7 +9837,7 @@
     <row r="534" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A534" s="21"/>
       <c r="B534" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
@@ -9730,7 +9849,7 @@
     <row r="535" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="21"/>
       <c r="B535" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
@@ -9742,7 +9861,7 @@
     <row r="536" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="21"/>
       <c r="B536" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
@@ -9754,7 +9873,7 @@
     <row r="537" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="21"/>
       <c r="B537" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
@@ -9766,7 +9885,7 @@
     <row r="538" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" s="21"/>
       <c r="B538" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
@@ -9778,7 +9897,7 @@
     <row r="539" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="21"/>
       <c r="B539" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
@@ -9790,7 +9909,7 @@
     <row r="540" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="21"/>
       <c r="B540" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
@@ -9802,7 +9921,7 @@
     <row r="541" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="21"/>
       <c r="B541" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
@@ -9814,7 +9933,7 @@
     <row r="542" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="21"/>
       <c r="B542" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
@@ -9826,7 +9945,7 @@
     <row r="543" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="21"/>
       <c r="B543" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
@@ -9838,7 +9957,7 @@
     <row r="544" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="21"/>
       <c r="B544" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
@@ -9850,7 +9969,7 @@
     <row r="545" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="21"/>
       <c r="B545" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
@@ -9862,7 +9981,7 @@
     <row r="546" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="21"/>
       <c r="B546" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
@@ -9874,7 +9993,7 @@
     <row r="547" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="21"/>
       <c r="B547" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
@@ -9886,7 +10005,7 @@
     <row r="548" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="21"/>
       <c r="B548" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
@@ -9898,7 +10017,7 @@
     <row r="549" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="21"/>
       <c r="B549" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
@@ -9910,7 +10029,7 @@
     <row r="550" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="21"/>
       <c r="B550" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
@@ -9922,7 +10041,7 @@
     <row r="551" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="21"/>
       <c r="B551" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
@@ -9934,7 +10053,7 @@
     <row r="552" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="21"/>
       <c r="B552" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
@@ -9946,7 +10065,7 @@
     <row r="553" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="21"/>
       <c r="B553" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
@@ -9958,7 +10077,7 @@
     <row r="554" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="21"/>
       <c r="B554" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
@@ -9970,7 +10089,7 @@
     <row r="555" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="21"/>
       <c r="B555" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
@@ -9982,7 +10101,7 @@
     <row r="556" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="21"/>
       <c r="B556" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
@@ -9994,7 +10113,7 @@
     <row r="557" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="21"/>
       <c r="B557" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
@@ -10006,7 +10125,7 @@
     <row r="558" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="21"/>
       <c r="B558" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
@@ -10018,7 +10137,7 @@
     <row r="559" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="21"/>
       <c r="B559" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
@@ -10030,7 +10149,7 @@
     <row r="560" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="21"/>
       <c r="B560" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
@@ -10042,7 +10161,7 @@
     <row r="561" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="21"/>
       <c r="B561" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
@@ -10054,7 +10173,7 @@
     <row r="562" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="21"/>
       <c r="B562" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
@@ -10066,7 +10185,7 @@
     <row r="563" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="21"/>
       <c r="B563" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -10078,7 +10197,7 @@
     <row r="564" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A564" s="21"/>
       <c r="B564" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
@@ -10090,7 +10209,7 @@
     <row r="565" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="21"/>
       <c r="B565" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
@@ -10102,7 +10221,7 @@
     <row r="566" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="21"/>
       <c r="B566" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
@@ -10114,7 +10233,7 @@
     <row r="567" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="21"/>
       <c r="B567" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
@@ -10126,7 +10245,7 @@
     <row r="568" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A568" s="21"/>
       <c r="B568" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
@@ -10138,7 +10257,7 @@
     <row r="569" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="21"/>
       <c r="B569" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
@@ -10150,7 +10269,7 @@
     <row r="570" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="21"/>
       <c r="B570" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
@@ -10162,7 +10281,7 @@
     <row r="571" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" s="21"/>
       <c r="B571" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
@@ -10174,7 +10293,7 @@
     <row r="572" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="21"/>
       <c r="B572" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
@@ -10186,7 +10305,7 @@
     <row r="573" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="21"/>
       <c r="B573" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
@@ -10198,7 +10317,7 @@
     <row r="574" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A574" s="21"/>
       <c r="B574" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
@@ -10210,7 +10329,7 @@
     <row r="575" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A575" s="21"/>
       <c r="B575" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
@@ -10222,7 +10341,7 @@
     <row r="576" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A576" s="21"/>
       <c r="B576" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
@@ -10234,7 +10353,7 @@
     <row r="577" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A577" s="22"/>
       <c r="B577" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C577" s="6"/>
       <c r="D577" s="6"/>
@@ -10245,15 +10364,15 @@
     </row>
     <row r="578" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A578" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="B578" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="B578" s="5" t="s">
-        <v>605</v>
       </c>
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
       <c r="E578" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F578" s="8">
         <v>2</v>
@@ -10262,7 +10381,7 @@
     <row r="579" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" s="21"/>
       <c r="B579" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
@@ -10274,7 +10393,7 @@
     <row r="580" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A580" s="21"/>
       <c r="B580" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
@@ -10286,7 +10405,7 @@
     <row r="581" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A581" s="22"/>
       <c r="B581" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C581" s="6"/>
       <c r="D581" s="6"/>
@@ -10297,15 +10416,15 @@
     </row>
     <row r="582" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A582" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="B582" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="B582" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
       <c r="E582" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F582" s="8">
         <v>2</v>
@@ -10314,7 +10433,7 @@
     <row r="583" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A583" s="22"/>
       <c r="B583" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C583" s="6"/>
       <c r="D583" s="6"/>
@@ -10325,15 +10444,15 @@
     </row>
     <row r="584" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="B584" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="B584" s="5" t="s">
-        <v>613</v>
       </c>
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
       <c r="E584" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F584" s="8">
         <v>2</v>
@@ -10342,7 +10461,7 @@
     <row r="585" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="21"/>
       <c r="B585" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
@@ -10354,7 +10473,7 @@
     <row r="586" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A586" s="21"/>
       <c r="B586" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
@@ -10366,7 +10485,7 @@
     <row r="587" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" s="21"/>
       <c r="B587" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
@@ -10378,7 +10497,7 @@
     <row r="588" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A588" s="21"/>
       <c r="B588" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
@@ -10390,7 +10509,7 @@
     <row r="589" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A589" s="21"/>
       <c r="B589" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
@@ -10402,7 +10521,7 @@
     <row r="590" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A590" s="21"/>
       <c r="B590" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
@@ -10414,7 +10533,7 @@
     <row r="591" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="21"/>
       <c r="B591" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
@@ -10426,7 +10545,7 @@
     <row r="592" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="21"/>
       <c r="B592" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
@@ -10438,7 +10557,7 @@
     <row r="593" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A593" s="22"/>
       <c r="B593" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C593" s="6"/>
       <c r="D593" s="6"/>
@@ -10449,15 +10568,15 @@
     </row>
     <row r="594" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A594" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
       <c r="E594" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F594" s="8">
         <v>-1</v>
@@ -10466,7 +10585,7 @@
     <row r="595" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="21"/>
       <c r="B595" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
@@ -10478,7 +10597,7 @@
     <row r="596" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A596" s="21"/>
       <c r="B596" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
@@ -10490,7 +10609,7 @@
     <row r="597" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="21"/>
       <c r="B597" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
@@ -10502,7 +10621,7 @@
     <row r="598" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A598" s="21"/>
       <c r="B598" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
@@ -10514,7 +10633,7 @@
     <row r="599" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A599" s="21"/>
       <c r="B599" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
@@ -10526,7 +10645,7 @@
     <row r="600" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A600" s="22"/>
       <c r="B600" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C600" s="6"/>
       <c r="D600" s="6"/>
@@ -10537,15 +10656,15 @@
     </row>
     <row r="601" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="B601" s="8" t="s">
         <v>628</v>
-      </c>
-      <c r="B601" s="8" t="s">
-        <v>629</v>
       </c>
       <c r="C601" s="8"/>
       <c r="D601" s="8"/>
       <c r="E601" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F601" s="8">
         <v>-1</v>
@@ -10553,15 +10672,15 @@
     </row>
     <row r="602" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C602" s="8"/>
       <c r="D602" s="8"/>
       <c r="E602" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F602" s="8">
         <v>-1</v>
@@ -10569,15 +10688,15 @@
     </row>
     <row r="603" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="B603" s="8" t="s">
         <v>631</v>
-      </c>
-      <c r="B603" s="8" t="s">
-        <v>632</v>
       </c>
       <c r="C603" s="8"/>
       <c r="D603" s="8"/>
       <c r="E603" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F603" s="8">
         <v>2</v>
@@ -10585,15 +10704,15 @@
     </row>
     <row r="604" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A604" s="20" t="s">
+        <v>632</v>
+      </c>
+      <c r="B604" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="B604" s="5" t="s">
-        <v>634</v>
       </c>
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
       <c r="E604" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F604" s="8">
         <v>-1</v>
@@ -10602,7 +10721,7 @@
     <row r="605" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" s="21"/>
       <c r="B605" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
@@ -10614,7 +10733,7 @@
     <row r="606" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="22"/>
       <c r="B606" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C606" s="6"/>
       <c r="D606" s="6"/>
@@ -10625,13 +10744,13 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E607" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F607" s="4">
         <v>-1</v>
@@ -10639,15 +10758,15 @@
     </row>
     <row r="608" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A608" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C608" s="8"/>
       <c r="D608" s="8"/>
       <c r="E608" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F608" s="8">
         <v>-1</v>
@@ -10655,15 +10774,15 @@
     </row>
     <row r="609" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A609" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="B609" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="B609" s="5" t="s">
-        <v>642</v>
       </c>
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
       <c r="E609" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F609" s="8">
         <v>2</v>
@@ -10672,7 +10791,7 @@
     <row r="610" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A610" s="21"/>
       <c r="B610" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
@@ -10684,7 +10803,7 @@
     <row r="611" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A611" s="21"/>
       <c r="B611" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
@@ -10696,7 +10815,7 @@
     <row r="612" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A612" s="21"/>
       <c r="B612" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
@@ -10708,7 +10827,7 @@
     <row r="613" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A613" s="22"/>
       <c r="B613" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C613" s="6"/>
       <c r="D613" s="6"/>
@@ -10719,17 +10838,17 @@
     </row>
     <row r="614" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A614" s="20" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C614" s="23" t="s">
-        <v>657</v>
+        <v>216</v>
+      </c>
+      <c r="C614" s="32" t="s">
+        <v>656</v>
       </c>
       <c r="D614" s="5"/>
       <c r="E614" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F614" s="8">
         <v>-1</v>
@@ -10738,9 +10857,9 @@
     <row r="615" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A615" s="21"/>
       <c r="B615" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="C615" s="24"/>
+        <v>647</v>
+      </c>
+      <c r="C615" s="27"/>
       <c r="D615" s="4"/>
       <c r="E615" s="21"/>
       <c r="F615" s="8">
@@ -10750,9 +10869,9 @@
     <row r="616" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A616" s="21"/>
       <c r="B616" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C616" s="24"/>
+        <v>648</v>
+      </c>
+      <c r="C616" s="27"/>
       <c r="D616" s="4"/>
       <c r="E616" s="21"/>
       <c r="F616" s="8">
@@ -10762,9 +10881,9 @@
     <row r="617" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A617" s="21"/>
       <c r="B617" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="C617" s="24"/>
+        <v>649</v>
+      </c>
+      <c r="C617" s="27"/>
       <c r="D617" s="4"/>
       <c r="E617" s="21"/>
       <c r="F617" s="8">
@@ -10774,9 +10893,9 @@
     <row r="618" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A618" s="21"/>
       <c r="B618" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="C618" s="24"/>
+        <v>650</v>
+      </c>
+      <c r="C618" s="27"/>
       <c r="D618" s="4"/>
       <c r="E618" s="21"/>
       <c r="F618" s="8">
@@ -10786,9 +10905,9 @@
     <row r="619" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A619" s="21"/>
       <c r="B619" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="C619" s="24"/>
+        <v>651</v>
+      </c>
+      <c r="C619" s="27"/>
       <c r="D619" s="4"/>
       <c r="E619" s="21"/>
       <c r="F619" s="8">
@@ -10798,9 +10917,9 @@
     <row r="620" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A620" s="21"/>
       <c r="B620" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="C620" s="24"/>
+        <v>652</v>
+      </c>
+      <c r="C620" s="27"/>
       <c r="D620" s="4"/>
       <c r="E620" s="21"/>
       <c r="F620" s="8">
@@ -10810,9 +10929,9 @@
     <row r="621" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A621" s="21"/>
       <c r="B621" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="C621" s="24"/>
+        <v>653</v>
+      </c>
+      <c r="C621" s="27"/>
       <c r="D621" s="4"/>
       <c r="E621" s="21"/>
       <c r="F621" s="8">
@@ -10822,9 +10941,9 @@
     <row r="622" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A622" s="21"/>
       <c r="B622" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="C622" s="24"/>
+        <v>654</v>
+      </c>
+      <c r="C622" s="27"/>
       <c r="D622" s="4"/>
       <c r="E622" s="21"/>
       <c r="F622" s="8">
@@ -10834,9 +10953,9 @@
     <row r="623" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A623" s="22"/>
       <c r="B623" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="C623" s="25"/>
+        <v>655</v>
+      </c>
+      <c r="C623" s="28"/>
       <c r="D623" s="6"/>
       <c r="E623" s="22"/>
       <c r="F623" s="8">
@@ -10845,15 +10964,15 @@
     </row>
     <row r="624" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A624" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="B624" s="5" t="s">
         <v>658</v>
-      </c>
-      <c r="B624" s="5" t="s">
-        <v>659</v>
       </c>
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
       <c r="E624" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F624" s="8">
         <v>1</v>
@@ -10862,7 +10981,7 @@
     <row r="625" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A625" s="21"/>
       <c r="B625" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
@@ -10874,7 +10993,7 @@
     <row r="626" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A626" s="21"/>
       <c r="B626" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
@@ -10886,7 +11005,7 @@
     <row r="627" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A627" s="21"/>
       <c r="B627" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
@@ -10898,7 +11017,7 @@
     <row r="628" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A628" s="22"/>
       <c r="B628" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C628" s="6"/>
       <c r="D628" s="6"/>
@@ -10909,15 +11028,15 @@
     </row>
     <row r="629" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A629" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="B629" s="5" t="s">
         <v>663</v>
-      </c>
-      <c r="B629" s="5" t="s">
-        <v>664</v>
       </c>
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
       <c r="E629" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F629" s="8">
         <v>-1</v>
@@ -10926,7 +11045,7 @@
     <row r="630" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A630" s="22"/>
       <c r="B630" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C630" s="6"/>
       <c r="D630" s="6"/>
@@ -10937,15 +11056,15 @@
     </row>
     <row r="631" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A631" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="B631" s="8" t="s">
         <v>666</v>
-      </c>
-      <c r="B631" s="8" t="s">
-        <v>667</v>
       </c>
       <c r="C631" s="8"/>
       <c r="D631" s="8"/>
       <c r="E631" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F631" s="8">
         <v>2</v>
@@ -10953,15 +11072,15 @@
     </row>
     <row r="632" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A632" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="B632" s="5" t="s">
         <v>668</v>
-      </c>
-      <c r="B632" s="5" t="s">
-        <v>669</v>
       </c>
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
       <c r="E632" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F632" s="8">
         <v>2</v>
@@ -10970,7 +11089,7 @@
     <row r="633" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A633" s="21"/>
       <c r="B633" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
@@ -10982,7 +11101,7 @@
     <row r="634" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A634" s="21"/>
       <c r="B634" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
@@ -10994,7 +11113,7 @@
     <row r="635" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A635" s="21"/>
       <c r="B635" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
@@ -11006,7 +11125,7 @@
     <row r="636" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A636" s="21"/>
       <c r="B636" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
@@ -11018,7 +11137,7 @@
     <row r="637" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A637" s="21"/>
       <c r="B637" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
@@ -11030,7 +11149,7 @@
     <row r="638" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A638" s="21"/>
       <c r="B638" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
@@ -11042,7 +11161,7 @@
     <row r="639" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A639" s="21"/>
       <c r="B639" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
@@ -11054,7 +11173,7 @@
     <row r="640" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A640" s="21"/>
       <c r="B640" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
@@ -11066,7 +11185,7 @@
     <row r="641" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A641" s="21"/>
       <c r="B641" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
@@ -11078,7 +11197,7 @@
     <row r="642" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A642" s="21"/>
       <c r="B642" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
@@ -11090,7 +11209,7 @@
     <row r="643" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A643" s="21"/>
       <c r="B643" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
@@ -11102,7 +11221,7 @@
     <row r="644" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A644" s="21"/>
       <c r="B644" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
@@ -11114,7 +11233,7 @@
     <row r="645" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A645" s="21"/>
       <c r="B645" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
@@ -11126,7 +11245,7 @@
     <row r="646" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A646" s="21"/>
       <c r="B646" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
@@ -11138,7 +11257,7 @@
     <row r="647" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A647" s="21"/>
       <c r="B647" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
@@ -11150,7 +11269,7 @@
     <row r="648" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A648" s="21"/>
       <c r="B648" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
@@ -11162,7 +11281,7 @@
     <row r="649" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A649" s="21"/>
       <c r="B649" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
@@ -11174,7 +11293,7 @@
     <row r="650" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A650" s="21"/>
       <c r="B650" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
@@ -11186,7 +11305,7 @@
     <row r="651" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A651" s="21"/>
       <c r="B651" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
@@ -11198,7 +11317,7 @@
     <row r="652" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A652" s="21"/>
       <c r="B652" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
@@ -11210,7 +11329,7 @@
     <row r="653" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A653" s="21"/>
       <c r="B653" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
@@ -11222,7 +11341,7 @@
     <row r="654" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A654" s="21"/>
       <c r="B654" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
@@ -11234,7 +11353,7 @@
     <row r="655" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A655" s="21"/>
       <c r="B655" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
@@ -11246,7 +11365,7 @@
     <row r="656" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A656" s="21"/>
       <c r="B656" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
@@ -11258,7 +11377,7 @@
     <row r="657" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A657" s="21"/>
       <c r="B657" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
@@ -11270,7 +11389,7 @@
     <row r="658" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A658" s="21"/>
       <c r="B658" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
@@ -11282,7 +11401,7 @@
     <row r="659" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A659" s="21"/>
       <c r="B659" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
@@ -11294,7 +11413,7 @@
     <row r="660" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A660" s="21"/>
       <c r="B660" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
@@ -11306,7 +11425,7 @@
     <row r="661" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A661" s="21"/>
       <c r="B661" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
@@ -11318,7 +11437,7 @@
     <row r="662" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A662" s="21"/>
       <c r="B662" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
@@ -11330,7 +11449,7 @@
     <row r="663" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A663" s="21"/>
       <c r="B663" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
@@ -11342,7 +11461,7 @@
     <row r="664" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A664" s="21"/>
       <c r="B664" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
@@ -11354,7 +11473,7 @@
     <row r="665" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A665" s="21"/>
       <c r="B665" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
@@ -11366,7 +11485,7 @@
     <row r="666" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A666" s="21"/>
       <c r="B666" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
@@ -11378,7 +11497,7 @@
     <row r="667" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A667" s="21"/>
       <c r="B667" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
@@ -11390,7 +11509,7 @@
     <row r="668" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A668" s="21"/>
       <c r="B668" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
@@ -11402,7 +11521,7 @@
     <row r="669" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A669" s="21"/>
       <c r="B669" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
@@ -11414,7 +11533,7 @@
     <row r="670" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A670" s="21"/>
       <c r="B670" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
@@ -11426,7 +11545,7 @@
     <row r="671" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A671" s="21"/>
       <c r="B671" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
@@ -11438,7 +11557,7 @@
     <row r="672" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A672" s="21"/>
       <c r="B672" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
@@ -11450,7 +11569,7 @@
     <row r="673" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A673" s="21"/>
       <c r="B673" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
@@ -11462,7 +11581,7 @@
     <row r="674" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A674" s="21"/>
       <c r="B674" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
@@ -11474,7 +11593,7 @@
     <row r="675" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A675" s="21"/>
       <c r="B675" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
@@ -11486,7 +11605,7 @@
     <row r="676" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A676" s="21"/>
       <c r="B676" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
@@ -11498,7 +11617,7 @@
     <row r="677" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A677" s="21"/>
       <c r="B677" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
@@ -11510,7 +11629,7 @@
     <row r="678" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A678" s="21"/>
       <c r="B678" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
@@ -11522,7 +11641,7 @@
     <row r="679" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A679" s="21"/>
       <c r="B679" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
@@ -11534,7 +11653,7 @@
     <row r="680" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="21"/>
       <c r="B680" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
@@ -11546,7 +11665,7 @@
     <row r="681" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A681" s="21"/>
       <c r="B681" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
@@ -11558,7 +11677,7 @@
     <row r="682" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A682" s="21"/>
       <c r="B682" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
@@ -11570,7 +11689,7 @@
     <row r="683" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A683" s="21"/>
       <c r="B683" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
@@ -11582,7 +11701,7 @@
     <row r="684" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A684" s="21"/>
       <c r="B684" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
@@ -11594,7 +11713,7 @@
     <row r="685" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A685" s="21"/>
       <c r="B685" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
@@ -11606,7 +11725,7 @@
     <row r="686" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A686" s="21"/>
       <c r="B686" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
@@ -11618,7 +11737,7 @@
     <row r="687" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A687" s="21"/>
       <c r="B687" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
@@ -11630,7 +11749,7 @@
     <row r="688" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A688" s="21"/>
       <c r="B688" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
@@ -11642,7 +11761,7 @@
     <row r="689" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A689" s="21"/>
       <c r="B689" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
@@ -11654,7 +11773,7 @@
     <row r="690" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A690" s="21"/>
       <c r="B690" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
@@ -11666,7 +11785,7 @@
     <row r="691" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A691" s="21"/>
       <c r="B691" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
@@ -11678,7 +11797,7 @@
     <row r="692" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A692" s="21"/>
       <c r="B692" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
@@ -11690,7 +11809,7 @@
     <row r="693" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A693" s="21"/>
       <c r="B693" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
@@ -11702,7 +11821,7 @@
     <row r="694" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A694" s="21"/>
       <c r="B694" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
@@ -11714,7 +11833,7 @@
     <row r="695" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A695" s="21"/>
       <c r="B695" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
@@ -11726,7 +11845,7 @@
     <row r="696" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A696" s="21"/>
       <c r="B696" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
@@ -11738,7 +11857,7 @@
     <row r="697" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A697" s="21"/>
       <c r="B697" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
@@ -11750,7 +11869,7 @@
     <row r="698" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A698" s="21"/>
       <c r="B698" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
@@ -11762,7 +11881,7 @@
     <row r="699" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A699" s="21"/>
       <c r="B699" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
@@ -11774,7 +11893,7 @@
     <row r="700" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A700" s="21"/>
       <c r="B700" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
@@ -11786,7 +11905,7 @@
     <row r="701" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A701" s="21"/>
       <c r="B701" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
@@ -11798,7 +11917,7 @@
     <row r="702" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A702" s="21"/>
       <c r="B702" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
@@ -11810,7 +11929,7 @@
     <row r="703" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A703" s="21"/>
       <c r="B703" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
@@ -11822,7 +11941,7 @@
     <row r="704" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A704" s="21"/>
       <c r="B704" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
@@ -11834,7 +11953,7 @@
     <row r="705" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A705" s="21"/>
       <c r="B705" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
@@ -11846,7 +11965,7 @@
     <row r="706" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A706" s="21"/>
       <c r="B706" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
@@ -11858,7 +11977,7 @@
     <row r="707" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A707" s="21"/>
       <c r="B707" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
@@ -11870,7 +11989,7 @@
     <row r="708" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A708" s="21"/>
       <c r="B708" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
@@ -11882,7 +12001,7 @@
     <row r="709" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A709" s="21"/>
       <c r="B709" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
@@ -11894,7 +12013,7 @@
     <row r="710" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A710" s="21"/>
       <c r="B710" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
@@ -11906,7 +12025,7 @@
     <row r="711" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A711" s="21"/>
       <c r="B711" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
@@ -11918,7 +12037,7 @@
     <row r="712" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A712" s="21"/>
       <c r="B712" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
@@ -11930,7 +12049,7 @@
     <row r="713" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A713" s="21"/>
       <c r="B713" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
@@ -11942,7 +12061,7 @@
     <row r="714" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A714" s="21"/>
       <c r="B714" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
@@ -11954,7 +12073,7 @@
     <row r="715" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A715" s="21"/>
       <c r="B715" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
@@ -11966,7 +12085,7 @@
     <row r="716" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A716" s="21"/>
       <c r="B716" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
@@ -11978,7 +12097,7 @@
     <row r="717" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A717" s="21"/>
       <c r="B717" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
@@ -11990,7 +12109,7 @@
     <row r="718" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A718" s="21"/>
       <c r="B718" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
@@ -12002,7 +12121,7 @@
     <row r="719" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A719" s="21"/>
       <c r="B719" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
@@ -12014,7 +12133,7 @@
     <row r="720" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A720" s="21"/>
       <c r="B720" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
@@ -12026,7 +12145,7 @@
     <row r="721" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A721" s="21"/>
       <c r="B721" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
@@ -12038,7 +12157,7 @@
     <row r="722" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A722" s="21"/>
       <c r="B722" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
@@ -12050,7 +12169,7 @@
     <row r="723" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A723" s="21"/>
       <c r="B723" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
@@ -12062,7 +12181,7 @@
     <row r="724" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A724" s="21"/>
       <c r="B724" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
@@ -12074,7 +12193,7 @@
     <row r="725" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A725" s="21"/>
       <c r="B725" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
@@ -12086,7 +12205,7 @@
     <row r="726" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A726" s="21"/>
       <c r="B726" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
@@ -12098,7 +12217,7 @@
     <row r="727" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A727" s="21"/>
       <c r="B727" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
@@ -12110,7 +12229,7 @@
     <row r="728" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A728" s="21"/>
       <c r="B728" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
@@ -12122,7 +12241,7 @@
     <row r="729" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A729" s="21"/>
       <c r="B729" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
@@ -12134,7 +12253,7 @@
     <row r="730" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A730" s="21"/>
       <c r="B730" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
@@ -12146,7 +12265,7 @@
     <row r="731" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A731" s="21"/>
       <c r="B731" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
@@ -12158,7 +12277,7 @@
     <row r="732" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A732" s="21"/>
       <c r="B732" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
@@ -12170,7 +12289,7 @@
     <row r="733" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A733" s="21"/>
       <c r="B733" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
@@ -12182,7 +12301,7 @@
     <row r="734" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A734" s="21"/>
       <c r="B734" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
@@ -12194,7 +12313,7 @@
     <row r="735" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A735" s="21"/>
       <c r="B735" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
@@ -12206,7 +12325,7 @@
     <row r="736" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A736" s="21"/>
       <c r="B736" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
@@ -12218,7 +12337,7 @@
     <row r="737" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A737" s="21"/>
       <c r="B737" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
@@ -12230,7 +12349,7 @@
     <row r="738" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A738" s="21"/>
       <c r="B738" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
@@ -12242,7 +12361,7 @@
     <row r="739" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A739" s="21"/>
       <c r="B739" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
@@ -12254,7 +12373,7 @@
     <row r="740" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A740" s="21"/>
       <c r="B740" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
@@ -12266,7 +12385,7 @@
     <row r="741" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A741" s="21"/>
       <c r="B741" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
@@ -12278,7 +12397,7 @@
     <row r="742" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A742" s="21"/>
       <c r="B742" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
@@ -12290,7 +12409,7 @@
     <row r="743" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A743" s="21"/>
       <c r="B743" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
@@ -12302,7 +12421,7 @@
     <row r="744" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A744" s="21"/>
       <c r="B744" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
@@ -12314,7 +12433,7 @@
     <row r="745" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A745" s="21"/>
       <c r="B745" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
@@ -12326,7 +12445,7 @@
     <row r="746" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A746" s="21"/>
       <c r="B746" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
@@ -12338,7 +12457,7 @@
     <row r="747" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A747" s="21"/>
       <c r="B747" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
@@ -12350,7 +12469,7 @@
     <row r="748" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A748" s="21"/>
       <c r="B748" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
@@ -12362,7 +12481,7 @@
     <row r="749" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A749" s="21"/>
       <c r="B749" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
@@ -12374,7 +12493,7 @@
     <row r="750" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A750" s="21"/>
       <c r="B750" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
@@ -12386,7 +12505,7 @@
     <row r="751" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A751" s="21"/>
       <c r="B751" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
@@ -12398,7 +12517,7 @@
     <row r="752" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A752" s="21"/>
       <c r="B752" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
@@ -12410,7 +12529,7 @@
     <row r="753" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A753" s="21"/>
       <c r="B753" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
@@ -12422,7 +12541,7 @@
     <row r="754" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A754" s="21"/>
       <c r="B754" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
@@ -12434,7 +12553,7 @@
     <row r="755" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A755" s="21"/>
       <c r="B755" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
@@ -12446,7 +12565,7 @@
     <row r="756" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A756" s="21"/>
       <c r="B756" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
@@ -12458,7 +12577,7 @@
     <row r="757" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A757" s="21"/>
       <c r="B757" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
@@ -12470,7 +12589,7 @@
     <row r="758" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A758" s="22"/>
       <c r="B758" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C758" s="6"/>
       <c r="D758" s="6"/>
@@ -12481,15 +12600,15 @@
     </row>
     <row r="759" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A759" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="B759" s="5" t="s">
         <v>791</v>
-      </c>
-      <c r="B759" s="5" t="s">
-        <v>792</v>
       </c>
       <c r="C759" s="5"/>
       <c r="D759" s="5"/>
       <c r="E759" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F759" s="8">
         <v>-1</v>
@@ -12498,7 +12617,7 @@
     <row r="760" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A760" s="21"/>
       <c r="B760" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
@@ -12510,7 +12629,7 @@
     <row r="761" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A761" s="21"/>
       <c r="B761" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
@@ -12522,7 +12641,7 @@
     <row r="762" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A762" s="21"/>
       <c r="B762" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
@@ -12534,7 +12653,7 @@
     <row r="763" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A763" s="21"/>
       <c r="B763" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
@@ -12546,7 +12665,7 @@
     <row r="764" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A764" s="21"/>
       <c r="B764" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
@@ -12558,7 +12677,7 @@
     <row r="765" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A765" s="21"/>
       <c r="B765" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
@@ -12570,7 +12689,7 @@
     <row r="766" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A766" s="21"/>
       <c r="B766" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
@@ -12582,7 +12701,7 @@
     <row r="767" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A767" s="21"/>
       <c r="B767" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
@@ -12594,7 +12713,7 @@
     <row r="768" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A768" s="21"/>
       <c r="B768" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
@@ -12606,7 +12725,7 @@
     <row r="769" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A769" s="21"/>
       <c r="B769" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
@@ -12618,7 +12737,7 @@
     <row r="770" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A770" s="21"/>
       <c r="B770" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
@@ -12630,7 +12749,7 @@
     <row r="771" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A771" s="21"/>
       <c r="B771" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
@@ -12642,7 +12761,7 @@
     <row r="772" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A772" s="21"/>
       <c r="B772" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
@@ -12654,7 +12773,7 @@
     <row r="773" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A773" s="21"/>
       <c r="B773" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
@@ -12666,7 +12785,7 @@
     <row r="774" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A774" s="21"/>
       <c r="B774" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
@@ -12678,7 +12797,7 @@
     <row r="775" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A775" s="21"/>
       <c r="B775" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
@@ -12690,7 +12809,7 @@
     <row r="776" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A776" s="21"/>
       <c r="B776" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
@@ -12702,7 +12821,7 @@
     <row r="777" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A777" s="21"/>
       <c r="B777" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
@@ -12714,7 +12833,7 @@
     <row r="778" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A778" s="21"/>
       <c r="B778" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
@@ -12726,7 +12845,7 @@
     <row r="779" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A779" s="22"/>
       <c r="B779" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C779" s="6"/>
       <c r="D779" s="6"/>
@@ -12737,15 +12856,15 @@
     </row>
     <row r="780" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A780" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="B780" s="5" t="s">
         <v>810</v>
-      </c>
-      <c r="B780" s="5" t="s">
-        <v>811</v>
       </c>
       <c r="C780" s="5"/>
       <c r="D780" s="5"/>
       <c r="E780" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F780" s="8">
         <v>-1</v>
@@ -12754,7 +12873,7 @@
     <row r="781" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A781" s="22"/>
       <c r="B781" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C781" s="6"/>
       <c r="D781" s="6"/>
@@ -12765,15 +12884,15 @@
     </row>
     <row r="782" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A782" s="20" t="s">
+        <v>812</v>
+      </c>
+      <c r="B782" s="5" t="s">
         <v>813</v>
-      </c>
-      <c r="B782" s="5" t="s">
-        <v>814</v>
       </c>
       <c r="C782" s="5"/>
       <c r="D782" s="5"/>
       <c r="E782" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F782" s="8">
         <v>-1</v>
@@ -12782,7 +12901,7 @@
     <row r="783" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A783" s="21"/>
       <c r="B783" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
@@ -12794,7 +12913,7 @@
     <row r="784" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A784" s="22"/>
       <c r="B784" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C784" s="6"/>
       <c r="D784" s="6"/>
@@ -12805,15 +12924,15 @@
     </row>
     <row r="785" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A785" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="B785" s="5" t="s">
         <v>817</v>
-      </c>
-      <c r="B785" s="5" t="s">
-        <v>818</v>
       </c>
       <c r="C785" s="5"/>
       <c r="D785" s="5"/>
       <c r="E785" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F785" s="8">
         <v>2</v>
@@ -12822,7 +12941,7 @@
     <row r="786" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A786" s="21"/>
       <c r="B786" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
@@ -12834,7 +12953,7 @@
     <row r="787" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A787" s="21"/>
       <c r="B787" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
@@ -12846,7 +12965,7 @@
     <row r="788" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A788" s="21"/>
       <c r="B788" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
@@ -12858,7 +12977,7 @@
     <row r="789" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A789" s="21"/>
       <c r="B789" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
@@ -12870,7 +12989,7 @@
     <row r="790" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A790" s="21"/>
       <c r="B790" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
@@ -12882,7 +13001,7 @@
     <row r="791" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A791" s="22"/>
       <c r="B791" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C791" s="6"/>
       <c r="D791" s="6"/>
@@ -12893,15 +13012,15 @@
     </row>
     <row r="792" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A792" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="B792" s="5" t="s">
         <v>825</v>
-      </c>
-      <c r="B792" s="5" t="s">
-        <v>826</v>
       </c>
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
       <c r="E792" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F792" s="8">
         <v>1</v>
@@ -12910,7 +13029,7 @@
     <row r="793" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A793" s="21"/>
       <c r="B793" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
@@ -12922,7 +13041,7 @@
     <row r="794" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A794" s="21"/>
       <c r="B794" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
@@ -12934,7 +13053,7 @@
     <row r="795" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A795" s="21"/>
       <c r="B795" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
@@ -12946,7 +13065,7 @@
     <row r="796" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A796" s="21"/>
       <c r="B796" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
@@ -12958,7 +13077,7 @@
     <row r="797" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A797" s="21"/>
       <c r="B797" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
@@ -12970,7 +13089,7 @@
     <row r="798" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A798" s="21"/>
       <c r="B798" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
@@ -12982,7 +13101,7 @@
     <row r="799" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A799" s="21"/>
       <c r="B799" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
@@ -12994,7 +13113,7 @@
     <row r="800" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A800" s="21"/>
       <c r="B800" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
@@ -13006,7 +13125,7 @@
     <row r="801" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A801" s="21"/>
       <c r="B801" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
@@ -13018,7 +13137,7 @@
     <row r="802" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A802" s="21"/>
       <c r="B802" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
@@ -13030,7 +13149,7 @@
     <row r="803" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A803" s="22"/>
       <c r="B803" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C803" s="6"/>
       <c r="D803" s="6"/>
@@ -13041,70 +13160,18 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="E15:E32"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="E400:E403"/>
-    <mergeCell ref="A404:A420"/>
-    <mergeCell ref="E404:E420"/>
-    <mergeCell ref="A421:A471"/>
-    <mergeCell ref="E421:E471"/>
-    <mergeCell ref="A472:A486"/>
-    <mergeCell ref="E472:E486"/>
-    <mergeCell ref="A487:A498"/>
-    <mergeCell ref="E487:E498"/>
-    <mergeCell ref="A499:A504"/>
-    <mergeCell ref="E499:E504"/>
-    <mergeCell ref="A505:A577"/>
-    <mergeCell ref="E505:E577"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="A582:A583"/>
-    <mergeCell ref="E582:E583"/>
-    <mergeCell ref="A584:A593"/>
-    <mergeCell ref="E584:E593"/>
-    <mergeCell ref="A594:A600"/>
-    <mergeCell ref="E594:E600"/>
-    <mergeCell ref="A604:A606"/>
-    <mergeCell ref="E604:E606"/>
+    <mergeCell ref="A782:A784"/>
+    <mergeCell ref="E782:E784"/>
+    <mergeCell ref="A785:A791"/>
+    <mergeCell ref="E785:E791"/>
+    <mergeCell ref="A792:A803"/>
+    <mergeCell ref="E792:E803"/>
+    <mergeCell ref="A632:A758"/>
+    <mergeCell ref="E632:E758"/>
+    <mergeCell ref="A759:A779"/>
+    <mergeCell ref="E759:E779"/>
+    <mergeCell ref="A780:A781"/>
+    <mergeCell ref="E780:E781"/>
     <mergeCell ref="A624:A628"/>
     <mergeCell ref="E624:E628"/>
     <mergeCell ref="A629:A630"/>
@@ -13114,47 +13181,125 @@
     <mergeCell ref="A614:A623"/>
     <mergeCell ref="C614:C623"/>
     <mergeCell ref="E614:E623"/>
-    <mergeCell ref="A632:A758"/>
-    <mergeCell ref="E632:E758"/>
-    <mergeCell ref="A759:A779"/>
-    <mergeCell ref="E759:E779"/>
-    <mergeCell ref="A780:A781"/>
-    <mergeCell ref="E780:E781"/>
-    <mergeCell ref="A782:A784"/>
-    <mergeCell ref="E782:E784"/>
-    <mergeCell ref="A785:A791"/>
-    <mergeCell ref="E785:E791"/>
-    <mergeCell ref="A792:A803"/>
-    <mergeCell ref="E792:E803"/>
+    <mergeCell ref="A584:A593"/>
+    <mergeCell ref="E584:E593"/>
+    <mergeCell ref="A594:A600"/>
+    <mergeCell ref="E594:E600"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="E604:E606"/>
+    <mergeCell ref="A505:A577"/>
+    <mergeCell ref="E505:E577"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="A582:A583"/>
+    <mergeCell ref="E582:E583"/>
+    <mergeCell ref="A472:A486"/>
+    <mergeCell ref="E472:E486"/>
+    <mergeCell ref="A487:A498"/>
+    <mergeCell ref="E487:E498"/>
+    <mergeCell ref="A499:A504"/>
+    <mergeCell ref="E499:E504"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="E400:E403"/>
+    <mergeCell ref="A404:A420"/>
+    <mergeCell ref="E404:E420"/>
+    <mergeCell ref="A421:A471"/>
+    <mergeCell ref="E421:E471"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E15:E32"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>$D1=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$D1=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F53 F60:F174 F179:F1048576">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Жуков Виктор"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Соклаков Иван"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Сусленков Виктор"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" style="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>839</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE69F8D-A70D-4DEC-BAD9-BE70B2B65F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="WebApiTests" sheetId="1" r:id="rId1"/>
     <sheet name="WebApiContracts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2652,7 +2652,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2931,12 +2931,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2946,11 +2940,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -3004,6 +3004,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3336,11 +3343,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="C346" sqref="C346"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="D336" sqref="D336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7516,7 +7523,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="40" t="s">
+      <c r="A341" s="38" t="s">
         <v>362</v>
       </c>
       <c r="B341" s="5" t="s">
@@ -7534,7 +7541,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="41"/>
+      <c r="A342" s="39"/>
       <c r="B342" s="4" t="s">
         <v>364</v>
       </c>
@@ -7548,7 +7555,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="41"/>
+      <c r="A343" s="39"/>
       <c r="B343" s="4" t="s">
         <v>365</v>
       </c>
@@ -7562,7 +7569,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="41"/>
+      <c r="A344" s="39"/>
       <c r="B344" s="4" t="s">
         <v>366</v>
       </c>
@@ -7576,7 +7583,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="41"/>
+      <c r="A345" s="39"/>
       <c r="B345" s="4" t="s">
         <v>367</v>
       </c>
@@ -7590,7 +7597,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="41"/>
+      <c r="A346" s="39"/>
       <c r="B346" s="4" t="s">
         <v>368</v>
       </c>
@@ -7604,7 +7611,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="41"/>
+      <c r="A347" s="39"/>
       <c r="B347" s="4" t="s">
         <v>369</v>
       </c>
@@ -7618,7 +7625,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="41"/>
+      <c r="A348" s="39"/>
       <c r="B348" s="4" t="s">
         <v>370</v>
       </c>
@@ -7632,7 +7639,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="41"/>
+      <c r="A349" s="39"/>
       <c r="B349" s="4" t="s">
         <v>371</v>
       </c>
@@ -7646,7 +7653,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="41"/>
+      <c r="A350" s="39"/>
       <c r="B350" s="4" t="s">
         <v>372</v>
       </c>
@@ -7660,7 +7667,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="41"/>
+      <c r="A351" s="39"/>
       <c r="B351" s="4" t="s">
         <v>373</v>
       </c>
@@ -7674,7 +7681,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="41"/>
+      <c r="A352" s="39"/>
       <c r="B352" s="4" t="s">
         <v>374</v>
       </c>
@@ -7688,7 +7695,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="41"/>
+      <c r="A353" s="39"/>
       <c r="B353" s="4" t="s">
         <v>375</v>
       </c>
@@ -7702,7 +7709,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="41"/>
+      <c r="A354" s="39"/>
       <c r="B354" s="4" t="s">
         <v>376</v>
       </c>
@@ -7716,7 +7723,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="41"/>
+      <c r="A355" s="39"/>
       <c r="B355" s="4" t="s">
         <v>377</v>
       </c>
@@ -7730,7 +7737,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="42"/>
+      <c r="A356" s="40"/>
       <c r="B356" s="6" t="s">
         <v>378</v>
       </c>
@@ -10918,7 +10925,7 @@
       <c r="B614" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C614" s="38" t="s">
+      <c r="C614" s="41" t="s">
         <v>656</v>
       </c>
       <c r="D614" s="5"/>
@@ -13322,32 +13329,35 @@
     <mergeCell ref="E15:E32"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$D1=1</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>$D1=2</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="8" priority="1">
-      <formula>$D1=2</formula>
+      <formula>$D1=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F53 F60:F174 F179:F1048576">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Жуков Виктор"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Соклаков Иван"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Сусленков Виктор"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13357,7 +13367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13391,7 +13401,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>870</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -13439,7 +13449,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>871</v>
       </c>
       <c r="B6" s="23" t="s">

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE69F8D-A70D-4DEC-BAD9-BE70B2B65F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABEE24E-04A6-49D2-A662-8D6BEF9A2C6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2904,6 +2904,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2913,38 +2943,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3339,8 +3339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="C346" sqref="C346"/>
+    <sheetView tabSelected="1" topLeftCell="A776" workbookViewId="0">
+      <selection activeCell="E804" sqref="E804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,7 +3384,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="39" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -3400,7 +3400,7 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="30"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="39" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -3502,7 +3502,7 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
@@ -4028,12 +4028,12 @@
       <c r="B53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="38" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4042,60 +4042,60 @@
       <c r="B54" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="35"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="4"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="33"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="35"/>
+      <c r="C55" s="36"/>
       <c r="D55" s="4"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="33"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="35"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="4"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="33"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="35"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="4"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="33"/>
+      <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="35"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="4"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="33"/>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="35"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="4"/>
       <c r="E59" s="27"/>
-      <c r="F59" s="34"/>
+      <c r="F59" s="31"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
@@ -5476,14 +5476,14 @@
       <c r="B174" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C174" s="36" t="s">
+      <c r="C174" s="35" t="s">
         <v>69</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F174" s="36" t="s">
+      <c r="F174" s="35" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5492,30 +5492,30 @@
       <c r="B175" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C175" s="35"/>
+      <c r="C175" s="36"/>
       <c r="D175" s="4"/>
       <c r="E175" s="27"/>
-      <c r="F175" s="35"/>
+      <c r="F175" s="36"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27"/>
       <c r="B176" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C176" s="35"/>
+      <c r="C176" s="36"/>
       <c r="D176" s="4"/>
       <c r="E176" s="27"/>
-      <c r="F176" s="35"/>
+      <c r="F176" s="36"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
       <c r="B177" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C177" s="35"/>
+      <c r="C177" s="36"/>
       <c r="D177" s="4"/>
       <c r="E177" s="27"/>
-      <c r="F177" s="35"/>
+      <c r="F177" s="36"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="28"/>
@@ -7516,7 +7516,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="40" t="s">
+      <c r="A341" s="32" t="s">
         <v>362</v>
       </c>
       <c r="B341" s="5" t="s">
@@ -7534,7 +7534,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="41"/>
+      <c r="A342" s="33"/>
       <c r="B342" s="4" t="s">
         <v>364</v>
       </c>
@@ -7548,7 +7548,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="41"/>
+      <c r="A343" s="33"/>
       <c r="B343" s="4" t="s">
         <v>365</v>
       </c>
@@ -7562,7 +7562,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="41"/>
+      <c r="A344" s="33"/>
       <c r="B344" s="4" t="s">
         <v>366</v>
       </c>
@@ -7576,7 +7576,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="41"/>
+      <c r="A345" s="33"/>
       <c r="B345" s="4" t="s">
         <v>367</v>
       </c>
@@ -7590,7 +7590,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="41"/>
+      <c r="A346" s="33"/>
       <c r="B346" s="4" t="s">
         <v>368</v>
       </c>
@@ -7604,7 +7604,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="41"/>
+      <c r="A347" s="33"/>
       <c r="B347" s="4" t="s">
         <v>369</v>
       </c>
@@ -7618,7 +7618,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="41"/>
+      <c r="A348" s="33"/>
       <c r="B348" s="4" t="s">
         <v>370</v>
       </c>
@@ -7632,7 +7632,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="41"/>
+      <c r="A349" s="33"/>
       <c r="B349" s="4" t="s">
         <v>371</v>
       </c>
@@ -7646,7 +7646,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="41"/>
+      <c r="A350" s="33"/>
       <c r="B350" s="4" t="s">
         <v>372</v>
       </c>
@@ -7660,7 +7660,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="41"/>
+      <c r="A351" s="33"/>
       <c r="B351" s="4" t="s">
         <v>373</v>
       </c>
@@ -7674,7 +7674,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="41"/>
+      <c r="A352" s="33"/>
       <c r="B352" s="4" t="s">
         <v>374</v>
       </c>
@@ -7688,7 +7688,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="41"/>
+      <c r="A353" s="33"/>
       <c r="B353" s="4" t="s">
         <v>375</v>
       </c>
@@ -7702,7 +7702,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="41"/>
+      <c r="A354" s="33"/>
       <c r="B354" s="4" t="s">
         <v>376</v>
       </c>
@@ -7716,7 +7716,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="41"/>
+      <c r="A355" s="33"/>
       <c r="B355" s="4" t="s">
         <v>377</v>
       </c>
@@ -7730,7 +7730,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="42"/>
+      <c r="A356" s="34"/>
       <c r="B356" s="6" t="s">
         <v>378</v>
       </c>
@@ -8335,7 +8335,7 @@
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="26" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="F404" s="8">
         <v>1</v>
@@ -10918,7 +10918,7 @@
       <c r="B614" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C614" s="38" t="s">
+      <c r="C614" s="29" t="s">
         <v>656</v>
       </c>
       <c r="D614" s="5"/>
@@ -10934,7 +10934,7 @@
       <c r="B615" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="C615" s="33"/>
+      <c r="C615" s="30"/>
       <c r="D615" s="4"/>
       <c r="E615" s="27"/>
       <c r="F615" s="8">
@@ -10946,7 +10946,7 @@
       <c r="B616" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C616" s="33"/>
+      <c r="C616" s="30"/>
       <c r="D616" s="4"/>
       <c r="E616" s="27"/>
       <c r="F616" s="8">
@@ -10958,7 +10958,7 @@
       <c r="B617" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C617" s="33"/>
+      <c r="C617" s="30"/>
       <c r="D617" s="4"/>
       <c r="E617" s="27"/>
       <c r="F617" s="8">
@@ -10970,7 +10970,7 @@
       <c r="B618" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C618" s="33"/>
+      <c r="C618" s="30"/>
       <c r="D618" s="4"/>
       <c r="E618" s="27"/>
       <c r="F618" s="8">
@@ -10982,7 +10982,7 @@
       <c r="B619" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C619" s="33"/>
+      <c r="C619" s="30"/>
       <c r="D619" s="4"/>
       <c r="E619" s="27"/>
       <c r="F619" s="8">
@@ -10994,7 +10994,7 @@
       <c r="B620" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C620" s="33"/>
+      <c r="C620" s="30"/>
       <c r="D620" s="4"/>
       <c r="E620" s="27"/>
       <c r="F620" s="8">
@@ -11006,7 +11006,7 @@
       <c r="B621" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C621" s="33"/>
+      <c r="C621" s="30"/>
       <c r="D621" s="4"/>
       <c r="E621" s="27"/>
       <c r="F621" s="8">
@@ -11018,7 +11018,7 @@
       <c r="B622" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C622" s="33"/>
+      <c r="C622" s="30"/>
       <c r="D622" s="4"/>
       <c r="E622" s="27"/>
       <c r="F622" s="8">
@@ -11030,7 +11030,7 @@
       <c r="B623" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C623" s="34"/>
+      <c r="C623" s="31"/>
       <c r="D623" s="6"/>
       <c r="E623" s="28"/>
       <c r="F623" s="8">
@@ -13095,7 +13095,7 @@
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
       <c r="E792" s="26" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="F792" s="8">
         <v>1</v>
@@ -13235,18 +13235,70 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A782:A784"/>
-    <mergeCell ref="E782:E784"/>
-    <mergeCell ref="A785:A791"/>
-    <mergeCell ref="E785:E791"/>
-    <mergeCell ref="A792:A803"/>
-    <mergeCell ref="E792:E803"/>
-    <mergeCell ref="A632:A758"/>
-    <mergeCell ref="E632:E758"/>
-    <mergeCell ref="A759:A779"/>
-    <mergeCell ref="E759:E779"/>
-    <mergeCell ref="A780:A781"/>
-    <mergeCell ref="E780:E781"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="E400:E403"/>
+    <mergeCell ref="A404:A420"/>
+    <mergeCell ref="E404:E420"/>
+    <mergeCell ref="A421:A471"/>
+    <mergeCell ref="E421:E471"/>
+    <mergeCell ref="A472:A486"/>
+    <mergeCell ref="E472:E486"/>
+    <mergeCell ref="A487:A498"/>
+    <mergeCell ref="E487:E498"/>
+    <mergeCell ref="A499:A504"/>
+    <mergeCell ref="E499:E504"/>
+    <mergeCell ref="A505:A577"/>
+    <mergeCell ref="E505:E577"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="A582:A583"/>
+    <mergeCell ref="E582:E583"/>
+    <mergeCell ref="A584:A593"/>
+    <mergeCell ref="E584:E593"/>
+    <mergeCell ref="A594:A600"/>
+    <mergeCell ref="E594:E600"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="E604:E606"/>
     <mergeCell ref="A624:A628"/>
     <mergeCell ref="E624:E628"/>
     <mergeCell ref="A629:A630"/>
@@ -13256,70 +13308,18 @@
     <mergeCell ref="A614:A623"/>
     <mergeCell ref="C614:C623"/>
     <mergeCell ref="E614:E623"/>
-    <mergeCell ref="A584:A593"/>
-    <mergeCell ref="E584:E593"/>
-    <mergeCell ref="A594:A600"/>
-    <mergeCell ref="E594:E600"/>
-    <mergeCell ref="A604:A606"/>
-    <mergeCell ref="E604:E606"/>
-    <mergeCell ref="A505:A577"/>
-    <mergeCell ref="E505:E577"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="A582:A583"/>
-    <mergeCell ref="E582:E583"/>
-    <mergeCell ref="A472:A486"/>
-    <mergeCell ref="E472:E486"/>
-    <mergeCell ref="A487:A498"/>
-    <mergeCell ref="E487:E498"/>
-    <mergeCell ref="A499:A504"/>
-    <mergeCell ref="E499:E504"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="E400:E403"/>
-    <mergeCell ref="A404:A420"/>
-    <mergeCell ref="E404:E420"/>
-    <mergeCell ref="A421:A471"/>
-    <mergeCell ref="E421:E471"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="A632:A758"/>
+    <mergeCell ref="E632:E758"/>
+    <mergeCell ref="A759:A779"/>
+    <mergeCell ref="E759:E779"/>
+    <mergeCell ref="A780:A781"/>
+    <mergeCell ref="E780:E781"/>
+    <mergeCell ref="A782:A784"/>
+    <mergeCell ref="E782:E784"/>
+    <mergeCell ref="A785:A791"/>
+    <mergeCell ref="E785:E791"/>
+    <mergeCell ref="A792:A803"/>
+    <mergeCell ref="E792:E803"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="expression" dxfId="9" priority="10">
@@ -13391,7 +13391,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>870</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -13439,7 +13439,7 @@
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>871</v>
       </c>
       <c r="B6" s="23" t="s">

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABEE24E-04A6-49D2-A662-8D6BEF9A2C6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0F606E-2C96-49C1-B361-48F54681DEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2904,13 +2904,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2922,26 +2940,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3339,8 +3339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A776" workbookViewId="0">
-      <selection activeCell="E804" sqref="E804"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="C368" sqref="C368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,7 +3384,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="29" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -3400,7 +3400,7 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="40"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="29" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -3502,7 +3502,7 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="41"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
@@ -4028,12 +4028,12 @@
       <c r="B53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="35" t="s">
         <v>69</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="32" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4042,60 +4042,60 @@
       <c r="B54" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="36"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="4"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="30"/>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="36"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="4"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="30"/>
+      <c r="F55" s="33"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="36"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="4"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="30"/>
+      <c r="F56" s="33"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="36"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="4"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="30"/>
+      <c r="F57" s="33"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="36"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="4"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="30"/>
+      <c r="F58" s="33"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="36"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="4"/>
       <c r="E59" s="27"/>
-      <c r="F59" s="31"/>
+      <c r="F59" s="34"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
@@ -5476,14 +5476,14 @@
       <c r="B174" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C174" s="35" t="s">
+      <c r="C174" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F174" s="35" t="s">
+      <c r="F174" s="36" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5492,30 +5492,30 @@
       <c r="B175" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C175" s="36"/>
+      <c r="C175" s="35"/>
       <c r="D175" s="4"/>
       <c r="E175" s="27"/>
-      <c r="F175" s="36"/>
+      <c r="F175" s="35"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27"/>
       <c r="B176" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C176" s="36"/>
+      <c r="C176" s="35"/>
       <c r="D176" s="4"/>
       <c r="E176" s="27"/>
-      <c r="F176" s="36"/>
+      <c r="F176" s="35"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
       <c r="B177" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C177" s="36"/>
+      <c r="C177" s="35"/>
       <c r="D177" s="4"/>
       <c r="E177" s="27"/>
-      <c r="F177" s="36"/>
+      <c r="F177" s="35"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="28"/>
@@ -7516,7 +7516,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="32" t="s">
+      <c r="A341" s="38" t="s">
         <v>362</v>
       </c>
       <c r="B341" s="5" t="s">
@@ -7534,7 +7534,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="33"/>
+      <c r="A342" s="39"/>
       <c r="B342" s="4" t="s">
         <v>364</v>
       </c>
@@ -7548,7 +7548,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="33"/>
+      <c r="A343" s="39"/>
       <c r="B343" s="4" t="s">
         <v>365</v>
       </c>
@@ -7562,7 +7562,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="33"/>
+      <c r="A344" s="39"/>
       <c r="B344" s="4" t="s">
         <v>366</v>
       </c>
@@ -7576,7 +7576,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="33"/>
+      <c r="A345" s="39"/>
       <c r="B345" s="4" t="s">
         <v>367</v>
       </c>
@@ -7590,7 +7590,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="33"/>
+      <c r="A346" s="39"/>
       <c r="B346" s="4" t="s">
         <v>368</v>
       </c>
@@ -7604,7 +7604,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="33"/>
+      <c r="A347" s="39"/>
       <c r="B347" s="4" t="s">
         <v>369</v>
       </c>
@@ -7618,7 +7618,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="33"/>
+      <c r="A348" s="39"/>
       <c r="B348" s="4" t="s">
         <v>370</v>
       </c>
@@ -7632,7 +7632,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="33"/>
+      <c r="A349" s="39"/>
       <c r="B349" s="4" t="s">
         <v>371</v>
       </c>
@@ -7646,7 +7646,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="33"/>
+      <c r="A350" s="39"/>
       <c r="B350" s="4" t="s">
         <v>372</v>
       </c>
@@ -7660,7 +7660,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="33"/>
+      <c r="A351" s="39"/>
       <c r="B351" s="4" t="s">
         <v>373</v>
       </c>
@@ -7674,7 +7674,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="33"/>
+      <c r="A352" s="39"/>
       <c r="B352" s="4" t="s">
         <v>374</v>
       </c>
@@ -7688,7 +7688,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="33"/>
+      <c r="A353" s="39"/>
       <c r="B353" s="4" t="s">
         <v>375</v>
       </c>
@@ -7702,7 +7702,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="33"/>
+      <c r="A354" s="39"/>
       <c r="B354" s="4" t="s">
         <v>376</v>
       </c>
@@ -7716,7 +7716,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="33"/>
+      <c r="A355" s="39"/>
       <c r="B355" s="4" t="s">
         <v>377</v>
       </c>
@@ -7730,7 +7730,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="34"/>
+      <c r="A356" s="40"/>
       <c r="B356" s="6" t="s">
         <v>378</v>
       </c>
@@ -7753,7 +7753,7 @@
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="26" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="F357" s="8">
         <v>1</v>
@@ -10918,7 +10918,7 @@
       <c r="B614" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C614" s="29" t="s">
+      <c r="C614" s="41" t="s">
         <v>656</v>
       </c>
       <c r="D614" s="5"/>
@@ -10934,7 +10934,7 @@
       <c r="B615" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="C615" s="30"/>
+      <c r="C615" s="33"/>
       <c r="D615" s="4"/>
       <c r="E615" s="27"/>
       <c r="F615" s="8">
@@ -10946,7 +10946,7 @@
       <c r="B616" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C616" s="30"/>
+      <c r="C616" s="33"/>
       <c r="D616" s="4"/>
       <c r="E616" s="27"/>
       <c r="F616" s="8">
@@ -10958,7 +10958,7 @@
       <c r="B617" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C617" s="30"/>
+      <c r="C617" s="33"/>
       <c r="D617" s="4"/>
       <c r="E617" s="27"/>
       <c r="F617" s="8">
@@ -10970,7 +10970,7 @@
       <c r="B618" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C618" s="30"/>
+      <c r="C618" s="33"/>
       <c r="D618" s="4"/>
       <c r="E618" s="27"/>
       <c r="F618" s="8">
@@ -10982,7 +10982,7 @@
       <c r="B619" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C619" s="30"/>
+      <c r="C619" s="33"/>
       <c r="D619" s="4"/>
       <c r="E619" s="27"/>
       <c r="F619" s="8">
@@ -10994,7 +10994,7 @@
       <c r="B620" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C620" s="30"/>
+      <c r="C620" s="33"/>
       <c r="D620" s="4"/>
       <c r="E620" s="27"/>
       <c r="F620" s="8">
@@ -11006,7 +11006,7 @@
       <c r="B621" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C621" s="30"/>
+      <c r="C621" s="33"/>
       <c r="D621" s="4"/>
       <c r="E621" s="27"/>
       <c r="F621" s="8">
@@ -11018,7 +11018,7 @@
       <c r="B622" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C622" s="30"/>
+      <c r="C622" s="33"/>
       <c r="D622" s="4"/>
       <c r="E622" s="27"/>
       <c r="F622" s="8">
@@ -11030,7 +11030,7 @@
       <c r="B623" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C623" s="31"/>
+      <c r="C623" s="34"/>
       <c r="D623" s="6"/>
       <c r="E623" s="28"/>
       <c r="F623" s="8">
@@ -13235,70 +13235,18 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="E15:E32"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="E400:E403"/>
-    <mergeCell ref="A404:A420"/>
-    <mergeCell ref="E404:E420"/>
-    <mergeCell ref="A421:A471"/>
-    <mergeCell ref="E421:E471"/>
-    <mergeCell ref="A472:A486"/>
-    <mergeCell ref="E472:E486"/>
-    <mergeCell ref="A487:A498"/>
-    <mergeCell ref="E487:E498"/>
-    <mergeCell ref="A499:A504"/>
-    <mergeCell ref="E499:E504"/>
-    <mergeCell ref="A505:A577"/>
-    <mergeCell ref="E505:E577"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="A582:A583"/>
-    <mergeCell ref="E582:E583"/>
-    <mergeCell ref="A584:A593"/>
-    <mergeCell ref="E584:E593"/>
-    <mergeCell ref="A594:A600"/>
-    <mergeCell ref="E594:E600"/>
-    <mergeCell ref="A604:A606"/>
-    <mergeCell ref="E604:E606"/>
+    <mergeCell ref="A782:A784"/>
+    <mergeCell ref="E782:E784"/>
+    <mergeCell ref="A785:A791"/>
+    <mergeCell ref="E785:E791"/>
+    <mergeCell ref="A792:A803"/>
+    <mergeCell ref="E792:E803"/>
+    <mergeCell ref="A632:A758"/>
+    <mergeCell ref="E632:E758"/>
+    <mergeCell ref="A759:A779"/>
+    <mergeCell ref="E759:E779"/>
+    <mergeCell ref="A780:A781"/>
+    <mergeCell ref="E780:E781"/>
     <mergeCell ref="A624:A628"/>
     <mergeCell ref="E624:E628"/>
     <mergeCell ref="A629:A630"/>
@@ -13308,18 +13256,70 @@
     <mergeCell ref="A614:A623"/>
     <mergeCell ref="C614:C623"/>
     <mergeCell ref="E614:E623"/>
-    <mergeCell ref="A632:A758"/>
-    <mergeCell ref="E632:E758"/>
-    <mergeCell ref="A759:A779"/>
-    <mergeCell ref="E759:E779"/>
-    <mergeCell ref="A780:A781"/>
-    <mergeCell ref="E780:E781"/>
-    <mergeCell ref="A782:A784"/>
-    <mergeCell ref="E782:E784"/>
-    <mergeCell ref="A785:A791"/>
-    <mergeCell ref="E785:E791"/>
-    <mergeCell ref="A792:A803"/>
-    <mergeCell ref="E792:E803"/>
+    <mergeCell ref="A584:A593"/>
+    <mergeCell ref="E584:E593"/>
+    <mergeCell ref="A594:A600"/>
+    <mergeCell ref="E594:E600"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="E604:E606"/>
+    <mergeCell ref="A505:A577"/>
+    <mergeCell ref="E505:E577"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="A582:A583"/>
+    <mergeCell ref="E582:E583"/>
+    <mergeCell ref="A472:A486"/>
+    <mergeCell ref="E472:E486"/>
+    <mergeCell ref="A487:A498"/>
+    <mergeCell ref="E487:E498"/>
+    <mergeCell ref="A499:A504"/>
+    <mergeCell ref="E499:E504"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="E400:E403"/>
+    <mergeCell ref="A404:A420"/>
+    <mergeCell ref="E404:E420"/>
+    <mergeCell ref="A421:A471"/>
+    <mergeCell ref="E421:E471"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E15:E32"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="expression" dxfId="9" priority="10">

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -16,7 +16,6 @@
     <sheet name="WebApiContracts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3346,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="D336" sqref="D336"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3792,7 +3791,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="26" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F33" s="5">
         <v>2</v>
@@ -3852,7 +3851,9 @@
         <v>46</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
       <c r="E38" s="27"/>
       <c r="F38" s="5">
         <v>2</v>
@@ -3864,7 +3865,9 @@
         <v>47</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
       <c r="E39" s="27"/>
       <c r="F39" s="5">
         <v>2</v>
@@ -3876,7 +3879,9 @@
         <v>48</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
       <c r="E40" s="27"/>
       <c r="F40" s="5">
         <v>2</v>
@@ -3888,7 +3893,9 @@
         <v>49</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
       <c r="E41" s="27"/>
       <c r="F41" s="5">
         <v>2</v>
@@ -3900,7 +3907,9 @@
         <v>50</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
       <c r="E42" s="27"/>
       <c r="F42" s="5">
         <v>2</v>
@@ -3912,7 +3921,9 @@
         <v>51</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
       <c r="E43" s="27"/>
       <c r="F43" s="5">
         <v>2</v>
@@ -3936,7 +3947,9 @@
         <v>53</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
       <c r="E45" s="27"/>
       <c r="F45" s="5">
         <v>2</v>
@@ -11052,7 +11065,9 @@
         <v>658</v>
       </c>
       <c r="C624" s="5"/>
-      <c r="D624" s="5"/>
+      <c r="D624" s="5">
+        <v>1</v>
+      </c>
       <c r="E624" s="26" t="s">
         <v>550</v>
       </c>
@@ -11066,7 +11081,9 @@
         <v>523</v>
       </c>
       <c r="C625" s="4"/>
-      <c r="D625" s="4"/>
+      <c r="D625" s="5">
+        <v>1</v>
+      </c>
       <c r="E625" s="27"/>
       <c r="F625" s="8">
         <v>1</v>
@@ -11078,7 +11095,9 @@
         <v>659</v>
       </c>
       <c r="C626" s="4"/>
-      <c r="D626" s="4"/>
+      <c r="D626" s="5">
+        <v>1</v>
+      </c>
       <c r="E626" s="27"/>
       <c r="F626" s="8">
         <v>1</v>
@@ -11090,7 +11109,9 @@
         <v>660</v>
       </c>
       <c r="C627" s="4"/>
-      <c r="D627" s="4"/>
+      <c r="D627" s="5">
+        <v>1</v>
+      </c>
       <c r="E627" s="27"/>
       <c r="F627" s="8">
         <v>1</v>
@@ -11102,7 +11123,9 @@
         <v>661</v>
       </c>
       <c r="C628" s="6"/>
-      <c r="D628" s="6"/>
+      <c r="D628" s="5">
+        <v>1</v>
+      </c>
       <c r="E628" s="28"/>
       <c r="F628" s="8">
         <v>1</v>

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF0397C-57C5-4D16-B6E1-E4F4161336EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WebApiTests" sheetId="1" r:id="rId1"/>
@@ -2651,7 +2652,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2903,31 +2904,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2939,8 +2922,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3342,11 +3343,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="E421" sqref="E421:E471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3390,7 +3391,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="39" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -3406,7 +3407,7 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
@@ -3420,7 +3421,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="30"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
@@ -3448,7 +3449,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
@@ -3462,7 +3463,7 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
@@ -3476,7 +3477,7 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
@@ -3492,7 +3493,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="39" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -3508,7 +3509,7 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
@@ -3520,7 +3521,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
@@ -3532,7 +3533,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
@@ -3544,7 +3545,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
@@ -3556,7 +3557,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
@@ -4048,12 +4049,12 @@
       <c r="B53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="38" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4062,60 +4063,60 @@
       <c r="B54" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="35"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="4"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="33"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="35"/>
+      <c r="C55" s="36"/>
       <c r="D55" s="4"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="33"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="35"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="4"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="33"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="35"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="4"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="33"/>
+      <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="35"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="4"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="33"/>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="35"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="4"/>
       <c r="E59" s="27"/>
-      <c r="F59" s="34"/>
+      <c r="F59" s="31"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
@@ -5496,14 +5497,14 @@
       <c r="B174" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C174" s="36" t="s">
+      <c r="C174" s="35" t="s">
         <v>69</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F174" s="36" t="s">
+      <c r="F174" s="35" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5512,30 +5513,30 @@
       <c r="B175" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C175" s="35"/>
+      <c r="C175" s="36"/>
       <c r="D175" s="4"/>
       <c r="E175" s="27"/>
-      <c r="F175" s="35"/>
+      <c r="F175" s="36"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27"/>
       <c r="B176" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C176" s="35"/>
+      <c r="C176" s="36"/>
       <c r="D176" s="4"/>
       <c r="E176" s="27"/>
-      <c r="F176" s="35"/>
+      <c r="F176" s="36"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
       <c r="B177" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C177" s="35"/>
+      <c r="C177" s="36"/>
       <c r="D177" s="4"/>
       <c r="E177" s="27"/>
-      <c r="F177" s="35"/>
+      <c r="F177" s="36"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="28"/>
@@ -7536,7 +7537,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="38" t="s">
+      <c r="A341" s="32" t="s">
         <v>362</v>
       </c>
       <c r="B341" s="5" t="s">
@@ -7554,7 +7555,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="39"/>
+      <c r="A342" s="33"/>
       <c r="B342" s="4" t="s">
         <v>364</v>
       </c>
@@ -7568,7 +7569,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="39"/>
+      <c r="A343" s="33"/>
       <c r="B343" s="4" t="s">
         <v>365</v>
       </c>
@@ -7582,7 +7583,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="39"/>
+      <c r="A344" s="33"/>
       <c r="B344" s="4" t="s">
         <v>366</v>
       </c>
@@ -7596,7 +7597,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="39"/>
+      <c r="A345" s="33"/>
       <c r="B345" s="4" t="s">
         <v>367</v>
       </c>
@@ -7610,7 +7611,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="39"/>
+      <c r="A346" s="33"/>
       <c r="B346" s="4" t="s">
         <v>368</v>
       </c>
@@ -7624,7 +7625,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="39"/>
+      <c r="A347" s="33"/>
       <c r="B347" s="4" t="s">
         <v>369</v>
       </c>
@@ -7638,7 +7639,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="39"/>
+      <c r="A348" s="33"/>
       <c r="B348" s="4" t="s">
         <v>370</v>
       </c>
@@ -7652,7 +7653,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="39"/>
+      <c r="A349" s="33"/>
       <c r="B349" s="4" t="s">
         <v>371</v>
       </c>
@@ -7666,7 +7667,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="39"/>
+      <c r="A350" s="33"/>
       <c r="B350" s="4" t="s">
         <v>372</v>
       </c>
@@ -7680,7 +7681,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="39"/>
+      <c r="A351" s="33"/>
       <c r="B351" s="4" t="s">
         <v>373</v>
       </c>
@@ -7694,7 +7695,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="39"/>
+      <c r="A352" s="33"/>
       <c r="B352" s="4" t="s">
         <v>374</v>
       </c>
@@ -7708,7 +7709,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="39"/>
+      <c r="A353" s="33"/>
       <c r="B353" s="4" t="s">
         <v>375</v>
       </c>
@@ -7722,7 +7723,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="39"/>
+      <c r="A354" s="33"/>
       <c r="B354" s="4" t="s">
         <v>376</v>
       </c>
@@ -7736,7 +7737,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="39"/>
+      <c r="A355" s="33"/>
       <c r="B355" s="4" t="s">
         <v>377</v>
       </c>
@@ -7750,7 +7751,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="40"/>
+      <c r="A356" s="34"/>
       <c r="B356" s="6" t="s">
         <v>378</v>
       </c>
@@ -7773,7 +7774,7 @@
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="26" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="F357" s="8">
         <v>1</v>
@@ -8355,7 +8356,7 @@
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="26" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="F404" s="8">
         <v>1</v>
@@ -10938,7 +10939,7 @@
       <c r="B614" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C614" s="41" t="s">
+      <c r="C614" s="29" t="s">
         <v>656</v>
       </c>
       <c r="D614" s="5"/>
@@ -10954,7 +10955,7 @@
       <c r="B615" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="C615" s="33"/>
+      <c r="C615" s="30"/>
       <c r="D615" s="4"/>
       <c r="E615" s="27"/>
       <c r="F615" s="8">
@@ -10966,7 +10967,7 @@
       <c r="B616" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C616" s="33"/>
+      <c r="C616" s="30"/>
       <c r="D616" s="4"/>
       <c r="E616" s="27"/>
       <c r="F616" s="8">
@@ -10978,7 +10979,7 @@
       <c r="B617" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C617" s="33"/>
+      <c r="C617" s="30"/>
       <c r="D617" s="4"/>
       <c r="E617" s="27"/>
       <c r="F617" s="8">
@@ -10990,7 +10991,7 @@
       <c r="B618" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C618" s="33"/>
+      <c r="C618" s="30"/>
       <c r="D618" s="4"/>
       <c r="E618" s="27"/>
       <c r="F618" s="8">
@@ -11002,7 +11003,7 @@
       <c r="B619" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C619" s="33"/>
+      <c r="C619" s="30"/>
       <c r="D619" s="4"/>
       <c r="E619" s="27"/>
       <c r="F619" s="8">
@@ -11014,7 +11015,7 @@
       <c r="B620" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C620" s="33"/>
+      <c r="C620" s="30"/>
       <c r="D620" s="4"/>
       <c r="E620" s="27"/>
       <c r="F620" s="8">
@@ -11026,7 +11027,7 @@
       <c r="B621" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C621" s="33"/>
+      <c r="C621" s="30"/>
       <c r="D621" s="4"/>
       <c r="E621" s="27"/>
       <c r="F621" s="8">
@@ -11038,7 +11039,7 @@
       <c r="B622" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C622" s="33"/>
+      <c r="C622" s="30"/>
       <c r="D622" s="4"/>
       <c r="E622" s="27"/>
       <c r="F622" s="8">
@@ -11050,7 +11051,7 @@
       <c r="B623" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C623" s="34"/>
+      <c r="C623" s="31"/>
       <c r="D623" s="6"/>
       <c r="E623" s="28"/>
       <c r="F623" s="8">
@@ -13265,18 +13266,70 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A782:A784"/>
-    <mergeCell ref="E782:E784"/>
-    <mergeCell ref="A785:A791"/>
-    <mergeCell ref="E785:E791"/>
-    <mergeCell ref="A792:A803"/>
-    <mergeCell ref="E792:E803"/>
-    <mergeCell ref="A632:A758"/>
-    <mergeCell ref="E632:E758"/>
-    <mergeCell ref="A759:A779"/>
-    <mergeCell ref="E759:E779"/>
-    <mergeCell ref="A780:A781"/>
-    <mergeCell ref="E780:E781"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="E400:E403"/>
+    <mergeCell ref="A404:A420"/>
+    <mergeCell ref="E404:E420"/>
+    <mergeCell ref="A421:A471"/>
+    <mergeCell ref="E421:E471"/>
+    <mergeCell ref="A472:A486"/>
+    <mergeCell ref="E472:E486"/>
+    <mergeCell ref="A487:A498"/>
+    <mergeCell ref="E487:E498"/>
+    <mergeCell ref="A499:A504"/>
+    <mergeCell ref="E499:E504"/>
+    <mergeCell ref="A505:A577"/>
+    <mergeCell ref="E505:E577"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="A582:A583"/>
+    <mergeCell ref="E582:E583"/>
+    <mergeCell ref="A584:A593"/>
+    <mergeCell ref="E584:E593"/>
+    <mergeCell ref="A594:A600"/>
+    <mergeCell ref="E594:E600"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="E604:E606"/>
     <mergeCell ref="A624:A628"/>
     <mergeCell ref="E624:E628"/>
     <mergeCell ref="A629:A630"/>
@@ -13286,70 +13339,18 @@
     <mergeCell ref="A614:A623"/>
     <mergeCell ref="C614:C623"/>
     <mergeCell ref="E614:E623"/>
-    <mergeCell ref="A584:A593"/>
-    <mergeCell ref="E584:E593"/>
-    <mergeCell ref="A594:A600"/>
-    <mergeCell ref="E594:E600"/>
-    <mergeCell ref="A604:A606"/>
-    <mergeCell ref="E604:E606"/>
-    <mergeCell ref="A505:A577"/>
-    <mergeCell ref="E505:E577"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="A582:A583"/>
-    <mergeCell ref="E582:E583"/>
-    <mergeCell ref="A472:A486"/>
-    <mergeCell ref="E472:E486"/>
-    <mergeCell ref="A487:A498"/>
-    <mergeCell ref="E487:E498"/>
-    <mergeCell ref="A499:A504"/>
-    <mergeCell ref="E499:E504"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="E400:E403"/>
-    <mergeCell ref="A404:A420"/>
-    <mergeCell ref="E404:E420"/>
-    <mergeCell ref="A421:A471"/>
-    <mergeCell ref="E421:E471"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="A632:A758"/>
+    <mergeCell ref="E632:E758"/>
+    <mergeCell ref="A759:A779"/>
+    <mergeCell ref="E759:E779"/>
+    <mergeCell ref="A780:A781"/>
+    <mergeCell ref="E780:E781"/>
+    <mergeCell ref="A782:A784"/>
+    <mergeCell ref="E782:E784"/>
+    <mergeCell ref="A785:A791"/>
+    <mergeCell ref="E785:E791"/>
+    <mergeCell ref="A792:A803"/>
+    <mergeCell ref="E792:E803"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="expression" dxfId="10" priority="11">
@@ -13390,7 +13391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF0397C-57C5-4D16-B6E1-E4F4161336EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="WebApiTests" sheetId="1" r:id="rId1"/>
@@ -2652,7 +2651,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2904,13 +2903,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2922,26 +2939,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3343,11 +3342,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="E421" sqref="E421:E471"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,7 +3390,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="29" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -3407,7 +3406,7 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
@@ -3421,7 +3420,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
@@ -3435,7 +3434,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="40"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
@@ -3449,7 +3448,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
@@ -3463,7 +3462,7 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
@@ -3477,7 +3476,7 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
@@ -3493,7 +3492,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="29" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -3509,7 +3508,7 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
@@ -3521,7 +3520,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
@@ -3533,7 +3532,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
@@ -3545,7 +3544,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
@@ -3557,7 +3556,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="41"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
@@ -3570,7 +3569,9 @@
         <v>21</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
       <c r="E15" s="26" t="s">
         <v>550</v>
       </c>
@@ -3584,7 +3585,9 @@
         <v>22</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
       <c r="E16" s="27"/>
       <c r="F16" s="5">
         <v>1</v>
@@ -3596,7 +3599,9 @@
         <v>23</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
       <c r="E17" s="27"/>
       <c r="F17" s="5">
         <v>1</v>
@@ -3608,7 +3613,9 @@
         <v>24</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
       <c r="E18" s="27"/>
       <c r="F18" s="5">
         <v>1</v>
@@ -3620,7 +3627,9 @@
         <v>25</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
       <c r="E19" s="27"/>
       <c r="F19" s="5">
         <v>1</v>
@@ -3632,7 +3641,9 @@
         <v>26</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
       <c r="E20" s="27"/>
       <c r="F20" s="5">
         <v>1</v>
@@ -3644,7 +3655,9 @@
         <v>27</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
       <c r="E21" s="27"/>
       <c r="F21" s="5">
         <v>1</v>
@@ -3656,7 +3669,9 @@
         <v>28</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
       <c r="E22" s="27"/>
       <c r="F22" s="5">
         <v>1</v>
@@ -3668,7 +3683,9 @@
         <v>29</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
       <c r="E23" s="27"/>
       <c r="F23" s="5">
         <v>1</v>
@@ -3680,7 +3697,9 @@
         <v>30</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
       <c r="E24" s="27"/>
       <c r="F24" s="5">
         <v>1</v>
@@ -3692,7 +3711,9 @@
         <v>31</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
       <c r="E25" s="27"/>
       <c r="F25" s="5">
         <v>1</v>
@@ -3704,7 +3725,9 @@
         <v>32</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
       <c r="E26" s="27"/>
       <c r="F26" s="5">
         <v>1</v>
@@ -3716,7 +3739,9 @@
         <v>33</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
       <c r="E27" s="27"/>
       <c r="F27" s="5">
         <v>1</v>
@@ -3728,7 +3753,9 @@
         <v>34</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
       <c r="E28" s="27"/>
       <c r="F28" s="5">
         <v>1</v>
@@ -3740,7 +3767,9 @@
         <v>35</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
       <c r="E29" s="27"/>
       <c r="F29" s="5">
         <v>1</v>
@@ -3752,7 +3781,9 @@
         <v>36</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
       <c r="E30" s="27"/>
       <c r="F30" s="5">
         <v>1</v>
@@ -3764,7 +3795,9 @@
         <v>37</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
       <c r="E31" s="27"/>
       <c r="F31" s="5">
         <v>1</v>
@@ -3776,7 +3809,9 @@
         <v>38</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
       <c r="E32" s="28"/>
       <c r="F32" s="5">
         <v>1</v>
@@ -3790,7 +3825,9 @@
         <v>41</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
       <c r="E33" s="26" t="s">
         <v>12</v>
       </c>
@@ -3804,7 +3841,9 @@
         <v>42</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
       <c r="E34" s="27"/>
       <c r="F34" s="5">
         <v>2</v>
@@ -3816,7 +3855,9 @@
         <v>43</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
       <c r="E35" s="27"/>
       <c r="F35" s="5">
         <v>2</v>
@@ -3828,7 +3869,9 @@
         <v>44</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
       <c r="E36" s="27"/>
       <c r="F36" s="5">
         <v>2</v>
@@ -3840,7 +3883,9 @@
         <v>45</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
       <c r="E37" s="27"/>
       <c r="F37" s="5">
         <v>2</v>
@@ -3936,7 +3981,9 @@
         <v>52</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
       <c r="E44" s="27"/>
       <c r="F44" s="5">
         <v>2</v>
@@ -3962,7 +4009,9 @@
         <v>54</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
       <c r="E46" s="28"/>
       <c r="F46" s="8">
         <v>2</v>
@@ -4049,12 +4098,14 @@
       <c r="B53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4">
+        <v>3</v>
+      </c>
       <c r="E53" s="27"/>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="32" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4063,60 +4114,72 @@
       <c r="B54" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="4"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="4">
+        <v>3</v>
+      </c>
       <c r="E54" s="27"/>
-      <c r="F54" s="30"/>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="4"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="4">
+        <v>3</v>
+      </c>
       <c r="E55" s="27"/>
-      <c r="F55" s="30"/>
+      <c r="F55" s="33"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="4"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="4">
+        <v>3</v>
+      </c>
       <c r="E56" s="27"/>
-      <c r="F56" s="30"/>
+      <c r="F56" s="33"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="4"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="4">
+        <v>3</v>
+      </c>
       <c r="E57" s="27"/>
-      <c r="F57" s="30"/>
+      <c r="F57" s="33"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="4"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
       <c r="E58" s="27"/>
-      <c r="F58" s="30"/>
+      <c r="F58" s="33"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="4"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="4">
+        <v>3</v>
+      </c>
       <c r="E59" s="27"/>
-      <c r="F59" s="31"/>
+      <c r="F59" s="34"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
@@ -5497,14 +5560,14 @@
       <c r="B174" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C174" s="35" t="s">
+      <c r="C174" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F174" s="35" t="s">
+      <c r="F174" s="36" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5513,30 +5576,30 @@
       <c r="B175" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C175" s="36"/>
+      <c r="C175" s="35"/>
       <c r="D175" s="4"/>
       <c r="E175" s="27"/>
-      <c r="F175" s="36"/>
+      <c r="F175" s="35"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27"/>
       <c r="B176" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C176" s="36"/>
+      <c r="C176" s="35"/>
       <c r="D176" s="4"/>
       <c r="E176" s="27"/>
-      <c r="F176" s="36"/>
+      <c r="F176" s="35"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
       <c r="B177" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C177" s="36"/>
+      <c r="C177" s="35"/>
       <c r="D177" s="4"/>
       <c r="E177" s="27"/>
-      <c r="F177" s="36"/>
+      <c r="F177" s="35"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="28"/>
@@ -7537,7 +7600,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="32" t="s">
+      <c r="A341" s="38" t="s">
         <v>362</v>
       </c>
       <c r="B341" s="5" t="s">
@@ -7555,7 +7618,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="33"/>
+      <c r="A342" s="39"/>
       <c r="B342" s="4" t="s">
         <v>364</v>
       </c>
@@ -7569,7 +7632,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="33"/>
+      <c r="A343" s="39"/>
       <c r="B343" s="4" t="s">
         <v>365</v>
       </c>
@@ -7583,7 +7646,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="33"/>
+      <c r="A344" s="39"/>
       <c r="B344" s="4" t="s">
         <v>366</v>
       </c>
@@ -7597,7 +7660,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="33"/>
+      <c r="A345" s="39"/>
       <c r="B345" s="4" t="s">
         <v>367</v>
       </c>
@@ -7611,7 +7674,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="33"/>
+      <c r="A346" s="39"/>
       <c r="B346" s="4" t="s">
         <v>368</v>
       </c>
@@ -7625,7 +7688,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="33"/>
+      <c r="A347" s="39"/>
       <c r="B347" s="4" t="s">
         <v>369</v>
       </c>
@@ -7639,7 +7702,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="33"/>
+      <c r="A348" s="39"/>
       <c r="B348" s="4" t="s">
         <v>370</v>
       </c>
@@ -7653,7 +7716,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="33"/>
+      <c r="A349" s="39"/>
       <c r="B349" s="4" t="s">
         <v>371</v>
       </c>
@@ -7667,7 +7730,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="33"/>
+      <c r="A350" s="39"/>
       <c r="B350" s="4" t="s">
         <v>372</v>
       </c>
@@ -7681,7 +7744,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="33"/>
+      <c r="A351" s="39"/>
       <c r="B351" s="4" t="s">
         <v>373</v>
       </c>
@@ -7695,7 +7758,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="33"/>
+      <c r="A352" s="39"/>
       <c r="B352" s="4" t="s">
         <v>374</v>
       </c>
@@ -7709,7 +7772,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="33"/>
+      <c r="A353" s="39"/>
       <c r="B353" s="4" t="s">
         <v>375</v>
       </c>
@@ -7723,7 +7786,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="33"/>
+      <c r="A354" s="39"/>
       <c r="B354" s="4" t="s">
         <v>376</v>
       </c>
@@ -7737,7 +7800,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="33"/>
+      <c r="A355" s="39"/>
       <c r="B355" s="4" t="s">
         <v>377</v>
       </c>
@@ -7751,7 +7814,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="34"/>
+      <c r="A356" s="40"/>
       <c r="B356" s="6" t="s">
         <v>378</v>
       </c>
@@ -10939,7 +11002,7 @@
       <c r="B614" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C614" s="29" t="s">
+      <c r="C614" s="41" t="s">
         <v>656</v>
       </c>
       <c r="D614" s="5"/>
@@ -10955,7 +11018,7 @@
       <c r="B615" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="C615" s="30"/>
+      <c r="C615" s="33"/>
       <c r="D615" s="4"/>
       <c r="E615" s="27"/>
       <c r="F615" s="8">
@@ -10967,7 +11030,7 @@
       <c r="B616" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C616" s="30"/>
+      <c r="C616" s="33"/>
       <c r="D616" s="4"/>
       <c r="E616" s="27"/>
       <c r="F616" s="8">
@@ -10979,7 +11042,7 @@
       <c r="B617" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C617" s="30"/>
+      <c r="C617" s="33"/>
       <c r="D617" s="4"/>
       <c r="E617" s="27"/>
       <c r="F617" s="8">
@@ -10991,7 +11054,7 @@
       <c r="B618" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C618" s="30"/>
+      <c r="C618" s="33"/>
       <c r="D618" s="4"/>
       <c r="E618" s="27"/>
       <c r="F618" s="8">
@@ -11003,7 +11066,7 @@
       <c r="B619" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C619" s="30"/>
+      <c r="C619" s="33"/>
       <c r="D619" s="4"/>
       <c r="E619" s="27"/>
       <c r="F619" s="8">
@@ -11015,7 +11078,7 @@
       <c r="B620" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C620" s="30"/>
+      <c r="C620" s="33"/>
       <c r="D620" s="4"/>
       <c r="E620" s="27"/>
       <c r="F620" s="8">
@@ -11027,7 +11090,7 @@
       <c r="B621" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C621" s="30"/>
+      <c r="C621" s="33"/>
       <c r="D621" s="4"/>
       <c r="E621" s="27"/>
       <c r="F621" s="8">
@@ -11039,7 +11102,7 @@
       <c r="B622" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C622" s="30"/>
+      <c r="C622" s="33"/>
       <c r="D622" s="4"/>
       <c r="E622" s="27"/>
       <c r="F622" s="8">
@@ -11051,7 +11114,7 @@
       <c r="B623" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C623" s="31"/>
+      <c r="C623" s="34"/>
       <c r="D623" s="6"/>
       <c r="E623" s="28"/>
       <c r="F623" s="8">
@@ -13266,70 +13329,18 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="E15:E32"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="E400:E403"/>
-    <mergeCell ref="A404:A420"/>
-    <mergeCell ref="E404:E420"/>
-    <mergeCell ref="A421:A471"/>
-    <mergeCell ref="E421:E471"/>
-    <mergeCell ref="A472:A486"/>
-    <mergeCell ref="E472:E486"/>
-    <mergeCell ref="A487:A498"/>
-    <mergeCell ref="E487:E498"/>
-    <mergeCell ref="A499:A504"/>
-    <mergeCell ref="E499:E504"/>
-    <mergeCell ref="A505:A577"/>
-    <mergeCell ref="E505:E577"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="A582:A583"/>
-    <mergeCell ref="E582:E583"/>
-    <mergeCell ref="A584:A593"/>
-    <mergeCell ref="E584:E593"/>
-    <mergeCell ref="A594:A600"/>
-    <mergeCell ref="E594:E600"/>
-    <mergeCell ref="A604:A606"/>
-    <mergeCell ref="E604:E606"/>
+    <mergeCell ref="A782:A784"/>
+    <mergeCell ref="E782:E784"/>
+    <mergeCell ref="A785:A791"/>
+    <mergeCell ref="E785:E791"/>
+    <mergeCell ref="A792:A803"/>
+    <mergeCell ref="E792:E803"/>
+    <mergeCell ref="A632:A758"/>
+    <mergeCell ref="E632:E758"/>
+    <mergeCell ref="A759:A779"/>
+    <mergeCell ref="E759:E779"/>
+    <mergeCell ref="A780:A781"/>
+    <mergeCell ref="E780:E781"/>
     <mergeCell ref="A624:A628"/>
     <mergeCell ref="E624:E628"/>
     <mergeCell ref="A629:A630"/>
@@ -13339,18 +13350,70 @@
     <mergeCell ref="A614:A623"/>
     <mergeCell ref="C614:C623"/>
     <mergeCell ref="E614:E623"/>
-    <mergeCell ref="A632:A758"/>
-    <mergeCell ref="E632:E758"/>
-    <mergeCell ref="A759:A779"/>
-    <mergeCell ref="E759:E779"/>
-    <mergeCell ref="A780:A781"/>
-    <mergeCell ref="E780:E781"/>
-    <mergeCell ref="A782:A784"/>
-    <mergeCell ref="E782:E784"/>
-    <mergeCell ref="A785:A791"/>
-    <mergeCell ref="E785:E791"/>
-    <mergeCell ref="A792:A803"/>
-    <mergeCell ref="E792:E803"/>
+    <mergeCell ref="A584:A593"/>
+    <mergeCell ref="E584:E593"/>
+    <mergeCell ref="A594:A600"/>
+    <mergeCell ref="E594:E600"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="E604:E606"/>
+    <mergeCell ref="A505:A577"/>
+    <mergeCell ref="E505:E577"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="A582:A583"/>
+    <mergeCell ref="E582:E583"/>
+    <mergeCell ref="A472:A486"/>
+    <mergeCell ref="E472:E486"/>
+    <mergeCell ref="A487:A498"/>
+    <mergeCell ref="E487:E498"/>
+    <mergeCell ref="A499:A504"/>
+    <mergeCell ref="E499:E504"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="E400:E403"/>
+    <mergeCell ref="A404:A420"/>
+    <mergeCell ref="E404:E420"/>
+    <mergeCell ref="A421:A471"/>
+    <mergeCell ref="E421:E471"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E15:E32"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="expression" dxfId="10" priority="11">
@@ -13391,7 +13454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88025E8C-D173-473C-9176-760FD9B24044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WebApiTests" sheetId="1" r:id="rId1"/>
@@ -2651,7 +2652,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2903,31 +2904,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2939,8 +2922,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3342,11 +3343,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="E228" sqref="E228:E310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3390,7 +3391,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="39" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -3406,7 +3407,7 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
@@ -3420,7 +3421,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="30"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
@@ -3448,7 +3449,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
@@ -3462,7 +3463,7 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
@@ -3476,7 +3477,7 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
@@ -3492,7 +3493,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="39" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -3508,7 +3509,7 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
@@ -3520,7 +3521,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
@@ -3532,7 +3533,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
@@ -3544,7 +3545,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
@@ -3556,7 +3557,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
@@ -4027,7 +4028,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="26" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="F47" s="5">
         <v>1</v>
@@ -4098,14 +4099,14 @@
       <c r="B53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D53" s="4">
         <v>3</v>
       </c>
       <c r="E53" s="27"/>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="38" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4114,72 +4115,72 @@
       <c r="B54" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="35"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="4">
         <v>3</v>
       </c>
       <c r="E54" s="27"/>
-      <c r="F54" s="33"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="35"/>
+      <c r="C55" s="36"/>
       <c r="D55" s="4">
         <v>3</v>
       </c>
       <c r="E55" s="27"/>
-      <c r="F55" s="33"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="35"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="4">
         <v>3</v>
       </c>
       <c r="E56" s="27"/>
-      <c r="F56" s="33"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="35"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="4">
         <v>3</v>
       </c>
       <c r="E57" s="27"/>
-      <c r="F57" s="33"/>
+      <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="35"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="4">
         <v>3</v>
       </c>
       <c r="E58" s="27"/>
-      <c r="F58" s="33"/>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="35"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="4">
         <v>3</v>
       </c>
       <c r="E59" s="27"/>
-      <c r="F59" s="34"/>
+      <c r="F59" s="31"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
@@ -5560,14 +5561,14 @@
       <c r="B174" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C174" s="36" t="s">
+      <c r="C174" s="35" t="s">
         <v>69</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F174" s="36" t="s">
+      <c r="F174" s="35" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5576,30 +5577,30 @@
       <c r="B175" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C175" s="35"/>
+      <c r="C175" s="36"/>
       <c r="D175" s="4"/>
       <c r="E175" s="27"/>
-      <c r="F175" s="35"/>
+      <c r="F175" s="36"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27"/>
       <c r="B176" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C176" s="35"/>
+      <c r="C176" s="36"/>
       <c r="D176" s="4"/>
       <c r="E176" s="27"/>
-      <c r="F176" s="35"/>
+      <c r="F176" s="36"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
       <c r="B177" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C177" s="35"/>
+      <c r="C177" s="36"/>
       <c r="D177" s="4"/>
       <c r="E177" s="27"/>
-      <c r="F177" s="35"/>
+      <c r="F177" s="36"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="28"/>
@@ -6057,7 +6058,7 @@
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="26" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F214" s="8">
         <v>2</v>
@@ -7600,7 +7601,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="38" t="s">
+      <c r="A341" s="32" t="s">
         <v>362</v>
       </c>
       <c r="B341" s="5" t="s">
@@ -7618,7 +7619,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="39"/>
+      <c r="A342" s="33"/>
       <c r="B342" s="4" t="s">
         <v>364</v>
       </c>
@@ -7632,7 +7633,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="39"/>
+      <c r="A343" s="33"/>
       <c r="B343" s="4" t="s">
         <v>365</v>
       </c>
@@ -7646,7 +7647,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="39"/>
+      <c r="A344" s="33"/>
       <c r="B344" s="4" t="s">
         <v>366</v>
       </c>
@@ -7660,7 +7661,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="39"/>
+      <c r="A345" s="33"/>
       <c r="B345" s="4" t="s">
         <v>367</v>
       </c>
@@ -7674,7 +7675,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="39"/>
+      <c r="A346" s="33"/>
       <c r="B346" s="4" t="s">
         <v>368</v>
       </c>
@@ -7688,7 +7689,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="39"/>
+      <c r="A347" s="33"/>
       <c r="B347" s="4" t="s">
         <v>369</v>
       </c>
@@ -7702,7 +7703,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="39"/>
+      <c r="A348" s="33"/>
       <c r="B348" s="4" t="s">
         <v>370</v>
       </c>
@@ -7716,7 +7717,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="39"/>
+      <c r="A349" s="33"/>
       <c r="B349" s="4" t="s">
         <v>371</v>
       </c>
@@ -7730,7 +7731,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="39"/>
+      <c r="A350" s="33"/>
       <c r="B350" s="4" t="s">
         <v>372</v>
       </c>
@@ -7744,7 +7745,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="39"/>
+      <c r="A351" s="33"/>
       <c r="B351" s="4" t="s">
         <v>373</v>
       </c>
@@ -7758,7 +7759,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="39"/>
+      <c r="A352" s="33"/>
       <c r="B352" s="4" t="s">
         <v>374</v>
       </c>
@@ -7772,7 +7773,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="39"/>
+      <c r="A353" s="33"/>
       <c r="B353" s="4" t="s">
         <v>375</v>
       </c>
@@ -7786,7 +7787,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="39"/>
+      <c r="A354" s="33"/>
       <c r="B354" s="4" t="s">
         <v>376</v>
       </c>
@@ -7800,7 +7801,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="39"/>
+      <c r="A355" s="33"/>
       <c r="B355" s="4" t="s">
         <v>377</v>
       </c>
@@ -7814,7 +7815,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="40"/>
+      <c r="A356" s="34"/>
       <c r="B356" s="6" t="s">
         <v>378</v>
       </c>
@@ -11002,7 +11003,7 @@
       <c r="B614" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C614" s="41" t="s">
+      <c r="C614" s="29" t="s">
         <v>656</v>
       </c>
       <c r="D614" s="5"/>
@@ -11018,7 +11019,7 @@
       <c r="B615" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="C615" s="33"/>
+      <c r="C615" s="30"/>
       <c r="D615" s="4"/>
       <c r="E615" s="27"/>
       <c r="F615" s="8">
@@ -11030,7 +11031,7 @@
       <c r="B616" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C616" s="33"/>
+      <c r="C616" s="30"/>
       <c r="D616" s="4"/>
       <c r="E616" s="27"/>
       <c r="F616" s="8">
@@ -11042,7 +11043,7 @@
       <c r="B617" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C617" s="33"/>
+      <c r="C617" s="30"/>
       <c r="D617" s="4"/>
       <c r="E617" s="27"/>
       <c r="F617" s="8">
@@ -11054,7 +11055,7 @@
       <c r="B618" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C618" s="33"/>
+      <c r="C618" s="30"/>
       <c r="D618" s="4"/>
       <c r="E618" s="27"/>
       <c r="F618" s="8">
@@ -11066,7 +11067,7 @@
       <c r="B619" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C619" s="33"/>
+      <c r="C619" s="30"/>
       <c r="D619" s="4"/>
       <c r="E619" s="27"/>
       <c r="F619" s="8">
@@ -11078,7 +11079,7 @@
       <c r="B620" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C620" s="33"/>
+      <c r="C620" s="30"/>
       <c r="D620" s="4"/>
       <c r="E620" s="27"/>
       <c r="F620" s="8">
@@ -11090,7 +11091,7 @@
       <c r="B621" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C621" s="33"/>
+      <c r="C621" s="30"/>
       <c r="D621" s="4"/>
       <c r="E621" s="27"/>
       <c r="F621" s="8">
@@ -11102,7 +11103,7 @@
       <c r="B622" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C622" s="33"/>
+      <c r="C622" s="30"/>
       <c r="D622" s="4"/>
       <c r="E622" s="27"/>
       <c r="F622" s="8">
@@ -11114,7 +11115,7 @@
       <c r="B623" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C623" s="34"/>
+      <c r="C623" s="31"/>
       <c r="D623" s="6"/>
       <c r="E623" s="28"/>
       <c r="F623" s="8">
@@ -13189,7 +13190,7 @@
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
       <c r="E792" s="26" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="F792" s="8">
         <v>1</v>
@@ -13329,18 +13330,70 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A782:A784"/>
-    <mergeCell ref="E782:E784"/>
-    <mergeCell ref="A785:A791"/>
-    <mergeCell ref="E785:E791"/>
-    <mergeCell ref="A792:A803"/>
-    <mergeCell ref="E792:E803"/>
-    <mergeCell ref="A632:A758"/>
-    <mergeCell ref="E632:E758"/>
-    <mergeCell ref="A759:A779"/>
-    <mergeCell ref="E759:E779"/>
-    <mergeCell ref="A780:A781"/>
-    <mergeCell ref="E780:E781"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="E400:E403"/>
+    <mergeCell ref="A404:A420"/>
+    <mergeCell ref="E404:E420"/>
+    <mergeCell ref="A421:A471"/>
+    <mergeCell ref="E421:E471"/>
+    <mergeCell ref="A472:A486"/>
+    <mergeCell ref="E472:E486"/>
+    <mergeCell ref="A487:A498"/>
+    <mergeCell ref="E487:E498"/>
+    <mergeCell ref="A499:A504"/>
+    <mergeCell ref="E499:E504"/>
+    <mergeCell ref="A505:A577"/>
+    <mergeCell ref="E505:E577"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="A582:A583"/>
+    <mergeCell ref="E582:E583"/>
+    <mergeCell ref="A584:A593"/>
+    <mergeCell ref="E584:E593"/>
+    <mergeCell ref="A594:A600"/>
+    <mergeCell ref="E594:E600"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="E604:E606"/>
     <mergeCell ref="A624:A628"/>
     <mergeCell ref="E624:E628"/>
     <mergeCell ref="A629:A630"/>
@@ -13350,70 +13403,18 @@
     <mergeCell ref="A614:A623"/>
     <mergeCell ref="C614:C623"/>
     <mergeCell ref="E614:E623"/>
-    <mergeCell ref="A584:A593"/>
-    <mergeCell ref="E584:E593"/>
-    <mergeCell ref="A594:A600"/>
-    <mergeCell ref="E594:E600"/>
-    <mergeCell ref="A604:A606"/>
-    <mergeCell ref="E604:E606"/>
-    <mergeCell ref="A505:A577"/>
-    <mergeCell ref="E505:E577"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="A582:A583"/>
-    <mergeCell ref="E582:E583"/>
-    <mergeCell ref="A472:A486"/>
-    <mergeCell ref="E472:E486"/>
-    <mergeCell ref="A487:A498"/>
-    <mergeCell ref="E487:E498"/>
-    <mergeCell ref="A499:A504"/>
-    <mergeCell ref="E499:E504"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="E400:E403"/>
-    <mergeCell ref="A404:A420"/>
-    <mergeCell ref="E404:E420"/>
-    <mergeCell ref="A421:A471"/>
-    <mergeCell ref="E421:E471"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="A632:A758"/>
+    <mergeCell ref="E632:E758"/>
+    <mergeCell ref="A759:A779"/>
+    <mergeCell ref="E759:E779"/>
+    <mergeCell ref="A780:A781"/>
+    <mergeCell ref="E780:E781"/>
+    <mergeCell ref="A782:A784"/>
+    <mergeCell ref="E782:E784"/>
+    <mergeCell ref="A785:A791"/>
+    <mergeCell ref="E785:E791"/>
+    <mergeCell ref="A792:A803"/>
+    <mergeCell ref="E792:E803"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="expression" dxfId="10" priority="11">
@@ -13454,7 +13455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88025E8C-D173-473C-9176-760FD9B24044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="WebApiTests" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="887">
   <si>
     <t>Контроллер</t>
   </si>
@@ -2647,13 +2646,66 @@
     <t>Calendar 
 Конфигуратор &gt;&gt; Субъекты &gt;&gt; Пользователи &gt;&gt; 
 ПКМ по пользователю &gt;&gt; Календарь пользователя</t>
+  </si>
+  <si>
+    <t>Узнать как добавлять файлы к версии объекта</t>
+  </si>
+  <si>
+    <t>Количество проверенных методов</t>
+  </si>
+  <si>
+    <t>Количество методов, которые сейчас на проверке</t>
+  </si>
+  <si>
+    <t>Количество устаревших методов</t>
+  </si>
+  <si>
+    <t>Количество методов, которые не будут реализованы</t>
+  </si>
+  <si>
+    <t>Общее количество методов для тестирования</t>
+  </si>
+  <si>
+    <t>Тестовое покрытие</t>
+  </si>
+  <si>
+    <t>Потенциальное тестовое покрытие после проверки</t>
+  </si>
+  <si>
+    <t>Количество моей документации</t>
+  </si>
+  <si>
+    <t>Количество чужой документации</t>
+  </si>
+  <si>
+    <t>Количество отсутствующей документации</t>
+  </si>
+  <si>
+    <t>Общее количество методов для документирования</t>
+  </si>
+  <si>
+    <t>Описание моей документацией</t>
+  </si>
+  <si>
+    <t>Количество любой документации</t>
+  </si>
+  <si>
+    <t>Документирование методов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2663,7 +2715,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2685,6 +2737,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE78D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2823,10 +2887,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2904,13 +2969,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2922,39 +3005,190 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAE78D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3028,11 +3262,26 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFFF9999"/>
+      <color rgb="FFAE78D6"/>
       <color rgb="FFFF3300"/>
     </mruColors>
   </colors>
@@ -3343,11 +3592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F803"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="E228" sqref="E228:E310"/>
+    <sheetView tabSelected="1" topLeftCell="A801" workbookViewId="0">
+      <selection activeCell="C830" sqref="C830"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,7 +3640,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="29" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -3407,7 +3656,7 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
@@ -3421,7 +3670,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
@@ -3435,7 +3684,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="40"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
@@ -3449,7 +3698,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
@@ -3463,7 +3712,7 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
@@ -3477,7 +3726,7 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
@@ -3493,7 +3742,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="29" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -3509,7 +3758,7 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
@@ -3521,7 +3770,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
@@ -3533,7 +3782,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
@@ -3545,7 +3794,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
@@ -3557,7 +3806,7 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="41"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
@@ -4099,14 +4348,14 @@
       <c r="B53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="35" t="s">
         <v>69</v>
       </c>
       <c r="D53" s="4">
         <v>3</v>
       </c>
       <c r="E53" s="27"/>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="32" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4115,72 +4364,72 @@
       <c r="B54" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="36"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="4">
         <v>3</v>
       </c>
       <c r="E54" s="27"/>
-      <c r="F54" s="30"/>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="36"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="4">
         <v>3</v>
       </c>
       <c r="E55" s="27"/>
-      <c r="F55" s="30"/>
+      <c r="F55" s="33"/>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="36"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="4">
         <v>3</v>
       </c>
       <c r="E56" s="27"/>
-      <c r="F56" s="30"/>
+      <c r="F56" s="33"/>
     </row>
     <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="36"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="4">
         <v>3</v>
       </c>
       <c r="E57" s="27"/>
-      <c r="F57" s="30"/>
+      <c r="F57" s="33"/>
     </row>
     <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="36"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="4">
         <v>3</v>
       </c>
       <c r="E58" s="27"/>
-      <c r="F58" s="30"/>
+      <c r="F58" s="33"/>
     </row>
     <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="36"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="4">
         <v>3</v>
       </c>
       <c r="E59" s="27"/>
-      <c r="F59" s="31"/>
+      <c r="F59" s="34"/>
     </row>
     <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
@@ -5561,14 +5810,16 @@
       <c r="B174" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C174" s="35" t="s">
+      <c r="C174" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D174" s="5"/>
+      <c r="D174" s="5">
+        <v>3</v>
+      </c>
       <c r="E174" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F174" s="35" t="s">
+      <c r="F174" s="36" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5577,30 +5828,36 @@
       <c r="B175" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C175" s="36"/>
-      <c r="D175" s="4"/>
+      <c r="C175" s="35"/>
+      <c r="D175" s="5">
+        <v>3</v>
+      </c>
       <c r="E175" s="27"/>
-      <c r="F175" s="36"/>
+      <c r="F175" s="35"/>
     </row>
     <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27"/>
       <c r="B176" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C176" s="36"/>
-      <c r="D176" s="4"/>
+      <c r="C176" s="35"/>
+      <c r="D176" s="5">
+        <v>3</v>
+      </c>
       <c r="E176" s="27"/>
-      <c r="F176" s="36"/>
+      <c r="F176" s="35"/>
     </row>
     <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
       <c r="B177" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C177" s="36"/>
-      <c r="D177" s="4"/>
+      <c r="C177" s="35"/>
+      <c r="D177" s="5">
+        <v>3</v>
+      </c>
       <c r="E177" s="27"/>
-      <c r="F177" s="36"/>
+      <c r="F177" s="35"/>
     </row>
     <row r="178" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="28"/>
@@ -5608,7 +5865,9 @@
         <v>191</v>
       </c>
       <c r="C178" s="37"/>
-      <c r="D178" s="6"/>
+      <c r="D178" s="5">
+        <v>3</v>
+      </c>
       <c r="E178" s="28"/>
       <c r="F178" s="37"/>
     </row>
@@ -6056,7 +6315,9 @@
         <v>232</v>
       </c>
       <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
+      <c r="D214" s="5">
+        <v>1</v>
+      </c>
       <c r="E214" s="26" t="s">
         <v>12</v>
       </c>
@@ -6070,7 +6331,9 @@
         <v>166</v>
       </c>
       <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
+      <c r="D215" s="4">
+        <v>1</v>
+      </c>
       <c r="E215" s="27"/>
       <c r="F215" s="8">
         <v>2</v>
@@ -6081,7 +6344,9 @@
       <c r="B216" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C216" s="4"/>
+      <c r="C216" s="7" t="s">
+        <v>872</v>
+      </c>
       <c r="D216" s="4"/>
       <c r="E216" s="27"/>
       <c r="F216" s="8">
@@ -6166,7 +6431,9 @@
         <v>240</v>
       </c>
       <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
+      <c r="D223" s="4">
+        <v>1</v>
+      </c>
       <c r="E223" s="27"/>
       <c r="F223" s="8">
         <v>2</v>
@@ -6532,7 +6799,9 @@
       <c r="C253" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D253" s="4"/>
+      <c r="D253" s="4">
+        <v>3</v>
+      </c>
       <c r="E253" s="27"/>
       <c r="F253" s="17" t="s">
         <v>69</v>
@@ -7538,7 +7807,9 @@
       <c r="C336" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D336" s="4"/>
+      <c r="D336" s="4">
+        <v>3</v>
+      </c>
       <c r="E336" s="27"/>
       <c r="F336" s="16" t="s">
         <v>69</v>
@@ -7601,7 +7872,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="32" t="s">
+      <c r="A341" s="38" t="s">
         <v>362</v>
       </c>
       <c r="B341" s="5" t="s">
@@ -7619,7 +7890,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="33"/>
+      <c r="A342" s="39"/>
       <c r="B342" s="4" t="s">
         <v>364</v>
       </c>
@@ -7633,7 +7904,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="33"/>
+      <c r="A343" s="39"/>
       <c r="B343" s="4" t="s">
         <v>365</v>
       </c>
@@ -7647,7 +7918,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="33"/>
+      <c r="A344" s="39"/>
       <c r="B344" s="4" t="s">
         <v>366</v>
       </c>
@@ -7661,7 +7932,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="33"/>
+      <c r="A345" s="39"/>
       <c r="B345" s="4" t="s">
         <v>367</v>
       </c>
@@ -7675,7 +7946,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="33"/>
+      <c r="A346" s="39"/>
       <c r="B346" s="4" t="s">
         <v>368</v>
       </c>
@@ -7689,7 +7960,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="33"/>
+      <c r="A347" s="39"/>
       <c r="B347" s="4" t="s">
         <v>369</v>
       </c>
@@ -7703,7 +7974,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="33"/>
+      <c r="A348" s="39"/>
       <c r="B348" s="4" t="s">
         <v>370</v>
       </c>
@@ -7717,7 +7988,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="33"/>
+      <c r="A349" s="39"/>
       <c r="B349" s="4" t="s">
         <v>371</v>
       </c>
@@ -7731,7 +8002,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="33"/>
+      <c r="A350" s="39"/>
       <c r="B350" s="4" t="s">
         <v>372</v>
       </c>
@@ -7745,7 +8016,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="33"/>
+      <c r="A351" s="39"/>
       <c r="B351" s="4" t="s">
         <v>373</v>
       </c>
@@ -7759,7 +8030,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="33"/>
+      <c r="A352" s="39"/>
       <c r="B352" s="4" t="s">
         <v>374</v>
       </c>
@@ -7773,7 +8044,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="33"/>
+      <c r="A353" s="39"/>
       <c r="B353" s="4" t="s">
         <v>375</v>
       </c>
@@ -7787,7 +8058,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="33"/>
+      <c r="A354" s="39"/>
       <c r="B354" s="4" t="s">
         <v>376</v>
       </c>
@@ -7801,7 +8072,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="33"/>
+      <c r="A355" s="39"/>
       <c r="B355" s="4" t="s">
         <v>377</v>
       </c>
@@ -7815,7 +8086,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="34"/>
+      <c r="A356" s="40"/>
       <c r="B356" s="6" t="s">
         <v>378</v>
       </c>
@@ -7836,7 +8107,9 @@
         <v>380</v>
       </c>
       <c r="C357" s="5"/>
-      <c r="D357" s="5"/>
+      <c r="D357" s="5">
+        <v>2</v>
+      </c>
       <c r="E357" s="26" t="s">
         <v>550</v>
       </c>
@@ -7850,7 +8123,9 @@
         <v>381</v>
       </c>
       <c r="C358" s="4"/>
-      <c r="D358" s="4"/>
+      <c r="D358" s="5">
+        <v>2</v>
+      </c>
       <c r="E358" s="27"/>
       <c r="F358" s="8">
         <v>1</v>
@@ -7862,7 +8137,9 @@
         <v>382</v>
       </c>
       <c r="C359" s="4"/>
-      <c r="D359" s="4"/>
+      <c r="D359" s="5">
+        <v>2</v>
+      </c>
       <c r="E359" s="27"/>
       <c r="F359" s="8">
         <v>1</v>
@@ -7874,7 +8151,9 @@
         <v>383</v>
       </c>
       <c r="C360" s="4"/>
-      <c r="D360" s="4"/>
+      <c r="D360" s="5">
+        <v>2</v>
+      </c>
       <c r="E360" s="27"/>
       <c r="F360" s="8">
         <v>1</v>
@@ -7886,7 +8165,9 @@
         <v>384</v>
       </c>
       <c r="C361" s="4"/>
-      <c r="D361" s="4"/>
+      <c r="D361" s="5">
+        <v>2</v>
+      </c>
       <c r="E361" s="27"/>
       <c r="F361" s="8">
         <v>1</v>
@@ -7898,7 +8179,9 @@
         <v>385</v>
       </c>
       <c r="C362" s="4"/>
-      <c r="D362" s="4"/>
+      <c r="D362" s="5">
+        <v>2</v>
+      </c>
       <c r="E362" s="27"/>
       <c r="F362" s="8">
         <v>1</v>
@@ -7910,7 +8193,9 @@
         <v>386</v>
       </c>
       <c r="C363" s="4"/>
-      <c r="D363" s="4"/>
+      <c r="D363" s="5">
+        <v>2</v>
+      </c>
       <c r="E363" s="27"/>
       <c r="F363" s="8">
         <v>1</v>
@@ -7922,7 +8207,9 @@
         <v>387</v>
       </c>
       <c r="C364" s="4"/>
-      <c r="D364" s="4"/>
+      <c r="D364" s="5">
+        <v>2</v>
+      </c>
       <c r="E364" s="27"/>
       <c r="F364" s="8">
         <v>1</v>
@@ -7934,7 +8221,9 @@
         <v>388</v>
       </c>
       <c r="C365" s="4"/>
-      <c r="D365" s="4"/>
+      <c r="D365" s="5">
+        <v>2</v>
+      </c>
       <c r="E365" s="27"/>
       <c r="F365" s="8">
         <v>1</v>
@@ -7946,7 +8235,9 @@
         <v>389</v>
       </c>
       <c r="C366" s="4"/>
-      <c r="D366" s="4"/>
+      <c r="D366" s="5">
+        <v>2</v>
+      </c>
       <c r="E366" s="27"/>
       <c r="F366" s="8">
         <v>1</v>
@@ -7958,7 +8249,9 @@
         <v>390</v>
       </c>
       <c r="C367" s="4"/>
-      <c r="D367" s="4"/>
+      <c r="D367" s="5">
+        <v>2</v>
+      </c>
       <c r="E367" s="27"/>
       <c r="F367" s="8">
         <v>1</v>
@@ -7970,7 +8263,9 @@
         <v>391</v>
       </c>
       <c r="C368" s="4"/>
-      <c r="D368" s="4"/>
+      <c r="D368" s="5">
+        <v>2</v>
+      </c>
       <c r="E368" s="27"/>
       <c r="F368" s="8">
         <v>1</v>
@@ -7982,7 +8277,9 @@
         <v>392</v>
       </c>
       <c r="C369" s="4"/>
-      <c r="D369" s="4"/>
+      <c r="D369" s="5">
+        <v>2</v>
+      </c>
       <c r="E369" s="27"/>
       <c r="F369" s="8">
         <v>1</v>
@@ -7994,7 +8291,9 @@
         <v>393</v>
       </c>
       <c r="C370" s="4"/>
-      <c r="D370" s="4"/>
+      <c r="D370" s="5">
+        <v>2</v>
+      </c>
       <c r="E370" s="27"/>
       <c r="F370" s="8">
         <v>1</v>
@@ -8006,7 +8305,9 @@
         <v>394</v>
       </c>
       <c r="C371" s="4"/>
-      <c r="D371" s="4"/>
+      <c r="D371" s="5">
+        <v>2</v>
+      </c>
       <c r="E371" s="27"/>
       <c r="F371" s="8">
         <v>1</v>
@@ -8018,7 +8319,9 @@
         <v>395</v>
       </c>
       <c r="C372" s="4"/>
-      <c r="D372" s="4"/>
+      <c r="D372" s="5">
+        <v>2</v>
+      </c>
       <c r="E372" s="27"/>
       <c r="F372" s="8">
         <v>1</v>
@@ -8030,7 +8333,9 @@
         <v>396</v>
       </c>
       <c r="C373" s="4"/>
-      <c r="D373" s="4"/>
+      <c r="D373" s="5">
+        <v>2</v>
+      </c>
       <c r="E373" s="27"/>
       <c r="F373" s="8">
         <v>1</v>
@@ -8042,7 +8347,9 @@
         <v>397</v>
       </c>
       <c r="C374" s="4"/>
-      <c r="D374" s="4"/>
+      <c r="D374" s="5">
+        <v>2</v>
+      </c>
       <c r="E374" s="27"/>
       <c r="F374" s="8">
         <v>1</v>
@@ -8054,7 +8361,9 @@
         <v>398</v>
       </c>
       <c r="C375" s="4"/>
-      <c r="D375" s="4"/>
+      <c r="D375" s="5">
+        <v>2</v>
+      </c>
       <c r="E375" s="27"/>
       <c r="F375" s="8">
         <v>1</v>
@@ -8066,7 +8375,9 @@
         <v>399</v>
       </c>
       <c r="C376" s="4"/>
-      <c r="D376" s="4"/>
+      <c r="D376" s="5">
+        <v>2</v>
+      </c>
       <c r="E376" s="27"/>
       <c r="F376" s="8">
         <v>1</v>
@@ -8078,7 +8389,9 @@
         <v>400</v>
       </c>
       <c r="C377" s="4"/>
-      <c r="D377" s="4"/>
+      <c r="D377" s="5">
+        <v>2</v>
+      </c>
       <c r="E377" s="27"/>
       <c r="F377" s="8">
         <v>1</v>
@@ -8090,7 +8403,9 @@
         <v>401</v>
       </c>
       <c r="C378" s="4"/>
-      <c r="D378" s="4"/>
+      <c r="D378" s="5">
+        <v>2</v>
+      </c>
       <c r="E378" s="27"/>
       <c r="F378" s="8">
         <v>1</v>
@@ -8102,7 +8417,9 @@
         <v>402</v>
       </c>
       <c r="C379" s="4"/>
-      <c r="D379" s="4"/>
+      <c r="D379" s="5">
+        <v>2</v>
+      </c>
       <c r="E379" s="27"/>
       <c r="F379" s="8">
         <v>1</v>
@@ -8114,7 +8431,9 @@
         <v>403</v>
       </c>
       <c r="C380" s="4"/>
-      <c r="D380" s="4"/>
+      <c r="D380" s="5">
+        <v>2</v>
+      </c>
       <c r="E380" s="27"/>
       <c r="F380" s="8">
         <v>1</v>
@@ -8126,7 +8445,9 @@
         <v>404</v>
       </c>
       <c r="C381" s="4"/>
-      <c r="D381" s="4"/>
+      <c r="D381" s="5">
+        <v>2</v>
+      </c>
       <c r="E381" s="27"/>
       <c r="F381" s="8">
         <v>1</v>
@@ -8138,7 +8459,9 @@
         <v>405</v>
       </c>
       <c r="C382" s="4"/>
-      <c r="D382" s="4"/>
+      <c r="D382" s="5">
+        <v>2</v>
+      </c>
       <c r="E382" s="27"/>
       <c r="F382" s="8">
         <v>1</v>
@@ -8150,7 +8473,9 @@
         <v>406</v>
       </c>
       <c r="C383" s="4"/>
-      <c r="D383" s="4"/>
+      <c r="D383" s="5">
+        <v>2</v>
+      </c>
       <c r="E383" s="27"/>
       <c r="F383" s="8">
         <v>1</v>
@@ -8162,7 +8487,9 @@
         <v>407</v>
       </c>
       <c r="C384" s="4"/>
-      <c r="D384" s="4"/>
+      <c r="D384" s="5">
+        <v>2</v>
+      </c>
       <c r="E384" s="27"/>
       <c r="F384" s="8">
         <v>1</v>
@@ -8174,7 +8501,9 @@
         <v>408</v>
       </c>
       <c r="C385" s="4"/>
-      <c r="D385" s="4"/>
+      <c r="D385" s="5">
+        <v>2</v>
+      </c>
       <c r="E385" s="27"/>
       <c r="F385" s="8">
         <v>1</v>
@@ -8186,7 +8515,9 @@
         <v>409</v>
       </c>
       <c r="C386" s="4"/>
-      <c r="D386" s="4"/>
+      <c r="D386" s="5">
+        <v>2</v>
+      </c>
       <c r="E386" s="27"/>
       <c r="F386" s="8">
         <v>1</v>
@@ -8198,7 +8529,9 @@
         <v>410</v>
       </c>
       <c r="C387" s="4"/>
-      <c r="D387" s="4"/>
+      <c r="D387" s="5">
+        <v>2</v>
+      </c>
       <c r="E387" s="27"/>
       <c r="F387" s="8">
         <v>1</v>
@@ -8210,7 +8543,9 @@
         <v>411</v>
       </c>
       <c r="C388" s="6"/>
-      <c r="D388" s="6"/>
+      <c r="D388" s="5">
+        <v>2</v>
+      </c>
       <c r="E388" s="28"/>
       <c r="F388" s="8">
         <v>1</v>
@@ -8252,7 +8587,9 @@
       <c r="C391" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D391" s="4"/>
+      <c r="D391" s="4">
+        <v>3</v>
+      </c>
       <c r="E391" s="27"/>
       <c r="F391" s="16" t="s">
         <v>69</v>
@@ -8418,7 +8755,9 @@
         <v>431</v>
       </c>
       <c r="C404" s="5"/>
-      <c r="D404" s="5"/>
+      <c r="D404" s="5">
+        <v>2</v>
+      </c>
       <c r="E404" s="26" t="s">
         <v>550</v>
       </c>
@@ -8432,7 +8771,9 @@
         <v>432</v>
       </c>
       <c r="C405" s="4"/>
-      <c r="D405" s="4"/>
+      <c r="D405" s="5">
+        <v>2</v>
+      </c>
       <c r="E405" s="27"/>
       <c r="F405" s="8">
         <v>1</v>
@@ -8444,7 +8785,9 @@
         <v>433</v>
       </c>
       <c r="C406" s="4"/>
-      <c r="D406" s="4"/>
+      <c r="D406" s="5">
+        <v>2</v>
+      </c>
       <c r="E406" s="27"/>
       <c r="F406" s="8">
         <v>1</v>
@@ -8456,7 +8799,9 @@
         <v>434</v>
       </c>
       <c r="C407" s="4"/>
-      <c r="D407" s="4"/>
+      <c r="D407" s="5">
+        <v>2</v>
+      </c>
       <c r="E407" s="27"/>
       <c r="F407" s="8">
         <v>1</v>
@@ -8468,7 +8813,9 @@
         <v>435</v>
       </c>
       <c r="C408" s="4"/>
-      <c r="D408" s="4"/>
+      <c r="D408" s="5">
+        <v>2</v>
+      </c>
       <c r="E408" s="27"/>
       <c r="F408" s="8">
         <v>1</v>
@@ -8480,7 +8827,9 @@
         <v>436</v>
       </c>
       <c r="C409" s="4"/>
-      <c r="D409" s="4"/>
+      <c r="D409" s="5">
+        <v>2</v>
+      </c>
       <c r="E409" s="27"/>
       <c r="F409" s="8">
         <v>1</v>
@@ -8492,7 +8841,9 @@
         <v>437</v>
       </c>
       <c r="C410" s="4"/>
-      <c r="D410" s="4"/>
+      <c r="D410" s="5">
+        <v>2</v>
+      </c>
       <c r="E410" s="27"/>
       <c r="F410" s="8">
         <v>1</v>
@@ -8504,7 +8855,9 @@
         <v>438</v>
       </c>
       <c r="C411" s="4"/>
-      <c r="D411" s="4"/>
+      <c r="D411" s="5">
+        <v>2</v>
+      </c>
       <c r="E411" s="27"/>
       <c r="F411" s="8">
         <v>1</v>
@@ -8516,7 +8869,9 @@
         <v>439</v>
       </c>
       <c r="C412" s="4"/>
-      <c r="D412" s="4"/>
+      <c r="D412" s="5">
+        <v>2</v>
+      </c>
       <c r="E412" s="27"/>
       <c r="F412" s="8">
         <v>1</v>
@@ -8528,7 +8883,9 @@
         <v>440</v>
       </c>
       <c r="C413" s="4"/>
-      <c r="D413" s="4"/>
+      <c r="D413" s="5">
+        <v>2</v>
+      </c>
       <c r="E413" s="27"/>
       <c r="F413" s="8">
         <v>1</v>
@@ -8540,7 +8897,9 @@
         <v>441</v>
       </c>
       <c r="C414" s="4"/>
-      <c r="D414" s="4"/>
+      <c r="D414" s="5">
+        <v>2</v>
+      </c>
       <c r="E414" s="27"/>
       <c r="F414" s="8">
         <v>1</v>
@@ -8552,7 +8911,9 @@
         <v>442</v>
       </c>
       <c r="C415" s="4"/>
-      <c r="D415" s="4"/>
+      <c r="D415" s="5">
+        <v>2</v>
+      </c>
       <c r="E415" s="27"/>
       <c r="F415" s="8">
         <v>1</v>
@@ -8564,7 +8925,9 @@
         <v>443</v>
       </c>
       <c r="C416" s="4"/>
-      <c r="D416" s="4"/>
+      <c r="D416" s="5">
+        <v>2</v>
+      </c>
       <c r="E416" s="27"/>
       <c r="F416" s="8">
         <v>1</v>
@@ -8576,7 +8939,9 @@
         <v>444</v>
       </c>
       <c r="C417" s="4"/>
-      <c r="D417" s="4"/>
+      <c r="D417" s="5">
+        <v>2</v>
+      </c>
       <c r="E417" s="27"/>
       <c r="F417" s="8">
         <v>1</v>
@@ -8588,7 +8953,9 @@
         <v>445</v>
       </c>
       <c r="C418" s="4"/>
-      <c r="D418" s="4"/>
+      <c r="D418" s="5">
+        <v>2</v>
+      </c>
       <c r="E418" s="27"/>
       <c r="F418" s="8">
         <v>1</v>
@@ -8600,7 +8967,9 @@
         <v>14</v>
       </c>
       <c r="C419" s="4"/>
-      <c r="D419" s="4"/>
+      <c r="D419" s="5">
+        <v>2</v>
+      </c>
       <c r="E419" s="27"/>
       <c r="F419" s="8">
         <v>1</v>
@@ -8612,7 +8981,9 @@
         <v>446</v>
       </c>
       <c r="C420" s="6"/>
-      <c r="D420" s="6"/>
+      <c r="D420" s="5">
+        <v>2</v>
+      </c>
       <c r="E420" s="28"/>
       <c r="F420" s="8">
         <v>1</v>
@@ -10997,16 +11368,18 @@
       </c>
     </row>
     <row r="614" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="26" t="s">
+      <c r="A614" s="44" t="s">
         <v>646</v>
       </c>
       <c r="B614" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C614" s="29" t="s">
+      <c r="C614" s="41" t="s">
         <v>656</v>
       </c>
-      <c r="D614" s="5"/>
+      <c r="D614" s="5">
+        <v>4</v>
+      </c>
       <c r="E614" s="26" t="s">
         <v>40</v>
       </c>
@@ -11015,108 +11388,126 @@
       </c>
     </row>
     <row r="615" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="27"/>
+      <c r="A615" s="45"/>
       <c r="B615" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="C615" s="30"/>
-      <c r="D615" s="4"/>
+      <c r="C615" s="33"/>
+      <c r="D615" s="5">
+        <v>4</v>
+      </c>
       <c r="E615" s="27"/>
       <c r="F615" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="616" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="27"/>
-      <c r="B616" s="4" t="s">
+      <c r="A616" s="45"/>
+      <c r="B616" s="43" t="s">
         <v>648</v>
       </c>
-      <c r="C616" s="30"/>
-      <c r="D616" s="4"/>
+      <c r="C616" s="33"/>
+      <c r="D616" s="5">
+        <v>4</v>
+      </c>
       <c r="E616" s="27"/>
       <c r="F616" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="617" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="27"/>
+      <c r="A617" s="45"/>
       <c r="B617" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C617" s="30"/>
-      <c r="D617" s="4"/>
+      <c r="C617" s="33"/>
+      <c r="D617" s="5">
+        <v>4</v>
+      </c>
       <c r="E617" s="27"/>
       <c r="F617" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="618" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="27"/>
+      <c r="A618" s="45"/>
       <c r="B618" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C618" s="30"/>
-      <c r="D618" s="4"/>
+      <c r="C618" s="33"/>
+      <c r="D618" s="5">
+        <v>4</v>
+      </c>
       <c r="E618" s="27"/>
       <c r="F618" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="619" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="27"/>
+      <c r="A619" s="45"/>
       <c r="B619" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C619" s="30"/>
-      <c r="D619" s="4"/>
+      <c r="C619" s="33"/>
+      <c r="D619" s="5">
+        <v>4</v>
+      </c>
       <c r="E619" s="27"/>
       <c r="F619" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="620" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A620" s="27"/>
+      <c r="A620" s="45"/>
       <c r="B620" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C620" s="30"/>
-      <c r="D620" s="4"/>
+      <c r="C620" s="33"/>
+      <c r="D620" s="5">
+        <v>4</v>
+      </c>
       <c r="E620" s="27"/>
       <c r="F620" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="621" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A621" s="27"/>
+      <c r="A621" s="45"/>
       <c r="B621" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C621" s="30"/>
-      <c r="D621" s="4"/>
+      <c r="C621" s="33"/>
+      <c r="D621" s="5">
+        <v>4</v>
+      </c>
       <c r="E621" s="27"/>
       <c r="F621" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="622" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="27"/>
+      <c r="A622" s="45"/>
       <c r="B622" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C622" s="30"/>
-      <c r="D622" s="4"/>
+      <c r="C622" s="33"/>
+      <c r="D622" s="5">
+        <v>4</v>
+      </c>
       <c r="E622" s="27"/>
       <c r="F622" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="623" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="28"/>
+      <c r="A623" s="46"/>
       <c r="B623" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C623" s="31"/>
-      <c r="D623" s="6"/>
+      <c r="C623" s="34"/>
+      <c r="D623" s="5">
+        <v>4</v>
+      </c>
       <c r="E623" s="28"/>
       <c r="F623" s="8">
         <v>-1</v>
@@ -13188,7 +13579,9 @@
         <v>825</v>
       </c>
       <c r="C792" s="5"/>
-      <c r="D792" s="5"/>
+      <c r="D792" s="5">
+        <v>2</v>
+      </c>
       <c r="E792" s="26" t="s">
         <v>550</v>
       </c>
@@ -13202,7 +13595,9 @@
         <v>826</v>
       </c>
       <c r="C793" s="4"/>
-      <c r="D793" s="4"/>
+      <c r="D793" s="5">
+        <v>2</v>
+      </c>
       <c r="E793" s="27"/>
       <c r="F793" s="8">
         <v>1</v>
@@ -13214,7 +13609,9 @@
         <v>827</v>
       </c>
       <c r="C794" s="4"/>
-      <c r="D794" s="4"/>
+      <c r="D794" s="5">
+        <v>2</v>
+      </c>
       <c r="E794" s="27"/>
       <c r="F794" s="8">
         <v>1</v>
@@ -13226,7 +13623,9 @@
         <v>828</v>
       </c>
       <c r="C795" s="4"/>
-      <c r="D795" s="4"/>
+      <c r="D795" s="5">
+        <v>2</v>
+      </c>
       <c r="E795" s="27"/>
       <c r="F795" s="8">
         <v>1</v>
@@ -13238,7 +13637,9 @@
         <v>829</v>
       </c>
       <c r="C796" s="4"/>
-      <c r="D796" s="4"/>
+      <c r="D796" s="5">
+        <v>2</v>
+      </c>
       <c r="E796" s="27"/>
       <c r="F796" s="8">
         <v>1</v>
@@ -13250,7 +13651,9 @@
         <v>830</v>
       </c>
       <c r="C797" s="4"/>
-      <c r="D797" s="4"/>
+      <c r="D797" s="5">
+        <v>2</v>
+      </c>
       <c r="E797" s="27"/>
       <c r="F797" s="8">
         <v>1</v>
@@ -13262,7 +13665,9 @@
         <v>831</v>
       </c>
       <c r="C798" s="4"/>
-      <c r="D798" s="4"/>
+      <c r="D798" s="5">
+        <v>2</v>
+      </c>
       <c r="E798" s="27"/>
       <c r="F798" s="8">
         <v>1</v>
@@ -13274,7 +13679,9 @@
         <v>832</v>
       </c>
       <c r="C799" s="4"/>
-      <c r="D799" s="4"/>
+      <c r="D799" s="5">
+        <v>2</v>
+      </c>
       <c r="E799" s="27"/>
       <c r="F799" s="8">
         <v>1</v>
@@ -13286,7 +13693,9 @@
         <v>833</v>
       </c>
       <c r="C800" s="4"/>
-      <c r="D800" s="4"/>
+      <c r="D800" s="5">
+        <v>2</v>
+      </c>
       <c r="E800" s="27"/>
       <c r="F800" s="8">
         <v>1</v>
@@ -13298,7 +13707,9 @@
         <v>834</v>
       </c>
       <c r="C801" s="4"/>
-      <c r="D801" s="4"/>
+      <c r="D801" s="5">
+        <v>2</v>
+      </c>
       <c r="E801" s="27"/>
       <c r="F801" s="8">
         <v>1</v>
@@ -13310,7 +13721,9 @@
         <v>835</v>
       </c>
       <c r="C802" s="4"/>
-      <c r="D802" s="4"/>
+      <c r="D802" s="5">
+        <v>2</v>
+      </c>
       <c r="E802" s="27"/>
       <c r="F802" s="8">
         <v>1</v>
@@ -13322,78 +13735,235 @@
         <v>836</v>
       </c>
       <c r="C803" s="6"/>
-      <c r="D803" s="6"/>
+      <c r="D803" s="8">
+        <v>2</v>
+      </c>
       <c r="E803" s="28"/>
       <c r="F803" s="8">
         <v>1</v>
       </c>
     </row>
+    <row r="806" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A806" s="51" t="s">
+        <v>878</v>
+      </c>
+      <c r="B806" s="52" t="s">
+        <v>873</v>
+      </c>
+      <c r="C806" s="5">
+        <f>COUNTIF(D$2:D$803, 1)</f>
+        <v>64</v>
+      </c>
+      <c r="D806" s="5"/>
+      <c r="E806" s="53"/>
+      <c r="F806" s="5"/>
+    </row>
+    <row r="807" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A807" s="49"/>
+      <c r="B807" s="48" t="s">
+        <v>874</v>
+      </c>
+      <c r="C807" s="4">
+        <f>COUNTIF(D$2:D$803, 2)</f>
+        <v>61</v>
+      </c>
+      <c r="D807" s="4"/>
+      <c r="E807" s="11"/>
+      <c r="F807" s="4"/>
+    </row>
+    <row r="808" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A808" s="49"/>
+      <c r="B808" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="C808" s="4">
+        <f>COUNTIF(D$2:D$803, 3)</f>
+        <v>15</v>
+      </c>
+      <c r="D808" s="4"/>
+      <c r="E808" s="11"/>
+      <c r="F808" s="4"/>
+    </row>
+    <row r="809" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A809" s="49"/>
+      <c r="B809" s="43" t="s">
+        <v>876</v>
+      </c>
+      <c r="C809" s="4">
+        <f>COUNTIF(D$2:D$803, 4)</f>
+        <v>10</v>
+      </c>
+      <c r="D809" s="4"/>
+      <c r="E809" s="11"/>
+      <c r="F809" s="4"/>
+    </row>
+    <row r="810" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A810" s="49"/>
+      <c r="B810" s="4"/>
+      <c r="C810" s="4"/>
+      <c r="D810" s="4"/>
+      <c r="E810" s="11"/>
+      <c r="F810" s="4"/>
+    </row>
+    <row r="811" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A811" s="49"/>
+      <c r="B811" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C811" s="4">
+        <f>802-COUNTIF(D$2:D$803, 3)-COUNTIF(D$2:D$803, 4)</f>
+        <v>777</v>
+      </c>
+      <c r="D811" s="4"/>
+      <c r="E811" s="11"/>
+      <c r="F811" s="4"/>
+    </row>
+    <row r="812" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A812" s="49"/>
+      <c r="B812" s="4"/>
+      <c r="C812" s="4"/>
+      <c r="D812" s="4"/>
+      <c r="E812" s="11"/>
+      <c r="F812" s="4"/>
+    </row>
+    <row r="813" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A813" s="49"/>
+      <c r="B813" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C813" s="47">
+        <f>C806/C811</f>
+        <v>8.2368082368082365E-2</v>
+      </c>
+      <c r="D813" s="4"/>
+      <c r="E813" s="11"/>
+      <c r="F813" s="4"/>
+    </row>
+    <row r="814" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A814" s="54"/>
+      <c r="B814" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="C814" s="55">
+        <f>(C806 + C807)/C811</f>
+        <v>0.16087516087516088</v>
+      </c>
+      <c r="D814" s="6"/>
+      <c r="E814" s="56"/>
+      <c r="F814" s="6"/>
+    </row>
+    <row r="817" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A817" s="51" t="s">
+        <v>886</v>
+      </c>
+      <c r="B817" s="52" t="s">
+        <v>880</v>
+      </c>
+      <c r="C817" s="5">
+        <f>COUNTIF(F$2:F$803, 1)</f>
+        <v>248</v>
+      </c>
+      <c r="D817" s="5"/>
+      <c r="E817" s="53"/>
+      <c r="F817" s="5"/>
+    </row>
+    <row r="818" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A818" s="49"/>
+      <c r="B818" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="C818" s="4">
+        <f>COUNTIF(F$2:F$803, 2)</f>
+        <v>361</v>
+      </c>
+      <c r="D818" s="4"/>
+      <c r="E818" s="11"/>
+      <c r="F818" s="4"/>
+    </row>
+    <row r="819" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A819" s="49"/>
+      <c r="B819" s="50" t="s">
+        <v>882</v>
+      </c>
+      <c r="C819" s="4">
+        <f>COUNTIF(F$2:F$803, -1)</f>
+        <v>178</v>
+      </c>
+      <c r="D819" s="4"/>
+      <c r="E819" s="11"/>
+      <c r="F819" s="4"/>
+    </row>
+    <row r="820" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A820" s="49"/>
+      <c r="B820" s="4"/>
+      <c r="C820" s="4"/>
+      <c r="D820" s="4"/>
+      <c r="E820" s="11"/>
+      <c r="F820" s="4"/>
+    </row>
+    <row r="821" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A821" s="49"/>
+      <c r="B821" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C821" s="4">
+        <f>802-COUNTIF(D$2:D$803, 3)-COUNTIF(D$2:D$803, 4)</f>
+        <v>777</v>
+      </c>
+      <c r="D821" s="4"/>
+      <c r="E821" s="11"/>
+      <c r="F821" s="4"/>
+    </row>
+    <row r="822" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A822" s="49"/>
+      <c r="B822" s="4"/>
+      <c r="C822" s="4"/>
+      <c r="D822" s="4"/>
+      <c r="E822" s="11"/>
+      <c r="F822" s="4"/>
+    </row>
+    <row r="823" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A823" s="49"/>
+      <c r="B823" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C823" s="47">
+        <f>C817/C821</f>
+        <v>0.31917631917631917</v>
+      </c>
+      <c r="D823" s="4"/>
+      <c r="E823" s="11"/>
+      <c r="F823" s="4"/>
+    </row>
+    <row r="824" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A824" s="54"/>
+      <c r="B824" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="C824" s="55">
+        <f>(C817+C818)/C821</f>
+        <v>0.78378378378378377</v>
+      </c>
+      <c r="D824" s="6"/>
+      <c r="E824" s="56"/>
+      <c r="F824" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="E15:E32"/>
-    <mergeCell ref="A33:A46"/>
-    <mergeCell ref="E33:E46"/>
-    <mergeCell ref="A47:A68"/>
-    <mergeCell ref="E47:E68"/>
-    <mergeCell ref="A69:A173"/>
-    <mergeCell ref="E69:E173"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="A179:A189"/>
-    <mergeCell ref="E179:E189"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E190:E197"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="E199:E213"/>
-    <mergeCell ref="A214:A227"/>
-    <mergeCell ref="E214:E227"/>
-    <mergeCell ref="A228:A310"/>
-    <mergeCell ref="E228:E310"/>
-    <mergeCell ref="A311:A333"/>
-    <mergeCell ref="E311:E333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="E341:E356"/>
-    <mergeCell ref="A357:A388"/>
-    <mergeCell ref="E357:E388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="A395:A399"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="A400:A403"/>
-    <mergeCell ref="E400:E403"/>
-    <mergeCell ref="A404:A420"/>
-    <mergeCell ref="E404:E420"/>
-    <mergeCell ref="A421:A471"/>
-    <mergeCell ref="E421:E471"/>
-    <mergeCell ref="A472:A486"/>
-    <mergeCell ref="E472:E486"/>
-    <mergeCell ref="A487:A498"/>
-    <mergeCell ref="E487:E498"/>
-    <mergeCell ref="A499:A504"/>
-    <mergeCell ref="E499:E504"/>
-    <mergeCell ref="A505:A577"/>
-    <mergeCell ref="E505:E577"/>
-    <mergeCell ref="A578:A581"/>
-    <mergeCell ref="E578:E581"/>
-    <mergeCell ref="A582:A583"/>
-    <mergeCell ref="E582:E583"/>
-    <mergeCell ref="A584:A593"/>
-    <mergeCell ref="E584:E593"/>
-    <mergeCell ref="A594:A600"/>
-    <mergeCell ref="E594:E600"/>
-    <mergeCell ref="A604:A606"/>
-    <mergeCell ref="E604:E606"/>
+  <mergeCells count="87">
+    <mergeCell ref="A806:A814"/>
+    <mergeCell ref="A817:A824"/>
+    <mergeCell ref="A782:A784"/>
+    <mergeCell ref="E782:E784"/>
+    <mergeCell ref="A785:A791"/>
+    <mergeCell ref="E785:E791"/>
+    <mergeCell ref="A792:A803"/>
+    <mergeCell ref="E792:E803"/>
+    <mergeCell ref="A632:A758"/>
+    <mergeCell ref="E632:E758"/>
+    <mergeCell ref="A759:A779"/>
+    <mergeCell ref="E759:E779"/>
+    <mergeCell ref="A780:A781"/>
+    <mergeCell ref="E780:E781"/>
     <mergeCell ref="A624:A628"/>
     <mergeCell ref="E624:E628"/>
     <mergeCell ref="A629:A630"/>
@@ -13403,49 +13973,104 @@
     <mergeCell ref="A614:A623"/>
     <mergeCell ref="C614:C623"/>
     <mergeCell ref="E614:E623"/>
-    <mergeCell ref="A632:A758"/>
-    <mergeCell ref="E632:E758"/>
-    <mergeCell ref="A759:A779"/>
-    <mergeCell ref="E759:E779"/>
-    <mergeCell ref="A780:A781"/>
-    <mergeCell ref="E780:E781"/>
-    <mergeCell ref="A782:A784"/>
-    <mergeCell ref="E782:E784"/>
-    <mergeCell ref="A785:A791"/>
-    <mergeCell ref="E785:E791"/>
-    <mergeCell ref="A792:A803"/>
-    <mergeCell ref="E792:E803"/>
+    <mergeCell ref="A584:A593"/>
+    <mergeCell ref="E584:E593"/>
+    <mergeCell ref="A594:A600"/>
+    <mergeCell ref="E594:E600"/>
+    <mergeCell ref="A604:A606"/>
+    <mergeCell ref="E604:E606"/>
+    <mergeCell ref="A505:A577"/>
+    <mergeCell ref="E505:E577"/>
+    <mergeCell ref="A578:A581"/>
+    <mergeCell ref="E578:E581"/>
+    <mergeCell ref="A582:A583"/>
+    <mergeCell ref="E582:E583"/>
+    <mergeCell ref="A472:A486"/>
+    <mergeCell ref="E472:E486"/>
+    <mergeCell ref="A487:A498"/>
+    <mergeCell ref="E487:E498"/>
+    <mergeCell ref="A499:A504"/>
+    <mergeCell ref="E499:E504"/>
+    <mergeCell ref="A400:A403"/>
+    <mergeCell ref="E400:E403"/>
+    <mergeCell ref="A404:A420"/>
+    <mergeCell ref="E404:E420"/>
+    <mergeCell ref="A421:A471"/>
+    <mergeCell ref="E421:E471"/>
+    <mergeCell ref="A357:A388"/>
+    <mergeCell ref="E357:E388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="A395:A399"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="A311:A333"/>
+    <mergeCell ref="E311:E333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="A341:A356"/>
+    <mergeCell ref="E341:E356"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="E199:E213"/>
+    <mergeCell ref="A214:A227"/>
+    <mergeCell ref="E214:E227"/>
+    <mergeCell ref="A228:A310"/>
+    <mergeCell ref="E228:E310"/>
+    <mergeCell ref="A179:A189"/>
+    <mergeCell ref="E179:E189"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E190:E197"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="A33:A46"/>
+    <mergeCell ref="E33:E46"/>
+    <mergeCell ref="A47:A68"/>
+    <mergeCell ref="E47:E68"/>
+    <mergeCell ref="A69:A173"/>
+    <mergeCell ref="E69:E173"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E15:E32"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>$D1=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>$D1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>$D1=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>$D1=4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F53 F60:F174 F179:F1048576">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"Жуков Виктор"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"Соклаков Иван"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Сусленков Виктор"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13455,7 +14080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13658,10 +14283,10 @@
     <mergeCell ref="E6:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>$D1=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>$D1=2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Projects\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A93A61-F636-4B9E-BB84-B6345A884665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WebApiTests" sheetId="1" r:id="rId1"/>
     <sheet name="WebApiContracts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="948">
   <si>
     <t>Контроллер</t>
   </si>
@@ -2876,12 +2877,15 @@
   </si>
   <si>
     <t>Количество get-методов с утечкой доменной знаний в тесты</t>
+  </si>
+  <si>
+    <t>Будет добавлено в 23.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3094,7 +3098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3233,14 +3237,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3251,13 +3264,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3287,35 +3309,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3765,11 +3781,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C225" sqref="C225"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3813,7 +3829,7 @@
       <c r="D2" s="5">
         <v>5</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="62" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8">
@@ -3829,7 +3845,7 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
@@ -3843,7 +3859,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="69"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="8">
         <v>2</v>
       </c>
@@ -3857,7 +3873,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="69"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="8">
         <v>2</v>
       </c>
@@ -3871,7 +3887,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="69"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="8">
         <v>2</v>
       </c>
@@ -3885,7 +3901,7 @@
       <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="69"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="8">
         <v>-1</v>
       </c>
@@ -3899,7 +3915,7 @@
       <c r="D8" s="6">
         <v>5</v>
       </c>
-      <c r="E8" s="70"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="8">
         <v>-1</v>
       </c>
@@ -3915,7 +3931,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="62" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="8">
@@ -3931,7 +3947,7 @@
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="69"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
@@ -3943,7 +3959,7 @@
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="69"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
@@ -3955,7 +3971,7 @@
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="69"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="8">
         <v>2</v>
       </c>
@@ -3967,7 +3983,7 @@
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="69"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="8">
         <v>2</v>
       </c>
@@ -3979,13 +3995,13 @@
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="70"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="50" t="s">
         <v>884</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -4001,7 +4017,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="33" t="s">
         <v>933</v>
       </c>
@@ -4013,7 +4029,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="33" t="s">
         <v>934</v>
       </c>
@@ -4025,7 +4041,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="33" t="s">
         <v>935</v>
       </c>
@@ -4037,7 +4053,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="33" t="s">
         <v>936</v>
       </c>
@@ -4049,7 +4065,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="33" t="s">
         <v>937</v>
       </c>
@@ -4061,7 +4077,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="33" t="s">
         <v>938</v>
       </c>
@@ -4073,7 +4089,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="33" t="s">
         <v>939</v>
       </c>
@@ -4085,7 +4101,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="33" t="s">
         <v>940</v>
       </c>
@@ -4097,7 +4113,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="34" t="s">
         <v>941</v>
       </c>
@@ -4109,7 +4125,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="56" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -4127,7 +4143,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
@@ -4141,7 +4157,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
@@ -4155,7 +4171,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
@@ -4169,7 +4185,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="4" t="s">
         <v>25</v>
       </c>
@@ -4183,7 +4199,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="4" t="s">
         <v>26</v>
       </c>
@@ -4197,7 +4213,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="4" t="s">
         <v>27</v>
       </c>
@@ -4211,7 +4227,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="4" t="s">
         <v>28</v>
       </c>
@@ -4225,7 +4241,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="4" t="s">
         <v>29</v>
       </c>
@@ -4239,7 +4255,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="4" t="s">
         <v>30</v>
       </c>
@@ -4253,7 +4269,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="4" t="s">
         <v>31</v>
       </c>
@@ -4267,7 +4283,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="4" t="s">
         <v>32</v>
       </c>
@@ -4281,7 +4297,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
@@ -4295,7 +4311,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="4" t="s">
         <v>34</v>
       </c>
@@ -4309,7 +4325,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="4" t="s">
         <v>35</v>
       </c>
@@ -4323,7 +4339,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="4" t="s">
         <v>36</v>
       </c>
@@ -4337,7 +4353,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="4" t="s">
         <v>37</v>
       </c>
@@ -4351,7 +4367,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="6" t="s">
         <v>38</v>
       </c>
@@ -4365,7 +4381,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -4383,7 +4399,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="4" t="s">
         <v>42</v>
       </c>
@@ -4397,7 +4413,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="4" t="s">
         <v>43</v>
       </c>
@@ -4411,7 +4427,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="4" t="s">
         <v>44</v>
       </c>
@@ -4425,7 +4441,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="4" t="s">
         <v>45</v>
       </c>
@@ -4439,7 +4455,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="4" t="s">
         <v>46</v>
       </c>
@@ -4453,7 +4469,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="4" t="s">
         <v>47</v>
       </c>
@@ -4467,7 +4483,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="4" t="s">
         <v>48</v>
       </c>
@@ -4481,7 +4497,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="4" t="s">
         <v>49</v>
       </c>
@@ -4495,7 +4511,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="4" t="s">
         <v>50</v>
       </c>
@@ -4509,7 +4525,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="4" t="s">
         <v>51</v>
       </c>
@@ -4523,7 +4539,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="4" t="s">
         <v>52</v>
       </c>
@@ -4537,7 +4553,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="4" t="s">
         <v>53</v>
       </c>
@@ -4551,7 +4567,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
@@ -4645,14 +4661,14 @@
       <c r="B63" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="68" t="s">
         <v>69</v>
       </c>
       <c r="D63" s="4">
         <v>3</v>
       </c>
       <c r="E63" s="48"/>
-      <c r="F63" s="59" t="s">
+      <c r="F63" s="65" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4661,72 +4677,72 @@
       <c r="B64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="62"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="4">
         <v>3</v>
       </c>
       <c r="E64" s="48"/>
-      <c r="F64" s="60"/>
+      <c r="F64" s="66"/>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48"/>
       <c r="B65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="62"/>
+      <c r="C65" s="68"/>
       <c r="D65" s="4">
         <v>3</v>
       </c>
       <c r="E65" s="48"/>
-      <c r="F65" s="60"/>
+      <c r="F65" s="66"/>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48"/>
       <c r="B66" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="62"/>
+      <c r="C66" s="68"/>
       <c r="D66" s="4">
         <v>3</v>
       </c>
       <c r="E66" s="48"/>
-      <c r="F66" s="60"/>
+      <c r="F66" s="66"/>
     </row>
     <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48"/>
       <c r="B67" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="62"/>
+      <c r="C67" s="68"/>
       <c r="D67" s="4">
         <v>3</v>
       </c>
       <c r="E67" s="48"/>
-      <c r="F67" s="60"/>
+      <c r="F67" s="66"/>
     </row>
     <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48"/>
       <c r="B68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="62"/>
+      <c r="C68" s="68"/>
       <c r="D68" s="4">
         <v>3</v>
       </c>
       <c r="E68" s="48"/>
-      <c r="F68" s="60"/>
+      <c r="F68" s="66"/>
     </row>
     <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48"/>
       <c r="B69" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="62"/>
+      <c r="C69" s="68"/>
       <c r="D69" s="4">
         <v>3</v>
       </c>
       <c r="E69" s="48"/>
-      <c r="F69" s="61"/>
+      <c r="F69" s="67"/>
     </row>
     <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48"/>
@@ -6311,72 +6327,72 @@
       </c>
     </row>
     <row r="184" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="63" t="s">
+      <c r="A184" s="69" t="s">
         <v>192</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C184" s="66" t="s">
+      <c r="C184" s="72" t="s">
         <v>69</v>
       </c>
       <c r="D184" s="5">
         <v>3</v>
       </c>
-      <c r="E184" s="63" t="s">
+      <c r="E184" s="69" t="s">
         <v>883</v>
       </c>
-      <c r="F184" s="59" t="s">
+      <c r="F184" s="65" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="64"/>
+      <c r="A185" s="70"/>
       <c r="B185" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C185" s="62"/>
+      <c r="C185" s="68"/>
       <c r="D185" s="5">
         <v>3</v>
       </c>
-      <c r="E185" s="64"/>
-      <c r="F185" s="60"/>
+      <c r="E185" s="70"/>
+      <c r="F185" s="66"/>
     </row>
     <row r="186" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="64"/>
+      <c r="A186" s="70"/>
       <c r="B186" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C186" s="62"/>
+      <c r="C186" s="68"/>
       <c r="D186" s="5">
         <v>3</v>
       </c>
-      <c r="E186" s="64"/>
-      <c r="F186" s="60"/>
+      <c r="E186" s="70"/>
+      <c r="F186" s="66"/>
     </row>
     <row r="187" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="64"/>
+      <c r="A187" s="70"/>
       <c r="B187" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C187" s="62"/>
+      <c r="C187" s="68"/>
       <c r="D187" s="5">
         <v>3</v>
       </c>
-      <c r="E187" s="64"/>
-      <c r="F187" s="60"/>
+      <c r="E187" s="70"/>
+      <c r="F187" s="66"/>
     </row>
     <row r="188" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="65"/>
+      <c r="A188" s="71"/>
       <c r="B188" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C188" s="67"/>
+      <c r="C188" s="73"/>
       <c r="D188" s="5">
         <v>3</v>
       </c>
-      <c r="E188" s="65"/>
-      <c r="F188" s="61"/>
+      <c r="E188" s="71"/>
+      <c r="F188" s="67"/>
     </row>
     <row r="189" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
@@ -6880,7 +6896,9 @@
         <v>234</v>
       </c>
       <c r="C228" s="37"/>
-      <c r="D228" s="4"/>
+      <c r="D228" s="4">
+        <v>1</v>
+      </c>
       <c r="E228" s="48"/>
       <c r="F228" s="8">
         <v>2</v>
@@ -6906,7 +6924,9 @@
         <v>236</v>
       </c>
       <c r="C230" s="37"/>
-      <c r="D230" s="4"/>
+      <c r="D230" s="4">
+        <v>1</v>
+      </c>
       <c r="E230" s="48"/>
       <c r="F230" s="8">
         <v>2</v>
@@ -6960,7 +6980,9 @@
         <v>240</v>
       </c>
       <c r="C234" s="37"/>
-      <c r="D234" s="4"/>
+      <c r="D234" s="4">
+        <v>1</v>
+      </c>
       <c r="E234" s="48"/>
       <c r="F234" s="8">
         <v>2</v>
@@ -6972,7 +6994,9 @@
         <v>241</v>
       </c>
       <c r="C235" s="37"/>
-      <c r="D235" s="4"/>
+      <c r="D235" s="4">
+        <v>1</v>
+      </c>
       <c r="E235" s="48"/>
       <c r="F235" s="8">
         <v>2</v>
@@ -6984,7 +7008,9 @@
         <v>242</v>
       </c>
       <c r="C236" s="37"/>
-      <c r="D236" s="4"/>
+      <c r="D236" s="4">
+        <v>1</v>
+      </c>
       <c r="E236" s="48"/>
       <c r="F236" s="8">
         <v>2</v>
@@ -6996,7 +7022,9 @@
         <v>243</v>
       </c>
       <c r="C237" s="37"/>
-      <c r="D237" s="4"/>
+      <c r="D237" s="4">
+        <v>1</v>
+      </c>
       <c r="E237" s="48"/>
       <c r="F237" s="8">
         <v>2</v>
@@ -7004,8 +7032,11 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="48"/>
-      <c r="B238" s="33" t="s">
+      <c r="B238" s="78" t="s">
         <v>885</v>
+      </c>
+      <c r="C238" s="80" t="s">
+        <v>947</v>
       </c>
       <c r="E238" s="48"/>
       <c r="F238" s="8">
@@ -7014,9 +7045,10 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="48"/>
-      <c r="B239" s="33" t="s">
+      <c r="B239" s="78" t="s">
         <v>886</v>
       </c>
+      <c r="C239" s="80"/>
       <c r="E239" s="48"/>
       <c r="F239" s="8">
         <v>2</v>
@@ -7024,9 +7056,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="48"/>
-      <c r="B240" s="33" t="s">
+      <c r="B240" s="78" t="s">
         <v>887</v>
       </c>
+      <c r="C240" s="80"/>
       <c r="E240" s="48"/>
       <c r="F240" s="8">
         <v>2</v>
@@ -7034,10 +7067,10 @@
     </row>
     <row r="241" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="49"/>
-      <c r="B241" s="34" t="s">
+      <c r="B241" s="79" t="s">
         <v>888</v>
       </c>
-      <c r="C241" s="40"/>
+      <c r="C241" s="81"/>
       <c r="D241" s="6"/>
       <c r="E241" s="49"/>
       <c r="F241" s="8">
@@ -8439,7 +8472,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="53" t="s">
+      <c r="A356" s="56" t="s">
         <v>361</v>
       </c>
       <c r="B356" s="5" t="s">
@@ -8457,7 +8490,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="54"/>
+      <c r="A357" s="57"/>
       <c r="B357" s="4" t="s">
         <v>363</v>
       </c>
@@ -8471,7 +8504,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="54"/>
+      <c r="A358" s="57"/>
       <c r="B358" s="4" t="s">
         <v>364</v>
       </c>
@@ -8485,7 +8518,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="54"/>
+      <c r="A359" s="57"/>
       <c r="B359" s="4" t="s">
         <v>365</v>
       </c>
@@ -8499,7 +8532,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="54"/>
+      <c r="A360" s="57"/>
       <c r="B360" s="4" t="s">
         <v>366</v>
       </c>
@@ -8513,7 +8546,7 @@
       </c>
     </row>
     <row r="361" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="54"/>
+      <c r="A361" s="57"/>
       <c r="B361" s="4" t="s">
         <v>367</v>
       </c>
@@ -8527,7 +8560,7 @@
       </c>
     </row>
     <row r="362" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="54"/>
+      <c r="A362" s="57"/>
       <c r="B362" s="4" t="s">
         <v>368</v>
       </c>
@@ -8541,7 +8574,7 @@
       </c>
     </row>
     <row r="363" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="54"/>
+      <c r="A363" s="57"/>
       <c r="B363" s="4" t="s">
         <v>369</v>
       </c>
@@ -8555,7 +8588,7 @@
       </c>
     </row>
     <row r="364" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="54"/>
+      <c r="A364" s="57"/>
       <c r="B364" s="4" t="s">
         <v>370</v>
       </c>
@@ -8569,7 +8602,7 @@
       </c>
     </row>
     <row r="365" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="54"/>
+      <c r="A365" s="57"/>
       <c r="B365" s="4" t="s">
         <v>371</v>
       </c>
@@ -8583,7 +8616,7 @@
       </c>
     </row>
     <row r="366" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="54"/>
+      <c r="A366" s="57"/>
       <c r="B366" s="4" t="s">
         <v>372</v>
       </c>
@@ -8597,7 +8630,7 @@
       </c>
     </row>
     <row r="367" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="54"/>
+      <c r="A367" s="57"/>
       <c r="B367" s="4" t="s">
         <v>373</v>
       </c>
@@ -8611,7 +8644,7 @@
       </c>
     </row>
     <row r="368" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="54"/>
+      <c r="A368" s="57"/>
       <c r="B368" s="4" t="s">
         <v>374</v>
       </c>
@@ -8625,7 +8658,7 @@
       </c>
     </row>
     <row r="369" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="54"/>
+      <c r="A369" s="57"/>
       <c r="B369" s="4" t="s">
         <v>375</v>
       </c>
@@ -8639,7 +8672,7 @@
       </c>
     </row>
     <row r="370" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="54"/>
+      <c r="A370" s="57"/>
       <c r="B370" s="4" t="s">
         <v>376</v>
       </c>
@@ -8653,7 +8686,7 @@
       </c>
     </row>
     <row r="371" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="55"/>
+      <c r="A371" s="58"/>
       <c r="B371" s="6" t="s">
         <v>377</v>
       </c>
@@ -8667,7 +8700,7 @@
       </c>
     </row>
     <row r="372" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="71" t="s">
+      <c r="A372" s="59" t="s">
         <v>378</v>
       </c>
       <c r="B372" s="5" t="s">
@@ -8685,7 +8718,7 @@
       </c>
     </row>
     <row r="373" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="72"/>
+      <c r="A373" s="60"/>
       <c r="B373" s="4" t="s">
         <v>380</v>
       </c>
@@ -8699,7 +8732,7 @@
       </c>
     </row>
     <row r="374" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="72"/>
+      <c r="A374" s="60"/>
       <c r="B374" s="4" t="s">
         <v>381</v>
       </c>
@@ -8713,7 +8746,7 @@
       </c>
     </row>
     <row r="375" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="72"/>
+      <c r="A375" s="60"/>
       <c r="B375" s="4" t="s">
         <v>382</v>
       </c>
@@ -8727,7 +8760,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="72"/>
+      <c r="A376" s="60"/>
       <c r="B376" s="4" t="s">
         <v>383</v>
       </c>
@@ -8741,7 +8774,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="72"/>
+      <c r="A377" s="60"/>
       <c r="B377" s="4" t="s">
         <v>384</v>
       </c>
@@ -8755,7 +8788,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="72"/>
+      <c r="A378" s="60"/>
       <c r="B378" s="4" t="s">
         <v>385</v>
       </c>
@@ -8769,7 +8802,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="72"/>
+      <c r="A379" s="60"/>
       <c r="B379" s="4" t="s">
         <v>386</v>
       </c>
@@ -8783,7 +8816,7 @@
       </c>
     </row>
     <row r="380" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="72"/>
+      <c r="A380" s="60"/>
       <c r="B380" s="4" t="s">
         <v>387</v>
       </c>
@@ -8797,7 +8830,7 @@
       </c>
     </row>
     <row r="381" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="72"/>
+      <c r="A381" s="60"/>
       <c r="B381" s="4" t="s">
         <v>388</v>
       </c>
@@ -8811,7 +8844,7 @@
       </c>
     </row>
     <row r="382" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="72"/>
+      <c r="A382" s="60"/>
       <c r="B382" s="4" t="s">
         <v>389</v>
       </c>
@@ -8825,7 +8858,7 @@
       </c>
     </row>
     <row r="383" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="72"/>
+      <c r="A383" s="60"/>
       <c r="B383" s="4" t="s">
         <v>390</v>
       </c>
@@ -8839,7 +8872,7 @@
       </c>
     </row>
     <row r="384" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="72"/>
+      <c r="A384" s="60"/>
       <c r="B384" s="4" t="s">
         <v>391</v>
       </c>
@@ -8853,7 +8886,7 @@
       </c>
     </row>
     <row r="385" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="72"/>
+      <c r="A385" s="60"/>
       <c r="B385" s="4" t="s">
         <v>392</v>
       </c>
@@ -8867,7 +8900,7 @@
       </c>
     </row>
     <row r="386" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="72"/>
+      <c r="A386" s="60"/>
       <c r="B386" s="4" t="s">
         <v>393</v>
       </c>
@@ -8881,7 +8914,7 @@
       </c>
     </row>
     <row r="387" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="72"/>
+      <c r="A387" s="60"/>
       <c r="B387" s="4" t="s">
         <v>394</v>
       </c>
@@ -8895,7 +8928,7 @@
       </c>
     </row>
     <row r="388" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="72"/>
+      <c r="A388" s="60"/>
       <c r="B388" s="4" t="s">
         <v>395</v>
       </c>
@@ -8909,7 +8942,7 @@
       </c>
     </row>
     <row r="389" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="72"/>
+      <c r="A389" s="60"/>
       <c r="B389" s="4" t="s">
         <v>396</v>
       </c>
@@ -8923,7 +8956,7 @@
       </c>
     </row>
     <row r="390" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="72"/>
+      <c r="A390" s="60"/>
       <c r="B390" s="4" t="s">
         <v>397</v>
       </c>
@@ -8937,7 +8970,7 @@
       </c>
     </row>
     <row r="391" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="72"/>
+      <c r="A391" s="60"/>
       <c r="B391" s="4" t="s">
         <v>398</v>
       </c>
@@ -8951,7 +8984,7 @@
       </c>
     </row>
     <row r="392" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="72"/>
+      <c r="A392" s="60"/>
       <c r="B392" s="4" t="s">
         <v>399</v>
       </c>
@@ -8965,7 +8998,7 @@
       </c>
     </row>
     <row r="393" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="72"/>
+      <c r="A393" s="60"/>
       <c r="B393" s="4" t="s">
         <v>400</v>
       </c>
@@ -8979,7 +9012,7 @@
       </c>
     </row>
     <row r="394" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="72"/>
+      <c r="A394" s="60"/>
       <c r="B394" s="4" t="s">
         <v>401</v>
       </c>
@@ -8993,7 +9026,7 @@
       </c>
     </row>
     <row r="395" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="72"/>
+      <c r="A395" s="60"/>
       <c r="B395" s="4" t="s">
         <v>402</v>
       </c>
@@ -9007,7 +9040,7 @@
       </c>
     </row>
     <row r="396" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="72"/>
+      <c r="A396" s="60"/>
       <c r="B396" s="4" t="s">
         <v>403</v>
       </c>
@@ -9021,7 +9054,7 @@
       </c>
     </row>
     <row r="397" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="72"/>
+      <c r="A397" s="60"/>
       <c r="B397" s="4" t="s">
         <v>404</v>
       </c>
@@ -9035,7 +9068,7 @@
       </c>
     </row>
     <row r="398" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="72"/>
+      <c r="A398" s="60"/>
       <c r="B398" s="4" t="s">
         <v>405</v>
       </c>
@@ -9049,7 +9082,7 @@
       </c>
     </row>
     <row r="399" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="72"/>
+      <c r="A399" s="60"/>
       <c r="B399" s="4" t="s">
         <v>406</v>
       </c>
@@ -9063,7 +9096,7 @@
       </c>
     </row>
     <row r="400" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="72"/>
+      <c r="A400" s="60"/>
       <c r="B400" s="4" t="s">
         <v>407</v>
       </c>
@@ -9077,7 +9110,7 @@
       </c>
     </row>
     <row r="401" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="72"/>
+      <c r="A401" s="60"/>
       <c r="B401" s="4" t="s">
         <v>408</v>
       </c>
@@ -9091,7 +9124,7 @@
       </c>
     </row>
     <row r="402" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="72"/>
+      <c r="A402" s="60"/>
       <c r="B402" s="4" t="s">
         <v>409</v>
       </c>
@@ -9105,7 +9138,7 @@
       </c>
     </row>
     <row r="403" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="73"/>
+      <c r="A403" s="61"/>
       <c r="B403" s="6" t="s">
         <v>410</v>
       </c>
@@ -9337,7 +9370,7 @@
       </c>
     </row>
     <row r="421" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="53" t="s">
+      <c r="A421" s="56" t="s">
         <v>429</v>
       </c>
       <c r="B421" s="5" t="s">
@@ -9355,7 +9388,7 @@
       </c>
     </row>
     <row r="422" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="54"/>
+      <c r="A422" s="57"/>
       <c r="B422" s="4" t="s">
         <v>431</v>
       </c>
@@ -9369,7 +9402,7 @@
       </c>
     </row>
     <row r="423" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="54"/>
+      <c r="A423" s="57"/>
       <c r="B423" s="4" t="s">
         <v>432</v>
       </c>
@@ -9383,7 +9416,7 @@
       </c>
     </row>
     <row r="424" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="54"/>
+      <c r="A424" s="57"/>
       <c r="B424" s="4" t="s">
         <v>433</v>
       </c>
@@ -9397,7 +9430,7 @@
       </c>
     </row>
     <row r="425" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="54"/>
+      <c r="A425" s="57"/>
       <c r="B425" s="4" t="s">
         <v>434</v>
       </c>
@@ -9411,7 +9444,7 @@
       </c>
     </row>
     <row r="426" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="54"/>
+      <c r="A426" s="57"/>
       <c r="B426" s="4" t="s">
         <v>435</v>
       </c>
@@ -9425,7 +9458,7 @@
       </c>
     </row>
     <row r="427" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="54"/>
+      <c r="A427" s="57"/>
       <c r="B427" s="4" t="s">
         <v>436</v>
       </c>
@@ -9439,7 +9472,7 @@
       </c>
     </row>
     <row r="428" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="54"/>
+      <c r="A428" s="57"/>
       <c r="B428" s="4" t="s">
         <v>437</v>
       </c>
@@ -9453,7 +9486,7 @@
       </c>
     </row>
     <row r="429" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="54"/>
+      <c r="A429" s="57"/>
       <c r="B429" s="4" t="s">
         <v>438</v>
       </c>
@@ -9467,7 +9500,7 @@
       </c>
     </row>
     <row r="430" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="54"/>
+      <c r="A430" s="57"/>
       <c r="B430" s="4" t="s">
         <v>439</v>
       </c>
@@ -9481,7 +9514,7 @@
       </c>
     </row>
     <row r="431" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="54"/>
+      <c r="A431" s="57"/>
       <c r="B431" s="4" t="s">
         <v>440</v>
       </c>
@@ -9495,7 +9528,7 @@
       </c>
     </row>
     <row r="432" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="54"/>
+      <c r="A432" s="57"/>
       <c r="B432" s="4" t="s">
         <v>441</v>
       </c>
@@ -9509,7 +9542,7 @@
       </c>
     </row>
     <row r="433" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="54"/>
+      <c r="A433" s="57"/>
       <c r="B433" s="4" t="s">
         <v>442</v>
       </c>
@@ -9523,7 +9556,7 @@
       </c>
     </row>
     <row r="434" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="54"/>
+      <c r="A434" s="57"/>
       <c r="B434" s="4" t="s">
         <v>443</v>
       </c>
@@ -9537,7 +9570,7 @@
       </c>
     </row>
     <row r="435" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="54"/>
+      <c r="A435" s="57"/>
       <c r="B435" s="4" t="s">
         <v>444</v>
       </c>
@@ -9551,7 +9584,7 @@
       </c>
     </row>
     <row r="436" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="54"/>
+      <c r="A436" s="57"/>
       <c r="B436" s="4" t="s">
         <v>14</v>
       </c>
@@ -9565,7 +9598,7 @@
       </c>
     </row>
     <row r="437" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="55"/>
+      <c r="A437" s="58"/>
       <c r="B437" s="6" t="s">
         <v>445</v>
       </c>
@@ -10613,7 +10646,7 @@
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A523" s="56" t="s">
+      <c r="A523" s="50" t="s">
         <v>893</v>
       </c>
       <c r="B523" s="33" t="s">
@@ -10627,7 +10660,7 @@
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A524" s="57"/>
+      <c r="A524" s="51"/>
       <c r="B524" s="33" t="s">
         <v>895</v>
       </c>
@@ -10637,7 +10670,7 @@
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A525" s="57"/>
+      <c r="A525" s="51"/>
       <c r="B525" s="33" t="s">
         <v>896</v>
       </c>
@@ -10647,7 +10680,7 @@
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A526" s="57"/>
+      <c r="A526" s="51"/>
       <c r="B526" s="33" t="s">
         <v>897</v>
       </c>
@@ -10657,7 +10690,7 @@
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A527" s="57"/>
+      <c r="A527" s="51"/>
       <c r="B527" s="33" t="s">
         <v>898</v>
       </c>
@@ -10667,7 +10700,7 @@
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A528" s="57"/>
+      <c r="A528" s="51"/>
       <c r="B528" s="33" t="s">
         <v>899</v>
       </c>
@@ -10677,7 +10710,7 @@
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A529" s="57"/>
+      <c r="A529" s="51"/>
       <c r="B529" s="33" t="s">
         <v>900</v>
       </c>
@@ -10687,7 +10720,7 @@
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A530" s="57"/>
+      <c r="A530" s="51"/>
       <c r="B530" s="33" t="s">
         <v>901</v>
       </c>
@@ -10697,7 +10730,7 @@
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A531" s="57"/>
+      <c r="A531" s="51"/>
       <c r="B531" s="33" t="s">
         <v>902</v>
       </c>
@@ -10707,7 +10740,7 @@
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A532" s="57"/>
+      <c r="A532" s="51"/>
       <c r="B532" s="33" t="s">
         <v>903</v>
       </c>
@@ -10717,7 +10750,7 @@
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A533" s="57"/>
+      <c r="A533" s="51"/>
       <c r="B533" s="33" t="s">
         <v>904</v>
       </c>
@@ -10727,7 +10760,7 @@
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A534" s="57"/>
+      <c r="A534" s="51"/>
       <c r="B534" s="33" t="s">
         <v>905</v>
       </c>
@@ -10737,7 +10770,7 @@
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A535" s="57"/>
+      <c r="A535" s="51"/>
       <c r="B535" s="33" t="s">
         <v>906</v>
       </c>
@@ -10747,7 +10780,7 @@
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A536" s="57"/>
+      <c r="A536" s="51"/>
       <c r="B536" s="33" t="s">
         <v>907</v>
       </c>
@@ -10757,7 +10790,7 @@
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A537" s="57"/>
+      <c r="A537" s="51"/>
       <c r="B537" s="33" t="s">
         <v>908</v>
       </c>
@@ -10767,7 +10800,7 @@
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A538" s="57"/>
+      <c r="A538" s="51"/>
       <c r="B538" s="33" t="s">
         <v>909</v>
       </c>
@@ -10777,7 +10810,7 @@
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A539" s="57"/>
+      <c r="A539" s="51"/>
       <c r="B539" s="33" t="s">
         <v>910</v>
       </c>
@@ -10787,7 +10820,7 @@
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A540" s="57"/>
+      <c r="A540" s="51"/>
       <c r="B540" s="33" t="s">
         <v>911</v>
       </c>
@@ -10797,7 +10830,7 @@
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A541" s="57"/>
+      <c r="A541" s="51"/>
       <c r="B541" s="33" t="s">
         <v>912</v>
       </c>
@@ -10807,7 +10840,7 @@
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A542" s="57"/>
+      <c r="A542" s="51"/>
       <c r="B542" s="33" t="s">
         <v>913</v>
       </c>
@@ -10817,7 +10850,7 @@
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A543" s="57"/>
+      <c r="A543" s="51"/>
       <c r="B543" s="33" t="s">
         <v>942</v>
       </c>
@@ -10827,7 +10860,7 @@
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A544" s="57"/>
+      <c r="A544" s="51"/>
       <c r="B544" s="33" t="s">
         <v>943</v>
       </c>
@@ -10837,7 +10870,7 @@
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A545" s="57"/>
+      <c r="A545" s="51"/>
       <c r="B545" s="33" t="s">
         <v>944</v>
       </c>
@@ -10847,7 +10880,7 @@
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A546" s="57"/>
+      <c r="A546" s="51"/>
       <c r="B546" s="33" t="s">
         <v>945</v>
       </c>
@@ -10857,7 +10890,7 @@
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A547" s="57"/>
+      <c r="A547" s="51"/>
       <c r="B547" s="33" t="s">
         <v>918</v>
       </c>
@@ -10867,7 +10900,7 @@
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A548" s="57"/>
+      <c r="A548" s="51"/>
       <c r="B548" s="33" t="s">
         <v>919</v>
       </c>
@@ -10877,7 +10910,7 @@
       </c>
     </row>
     <row r="549" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="57"/>
+      <c r="A549" s="51"/>
       <c r="B549" s="33" t="s">
         <v>920</v>
       </c>
@@ -10889,7 +10922,7 @@
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A550" s="57"/>
+      <c r="A550" s="51"/>
       <c r="B550" s="33" t="s">
         <v>914</v>
       </c>
@@ -10899,7 +10932,7 @@
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A551" s="57"/>
+      <c r="A551" s="51"/>
       <c r="B551" s="33" t="s">
         <v>915</v>
       </c>
@@ -10909,7 +10942,7 @@
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A552" s="57"/>
+      <c r="A552" s="51"/>
       <c r="B552" s="33" t="s">
         <v>916</v>
       </c>
@@ -10919,7 +10952,7 @@
       </c>
     </row>
     <row r="553" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="58"/>
+      <c r="A553" s="52"/>
       <c r="B553" s="34" t="s">
         <v>917</v>
       </c>
@@ -12337,13 +12370,13 @@
       </c>
     </row>
     <row r="668" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A668" s="56" t="s">
+      <c r="A668" s="50" t="s">
         <v>644</v>
       </c>
       <c r="B668" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="C668" s="74" t="s">
+      <c r="C668" s="53" t="s">
         <v>931</v>
       </c>
       <c r="D668" s="5"/>
@@ -12355,11 +12388,11 @@
       </c>
     </row>
     <row r="669" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A669" s="57"/>
+      <c r="A669" s="51"/>
       <c r="B669" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="C669" s="75"/>
+      <c r="C669" s="54"/>
       <c r="D669" s="5"/>
       <c r="E669" s="48"/>
       <c r="F669" s="8">
@@ -12367,11 +12400,11 @@
       </c>
     </row>
     <row r="670" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A670" s="57"/>
+      <c r="A670" s="51"/>
       <c r="B670" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="C670" s="75"/>
+      <c r="C670" s="54"/>
       <c r="D670" s="5"/>
       <c r="E670" s="48"/>
       <c r="F670" s="8">
@@ -12379,11 +12412,11 @@
       </c>
     </row>
     <row r="671" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A671" s="57"/>
+      <c r="A671" s="51"/>
       <c r="B671" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="C671" s="75"/>
+      <c r="C671" s="54"/>
       <c r="D671" s="5"/>
       <c r="E671" s="48"/>
       <c r="F671" s="8">
@@ -12391,11 +12424,11 @@
       </c>
     </row>
     <row r="672" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A672" s="57"/>
+      <c r="A672" s="51"/>
       <c r="B672" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="C672" s="75"/>
+      <c r="C672" s="54"/>
       <c r="D672" s="5"/>
       <c r="E672" s="48"/>
       <c r="F672" s="8">
@@ -12403,11 +12436,11 @@
       </c>
     </row>
     <row r="673" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A673" s="57"/>
+      <c r="A673" s="51"/>
       <c r="B673" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="C673" s="75"/>
+      <c r="C673" s="54"/>
       <c r="D673" s="5"/>
       <c r="E673" s="48"/>
       <c r="F673" s="8">
@@ -12415,11 +12448,11 @@
       </c>
     </row>
     <row r="674" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A674" s="57"/>
+      <c r="A674" s="51"/>
       <c r="B674" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="C674" s="75"/>
+      <c r="C674" s="54"/>
       <c r="D674" s="5"/>
       <c r="E674" s="48"/>
       <c r="F674" s="8">
@@ -12427,11 +12460,11 @@
       </c>
     </row>
     <row r="675" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A675" s="57"/>
+      <c r="A675" s="51"/>
       <c r="B675" s="33" t="s">
         <v>651</v>
       </c>
-      <c r="C675" s="75"/>
+      <c r="C675" s="54"/>
       <c r="D675" s="5"/>
       <c r="E675" s="48"/>
       <c r="F675" s="8">
@@ -12439,11 +12472,11 @@
       </c>
     </row>
     <row r="676" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A676" s="57"/>
+      <c r="A676" s="51"/>
       <c r="B676" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="C676" s="75"/>
+      <c r="C676" s="54"/>
       <c r="D676" s="5"/>
       <c r="E676" s="48"/>
       <c r="F676" s="8">
@@ -12451,11 +12484,11 @@
       </c>
     </row>
     <row r="677" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="58"/>
+      <c r="A677" s="52"/>
       <c r="B677" s="34" t="s">
         <v>653</v>
       </c>
-      <c r="C677" s="76"/>
+      <c r="C677" s="55"/>
       <c r="D677" s="5"/>
       <c r="E677" s="49"/>
       <c r="F677" s="8">
@@ -12463,7 +12496,7 @@
       </c>
     </row>
     <row r="678" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A678" s="53" t="s">
+      <c r="A678" s="56" t="s">
         <v>654</v>
       </c>
       <c r="B678" s="5" t="s">
@@ -12481,7 +12514,7 @@
       </c>
     </row>
     <row r="679" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="54"/>
+      <c r="A679" s="57"/>
       <c r="B679" s="4" t="s">
         <v>522</v>
       </c>
@@ -12495,7 +12528,7 @@
       </c>
     </row>
     <row r="680" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A680" s="54"/>
+      <c r="A680" s="57"/>
       <c r="B680" s="4" t="s">
         <v>656</v>
       </c>
@@ -12509,7 +12542,7 @@
       </c>
     </row>
     <row r="681" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="54"/>
+      <c r="A681" s="57"/>
       <c r="B681" s="4" t="s">
         <v>657</v>
       </c>
@@ -12523,7 +12556,7 @@
       </c>
     </row>
     <row r="682" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A682" s="55"/>
+      <c r="A682" s="58"/>
       <c r="B682" s="6" t="s">
         <v>658</v>
       </c>
@@ -14559,7 +14592,7 @@
       </c>
     </row>
     <row r="849" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A849" s="53" t="s">
+      <c r="A849" s="56" t="s">
         <v>821</v>
       </c>
       <c r="B849" s="5" t="s">
@@ -14577,7 +14610,7 @@
       </c>
     </row>
     <row r="850" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A850" s="54"/>
+      <c r="A850" s="57"/>
       <c r="B850" s="4" t="s">
         <v>823</v>
       </c>
@@ -14591,7 +14624,7 @@
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A851" s="54"/>
+      <c r="A851" s="57"/>
       <c r="B851" s="33" t="s">
         <v>929</v>
       </c>
@@ -14602,7 +14635,7 @@
       </c>
     </row>
     <row r="852" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A852" s="54"/>
+      <c r="A852" s="57"/>
       <c r="B852" s="4" t="s">
         <v>824</v>
       </c>
@@ -14616,7 +14649,7 @@
       </c>
     </row>
     <row r="853" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A853" s="54"/>
+      <c r="A853" s="57"/>
       <c r="B853" s="4" t="s">
         <v>825</v>
       </c>
@@ -14630,7 +14663,7 @@
       </c>
     </row>
     <row r="854" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A854" s="54"/>
+      <c r="A854" s="57"/>
       <c r="B854" s="4" t="s">
         <v>826</v>
       </c>
@@ -14644,7 +14677,7 @@
       </c>
     </row>
     <row r="855" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A855" s="54"/>
+      <c r="A855" s="57"/>
       <c r="B855" s="4" t="s">
         <v>827</v>
       </c>
@@ -14658,7 +14691,7 @@
       </c>
     </row>
     <row r="856" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A856" s="54"/>
+      <c r="A856" s="57"/>
       <c r="B856" s="4" t="s">
         <v>828</v>
       </c>
@@ -14672,7 +14705,7 @@
       </c>
     </row>
     <row r="857" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A857" s="54"/>
+      <c r="A857" s="57"/>
       <c r="B857" s="4" t="s">
         <v>829</v>
       </c>
@@ -14686,7 +14719,7 @@
       </c>
     </row>
     <row r="858" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A858" s="54"/>
+      <c r="A858" s="57"/>
       <c r="B858" s="4" t="s">
         <v>830</v>
       </c>
@@ -14700,7 +14733,7 @@
       </c>
     </row>
     <row r="859" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A859" s="54"/>
+      <c r="A859" s="57"/>
       <c r="B859" s="4" t="s">
         <v>831</v>
       </c>
@@ -14714,7 +14747,7 @@
       </c>
     </row>
     <row r="860" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A860" s="54"/>
+      <c r="A860" s="57"/>
       <c r="B860" s="4" t="s">
         <v>832</v>
       </c>
@@ -14728,7 +14761,7 @@
       </c>
     </row>
     <row r="861" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A861" s="55"/>
+      <c r="A861" s="58"/>
       <c r="B861" s="6" t="s">
         <v>833</v>
       </c>
@@ -14742,7 +14775,7 @@
       </c>
     </row>
     <row r="872" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A872" s="50" t="s">
+      <c r="A872" s="74" t="s">
         <v>874</v>
       </c>
       <c r="B872" s="29" t="s">
@@ -14750,14 +14783,14 @@
       </c>
       <c r="C872" s="38">
         <f>COUNTIF(D$2:D$861, 1)</f>
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D872" s="5"/>
       <c r="E872" s="30"/>
       <c r="F872" s="5"/>
     </row>
     <row r="873" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A873" s="51"/>
+      <c r="A873" s="75"/>
       <c r="B873" s="27" t="s">
         <v>870</v>
       </c>
@@ -14770,7 +14803,7 @@
       <c r="F873" s="4"/>
     </row>
     <row r="874" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A874" s="51"/>
+      <c r="A874" s="75"/>
       <c r="B874" s="7" t="s">
         <v>871</v>
       </c>
@@ -14783,7 +14816,7 @@
       <c r="F874" s="4"/>
     </row>
     <row r="875" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A875" s="51"/>
+      <c r="A875" s="75"/>
       <c r="B875" s="26" t="s">
         <v>872</v>
       </c>
@@ -14796,7 +14829,7 @@
       <c r="F875" s="4"/>
     </row>
     <row r="876" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A876" s="51"/>
+      <c r="A876" s="75"/>
       <c r="B876" s="46" t="s">
         <v>946</v>
       </c>
@@ -14809,14 +14842,14 @@
       <c r="F876" s="4"/>
     </row>
     <row r="877" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A877" s="51"/>
+      <c r="A877" s="75"/>
       <c r="B877" s="45"/>
       <c r="D877" s="4"/>
       <c r="E877" s="11"/>
       <c r="F877" s="4"/>
     </row>
     <row r="878" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A878" s="51"/>
+      <c r="A878" s="75"/>
       <c r="B878" s="4" t="s">
         <v>873</v>
       </c>
@@ -14829,7 +14862,7 @@
       <c r="F878" s="4"/>
     </row>
     <row r="879" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A879" s="51"/>
+      <c r="A879" s="75"/>
       <c r="B879" s="4"/>
       <c r="C879" s="37"/>
       <c r="D879" s="4"/>
@@ -14837,33 +14870,33 @@
       <c r="F879" s="4"/>
     </row>
     <row r="880" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A880" s="51"/>
+      <c r="A880" s="75"/>
       <c r="B880" s="4" t="s">
         <v>874</v>
       </c>
       <c r="C880" s="43">
         <f>C872/C878</f>
-        <v>0.11597633136094675</v>
+        <v>0.12307692307692308</v>
       </c>
       <c r="D880" s="4"/>
       <c r="E880" s="11"/>
       <c r="F880" s="4"/>
     </row>
     <row r="881" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A881" s="52"/>
+      <c r="A881" s="76"/>
       <c r="B881" s="6" t="s">
         <v>875</v>
       </c>
       <c r="C881" s="44">
         <f>(C872 + C873 + C876)/C878</f>
-        <v>0.27810650887573962</v>
+        <v>0.285207100591716</v>
       </c>
       <c r="D881" s="6"/>
       <c r="E881" s="31"/>
       <c r="F881" s="6"/>
     </row>
     <row r="884" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A884" s="50" t="s">
+      <c r="A884" s="74" t="s">
         <v>882</v>
       </c>
       <c r="B884" s="29" t="s">
@@ -14878,7 +14911,7 @@
       <c r="F884" s="5"/>
     </row>
     <row r="885" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A885" s="51"/>
+      <c r="A885" s="75"/>
       <c r="B885" s="7" t="s">
         <v>877</v>
       </c>
@@ -14891,7 +14924,7 @@
       <c r="F885" s="4"/>
     </row>
     <row r="886" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A886" s="51"/>
+      <c r="A886" s="75"/>
       <c r="B886" s="28" t="s">
         <v>878</v>
       </c>
@@ -14904,7 +14937,7 @@
       <c r="F886" s="4"/>
     </row>
     <row r="887" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A887" s="51"/>
+      <c r="A887" s="75"/>
       <c r="B887" s="4"/>
       <c r="C887" s="37"/>
       <c r="D887" s="4"/>
@@ -14912,7 +14945,7 @@
       <c r="F887" s="4"/>
     </row>
     <row r="888" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="51"/>
+      <c r="A888" s="75"/>
       <c r="B888" s="4" t="s">
         <v>879</v>
       </c>
@@ -14925,7 +14958,7 @@
       <c r="F888" s="4"/>
     </row>
     <row r="889" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A889" s="51"/>
+      <c r="A889" s="75"/>
       <c r="B889" s="4"/>
       <c r="C889" s="37"/>
       <c r="D889" s="4"/>
@@ -14933,7 +14966,7 @@
       <c r="F889" s="4"/>
     </row>
     <row r="890" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A890" s="51"/>
+      <c r="A890" s="75"/>
       <c r="B890" s="4" t="s">
         <v>880</v>
       </c>
@@ -14946,7 +14979,7 @@
       <c r="F890" s="4"/>
     </row>
     <row r="891" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A891" s="52"/>
+      <c r="A891" s="76"/>
       <c r="B891" s="6" t="s">
         <v>881</v>
       </c>
@@ -14959,7 +14992,85 @@
       <c r="F891" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
+  <mergeCells count="94">
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="A688:A814"/>
+    <mergeCell ref="E688:E814"/>
+    <mergeCell ref="A815:A835"/>
+    <mergeCell ref="E815:E835"/>
+    <mergeCell ref="A836:A837"/>
+    <mergeCell ref="E836:E837"/>
+    <mergeCell ref="A884:A891"/>
+    <mergeCell ref="A838:A840"/>
+    <mergeCell ref="E838:E840"/>
+    <mergeCell ref="A841:A847"/>
+    <mergeCell ref="E841:E847"/>
+    <mergeCell ref="E849:E861"/>
+    <mergeCell ref="A849:A861"/>
+    <mergeCell ref="A872:A881"/>
+    <mergeCell ref="A635:A636"/>
+    <mergeCell ref="E635:E636"/>
+    <mergeCell ref="A648:A654"/>
+    <mergeCell ref="A505:A516"/>
+    <mergeCell ref="E505:E516"/>
+    <mergeCell ref="A517:A522"/>
+    <mergeCell ref="E517:E522"/>
+    <mergeCell ref="A631:A634"/>
+    <mergeCell ref="E631:E634"/>
+    <mergeCell ref="E554:E630"/>
+    <mergeCell ref="A523:A553"/>
+    <mergeCell ref="E523:E553"/>
+    <mergeCell ref="E648:E654"/>
+    <mergeCell ref="A658:A660"/>
+    <mergeCell ref="E658:E660"/>
+    <mergeCell ref="A637:A647"/>
+    <mergeCell ref="E637:E647"/>
+    <mergeCell ref="A209:A223"/>
+    <mergeCell ref="E209:E223"/>
+    <mergeCell ref="A224:A241"/>
+    <mergeCell ref="E224:E241"/>
+    <mergeCell ref="A326:A348"/>
+    <mergeCell ref="E326:E348"/>
+    <mergeCell ref="A242:A325"/>
+    <mergeCell ref="E242:E325"/>
+    <mergeCell ref="A404:A409"/>
+    <mergeCell ref="E404:E409"/>
+    <mergeCell ref="A410:A414"/>
+    <mergeCell ref="E410:E414"/>
+    <mergeCell ref="A189:A199"/>
+    <mergeCell ref="E189:E199"/>
+    <mergeCell ref="A200:A207"/>
+    <mergeCell ref="F184:F188"/>
+    <mergeCell ref="E200:E207"/>
+    <mergeCell ref="F63:F69"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="A184:A188"/>
+    <mergeCell ref="E184:E188"/>
+    <mergeCell ref="C184:C188"/>
+    <mergeCell ref="A43:A56"/>
+    <mergeCell ref="E43:E56"/>
+    <mergeCell ref="A57:A78"/>
+    <mergeCell ref="E57:E78"/>
+    <mergeCell ref="A79:A183"/>
+    <mergeCell ref="E79:E183"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A25:A42"/>
+    <mergeCell ref="E25:E42"/>
+    <mergeCell ref="E15:E24"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A421:A437"/>
+    <mergeCell ref="E421:E437"/>
+    <mergeCell ref="A415:A420"/>
+    <mergeCell ref="E415:E420"/>
+    <mergeCell ref="A349:A353"/>
+    <mergeCell ref="E349:E353"/>
+    <mergeCell ref="A356:A371"/>
+    <mergeCell ref="E356:E371"/>
+    <mergeCell ref="A372:A403"/>
+    <mergeCell ref="E372:E403"/>
     <mergeCell ref="A489:A504"/>
     <mergeCell ref="E489:E504"/>
     <mergeCell ref="A438:A488"/>
@@ -14976,83 +15087,6 @@
     <mergeCell ref="A678:A682"/>
     <mergeCell ref="E678:E682"/>
     <mergeCell ref="A554:A630"/>
-    <mergeCell ref="A421:A437"/>
-    <mergeCell ref="E421:E437"/>
-    <mergeCell ref="A415:A420"/>
-    <mergeCell ref="E415:E420"/>
-    <mergeCell ref="A349:A353"/>
-    <mergeCell ref="E349:E353"/>
-    <mergeCell ref="A356:A371"/>
-    <mergeCell ref="E356:E371"/>
-    <mergeCell ref="A372:A403"/>
-    <mergeCell ref="E372:E403"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A25:A42"/>
-    <mergeCell ref="E25:E42"/>
-    <mergeCell ref="E15:E24"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A43:A56"/>
-    <mergeCell ref="E43:E56"/>
-    <mergeCell ref="A57:A78"/>
-    <mergeCell ref="E57:E78"/>
-    <mergeCell ref="A79:A183"/>
-    <mergeCell ref="E79:E183"/>
-    <mergeCell ref="F63:F69"/>
-    <mergeCell ref="C63:C69"/>
-    <mergeCell ref="A184:A188"/>
-    <mergeCell ref="E184:E188"/>
-    <mergeCell ref="C184:C188"/>
-    <mergeCell ref="A189:A199"/>
-    <mergeCell ref="E189:E199"/>
-    <mergeCell ref="A200:A207"/>
-    <mergeCell ref="F184:F188"/>
-    <mergeCell ref="E200:E207"/>
-    <mergeCell ref="A658:A660"/>
-    <mergeCell ref="E658:E660"/>
-    <mergeCell ref="A637:A647"/>
-    <mergeCell ref="E637:E647"/>
-    <mergeCell ref="A209:A223"/>
-    <mergeCell ref="E209:E223"/>
-    <mergeCell ref="A224:A241"/>
-    <mergeCell ref="E224:E241"/>
-    <mergeCell ref="A326:A348"/>
-    <mergeCell ref="E326:E348"/>
-    <mergeCell ref="A242:A325"/>
-    <mergeCell ref="E242:E325"/>
-    <mergeCell ref="A404:A409"/>
-    <mergeCell ref="E404:E409"/>
-    <mergeCell ref="A410:A414"/>
-    <mergeCell ref="E410:E414"/>
-    <mergeCell ref="A635:A636"/>
-    <mergeCell ref="E635:E636"/>
-    <mergeCell ref="A648:A654"/>
-    <mergeCell ref="A505:A516"/>
-    <mergeCell ref="E505:E516"/>
-    <mergeCell ref="A517:A522"/>
-    <mergeCell ref="E517:E522"/>
-    <mergeCell ref="A631:A634"/>
-    <mergeCell ref="E631:E634"/>
-    <mergeCell ref="E554:E630"/>
-    <mergeCell ref="A523:A553"/>
-    <mergeCell ref="E523:E553"/>
-    <mergeCell ref="E648:E654"/>
-    <mergeCell ref="A884:A891"/>
-    <mergeCell ref="A838:A840"/>
-    <mergeCell ref="E838:E840"/>
-    <mergeCell ref="A841:A847"/>
-    <mergeCell ref="E841:E847"/>
-    <mergeCell ref="E849:E861"/>
-    <mergeCell ref="A849:A861"/>
-    <mergeCell ref="A872:A881"/>
-    <mergeCell ref="A688:A814"/>
-    <mergeCell ref="E688:E814"/>
-    <mergeCell ref="A815:A835"/>
-    <mergeCell ref="E815:E835"/>
-    <mergeCell ref="A836:A837"/>
-    <mergeCell ref="E836:E837"/>
   </mergeCells>
   <conditionalFormatting sqref="B884:B894 B1:B876 B882 B903:B1048576">
     <cfRule type="expression" dxfId="17" priority="1">
@@ -15116,7 +15150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Тесты Web Api.xlsx
+++ b/Тесты Web Api.xlsx
@@ -4110,6 +4110,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4118,9 +4121,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4143,6 +4143,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4151,15 +4160,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4639,8 +4639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G959"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
-      <selection activeCell="C631" sqref="C631"/>
+    <sheetView tabSelected="1" topLeftCell="A586" workbookViewId="0">
+      <selection activeCell="D600" sqref="D600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4899,7 +4899,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="66" t="s">
         <v>1074</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -4918,7 +4918,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="21" t="s">
         <v>920</v>
       </c>
@@ -4933,7 +4933,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="21" t="s">
         <v>921</v>
       </c>
@@ -4948,7 +4948,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="21" t="s">
         <v>922</v>
       </c>
@@ -4963,7 +4963,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="21" t="s">
         <v>923</v>
       </c>
@@ -4978,7 +4978,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="21" t="s">
         <v>924</v>
       </c>
@@ -4993,7 +4993,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="21" t="s">
         <v>925</v>
       </c>
@@ -5008,7 +5008,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="21" t="s">
         <v>926</v>
       </c>
@@ -5023,7 +5023,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="21" t="s">
         <v>927</v>
       </c>
@@ -5038,7 +5038,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="22" t="s">
         <v>928</v>
       </c>
@@ -7781,7 +7781,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="79" t="s">
+      <c r="A185" s="76" t="s">
         <v>192</v>
       </c>
       <c r="B185" s="5" t="s">
@@ -7793,7 +7793,7 @@
       <c r="D185" s="5">
         <v>3</v>
       </c>
-      <c r="E185" s="79" t="s">
+      <c r="E185" s="76" t="s">
         <v>873</v>
       </c>
       <c r="F185" s="73" t="s">
@@ -7804,7 +7804,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="80"/>
+      <c r="A186" s="77"/>
       <c r="B186" s="4" t="s">
         <v>188</v>
       </c>
@@ -7812,14 +7812,14 @@
       <c r="D186" s="5">
         <v>3</v>
       </c>
-      <c r="E186" s="80"/>
+      <c r="E186" s="77"/>
       <c r="F186" s="74"/>
       <c r="G186" s="8" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="80"/>
+      <c r="A187" s="77"/>
       <c r="B187" s="4" t="s">
         <v>189</v>
       </c>
@@ -7827,14 +7827,14 @@
       <c r="D187" s="5">
         <v>3</v>
       </c>
-      <c r="E187" s="80"/>
+      <c r="E187" s="77"/>
       <c r="F187" s="74"/>
       <c r="G187" s="8" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="188" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="80"/>
+      <c r="A188" s="77"/>
       <c r="B188" s="4" t="s">
         <v>190</v>
       </c>
@@ -7842,14 +7842,14 @@
       <c r="D188" s="5">
         <v>3</v>
       </c>
-      <c r="E188" s="80"/>
+      <c r="E188" s="77"/>
       <c r="F188" s="74"/>
       <c r="G188" s="8" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="81"/>
+      <c r="A189" s="78"/>
       <c r="B189" s="6" t="s">
         <v>191</v>
       </c>
@@ -7857,7 +7857,7 @@
       <c r="D189" s="5">
         <v>3</v>
       </c>
-      <c r="E189" s="81"/>
+      <c r="E189" s="78"/>
       <c r="F189" s="75"/>
       <c r="G189" s="8" t="s">
         <v>1070</v>
@@ -8328,7 +8328,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="76" t="s">
+      <c r="A222" s="79" t="s">
         <v>206</v>
       </c>
       <c r="B222" s="5" t="s">
@@ -8347,7 +8347,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="77"/>
+      <c r="A223" s="80"/>
       <c r="B223" s="27" t="s">
         <v>1149</v>
       </c>
@@ -8355,7 +8355,7 @@
       <c r="D223" s="5">
         <v>1</v>
       </c>
-      <c r="E223" s="76" t="s">
+      <c r="E223" s="79" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="8">
@@ -8366,7 +8366,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="77"/>
+      <c r="A224" s="80"/>
       <c r="B224" s="27" t="s">
         <v>1152</v>
       </c>
@@ -8374,7 +8374,7 @@
       <c r="D224" s="5">
         <v>1</v>
       </c>
-      <c r="E224" s="77"/>
+      <c r="E224" s="80"/>
       <c r="F224" s="8">
         <v>1</v>
       </c>
@@ -8383,7 +8383,7 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="77"/>
+      <c r="A225" s="80"/>
       <c r="B225" s="27" t="s">
         <v>1151</v>
       </c>
@@ -8391,7 +8391,7 @@
       <c r="D225" s="5">
         <v>1</v>
       </c>
-      <c r="E225" s="77"/>
+      <c r="E225" s="80"/>
       <c r="F225" s="8">
         <v>1</v>
       </c>
@@ -8400,7 +8400,7 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="77"/>
+      <c r="A226" s="80"/>
       <c r="B226" s="27" t="s">
         <v>1148</v>
       </c>
@@ -8408,7 +8408,7 @@
       <c r="D226" s="5">
         <v>1</v>
       </c>
-      <c r="E226" s="77"/>
+      <c r="E226" s="80"/>
       <c r="F226" s="8">
         <v>1</v>
       </c>
@@ -8417,7 +8417,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="78"/>
+      <c r="A227" s="81"/>
       <c r="B227" s="28" t="s">
         <v>1150</v>
       </c>
@@ -8425,7 +8425,7 @@
       <c r="D227" s="5">
         <v>1</v>
       </c>
-      <c r="E227" s="78"/>
+      <c r="E227" s="81"/>
       <c r="F227" s="8">
         <v>1</v>
       </c>
@@ -8909,7 +8909,7 @@
       <c r="B257" s="27" t="s">
         <v>874</v>
       </c>
-      <c r="C257" s="68" t="s">
+      <c r="C257" s="65" t="s">
         <v>933</v>
       </c>
       <c r="E257" s="63"/>
@@ -8925,7 +8925,7 @@
       <c r="B258" s="27" t="s">
         <v>875</v>
       </c>
-      <c r="C258" s="68"/>
+      <c r="C258" s="65"/>
       <c r="E258" s="63"/>
       <c r="F258" s="8">
         <v>2</v>
@@ -8939,7 +8939,7 @@
       <c r="B259" s="27" t="s">
         <v>876</v>
       </c>
-      <c r="C259" s="68"/>
+      <c r="C259" s="65"/>
       <c r="E259" s="63"/>
       <c r="F259" s="8">
         <v>2</v>
@@ -8953,7 +8953,7 @@
       <c r="B260" s="27" t="s">
         <v>877</v>
       </c>
-      <c r="C260" s="68"/>
+      <c r="C260" s="65"/>
       <c r="D260" s="4"/>
       <c r="E260" s="63"/>
       <c r="F260" s="8">
@@ -8968,7 +8968,7 @@
       <c r="B261" s="4" t="s">
         <v>1154</v>
       </c>
-      <c r="C261" s="68"/>
+      <c r="C261" s="65"/>
       <c r="E261" s="63"/>
       <c r="F261" s="8">
         <v>2</v>
@@ -8982,7 +8982,7 @@
       <c r="B262" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="C262" s="68"/>
+      <c r="C262" s="65"/>
       <c r="D262" s="6"/>
       <c r="E262" s="64"/>
       <c r="F262" s="8">
@@ -13404,7 +13404,7 @@
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A544" s="65" t="s">
+      <c r="A544" s="66" t="s">
         <v>1075</v>
       </c>
       <c r="B544" s="21" t="s">
@@ -13421,7 +13421,7 @@
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A545" s="66"/>
+      <c r="A545" s="67"/>
       <c r="B545" s="21" t="s">
         <v>883</v>
       </c>
@@ -13434,7 +13434,7 @@
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A546" s="66"/>
+      <c r="A546" s="67"/>
       <c r="B546" s="21" t="s">
         <v>884</v>
       </c>
@@ -13447,7 +13447,7 @@
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A547" s="66"/>
+      <c r="A547" s="67"/>
       <c r="B547" s="21" t="s">
         <v>885</v>
       </c>
@@ -13460,7 +13460,7 @@
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A548" s="66"/>
+      <c r="A548" s="67"/>
       <c r="B548" s="21" t="s">
         <v>886</v>
       </c>
@@ -13473,7 +13473,7 @@
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A549" s="66"/>
+      <c r="A549" s="67"/>
       <c r="B549" s="21" t="s">
         <v>887</v>
       </c>
@@ -13486,7 +13486,7 @@
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A550" s="66"/>
+      <c r="A550" s="67"/>
       <c r="B550" s="21" t="s">
         <v>888</v>
       </c>
@@ -13499,7 +13499,7 @@
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A551" s="66"/>
+      <c r="A551" s="67"/>
       <c r="B551" s="21" t="s">
         <v>889</v>
       </c>
@@ -13512,7 +13512,7 @@
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A552" s="66"/>
+      <c r="A552" s="67"/>
       <c r="B552" s="21" t="s">
         <v>890</v>
       </c>
@@ -13525,7 +13525,7 @@
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A553" s="66"/>
+      <c r="A553" s="67"/>
       <c r="B553" s="21" t="s">
         <v>891</v>
       </c>
@@ -13538,7 +13538,7 @@
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A554" s="66"/>
+      <c r="A554" s="67"/>
       <c r="B554" s="21" t="s">
         <v>892</v>
       </c>
@@ -13551,7 +13551,7 @@
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A555" s="66"/>
+      <c r="A555" s="67"/>
       <c r="B555" s="21" t="s">
         <v>893</v>
       </c>
@@ -13564,7 +13564,7 @@
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A556" s="66"/>
+      <c r="A556" s="67"/>
       <c r="B556" s="21" t="s">
         <v>894</v>
       </c>
@@ -13577,7 +13577,7 @@
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A557" s="66"/>
+      <c r="A557" s="67"/>
       <c r="B557" s="21" t="s">
         <v>895</v>
       </c>
@@ -13590,7 +13590,7 @@
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A558" s="66"/>
+      <c r="A558" s="67"/>
       <c r="B558" s="21" t="s">
         <v>896</v>
       </c>
@@ -13603,7 +13603,7 @@
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A559" s="66"/>
+      <c r="A559" s="67"/>
       <c r="B559" s="21" t="s">
         <v>897</v>
       </c>
@@ -13616,7 +13616,7 @@
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A560" s="66"/>
+      <c r="A560" s="67"/>
       <c r="B560" s="21" t="s">
         <v>898</v>
       </c>
@@ -13629,7 +13629,7 @@
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A561" s="66"/>
+      <c r="A561" s="67"/>
       <c r="B561" s="21" t="s">
         <v>899</v>
       </c>
@@ -13642,7 +13642,7 @@
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A562" s="66"/>
+      <c r="A562" s="67"/>
       <c r="B562" s="21" t="s">
         <v>900</v>
       </c>
@@ -13655,7 +13655,7 @@
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A563" s="66"/>
+      <c r="A563" s="67"/>
       <c r="B563" s="21" t="s">
         <v>901</v>
       </c>
@@ -13668,7 +13668,7 @@
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A564" s="66"/>
+      <c r="A564" s="67"/>
       <c r="B564" s="21" t="s">
         <v>929</v>
       </c>
@@ -13681,7 +13681,7 @@
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A565" s="66"/>
+      <c r="A565" s="67"/>
       <c r="B565" s="21" t="s">
         <v>930</v>
       </c>
@@ -13694,7 +13694,7 @@
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A566" s="66"/>
+      <c r="A566" s="67"/>
       <c r="B566" s="21" t="s">
         <v>931</v>
       </c>
@@ -13707,7 +13707,7 @@
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A567" s="66"/>
+      <c r="A567" s="67"/>
       <c r="B567" s="21" t="s">
         <v>932</v>
       </c>
@@ -13720,7 +13720,7 @@
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A568" s="66"/>
+      <c r="A568" s="67"/>
       <c r="B568" s="21" t="s">
         <v>906</v>
       </c>
@@ -13733,7 +13733,7 @@
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A569" s="66"/>
+      <c r="A569" s="67"/>
       <c r="B569" s="21" t="s">
         <v>907</v>
       </c>
@@ -13746,7 +13746,7 @@
       </c>
     </row>
     <row r="570" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="66"/>
+      <c r="A570" s="67"/>
       <c r="B570" s="21" t="s">
         <v>908</v>
       </c>
@@ -13761,7 +13761,7 @@
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A571" s="66"/>
+      <c r="A571" s="67"/>
       <c r="B571" s="21" t="s">
         <v>902</v>
       </c>
@@ -13774,7 +13774,7 @@
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A572" s="66"/>
+      <c r="A572" s="67"/>
       <c r="B572" s="21" t="s">
         <v>903</v>
       </c>
@@ -13787,7 +13787,7 @@
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A573" s="66"/>
+      <c r="A573" s="67"/>
       <c r="B573" s="21" t="s">
         <v>904</v>
       </c>
@@ -13800,7 +13800,7 @@
       </c>
     </row>
     <row r="574" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="67"/>
+      <c r="A574" s="68"/>
       <c r="B574" s="22" t="s">
         <v>905</v>
       </c>
@@ -13823,7 +13823,7 @@
       </c>
       <c r="C575" s="5"/>
       <c r="D575" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E575" s="62" t="s">
         <v>12</v>
@@ -13842,7 +13842,7 @@
       </c>
       <c r="C576" s="4"/>
       <c r="D576" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E576" s="63"/>
       <c r="F576" s="8">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="C577" s="4"/>
       <c r="D577" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E577" s="63"/>
       <c r="F577" s="8">
@@ -13876,7 +13876,7 @@
       </c>
       <c r="C578" s="4"/>
       <c r="D578" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E578" s="63"/>
       <c r="F578" s="8">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="C579" s="4"/>
       <c r="D579" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E579" s="63"/>
       <c r="F579" s="8">
@@ -13910,7 +13910,7 @@
       </c>
       <c r="C580" s="4"/>
       <c r="D580" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E580" s="63"/>
       <c r="F580" s="8">
@@ -13927,7 +13927,7 @@
       </c>
       <c r="C581" s="4"/>
       <c r="D581" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E581" s="63"/>
       <c r="F581" s="8">
@@ -13944,7 +13944,7 @@
       </c>
       <c r="C582" s="4"/>
       <c r="D582" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E582" s="63"/>
       <c r="F582" s="8">
@@ -13961,7 +13961,7 @@
       </c>
       <c r="C583" s="4"/>
       <c r="D583" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E583" s="63"/>
       <c r="F583" s="8">
@@ -13978,7 +13978,7 @@
       </c>
       <c r="C584" s="4"/>
       <c r="D584" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E584" s="63"/>
       <c r="F584" s="8">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="C585" s="4"/>
       <c r="D585" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E585" s="63"/>
       <c r="F585" s="8">
@@ -14012,7 +14012,7 @@
       </c>
       <c r="C586" s="4"/>
       <c r="D586" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E586" s="63"/>
       <c r="F586" s="8">
@@ -14029,7 +14029,7 @@
       </c>
       <c r="C587" s="4"/>
       <c r="D587" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E587" s="63"/>
       <c r="F587" s="8">
@@ -14046,7 +14046,7 @@
       </c>
       <c r="C588" s="4"/>
       <c r="D588" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E588" s="63"/>
       <c r="F588" s="8">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="C589" s="4"/>
       <c r="D589" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E589" s="63"/>
       <c r="F589" s="8">
@@ -14080,7 +14080,7 @@
       </c>
       <c r="C590" s="4"/>
       <c r="D590" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E590" s="63"/>
       <c r="F590" s="8">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="C591" s="4"/>
       <c r="D591" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E591" s="63"/>
       <c r="F591" s="8">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="C592" s="4"/>
       <c r="D592" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E592" s="63"/>
       <c r="F592" s="8">
@@ -14131,7 +14131,7 @@
       </c>
       <c r="C593" s="4"/>
       <c r="D593" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E593" s="63"/>
       <c r="F593" s="8">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="C594" s="4"/>
       <c r="D594" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E594" s="63"/>
       <c r="F594" s="8">
@@ -14164,7 +14164,9 @@
         <v>541</v>
       </c>
       <c r="C595" s="4"/>
-      <c r="D595" s="4"/>
+      <c r="D595" s="8">
+        <v>1</v>
+      </c>
       <c r="E595" s="63"/>
       <c r="F595" s="8">
         <v>2</v>
@@ -14179,7 +14181,9 @@
         <v>542</v>
       </c>
       <c r="C596" s="4"/>
-      <c r="D596" s="4"/>
+      <c r="D596" s="8">
+        <v>1</v>
+      </c>
       <c r="E596" s="63"/>
       <c r="F596" s="8">
         <v>2</v>
@@ -14194,7 +14198,9 @@
         <v>137</v>
       </c>
       <c r="C597" s="4"/>
-      <c r="D597" s="4"/>
+      <c r="D597" s="8">
+        <v>1</v>
+      </c>
       <c r="E597" s="63"/>
       <c r="F597" s="8">
         <v>2</v>
@@ -14964,7 +14970,7 @@
       <c r="B648" s="27" t="s">
         <v>910</v>
       </c>
-      <c r="C648" s="68" t="s">
+      <c r="C648" s="65" t="s">
         <v>933</v>
       </c>
       <c r="E648" s="63"/>
@@ -14980,7 +14986,7 @@
       <c r="B649" s="27" t="s">
         <v>911</v>
       </c>
-      <c r="C649" s="68"/>
+      <c r="C649" s="65"/>
       <c r="E649" s="63"/>
       <c r="F649" s="8">
         <v>2</v>
@@ -14994,7 +15000,7 @@
       <c r="B650" s="27" t="s">
         <v>912</v>
       </c>
-      <c r="C650" s="68"/>
+      <c r="C650" s="65"/>
       <c r="E650" s="63"/>
       <c r="F650" s="8">
         <v>2</v>
@@ -15008,7 +15014,7 @@
       <c r="B651" s="27" t="s">
         <v>913</v>
       </c>
-      <c r="C651" s="68"/>
+      <c r="C651" s="65"/>
       <c r="D651" s="4"/>
       <c r="E651" s="63"/>
       <c r="F651" s="8">
@@ -19410,7 +19416,7 @@
       </c>
     </row>
     <row r="940" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A940" s="76" t="s">
+      <c r="A940" s="79" t="s">
         <v>864</v>
       </c>
       <c r="B940" s="19" t="s">
@@ -19418,7 +19424,7 @@
       </c>
       <c r="C940" s="5">
         <f>COUNTIF(D$2:D$1007, 1)</f>
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="D940" s="5"/>
       <c r="E940" s="40"/>
@@ -19426,13 +19432,13 @@
       <c r="G940" s="5"/>
     </row>
     <row r="941" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A941" s="77"/>
+      <c r="A941" s="80"/>
       <c r="B941" s="17" t="s">
         <v>860</v>
       </c>
       <c r="C941" s="4">
         <f>COUNTIF(D$2:D$1007, 2)</f>
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D941" s="4"/>
       <c r="E941" s="38"/>
@@ -19440,7 +19446,7 @@
       <c r="G941" s="4"/>
     </row>
     <row r="942" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A942" s="77"/>
+      <c r="A942" s="80"/>
       <c r="B942" s="7" t="s">
         <v>861</v>
       </c>
@@ -19454,7 +19460,7 @@
       <c r="G942" s="4"/>
     </row>
     <row r="943" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A943" s="77"/>
+      <c r="A943" s="80"/>
       <c r="B943" s="16" t="s">
         <v>862</v>
       </c>
@@ -19468,13 +19474,13 @@
       <c r="G943" s="4"/>
     </row>
     <row r="944" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A944" s="77"/>
+      <c r="A944" s="80"/>
       <c r="B944" s="26" t="s">
         <v>934</v>
       </c>
       <c r="C944" s="4">
         <f>COUNTIF(D$2:D$1007, 5)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D944" s="4"/>
       <c r="E944" s="38"/>
@@ -19482,7 +19488,7 @@
       <c r="G944" s="4"/>
     </row>
     <row r="945" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A945" s="77"/>
+      <c r="A945" s="80"/>
       <c r="B945" s="25"/>
       <c r="C945" s="25"/>
       <c r="D945" s="4"/>
@@ -19491,7 +19497,7 @@
       <c r="G945" s="4"/>
     </row>
     <row r="946" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A946" s="77"/>
+      <c r="A946" s="80"/>
       <c r="B946" s="4" t="s">
         <v>863</v>
       </c>
@@ -19505,7 +19511,7 @@
       <c r="G946" s="4"/>
     </row>
     <row r="947" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A947" s="77"/>
+      <c r="A947" s="80"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
@@ -19514,13 +19520,13 @@
       <c r="G947" s="4"/>
     </row>
     <row r="948" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A948" s="77"/>
+      <c r="A948" s="80"/>
       <c r="B948" s="4" t="s">
         <v>864</v>
       </c>
       <c r="C948" s="47">
         <f>C940/C946</f>
-        <v>0.16448801742919389</v>
+        <v>0.18954248366013071</v>
       </c>
       <c r="D948" s="4"/>
       <c r="E948" s="38"/>
@@ -19528,13 +19534,13 @@
       <c r="G948" s="4"/>
     </row>
     <row r="949" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A949" s="78"/>
+      <c r="A949" s="81"/>
       <c r="B949" s="6" t="s">
         <v>865</v>
       </c>
       <c r="C949" s="48">
         <f>(C940 + C941 + C944)/C946</f>
-        <v>0.36383442265795207</v>
+        <v>0.36710239651416121</v>
       </c>
       <c r="D949" s="6"/>
       <c r="E949" s="39"/>
@@ -19548,7 +19554,7 @@
       <c r="A951" s="34"/>
     </row>
     <row r="952" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A952" s="76" t="s">
+      <c r="A952" s="79" t="s">
         <v>872</v>
       </c>
       <c r="B952" s="19" t="s">
@@ -19564,7 +19570,7 @@
       <c r="G952" s="5"/>
     </row>
     <row r="953" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A953" s="77"/>
+      <c r="A953" s="80"/>
       <c r="B953" s="7" t="s">
         <v>867</v>
       </c>
@@ -19578,7 +19584,7 @@
       <c r="G953" s="4"/>
     </row>
     <row r="954" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A954" s="77"/>
+      <c r="A954" s="80"/>
       <c r="B954" s="18" t="s">
         <v>868</v>
       </c>
@@ -19592,7 +19598,7 @@
       <c r="G954" s="4"/>
     </row>
     <row r="955" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A955" s="77"/>
+      <c r="A955" s="80"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
@@ -19601,7 +19607,7 @@
       <c r="G955" s="4"/>
     </row>
     <row r="956" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A956" s="77"/>
+      <c r="A956" s="80"/>
       <c r="B956" s="4" t="s">
         <v>869</v>
       </c>
@@ -19615,7 +19621,7 @@
       <c r="G956" s="4"/>
     </row>
     <row r="957" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A957" s="77"/>
+      <c r="A957" s="80"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
@@ -19624,7 +19630,7 @@
       <c r="G957" s="4"/>
     </row>
     <row r="958" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A958" s="77"/>
+      <c r="A958" s="80"/>
       <c r="B958" s="4" t="s">
         <v>870</v>
       </c>
@@ -19638,7 +19644,7 @@
       <c r="G958" s="4"/>
     </row>
     <row r="959" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A959" s="78"/>
+      <c r="A959" s="81"/>
       <c r="B959" s="6" t="s">
         <v>871</v>
       </c>
@@ -19725,6 +19731,8 @@
     <mergeCell ref="E190:E200"/>
     <mergeCell ref="A222:A227"/>
     <mergeCell ref="E223:E227"/>
+    <mergeCell ref="A201:A221"/>
+    <mergeCell ref="E201:E221"/>
     <mergeCell ref="A914:A920"/>
     <mergeCell ref="E914:E920"/>
     <mergeCell ref="E922:E934"/>
@@ -19733,8 +19741,6 @@
     <mergeCell ref="E751:E885"/>
     <mergeCell ref="E886:E908"/>
     <mergeCell ref="A886:A908"/>
-    <mergeCell ref="A201:A221"/>
-    <mergeCell ref="E201:E221"/>
     <mergeCell ref="A653:A656"/>
     <mergeCell ref="E653:E656"/>
     <mergeCell ref="A544:A574"/>
